--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\times-ireland-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7F6441-EBE6-4590-9E9A-9FF434B97AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273E74D3-1E0E-4CD6-A8CB-52468C811899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="23" r:id="rId1"/>
@@ -982,9 +982,6 @@
     <t>RENOCE</t>
   </si>
   <si>
-    <t>~FI_T: EUR00</t>
-  </si>
-  <si>
     <t>Comm-OUT</t>
   </si>
   <si>
@@ -1109,9 +1106,6 @@
   </si>
   <si>
     <t>unit</t>
-  </si>
-  <si>
-    <t>~FI_T: EUR14</t>
   </si>
   <si>
     <t>*Source/Ratio</t>
@@ -1220,12 +1214,6 @@
   </si>
   <si>
     <t>191,47</t>
-  </si>
-  <si>
-    <t>~FI_T: EUR10</t>
-  </si>
-  <si>
-    <t>~FI_T: EUR11</t>
   </si>
   <si>
     <t>Imported Bioenergy delivery costs (€/GJ)</t>
@@ -2652,24 +2640,6 @@
     <t>*TechDesc</t>
   </si>
   <si>
-    <t>2019~EUR19</t>
-  </si>
-  <si>
-    <t>2025~EUR19</t>
-  </si>
-  <si>
-    <t>2030~EUR19</t>
-  </si>
-  <si>
-    <t>2035~EUR19</t>
-  </si>
-  <si>
-    <t>2040~EUR19</t>
-  </si>
-  <si>
-    <t>2018~EUR18</t>
-  </si>
-  <si>
     <t>Source: Table B.4 - Fossil fuel prices by scenario - WEO 2019, IEA</t>
   </si>
   <si>
@@ -2821,6 +2791,36 @@
   </si>
   <si>
     <t>Specify base year data and define sector structure</t>
+  </si>
+  <si>
+    <t>~FI_T: MEUR2010</t>
+  </si>
+  <si>
+    <t>~FI_T: MEUR2011</t>
+  </si>
+  <si>
+    <t>~FI_T: MEUR2000</t>
+  </si>
+  <si>
+    <t>~FI_T: MEUR2014</t>
+  </si>
+  <si>
+    <t>2018~MEUR2018</t>
+  </si>
+  <si>
+    <t>2019~MEUR2019</t>
+  </si>
+  <si>
+    <t>2025~MEUR2019</t>
+  </si>
+  <si>
+    <t>2030~MEUR2019</t>
+  </si>
+  <si>
+    <t>2035~MEUR2019</t>
+  </si>
+  <si>
+    <t>2040~MEUR2019</t>
   </si>
 </sst>
 </file>
@@ -6894,7 +6894,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA60190B-AA36-401D-944C-BD468E4A7EEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6938,7 +6938,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6F3527-CEC5-4AA0-A95A-ED3FB670258A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6987,7 +6987,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A4D426-4C52-4335-A9EC-3B7414DE7B69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7037,7 +7037,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B608A7F0-9CC0-433F-873A-AB7E0E36E55C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7087,7 +7087,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D71FE805-B4A9-43D7-AE69-A905F223C759}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7136,7 +7136,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA7CF0C0-5E33-4D32-9CF4-F23E91874ABC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
@@ -7266,7 +7266,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7642,21 +7642,21 @@
   <dimension ref="A1:Z99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="442" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="442" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="442" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="442" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="442" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="442" customWidth="1"/>
+    <col min="1" max="4" width="21.73046875" style="442" customWidth="1"/>
+    <col min="5" max="6" width="14.1328125" style="442" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" style="442" customWidth="1"/>
+    <col min="8" max="10" width="8.1328125" style="442" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" style="442" customWidth="1"/>
+    <col min="12" max="12" width="8.1328125" style="442" customWidth="1"/>
     <col min="13" max="13" width="10" style="442" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="442" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="442" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="442"/>
+    <col min="14" max="14" width="11.3984375" style="442" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" style="442" customWidth="1"/>
+    <col min="16" max="16384" width="8.86328125" style="442"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -8081,7 +8081,7 @@
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
       <c r="A16" s="513" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="B16" s="513"/>
       <c r="C16" s="513"/>
@@ -8167,10 +8167,10 @@
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1">
       <c r="A19" s="504" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="B19" s="512" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="C19" s="512"/>
       <c r="D19" s="512"/>
@@ -8199,10 +8199,10 @@
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1">
       <c r="A20" s="504" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="B20" s="512" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="C20" s="512"/>
       <c r="D20" s="512"/>
@@ -8231,10 +8231,10 @@
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1">
       <c r="A21" s="504" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B21" s="507" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="C21" s="507"/>
       <c r="D21" s="507"/>
@@ -8291,10 +8291,10 @@
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1">
       <c r="A23" s="504" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="B23" s="512" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="C23" s="512"/>
       <c r="D23" s="512"/>
@@ -8324,7 +8324,7 @@
     <row r="24" spans="1:26" ht="17.25" customHeight="1">
       <c r="A24" s="504"/>
       <c r="B24" s="507" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="C24" s="507"/>
       <c r="D24" s="507"/>
@@ -8354,7 +8354,7 @@
     <row r="25" spans="1:26" ht="17.25" customHeight="1">
       <c r="A25" s="504"/>
       <c r="B25" s="507" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="C25" s="507"/>
       <c r="D25" s="507"/>
@@ -8383,10 +8383,10 @@
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1">
       <c r="A26" s="504" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="B26" s="512" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="C26" s="512"/>
       <c r="D26" s="512"/>
@@ -8471,7 +8471,7 @@
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1">
       <c r="A29" s="504" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="B29" s="508">
         <v>1</v>
@@ -8503,10 +8503,10 @@
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1">
       <c r="A30" s="504" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="B30" s="514" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="C30" s="512"/>
       <c r="D30" s="512"/>
@@ -8535,10 +8535,10 @@
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1">
       <c r="A31" s="504" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="B31" s="512" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="C31" s="512"/>
       <c r="D31" s="512"/>
@@ -8568,7 +8568,7 @@
     <row r="32" spans="1:26" ht="17.25" customHeight="1">
       <c r="A32" s="510"/>
       <c r="B32" s="511" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="C32" s="510"/>
       <c r="D32" s="510"/>
@@ -10497,36 +10497,36 @@
   <dimension ref="B2:O35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="142"/>
-    <col min="2" max="2" width="12.5703125" style="215" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="142" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="142" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="142" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="142"/>
+    <col min="2" max="2" width="12.59765625" style="215" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" style="142" customWidth="1"/>
+    <col min="4" max="4" width="34.86328125" style="142" customWidth="1"/>
+    <col min="5" max="5" width="10.86328125" style="142" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="11" style="142" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="142" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="142" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" style="142" customWidth="1"/>
+    <col min="10" max="10" width="20.73046875" style="142" customWidth="1"/>
     <col min="11" max="11" width="17" style="142" customWidth="1"/>
     <col min="12" max="12" width="14" style="215" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="142" customWidth="1"/>
-    <col min="14" max="16" width="9.140625" style="142"/>
-    <col min="17" max="17" width="12.7109375" style="142" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.85546875" style="142" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="142"/>
+    <col min="13" max="13" width="10.59765625" style="142" customWidth="1"/>
+    <col min="14" max="16" width="9.1328125" style="142"/>
+    <col min="17" max="17" width="12.73046875" style="142" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.86328125" style="142" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.1328125" style="142"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18.75">
+    <row r="2" spans="2:15" ht="18">
       <c r="B2" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
       <c r="E2" s="13" t="s">
-        <v>38</v>
+        <v>611</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -10540,7 +10540,7 @@
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="16" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>2</v>
@@ -10549,52 +10549,52 @@
         <v>3</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="14.65" thickBot="1">
+      <c r="B4" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>593</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>594</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B4" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>10</v>
@@ -10776,27 +10776,27 @@
     </row>
     <row r="9" spans="2:15">
       <c r="B9" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="50"/>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="523" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G9" s="523"/>
       <c r="H9" s="523"/>
       <c r="I9" s="270" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J9" s="270" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="K9" s="270" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="L9" s="173" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M9" s="50"/>
     </row>
@@ -10846,14 +10846,14 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="2:15" ht="18.75">
+    <row r="13" spans="2:15" ht="18">
       <c r="B13" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -10866,9 +10866,9 @@
       <c r="N13" s="29"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="2:15" ht="25.5">
+    <row r="14" spans="2:15" ht="26.25">
       <c r="B14" s="16" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>2</v>
@@ -10877,16 +10877,16 @@
         <v>3</v>
       </c>
       <c r="E14" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>40</v>
-      </c>
       <c r="G14" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -10896,19 +10896,19 @@
       <c r="N14" s="20"/>
       <c r="O14" s="144"/>
     </row>
-    <row r="15" spans="2:15" ht="15.75" thickBot="1">
+    <row r="15" spans="2:15" ht="14.65" thickBot="1">
       <c r="B15" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>10</v>
@@ -11135,15 +11135,15 @@
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="64" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="494" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C29" s="492" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
     </row>
     <row r="30" spans="2:15">
@@ -11180,12 +11180,12 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="215" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="442" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -11208,35 +11208,35 @@
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="32"/>
-    <col min="2" max="2" width="12.85546875" style="32" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="69.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="32" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="32"/>
-    <col min="10" max="10" width="14.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="9.1328125" style="32"/>
+    <col min="2" max="2" width="12.86328125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="69.73046875" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.86328125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1328125" style="32" customWidth="1"/>
+    <col min="7" max="9" width="9.1328125" style="32"/>
+    <col min="10" max="10" width="14.1328125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.59765625" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1328125" style="32"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="18.75">
+    <row r="2" spans="2:18" ht="18">
       <c r="B2" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="138"/>
       <c r="G2" s="138"/>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" s="17" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>2</v>
@@ -11245,34 +11245,34 @@
         <v>3</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G3" s="124" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="13.5" thickBot="1">
       <c r="B4" s="9" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="2:18" ht="15">
+    <row r="5" spans="2:18" ht="14.25">
       <c r="B5" s="31" t="str">
         <f>Processes!C51</f>
         <v>IE,National</v>
@@ -11293,11 +11293,11 @@
         <v>10</v>
       </c>
       <c r="G5" s="524" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="R5" s="217"/>
     </row>
-    <row r="6" spans="2:18" ht="15">
+    <row r="6" spans="2:18" ht="14.25">
       <c r="B6" s="31" t="str">
         <f>Processes!C54</f>
         <v>IE,National</v>
@@ -11320,7 +11320,7 @@
       <c r="G6" s="525"/>
       <c r="R6" s="217"/>
     </row>
-    <row r="7" spans="2:18" ht="15">
+    <row r="7" spans="2:18" ht="14.25">
       <c r="B7" s="31" t="str">
         <f>Processes!C60</f>
         <v>IE,National</v>
@@ -11343,7 +11343,7 @@
       <c r="G7" s="525"/>
       <c r="R7" s="217"/>
     </row>
-    <row r="8" spans="2:18" ht="15">
+    <row r="8" spans="2:18" ht="14.25">
       <c r="B8" s="31" t="str">
         <f>Processes!C66</f>
         <v>IE,National</v>
@@ -11366,7 +11366,7 @@
       <c r="G8" s="525"/>
       <c r="R8" s="217"/>
     </row>
-    <row r="9" spans="2:18" ht="15">
+    <row r="9" spans="2:18" ht="14.25">
       <c r="B9" s="31" t="str">
         <f>Processes!C69</f>
         <v>IE,National</v>
@@ -11389,7 +11389,7 @@
       <c r="G9" s="525"/>
       <c r="R9" s="217"/>
     </row>
-    <row r="10" spans="2:18" ht="15">
+    <row r="10" spans="2:18" ht="14.25">
       <c r="B10" s="31" t="str">
         <f>Processes!C57</f>
         <v>IE,National</v>
@@ -11412,7 +11412,7 @@
       <c r="G10" s="525"/>
       <c r="R10" s="217"/>
     </row>
-    <row r="11" spans="2:18" ht="15">
+    <row r="11" spans="2:18" ht="14.25">
       <c r="B11" s="31" t="str">
         <f>Processes!C72</f>
         <v>IE,National</v>
@@ -11435,7 +11435,7 @@
       <c r="G11" s="525"/>
       <c r="R11" s="217"/>
     </row>
-    <row r="12" spans="2:18" ht="15">
+    <row r="12" spans="2:18" ht="14.25">
       <c r="B12" s="31" t="str">
         <f>Processes!C75</f>
         <v>IE,National</v>
@@ -11458,7 +11458,7 @@
       <c r="G12" s="525"/>
       <c r="R12" s="217"/>
     </row>
-    <row r="13" spans="2:18" ht="15">
+    <row r="13" spans="2:18" ht="14.25">
       <c r="B13" s="31" t="str">
         <f>Processes!C63</f>
         <v>IE,National</v>
@@ -11481,7 +11481,7 @@
       <c r="G13" s="525"/>
       <c r="R13" s="217"/>
     </row>
-    <row r="14" spans="2:18" ht="15">
+    <row r="14" spans="2:18" ht="14.25">
       <c r="B14" s="69" t="str">
         <f>Processes!C78</f>
         <v>IE,National</v>
@@ -11504,7 +11504,7 @@
       <c r="G14" s="525"/>
       <c r="R14" s="217"/>
     </row>
-    <row r="15" spans="2:18" ht="15">
+    <row r="15" spans="2:18" ht="14.25">
       <c r="B15" s="31" t="str">
         <f>Processes!C52</f>
         <v>IE,National</v>
@@ -11527,7 +11527,7 @@
       <c r="G15" s="525"/>
       <c r="R15" s="217"/>
     </row>
-    <row r="16" spans="2:18" ht="15">
+    <row r="16" spans="2:18" ht="14.25">
       <c r="B16" s="31" t="str">
         <f>Processes!C55</f>
         <v>IE,National</v>
@@ -11550,7 +11550,7 @@
       <c r="G16" s="525"/>
       <c r="R16" s="217"/>
     </row>
-    <row r="17" spans="2:18" ht="15">
+    <row r="17" spans="2:18" ht="14.25">
       <c r="B17" s="31" t="str">
         <f>Processes!C61</f>
         <v>IE,National</v>
@@ -11573,7 +11573,7 @@
       <c r="G17" s="525"/>
       <c r="R17" s="217"/>
     </row>
-    <row r="18" spans="2:18" ht="15">
+    <row r="18" spans="2:18" ht="14.25">
       <c r="B18" s="31" t="str">
         <f>Processes!C67</f>
         <v>IE,National</v>
@@ -11596,7 +11596,7 @@
       <c r="G18" s="525"/>
       <c r="R18" s="217"/>
     </row>
-    <row r="19" spans="2:18" ht="15">
+    <row r="19" spans="2:18" ht="14.25">
       <c r="B19" s="31" t="str">
         <f>Processes!C70</f>
         <v>IE,National</v>
@@ -11619,7 +11619,7 @@
       <c r="G19" s="525"/>
       <c r="R19" s="217"/>
     </row>
-    <row r="20" spans="2:18" ht="15">
+    <row r="20" spans="2:18" ht="14.25">
       <c r="B20" s="31" t="str">
         <f>Processes!C58</f>
         <v>IE,National</v>
@@ -11966,7 +11966,7 @@
       <c r="F36" s="74"/>
       <c r="G36" s="268"/>
     </row>
-    <row r="37" spans="2:7" ht="15">
+    <row r="37" spans="2:7" ht="14.25">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -11974,7 +11974,7 @@
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="2:7" ht="15">
+    <row r="38" spans="2:7" ht="14.25">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -11982,7 +11982,7 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="2:7" ht="15">
+    <row r="39" spans="2:7" ht="14.25">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -11990,7 +11990,7 @@
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="2:7" ht="15">
+    <row r="40" spans="2:7" ht="14.25">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -11998,7 +11998,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="2:7" ht="15">
+    <row r="41" spans="2:7" ht="14.25">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -12006,7 +12006,7 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="2:7" ht="15">
+    <row r="42" spans="2:7" ht="14.25">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -12029,24 +12029,24 @@
   <dimension ref="B1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="182"/>
-    <col min="2" max="2" width="9.7109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="182" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="182"/>
+    <col min="2" max="2" width="9.73046875" style="216" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" style="182" customWidth="1"/>
     <col min="4" max="4" width="17" style="182" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="182" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="182"/>
-    <col min="7" max="20" width="9.42578125" style="40" customWidth="1"/>
-    <col min="21" max="23" width="9.42578125" style="182" customWidth="1"/>
-    <col min="24" max="24" width="28.5703125" style="182" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="182"/>
-    <col min="26" max="26" width="13.5703125" style="182" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" style="182" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" style="182"/>
+    <col min="7" max="20" width="9.3984375" style="40" customWidth="1"/>
+    <col min="21" max="23" width="9.3984375" style="182" customWidth="1"/>
+    <col min="24" max="24" width="28.59765625" style="182" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.1328125" style="182"/>
+    <col min="26" max="26" width="13.59765625" style="182" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17" style="182" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="182"/>
+    <col min="28" max="16384" width="9.1328125" style="182"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26">
@@ -12054,15 +12054,15 @@
       <c r="S1" s="182"/>
       <c r="T1" s="182"/>
     </row>
-    <row r="2" spans="2:26" ht="18.75">
+    <row r="2" spans="2:26" ht="18">
       <c r="B2" s="153" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C2" s="154"/>
       <c r="D2" s="154"/>
       <c r="E2" s="155"/>
       <c r="F2" s="5" t="s">
-        <v>38</v>
+        <v>611</v>
       </c>
       <c r="G2" s="165"/>
       <c r="H2" s="166"/>
@@ -12079,9 +12079,9 @@
       <c r="S2" s="169"/>
       <c r="T2" s="182"/>
     </row>
-    <row r="3" spans="2:26" ht="25.5">
+    <row r="3" spans="2:26" ht="26.25">
       <c r="B3" s="151" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C3" s="151" t="s">
         <v>2</v>
@@ -12090,43 +12090,43 @@
         <v>3</v>
       </c>
       <c r="E3" s="151" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="150" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H3" s="150" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I3" s="150" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J3" s="150" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="K3" s="149" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L3" s="149" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M3" s="149" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="N3" s="149" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O3" s="149" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P3" s="149" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q3" s="152" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R3" s="182"/>
       <c r="S3" s="182"/>
@@ -12134,14 +12134,14 @@
     </row>
     <row r="4" spans="2:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="B4" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="195" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -12150,13 +12150,13 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="182"/>
@@ -12205,7 +12205,7 @@
       <c r="O5" s="32"/>
       <c r="P5" s="32"/>
       <c r="Q5" s="199" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R5" s="182"/>
       <c r="S5" s="182"/>
@@ -12238,7 +12238,7 @@
       <c r="O6" s="32"/>
       <c r="P6" s="197"/>
       <c r="Q6" s="158" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="R6" s="182"/>
       <c r="S6" s="182"/>
@@ -12272,7 +12272,7 @@
         <v>1.7</v>
       </c>
       <c r="Q7" s="158" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="R7" s="182"/>
       <c r="S7" s="182"/>
@@ -12307,7 +12307,7 @@
         <v>1.7</v>
       </c>
       <c r="Q8" s="158" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="R8" s="182"/>
       <c r="S8" s="182"/>
@@ -12315,12 +12315,12 @@
     </row>
     <row r="9" spans="2:26">
       <c r="C9" s="163" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D9" s="162"/>
       <c r="E9" s="161"/>
       <c r="F9" s="158" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G9" s="441">
         <f t="shared" si="0"/>
@@ -12338,7 +12338,7 @@
       <c r="O9" s="32"/>
       <c r="P9" s="198"/>
       <c r="Q9" s="158" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="R9" s="182"/>
       <c r="S9" s="182"/>
@@ -12373,7 +12373,7 @@
         <v>0.83603571428571199</v>
       </c>
       <c r="Q10" s="158" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="R10" s="182"/>
       <c r="S10" s="182"/>
@@ -12405,7 +12405,7 @@
         <v>1.3357142857142801</v>
       </c>
       <c r="Q11" s="158" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="R11" s="182"/>
       <c r="S11" s="182"/>
@@ -12440,7 +12440,7 @@
         <v>1.5785714285714201</v>
       </c>
       <c r="Q12" s="158" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="R12" s="182"/>
       <c r="S12" s="182"/>
@@ -12470,7 +12470,7 @@
       <c r="O13" s="32"/>
       <c r="P13" s="198"/>
       <c r="Q13" s="158" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="R13" s="182"/>
       <c r="S13" s="182"/>
@@ -12502,7 +12502,7 @@
         <v>1.21428571428571</v>
       </c>
       <c r="Q14" s="158" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="R14" s="182"/>
       <c r="S14" s="182"/>
@@ -12510,12 +12510,12 @@
     </row>
     <row r="15" spans="2:26">
       <c r="C15" s="163" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D15" s="162"/>
       <c r="E15" s="161"/>
       <c r="F15" s="158" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G15" s="441">
         <f t="shared" si="0"/>
@@ -12533,7 +12533,7 @@
       <c r="O15" s="32"/>
       <c r="P15" s="198"/>
       <c r="Q15" s="158" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="R15" s="182"/>
       <c r="S15" s="182"/>
@@ -12541,12 +12541,12 @@
     </row>
     <row r="16" spans="2:26">
       <c r="C16" s="163" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
       <c r="F16" s="158" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G16" s="441">
         <f t="shared" si="0"/>
@@ -12564,7 +12564,7 @@
       <c r="O16" s="32"/>
       <c r="P16" s="198"/>
       <c r="Q16" s="158" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="R16" s="182"/>
       <c r="S16" s="182"/>
@@ -12575,12 +12575,12 @@
     </row>
     <row r="17" spans="3:30">
       <c r="C17" s="163" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="158" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G17" s="441">
         <f t="shared" si="0"/>
@@ -12598,7 +12598,7 @@
       <c r="O17" s="139"/>
       <c r="P17" s="198"/>
       <c r="Q17" s="158" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="R17" s="182"/>
       <c r="S17" s="182"/>
@@ -12619,7 +12619,7 @@
     </row>
     <row r="22" spans="3:30">
       <c r="C22" s="182" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D22" s="439">
         <f>1/SUM(E24:E35)</f>
@@ -12669,7 +12669,7 @@
     </row>
     <row r="27" spans="3:30">
       <c r="C27" s="158" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D27" s="202">
         <f>('EB2018'!R$20-'EB2018'!R$25)/(SUM('EB2018'!$O$20:$Z$20)-SUM('EB2018'!$O$25:$Z$25))</f>
@@ -12752,7 +12752,7 @@
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="158" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D33" s="202">
         <f>('EB2018'!X$20-'EB2018'!X$25)/(SUM('EB2018'!$O$20:$Z$20)-SUM('EB2018'!$O$25:$Z$25))</f>
@@ -12765,7 +12765,7 @@
     </row>
     <row r="34" spans="3:5">
       <c r="C34" s="158" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D34" s="202">
         <f>('EB2018'!Y$20-'EB2018'!Y$25)/(SUM('EB2018'!$O$20:$Z$20)-SUM('EB2018'!$O$25:$Z$25))</f>
@@ -12778,7 +12778,7 @@
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="158" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D35" s="202">
         <f>('EB2018'!Z$20-'EB2018'!Z$25)/(SUM('EB2018'!$O$20:$Z$20)-SUM('EB2018'!$O$25:$Z$25))</f>
@@ -12802,33 +12802,33 @@
   <dimension ref="B2:T36"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="35"/>
-    <col min="2" max="2" width="13.42578125" style="216" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="35" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="10.140625" style="35" customWidth="1"/>
-    <col min="16" max="21" width="10.28515625" style="35" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="35"/>
+    <col min="1" max="1" width="9.1328125" style="35"/>
+    <col min="2" max="2" width="13.3984375" style="216" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="26.59765625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.86328125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="10.86328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="10.1328125" style="35" customWidth="1"/>
+    <col min="16" max="21" width="10.265625" style="35" customWidth="1"/>
+    <col min="22" max="22" width="9.1328125" style="35"/>
     <col min="23" max="23" width="12" style="35" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="35"/>
+    <col min="24" max="24" width="26.59765625" style="35" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1328125" style="35"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="18.75">
+    <row r="2" spans="2:20" ht="18">
       <c r="B2" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="F2" s="13" t="s">
-        <v>81</v>
+        <v>612</v>
       </c>
       <c r="G2" s="158"/>
       <c r="H2" s="14"/>
@@ -12837,9 +12837,9 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="2:20" ht="25.5">
+    <row r="3" spans="2:20" ht="26.25">
       <c r="B3" s="16" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>2</v>
@@ -12848,65 +12848,65 @@
         <v>3</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>42</v>
-      </c>
       <c r="I3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="L3" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="79" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="14.65" thickBot="1">
+      <c r="B4" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="79" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B4" s="21" t="s">
-        <v>531</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="22" t="s">
         <v>47</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>48</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
       <c r="G4" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L4" s="23" t="s">
         <v>10</v>
@@ -13028,24 +13028,24 @@
     </row>
     <row r="7" spans="2:20">
       <c r="B7" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="50"/>
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
       <c r="F7" s="50"/>
       <c r="G7" s="523" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H7" s="523"/>
       <c r="I7" s="523"/>
       <c r="J7" s="523"/>
       <c r="K7" s="523"/>
       <c r="L7" s="271" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M7" s="523" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="N7" s="523"/>
       <c r="O7" s="50"/>
@@ -13078,11 +13078,11 @@
     <row r="12" spans="2:20">
       <c r="C12"/>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
@@ -13100,7 +13100,7 @@
     <row r="13" spans="2:20">
       <c r="C13"/>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F13"/>
       <c r="G13" s="234">
@@ -13126,7 +13126,7 @@
     </row>
     <row r="14" spans="2:20">
       <c r="C14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E14">
         <v>1800</v>
@@ -13146,7 +13146,7 @@
     </row>
     <row r="15" spans="2:20">
       <c r="C15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E15">
         <v>0.47499999999999998</v>
@@ -13175,7 +13175,7 @@
         <v>10</v>
       </c>
       <c r="N15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O15"/>
       <c r="P15"/>
@@ -13197,7 +13197,7 @@
     </row>
     <row r="17" spans="3:20">
       <c r="C17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -13256,7 +13256,7 @@
       </c>
       <c r="L18"/>
       <c r="M18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N18"/>
       <c r="O18"/>
@@ -13264,7 +13264,7 @@
     </row>
     <row r="19" spans="3:20">
       <c r="C19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E19">
         <v>900</v>
@@ -13295,14 +13295,14 @@
         <v>10</v>
       </c>
       <c r="N19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O19"/>
       <c r="P19"/>
     </row>
     <row r="20" spans="3:20">
       <c r="C20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -13330,10 +13330,10 @@
       </c>
       <c r="L20"/>
       <c r="M20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O20"/>
       <c r="P20"/>
@@ -13381,14 +13381,14 @@
       </c>
       <c r="L22"/>
       <c r="M22" s="130" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O22"/>
       <c r="P22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="3:20">
@@ -13682,16 +13682,16 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="217"/>
-    <col min="2" max="2" width="18.85546875" style="217" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="217"/>
+    <col min="1" max="1" width="9.1328125" style="217"/>
+    <col min="2" max="2" width="18.86328125" style="217" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="217"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="227" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B1" s="227"/>
       <c r="C1" s="228"/>
@@ -13700,10 +13700,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.65" thickBot="1">
       <c r="B5" s="229" t="s">
         <v>16</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>SUPWAS</v>
       </c>
       <c r="F5" s="230" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -13738,7 +13738,7 @@
         <v>75.3</v>
       </c>
       <c r="F6" s="92" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -13802,18 +13802,18 @@
       <selection pane="topRight" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.3984375" customWidth="1"/>
     <col min="2" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="93" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="86" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C1" s="86"/>
       <c r="D1" s="86"/>
@@ -13823,10 +13823,10 @@
       <c r="H1" s="86"/>
       <c r="I1" s="86"/>
       <c r="J1" s="64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P1" s="527" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q1" s="527"/>
     </row>
@@ -13834,30 +13834,30 @@
       <c r="H2" s="86"/>
       <c r="I2" s="86"/>
       <c r="J2" s="53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K2" s="54">
         <v>41.868000000000002</v>
       </c>
       <c r="L2" s="53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P2" s="94" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q2" s="95">
         <v>2010</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1">
+    <row r="3" spans="1:22" ht="14.65" thickBot="1">
       <c r="A3" s="96" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" s="108"/>
       <c r="H3" s="86"/>
       <c r="I3" s="86"/>
       <c r="J3" s="53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K3" s="97">
         <v>4.1868000000000002E-2</v>
@@ -13874,7 +13874,7 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="100" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H4" s="86"/>
       <c r="I4" s="86"/>
@@ -13882,21 +13882,21 @@
       <c r="K4" s="101"/>
       <c r="L4" s="34"/>
       <c r="P4" s="86" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q4" s="86"/>
     </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1">
+    <row r="5" spans="1:22" ht="14.65" thickBot="1">
       <c r="A5" s="102" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H5" s="86"/>
       <c r="I5" s="103" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J5" s="86"/>
     </row>
-    <row r="6" spans="1:22" ht="15.75" thickBot="1">
+    <row r="6" spans="1:22" ht="14.65" thickBot="1">
       <c r="A6" s="104"/>
       <c r="B6" s="105" t="s">
         <v>18</v>
@@ -13936,15 +13936,15 @@
         <v>2030</v>
       </c>
       <c r="P6" s="102" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="14.65" thickBot="1">
+      <c r="A7" s="107" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A7" s="107" t="s">
-        <v>103</v>
-      </c>
       <c r="B7" s="108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" s="109">
         <v>9358</v>
@@ -13986,18 +13986,18 @@
         <v>19.683151632000001</v>
       </c>
       <c r="P7" s="110" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="111"/>
       <c r="R7" s="111"/>
       <c r="S7" s="111"/>
     </row>
-    <row r="8" spans="1:22" ht="15.75" thickBot="1">
+    <row r="8" spans="1:22" ht="14.65" thickBot="1">
       <c r="A8" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" s="108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C8" s="108">
         <v>288</v>
@@ -14016,7 +14016,7 @@
       </c>
       <c r="H8" s="86"/>
       <c r="I8" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J8" s="65">
         <f>C8/$K$2</f>
@@ -14039,18 +14039,18 @@
         <v>2.3406897869494601</v>
       </c>
       <c r="P8" s="112" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q8" s="111"/>
       <c r="R8" s="111"/>
       <c r="S8" s="111"/>
     </row>
-    <row r="9" spans="1:22" ht="15.75" thickBot="1">
+    <row r="9" spans="1:22" ht="14.65" thickBot="1">
       <c r="A9" s="107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B9" s="108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C9" s="109">
         <v>28075</v>
@@ -14092,18 +14092,18 @@
         <v>59.049413028000004</v>
       </c>
       <c r="P9" s="110" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q9" s="111"/>
       <c r="R9" s="111"/>
       <c r="S9" s="111"/>
     </row>
-    <row r="10" spans="1:22" ht="15.75" thickBot="1">
+    <row r="10" spans="1:22" ht="14.65" thickBot="1">
       <c r="A10" s="107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" s="108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" s="108">
         <v>590</v>
@@ -14122,7 +14122,7 @@
       </c>
       <c r="H10" s="86"/>
       <c r="I10" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" s="65">
         <f>C10/$K$2</f>
@@ -14145,18 +14145,18 @@
         <v>5.5412248017579051</v>
       </c>
       <c r="P10" s="112" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="111"/>
       <c r="R10" s="111"/>
       <c r="S10" s="111"/>
     </row>
-    <row r="11" spans="1:22" ht="15.75" thickBot="1">
+    <row r="11" spans="1:22" ht="14.65" thickBot="1">
       <c r="A11" s="107" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" s="108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C11" s="109">
         <v>535616</v>
@@ -14198,12 +14198,12 @@
         <v>5.4816516360000005</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" thickBot="1">
+    <row r="12" spans="1:22" ht="14.65" thickBot="1">
       <c r="A12" s="107" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B12" s="108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="108">
         <v>779</v>
@@ -14222,7 +14222,7 @@
       </c>
       <c r="H12" s="86"/>
       <c r="I12" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J12" s="65">
         <f>C12/$K$2</f>
@@ -14245,12 +14245,12 @@
         <v>13.781408235406515</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" thickBot="1">
+    <row r="13" spans="1:22" ht="14.65" thickBot="1">
       <c r="A13" s="107" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13" s="108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C13" s="109">
         <v>106129</v>
@@ -14292,12 +14292,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" thickBot="1">
+    <row r="14" spans="1:22" ht="14.65" thickBot="1">
       <c r="A14" s="107" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B14" s="108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C14" s="109">
         <v>1209</v>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="H14" s="86"/>
       <c r="I14" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J14" s="65">
         <f>C14/$K$2</f>
@@ -14345,9 +14345,9 @@
       <c r="I15" s="86"/>
       <c r="J15" s="86"/>
     </row>
-    <row r="16" spans="1:22" ht="15.75" thickBot="1">
+    <row r="16" spans="1:22" ht="14.65" thickBot="1">
       <c r="A16" s="114" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
@@ -14357,17 +14357,17 @@
       <c r="G16" s="55"/>
       <c r="H16" s="86"/>
       <c r="I16" s="103" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J16" s="86"/>
       <c r="P16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V16" s="103" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" thickBot="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="14.65" thickBot="1">
       <c r="A17" s="104"/>
       <c r="B17" s="105" t="s">
         <v>18</v>
@@ -14437,12 +14437,12 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15.75" thickBot="1">
+    <row r="18" spans="1:26" ht="14.65" thickBot="1">
       <c r="A18" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B18" s="108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C18" s="109">
         <v>7640</v>
@@ -14486,12 +14486,12 @@
       <c r="O18" s="86"/>
       <c r="P18" s="116"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" thickBot="1">
+    <row r="19" spans="1:26" ht="14.65" thickBot="1">
       <c r="A19" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" s="108">
         <v>288</v>
@@ -14510,7 +14510,7 @@
       </c>
       <c r="H19" s="86"/>
       <c r="I19" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J19" s="65">
         <f>C19/$K$2</f>
@@ -14573,12 +14573,12 @@
         <v>2.6576562288177672</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1">
+    <row r="20" spans="1:26" ht="14.65" thickBot="1">
       <c r="A20" s="107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B20" s="108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C20" s="109">
         <v>22921</v>
@@ -14620,12 +14620,12 @@
         <v>144.52992698400001</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1">
+    <row r="21" spans="1:26" ht="14.65" thickBot="1">
       <c r="A21" s="107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21" s="108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21" s="108">
         <v>590</v>
@@ -14644,7 +14644,7 @@
       </c>
       <c r="H21" s="86"/>
       <c r="I21" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J21" s="65">
         <f>C21/$K$2</f>
@@ -14707,12 +14707,12 @@
         <v>5.4463236801828891</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15.75" thickBot="1">
+    <row r="22" spans="1:26" ht="14.65" thickBot="1">
       <c r="A22" s="107" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B22" s="108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C22" s="109">
         <v>781304</v>
@@ -14755,12 +14755,12 @@
       </c>
       <c r="P22" s="116"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" thickBot="1">
+    <row r="23" spans="1:26" ht="14.65" thickBot="1">
       <c r="A23" s="107" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B23" s="108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C23" s="108">
         <v>779</v>
@@ -14779,7 +14779,7 @@
       </c>
       <c r="H23" s="86"/>
       <c r="I23" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J23" s="65">
         <f>C23/$K$2</f>
@@ -14842,12 +14842,12 @@
         <v>12.446066141998699</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15.75" thickBot="1">
+    <row r="24" spans="1:26" ht="14.65" thickBot="1">
       <c r="A24" s="107" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" s="108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C24" s="109">
         <v>101544</v>
@@ -14889,12 +14889,12 @@
         <v>3.8660492520000003</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15.75" thickBot="1">
+    <row r="25" spans="1:26" ht="14.65" thickBot="1">
       <c r="A25" s="107" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B25" s="108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C25" s="109">
         <v>1209</v>
@@ -14913,7 +14913,7 @@
       </c>
       <c r="H25" s="86"/>
       <c r="I25" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J25" s="65">
         <f>C25/$K$2</f>
@@ -14976,13 +14976,13 @@
         <v>24.555246283161342</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1">
+    <row r="26" spans="1:26" ht="14.65" thickBot="1">
       <c r="A26" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H26" s="86"/>
       <c r="I26" s="103" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J26" s="92"/>
       <c r="K26" s="82"/>
@@ -14990,10 +14990,10 @@
       <c r="M26" s="82"/>
       <c r="N26" s="82"/>
       <c r="P26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="15.75" thickBot="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="14.65" thickBot="1">
       <c r="A27" s="119"/>
       <c r="B27" s="105" t="s">
         <v>18</v>
@@ -15063,12 +15063,12 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15.75" thickBot="1">
+    <row r="28" spans="1:26" ht="14.65" thickBot="1">
       <c r="A28" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B28" s="108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C28" s="109">
         <v>6382</v>
@@ -15111,12 +15111,12 @@
       </c>
       <c r="P28" s="116"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" thickBot="1">
+    <row r="29" spans="1:26" ht="14.65" thickBot="1">
       <c r="A29" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B29" s="108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C29" s="108">
         <v>288</v>
@@ -15135,7 +15135,7 @@
       </c>
       <c r="H29" s="86"/>
       <c r="I29" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J29" s="65">
         <f>C29/$K$2</f>
@@ -15198,15 +15198,15 @@
         <v>3.425007675166559</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15.75" thickBot="1">
+    <row r="30" spans="1:26" ht="14.65" thickBot="1">
       <c r="A30" s="107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B30" s="108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C30" s="108" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D30" s="109">
         <v>87968</v>
@@ -15245,12 +15245,12 @@
         <v>236.79263826000002</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15.75" thickBot="1">
+    <row r="31" spans="1:26" ht="14.65" thickBot="1">
       <c r="A31" s="107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B31" s="108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C31" s="108">
         <v>590</v>
@@ -15269,7 +15269,7 @@
       </c>
       <c r="H31" s="86"/>
       <c r="I31" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J31" s="65">
         <f>C31/$K$2</f>
@@ -15332,12 +15332,12 @@
         <v>6.8687312392684552</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15.75" thickBot="1">
+    <row r="32" spans="1:26" ht="14.65" thickBot="1">
       <c r="A32" s="107" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B32" s="108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C32" s="109">
         <v>779549</v>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="P32" s="116"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" thickBot="1">
+    <row r="33" spans="1:26" ht="14.65" thickBot="1">
       <c r="A33" s="107" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B33" s="108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" s="108">
         <v>779</v>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="H33" s="86"/>
       <c r="I33" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J33" s="65">
         <f>C33/$K$2</f>
@@ -15467,12 +15467,12 @@
         <v>14.991427037204447</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="15.75" thickBot="1">
+    <row r="34" spans="1:26" ht="14.65" thickBot="1">
       <c r="A34" s="107" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B34" s="108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C34" s="109">
         <v>101448</v>
@@ -15514,12 +15514,12 @@
         <v>4.3794765360000003</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="15.75" thickBot="1">
+    <row r="35" spans="1:26" ht="14.65" thickBot="1">
       <c r="A35" s="107" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B35" s="108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C35" s="109">
         <v>1209</v>
@@ -15538,7 +15538,7 @@
       </c>
       <c r="H35" s="86"/>
       <c r="I35" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J35" s="65">
         <f>C35/$K$2</f>
@@ -15611,9 +15611,9 @@
       <c r="M36" s="82"/>
       <c r="N36" s="82"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" thickBot="1">
+    <row r="37" spans="1:26" ht="14.65" thickBot="1">
       <c r="A37" s="114" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
@@ -15623,7 +15623,7 @@
       <c r="G37" s="55"/>
       <c r="H37" s="86"/>
       <c r="I37" s="103" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J37" s="92"/>
       <c r="K37" s="82"/>
@@ -15631,13 +15631,13 @@
       <c r="M37" s="82"/>
       <c r="N37" s="82"/>
       <c r="P37" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V37" s="103" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" ht="15.75" thickBot="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="14.65" thickBot="1">
       <c r="A38" s="104"/>
       <c r="B38" s="105" t="s">
         <v>18</v>
@@ -15707,12 +15707,12 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="15.75" thickBot="1">
+    <row r="39" spans="1:26" ht="14.65" thickBot="1">
       <c r="A39" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B39" s="108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C39" s="109">
         <v>7640</v>
@@ -15755,12 +15755,12 @@
       </c>
       <c r="P39" s="116"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" thickBot="1">
+    <row r="40" spans="1:26" ht="14.65" thickBot="1">
       <c r="A40" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B40" s="108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C40" s="108">
         <v>288</v>
@@ -15779,7 +15779,7 @@
       </c>
       <c r="H40" s="86"/>
       <c r="I40" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J40" s="65">
         <f>C40/$K$2</f>
@@ -15842,12 +15842,12 @@
         <v>3.0319740075244952</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="15.75" thickBot="1">
+    <row r="41" spans="1:26" ht="14.65" thickBot="1">
       <c r="A41" s="107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B41" s="108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C41" s="109">
         <v>22921</v>
@@ -15889,12 +15889,12 @@
         <v>17.883748728000004</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="15.75" thickBot="1">
+    <row r="42" spans="1:26" ht="14.65" thickBot="1">
       <c r="A42" s="107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B42" s="108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C42" s="108">
         <v>590</v>
@@ -15913,7 +15913,7 @@
       </c>
       <c r="H42" s="86"/>
       <c r="I42" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J42" s="65">
         <f>C42/$K$2</f>
@@ -15976,12 +15976,12 @@
         <v>6.1949592375963451</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15.75" thickBot="1">
+    <row r="43" spans="1:26" ht="14.65" thickBot="1">
       <c r="A43" s="107" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B43" s="108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C43" s="109">
         <v>781304</v>
@@ -16024,12 +16024,12 @@
       </c>
       <c r="P43" s="116"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" thickBot="1">
+    <row r="44" spans="1:26" ht="14.65" thickBot="1">
       <c r="A44" s="107" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B44" s="108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C44" s="108">
         <v>779</v>
@@ -16048,7 +16048,7 @@
       </c>
       <c r="H44" s="86"/>
       <c r="I44" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J44" s="65">
         <f>C44/$K$2</f>
@@ -16111,12 +16111,12 @@
         <v>18.45386649024168</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="15.75" thickBot="1">
+    <row r="45" spans="1:26" ht="14.65" thickBot="1">
       <c r="A45" s="107" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B45" s="108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C45" s="109">
         <v>101544</v>
@@ -16158,12 +16158,12 @@
         <v>4.602800448</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="15.75" thickBot="1">
+    <row r="46" spans="1:26" ht="14.65" thickBot="1">
       <c r="A46" s="107" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B46" s="108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C46" s="109">
         <v>1209</v>
@@ -16182,7 +16182,7 @@
       </c>
       <c r="H46" s="86"/>
       <c r="I46" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J46" s="65">
         <f>C46/$K$2</f>
@@ -16255,13 +16255,13 @@
       <c r="M47" s="82"/>
       <c r="N47" s="82"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" thickBot="1">
+    <row r="48" spans="1:26" ht="14.65" thickBot="1">
       <c r="A48" s="102" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H48" s="86"/>
       <c r="I48" s="103" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J48" s="92"/>
       <c r="K48" s="82"/>
@@ -16269,13 +16269,13 @@
       <c r="M48" s="82"/>
       <c r="N48" s="82"/>
       <c r="P48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V48" s="103" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" ht="15.75" thickBot="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="14.65" thickBot="1">
       <c r="A49" s="104"/>
       <c r="B49" s="105" t="s">
         <v>18</v>
@@ -16345,12 +16345,12 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="15.75" thickBot="1">
+    <row r="50" spans="1:26" ht="14.65" thickBot="1">
       <c r="A50" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B50" s="108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C50" s="109">
         <v>6382</v>
@@ -16393,12 +16393,12 @@
       </c>
       <c r="P50" s="116"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" thickBot="1">
+    <row r="51" spans="1:26" ht="14.65" thickBot="1">
       <c r="A51" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B51" s="108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C51" s="108">
         <v>288</v>
@@ -16417,7 +16417,7 @@
       </c>
       <c r="H51" s="86"/>
       <c r="I51" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J51" s="65">
         <f>C51/$K$2</f>
@@ -16480,12 +16480,12 @@
         <v>3.949052565355978</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="15.75" thickBot="1">
+    <row r="52" spans="1:26" ht="14.65" thickBot="1">
       <c r="A52" s="107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B52" s="108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C52" s="109">
         <v>191470</v>
@@ -16527,12 +16527,12 @@
         <v>110.14646000400001</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="15.75" thickBot="1">
+    <row r="53" spans="1:26" ht="14.65" thickBot="1">
       <c r="A53" s="107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B53" s="108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C53" s="108">
         <v>590</v>
@@ -16551,7 +16551,7 @@
       </c>
       <c r="H53" s="86"/>
       <c r="I53" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J53" s="65">
         <f>C53/$K$2</f>
@@ -16614,12 +16614,12 @@
         <v>7.8793892417766198</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="15.75" thickBot="1">
+    <row r="54" spans="1:26" ht="14.65" thickBot="1">
       <c r="A54" s="107" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B54" s="108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C54" s="109">
         <v>779549</v>
@@ -16662,12 +16662,12 @@
       </c>
       <c r="P54" s="116"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" thickBot="1">
+    <row r="55" spans="1:26" ht="14.65" thickBot="1">
       <c r="A55" s="107" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B55" s="108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C55" s="108">
         <v>779</v>
@@ -16686,7 +16686,7 @@
       </c>
       <c r="H55" s="86"/>
       <c r="I55" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J55" s="65">
         <f>C55/$K$2</f>
@@ -16749,12 +16749,12 @@
         <v>22.533930278145014</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="15.75" thickBot="1">
+    <row r="56" spans="1:26" ht="14.65" thickBot="1">
       <c r="A56" s="107" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B56" s="108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C56" s="109">
         <v>101448</v>
@@ -16796,12 +16796,12 @@
         <v>5.1162277320000005</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="15.75" thickBot="1">
+    <row r="57" spans="1:26" ht="14.65" thickBot="1">
       <c r="A57" s="107" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B57" s="108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C57" s="109">
         <v>1209</v>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="H57" s="86"/>
       <c r="I57" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J57" s="65">
         <f>C57/$K$2</f>
@@ -16900,28 +16900,28 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="178"/>
-    <col min="2" max="2" width="9.140625" style="217"/>
-    <col min="3" max="16384" width="9.140625" style="178"/>
+    <col min="1" max="1" width="9.1328125" style="178"/>
+    <col min="2" max="2" width="9.1328125" style="217"/>
+    <col min="3" max="16384" width="9.1328125" style="178"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="93" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B1" s="93"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="178" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C2" s="178">
         <v>4.1868000000000002E-2</v>
@@ -16932,79 +16932,79 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="178" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B3" s="92" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C3" s="178">
         <v>1.0550999999999999</v>
       </c>
       <c r="D3" s="178" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="178" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C4" s="178">
         <v>7.33</v>
       </c>
       <c r="D4" s="178" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E4" s="472"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="178" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B5" s="92" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C5" s="178">
         <f>C2/C4*1000</f>
         <v>5.7118690313778995</v>
       </c>
       <c r="D5" s="178" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="93" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="178" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C10" s="178">
         <v>1.1194745098039223</v>
       </c>
       <c r="D10" s="178" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="217" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C11" s="217">
         <v>1.1809545098039216</v>
       </c>
       <c r="D11" s="217" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -17022,35 +17022,35 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="442" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="442" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="442" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="442" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="442" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1328125" style="442" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" style="442" customWidth="1"/>
+    <col min="3" max="3" width="3.1328125" style="442" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" style="442" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3984375" style="442" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="442" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="442" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="442" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="442" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" style="442" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="442" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.73046875" style="442" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.86328125" style="442" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.3984375" style="442" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.73046875" style="442" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.59765625" style="442" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" style="442" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="442" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="442" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="442" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="442" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.73046875" style="442" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.59765625" style="442" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.1328125" style="442" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.73046875" style="442" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" style="442" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" style="442" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" style="442" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="442" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="442" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.86328125" style="442" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.59765625" style="442" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.86328125" style="442" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.73046875" style="442" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5" style="442" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="442" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" style="442" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.59765625" style="442" customWidth="1"/>
+    <col min="25" max="25" width="6.73046875" style="442" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="6" style="442" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="442" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" style="442" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.73046875" style="442" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.73046875" style="442" bestFit="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="442"/>
   </cols>
   <sheetData>
@@ -17175,13 +17175,13 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="442" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C5" s="444" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D5" s="444" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E5" s="443" t="str">
         <f>A11</f>
@@ -17290,7 +17290,7 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="442" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C6" s="443" t="str">
         <f>C5</f>
@@ -17407,7 +17407,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="442" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C7" s="443" t="str">
         <f>"*"&amp;C5</f>
@@ -17522,225 +17522,225 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1">
+    <row r="10" spans="1:30" ht="14.65" thickBot="1">
       <c r="A10" s="445" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B10" s="445" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="446" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B11" s="446" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="447" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B12" s="447" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="447" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B13" s="447" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="447" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B14" s="447" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="447" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B15" s="447" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="447" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B16" s="447" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="447" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B17" s="447" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="447" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B18" s="447" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="447" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B19" s="447" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="447" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B20" s="447" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="447" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B21" s="447" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="447" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B22" s="447" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="447" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B23" s="447" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="447" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B24" s="447" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="447" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B25" s="447" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="447" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B26" s="447" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="447" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B27" s="447" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="447" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B28" s="447" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="447" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B29" s="447" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="447" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B30" s="447" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="447" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B31" s="447" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="447" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B32" s="447" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="447" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B33" s="447" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="447" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B34" s="447" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="447" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B35" s="447" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="447" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B36" s="447" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="448" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -17794,180 +17794,180 @@
       <selection pane="bottomRight" activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="38.140625" style="190" customWidth="1"/>
+    <col min="1" max="1" width="38.1328125" style="190" customWidth="1"/>
     <col min="2" max="2" width="13" style="186" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.5703125" style="191" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="191"/>
-    <col min="6" max="6" width="6.140625" style="192" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="192" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="191" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="192" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.59765625" style="191" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" style="191"/>
+    <col min="6" max="6" width="6.1328125" style="192" customWidth="1"/>
+    <col min="7" max="7" width="5.86328125" style="192" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.3984375" style="191" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1328125" style="192" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="192" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="192" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="188" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="187" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="187" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" style="187" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="187" customWidth="1"/>
-    <col min="17" max="17" width="7.42578125" style="187" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" style="187" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.28515625" style="187" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" style="187" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.42578125" style="187" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" style="187" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="5.42578125" style="187" customWidth="1"/>
-    <col min="26" max="26" width="5.42578125" style="192" customWidth="1"/>
-    <col min="27" max="27" width="8.140625" style="189" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.7109375" style="188" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="5.5703125" style="187" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" style="187" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.7109375" style="187" customWidth="1"/>
-    <col min="33" max="33" width="5.5703125" style="187" customWidth="1"/>
-    <col min="34" max="34" width="5.85546875" style="187" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.86328125" style="192" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.73046875" style="188" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1328125" style="187" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.1328125" style="187" customWidth="1"/>
+    <col min="15" max="15" width="5.265625" style="187" customWidth="1"/>
+    <col min="16" max="16" width="7.3984375" style="187" customWidth="1"/>
+    <col min="17" max="17" width="7.3984375" style="187" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1328125" style="187" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.265625" style="187" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.3984375" style="187" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.3984375" style="187" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.86328125" style="187" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="5.3984375" style="187" customWidth="1"/>
+    <col min="26" max="26" width="5.3984375" style="192" customWidth="1"/>
+    <col min="27" max="27" width="8.1328125" style="189" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.73046875" style="188" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="5.59765625" style="187" customWidth="1"/>
+    <col min="31" max="31" width="8.73046875" style="187" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.73046875" style="187" customWidth="1"/>
+    <col min="33" max="33" width="5.59765625" style="187" customWidth="1"/>
+    <col min="34" max="34" width="5.86328125" style="187" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="7" style="187" customWidth="1"/>
-    <col min="37" max="40" width="5.5703125" style="187" customWidth="1"/>
-    <col min="41" max="41" width="8.7109375" style="189" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.42578125" style="193" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.28515625" style="187" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.140625" style="186"/>
+    <col min="37" max="40" width="5.59765625" style="187" customWidth="1"/>
+    <col min="41" max="41" width="8.73046875" style="189" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.3984375" style="193" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.265625" style="187" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.1328125" style="186"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="108" thickBot="1">
+    <row r="1" spans="1:43" ht="99.75" thickBot="1">
       <c r="A1" s="290" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B1" s="289" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C1" s="291" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="294" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="287" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="286" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="286" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="294" t="s">
+      <c r="H1" s="288" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="287" t="s">
+      <c r="I1" s="294" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="286" t="s">
+      <c r="J1" s="287" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="286" t="s">
+      <c r="K1" s="287" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="288" t="s">
+      <c r="L1" s="288" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="294" t="s">
+      <c r="M1" s="294" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="287" t="s">
+      <c r="N1" s="435" t="s">
+        <v>455</v>
+      </c>
+      <c r="O1" s="287" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="287" t="s">
+      <c r="P1" s="287" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="288" t="s">
+      <c r="Q1" s="287" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="294" t="s">
+      <c r="R1" s="287" t="s">
         <v>177</v>
       </c>
-      <c r="N1" s="435" t="s">
+      <c r="S1" s="287" t="s">
+        <v>178</v>
+      </c>
+      <c r="T1" s="287" t="s">
+        <v>179</v>
+      </c>
+      <c r="U1" s="287" t="s">
+        <v>180</v>
+      </c>
+      <c r="V1" s="287" t="s">
+        <v>181</v>
+      </c>
+      <c r="W1" s="286" t="s">
+        <v>182</v>
+      </c>
+      <c r="X1" s="286" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y1" s="286" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z1" s="287" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA1" s="288" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB1" s="314" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC1" s="315" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD1" s="287" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE1" s="436" t="s">
+        <v>456</v>
+      </c>
+      <c r="AF1" s="433" t="s">
+        <v>457</v>
+      </c>
+      <c r="AG1" s="287" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH1" s="287" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI1" s="436" t="s">
+        <v>458</v>
+      </c>
+      <c r="AJ1" s="433" t="s">
         <v>459</v>
       </c>
-      <c r="O1" s="287" t="s">
-        <v>178</v>
-      </c>
-      <c r="P1" s="287" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q1" s="287" t="s">
-        <v>180</v>
-      </c>
-      <c r="R1" s="287" t="s">
-        <v>181</v>
-      </c>
-      <c r="S1" s="287" t="s">
-        <v>182</v>
-      </c>
-      <c r="T1" s="287" t="s">
-        <v>183</v>
-      </c>
-      <c r="U1" s="287" t="s">
-        <v>184</v>
-      </c>
-      <c r="V1" s="287" t="s">
-        <v>185</v>
-      </c>
-      <c r="W1" s="286" t="s">
-        <v>186</v>
-      </c>
-      <c r="X1" s="286" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y1" s="286" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z1" s="287" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA1" s="288" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB1" s="314" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC1" s="315" t="s">
+      <c r="AK1" s="436" t="s">
+        <v>460</v>
+      </c>
+      <c r="AL1" s="433" t="s">
+        <v>461</v>
+      </c>
+      <c r="AM1" s="434" t="s">
+        <v>462</v>
+      </c>
+      <c r="AN1" s="288" t="s">
         <v>192</v>
       </c>
-      <c r="AD1" s="287" t="s">
+      <c r="AO1" s="288" t="s">
         <v>193</v>
       </c>
-      <c r="AE1" s="436" t="s">
-        <v>460</v>
-      </c>
-      <c r="AF1" s="433" t="s">
-        <v>461</v>
-      </c>
-      <c r="AG1" s="287" t="s">
+      <c r="AP1" s="314" t="s">
         <v>194</v>
       </c>
-      <c r="AH1" s="287" t="s">
+      <c r="AQ1" s="316" t="s">
         <v>195</v>
-      </c>
-      <c r="AI1" s="436" t="s">
-        <v>462</v>
-      </c>
-      <c r="AJ1" s="433" t="s">
-        <v>463</v>
-      </c>
-      <c r="AK1" s="436" t="s">
-        <v>464</v>
-      </c>
-      <c r="AL1" s="433" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM1" s="434" t="s">
-        <v>466</v>
-      </c>
-      <c r="AN1" s="288" t="s">
-        <v>196</v>
-      </c>
-      <c r="AO1" s="288" t="s">
-        <v>197</v>
-      </c>
-      <c r="AP1" s="314" t="s">
-        <v>198</v>
-      </c>
-      <c r="AQ1" s="316" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:43">
       <c r="A2" s="317" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B2" s="318"/>
       <c r="C2" s="319">
@@ -18061,7 +18061,7 @@
     </row>
     <row r="3" spans="1:43">
       <c r="A3" s="331" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B3" s="332"/>
       <c r="C3" s="333">
@@ -18167,7 +18167,7 @@
     </row>
     <row r="4" spans="1:43">
       <c r="A4" s="331" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B4" s="332"/>
       <c r="C4" s="333">
@@ -18273,7 +18273,7 @@
     </row>
     <row r="5" spans="1:43">
       <c r="A5" s="331" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B5" s="332"/>
       <c r="C5" s="333">
@@ -18339,7 +18339,7 @@
     </row>
     <row r="6" spans="1:43" ht="13.5" thickBot="1">
       <c r="A6" s="342" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B6" s="343"/>
       <c r="C6" s="333">
@@ -18447,7 +18447,7 @@
     </row>
     <row r="7" spans="1:43">
       <c r="A7" s="352" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B7" s="353"/>
       <c r="C7" s="354">
@@ -18617,7 +18617,7 @@
     </row>
     <row r="8" spans="1:43" ht="13.5" thickBot="1">
       <c r="A8" s="359" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B8" s="360"/>
       <c r="C8" s="361">
@@ -18787,7 +18787,7 @@
     </row>
     <row r="9" spans="1:43">
       <c r="A9" s="352" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B9" s="353"/>
       <c r="C9" s="354">
@@ -18957,7 +18957,7 @@
     </row>
     <row r="10" spans="1:43">
       <c r="A10" s="371" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B10" s="372"/>
       <c r="C10" s="373">
@@ -19039,7 +19039,7 @@
     </row>
     <row r="11" spans="1:43">
       <c r="A11" s="331" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B11" s="332"/>
       <c r="C11" s="333">
@@ -19119,7 +19119,7 @@
     </row>
     <row r="12" spans="1:43">
       <c r="A12" s="331" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B12" s="332"/>
       <c r="C12" s="333"/>
@@ -19171,7 +19171,7 @@
     </row>
     <row r="13" spans="1:43">
       <c r="A13" s="331" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B13" s="332"/>
       <c r="C13" s="333">
@@ -19235,7 +19235,7 @@
     </row>
     <row r="14" spans="1:43">
       <c r="A14" s="381" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B14" s="382"/>
       <c r="C14" s="383">
@@ -19305,7 +19305,7 @@
     </row>
     <row r="15" spans="1:43">
       <c r="A15" s="390" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B15" s="391"/>
       <c r="C15" s="392">
@@ -19475,7 +19475,7 @@
     </row>
     <row r="16" spans="1:43">
       <c r="A16" s="371" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B16" s="372"/>
       <c r="C16" s="373">
@@ -19539,7 +19539,7 @@
     </row>
     <row r="17" spans="1:43">
       <c r="A17" s="331" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B17" s="332"/>
       <c r="C17" s="333">
@@ -19603,7 +19603,7 @@
     </row>
     <row r="18" spans="1:43">
       <c r="A18" s="331" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B18" s="332"/>
       <c r="C18" s="333"/>
@@ -19655,7 +19655,7 @@
     </row>
     <row r="19" spans="1:43">
       <c r="A19" s="331" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B19" s="332"/>
       <c r="C19" s="333"/>
@@ -19716,7 +19716,7 @@
     </row>
     <row r="20" spans="1:43">
       <c r="A20" s="381" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B20" s="382"/>
       <c r="C20" s="383"/>
@@ -19791,7 +19791,7 @@
     </row>
     <row r="21" spans="1:43">
       <c r="A21" s="400" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B21" s="401"/>
       <c r="C21" s="402">
@@ -19961,7 +19961,7 @@
     </row>
     <row r="22" spans="1:43">
       <c r="A22" s="371" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B22" s="372"/>
       <c r="C22" s="411"/>
@@ -20025,7 +20025,7 @@
     </row>
     <row r="23" spans="1:43">
       <c r="A23" s="414" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B23" s="391"/>
       <c r="C23" s="415"/>
@@ -20075,7 +20075,7 @@
     </row>
     <row r="24" spans="1:43" ht="13.5" thickBot="1">
       <c r="A24" s="342" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B24" s="343"/>
       <c r="C24" s="422">
@@ -20155,7 +20155,7 @@
     </row>
     <row r="25" spans="1:43" ht="13.5" thickBot="1">
       <c r="A25" s="390" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B25" s="391"/>
       <c r="C25" s="392">
@@ -20231,7 +20231,7 @@
     </row>
     <row r="26" spans="1:43" ht="13.5" thickBot="1">
       <c r="A26" s="424" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B26" s="425"/>
       <c r="C26" s="426">
@@ -20425,155 +20425,155 @@
       <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="85.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.86328125" customWidth="1"/>
+    <col min="6" max="6" width="85.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.59765625" customWidth="1"/>
+    <col min="8" max="8" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.73046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="18.75">
+    <row r="2" spans="2:18" ht="18">
       <c r="B2" s="233" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C2" s="234"/>
       <c r="E2" s="233" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F2" s="234"/>
       <c r="I2" s="233" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="J2" s="234"/>
       <c r="M2" s="233" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="N2" s="234"/>
       <c r="P2" s="233" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q2" s="234"/>
     </row>
-    <row r="3" spans="2:18" ht="15.75" thickBot="1">
+    <row r="3" spans="2:18" ht="14.65" thickBot="1">
       <c r="B3" s="235" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C3" s="235" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E3" s="235" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F3" s="235" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I3" s="235" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J3" s="235" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M3" s="235" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="N3" s="235" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P3" s="235" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q3" s="235" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="2:18">
       <c r="B4" s="236" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C4" s="236" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E4" s="236" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="236" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="I4" s="236" t="s">
+        <v>389</v>
+      </c>
+      <c r="J4" s="236" t="s">
+        <v>413</v>
+      </c>
+      <c r="M4" s="236" t="s">
         <v>393</v>
       </c>
-      <c r="J4" s="236" t="s">
-        <v>417</v>
-      </c>
-      <c r="M4" s="236" t="s">
-        <v>397</v>
-      </c>
       <c r="N4" s="236" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P4" s="236" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Q4" s="236" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="2:18">
       <c r="B5" s="236" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C5" s="236" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E5" s="236" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="236" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I5" s="236" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="J5" s="236"/>
       <c r="M5" s="236" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="N5" s="236" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="P5" s="236" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Q5" s="236" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="2:18" s="231" customFormat="1">
       <c r="B6" s="236"/>
       <c r="C6" s="236"/>
       <c r="E6" s="236" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" s="236" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I6" s="231" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="J6" s="231" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M6" s="236"/>
       <c r="N6" s="236"/>
@@ -20584,16 +20584,16 @@
       <c r="B7" s="236"/>
       <c r="C7" s="236"/>
       <c r="E7" s="236" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F7" s="236" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I7" s="236" t="s">
+        <v>418</v>
+      </c>
+      <c r="J7" s="236" t="s">
         <v>422</v>
-      </c>
-      <c r="J7" s="236" t="s">
-        <v>426</v>
       </c>
       <c r="P7" s="234"/>
       <c r="Q7" s="234"/>
@@ -20602,43 +20602,43 @@
       <c r="B8" s="234"/>
       <c r="C8" s="234"/>
       <c r="E8" s="236" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F8" s="236" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="I8" s="236" t="s">
+        <v>419</v>
+      </c>
+      <c r="J8" s="236" t="s">
         <v>423</v>
-      </c>
-      <c r="J8" s="236" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="9" spans="2:18" s="234" customFormat="1">
       <c r="E9" s="236"/>
       <c r="F9" s="236"/>
       <c r="I9" s="234" t="s">
+        <v>420</v>
+      </c>
+      <c r="J9" s="236" t="s">
         <v>424</v>
-      </c>
-      <c r="J9" s="236" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="10" spans="2:18" s="234" customFormat="1">
       <c r="I10" s="236" t="s">
+        <v>421</v>
+      </c>
+      <c r="J10" s="236" t="s">
         <v>425</v>
       </c>
-      <c r="J10" s="236" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="18.75">
+    </row>
+    <row r="11" spans="2:18" ht="18">
       <c r="B11" s="233" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C11" s="234"/>
       <c r="E11" s="233" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F11" s="234"/>
       <c r="G11" s="234"/>
@@ -20647,54 +20647,54 @@
       <c r="J11" s="234"/>
       <c r="K11" s="234"/>
       <c r="L11" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M11" s="233" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="N11" s="234"/>
     </row>
-    <row r="12" spans="2:18" ht="15.75" thickBot="1">
+    <row r="12" spans="2:18" ht="14.65" thickBot="1">
       <c r="B12" s="235" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C12" s="235" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E12" s="235" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F12" s="235" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G12" s="235" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H12" s="235" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I12" s="235" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="J12" s="235" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K12" s="235" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M12" s="235" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="N12" s="235" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="236" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C13" s="236" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="236" t="str">
         <f t="shared" ref="E13" si="0">I13&amp;H13&amp;J13</f>
@@ -20721,18 +20721,18 @@
         <v>13</v>
       </c>
       <c r="M13" s="236" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="N13" s="236" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="236" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C14" s="236" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E14" s="236" t="str">
         <f>I14&amp;H14&amp;J14</f>
@@ -20759,18 +20759,18 @@
         <v>13</v>
       </c>
       <c r="M14" s="236" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N14" s="236" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="236" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C15" s="236" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E15" s="236" t="str">
         <f t="shared" ref="E15:E16" si="4">I15&amp;H15&amp;J15</f>
@@ -20797,18 +20797,18 @@
         <v>13</v>
       </c>
       <c r="M15" s="236" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="N15" s="236" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="236" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C16" s="236" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E16" s="236" t="str">
         <f t="shared" si="4"/>
@@ -20835,10 +20835,10 @@
         <v>13</v>
       </c>
       <c r="M16" s="236" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="N16" s="215" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="O16" s="234"/>
       <c r="P16" s="234"/>
@@ -20847,10 +20847,10 @@
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="236" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C17" s="236" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E17" s="236" t="str">
         <f>I17&amp;H17&amp;J17</f>
@@ -20877,18 +20877,18 @@
         <v>13</v>
       </c>
       <c r="M17" s="236" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N17" s="250" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="236" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C18" s="236" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E18" s="236" t="str">
         <f>I18&amp;H18&amp;J18</f>
@@ -20915,18 +20915,18 @@
         <v>13</v>
       </c>
       <c r="M18" s="236" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="N18" s="250" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="236" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C19" s="236" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" s="236" t="str">
         <f>I19&amp;H19&amp;J19</f>
@@ -20953,18 +20953,18 @@
         <v>13</v>
       </c>
       <c r="M19" s="236" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="N19" s="250" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="236" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C20" s="236" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E20" s="236" t="str">
         <f>I20&amp;H20&amp;J20</f>
@@ -20991,18 +20991,18 @@
         <v>13</v>
       </c>
       <c r="M20" s="236" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="N20" s="215" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="236" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C21" s="236" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E21" s="236" t="str">
         <f t="shared" ref="E21:E22" si="7">I21&amp;H21&amp;J21</f>
@@ -21029,18 +21029,18 @@
         <v>13</v>
       </c>
       <c r="M21" s="236" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="N21" s="231" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="2:14">
       <c r="B22" s="236" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C22" s="234" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E22" s="236" t="str">
         <f t="shared" si="7"/>
@@ -21067,18 +21067,18 @@
         <v>13</v>
       </c>
       <c r="M22" s="236" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="N22" s="231" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="236" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C23" s="236" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E23" s="236" t="str">
         <f t="shared" ref="E23" si="8">I23&amp;H23&amp;J23</f>
@@ -21108,10 +21108,10 @@
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="236" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C24" s="236" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E24" s="236" t="str">
         <f>I24&amp;H24&amp;J24</f>
@@ -21140,10 +21140,10 @@
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="236" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C25" s="236" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E25" s="236" t="str">
         <f>I25&amp;H25&amp;J25</f>
@@ -21175,10 +21175,10 @@
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="236" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C26" s="236" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E26" s="236" t="str">
         <f>I26&amp;H26&amp;J26</f>
@@ -21210,10 +21210,10 @@
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="236" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C27" s="236" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E27" s="236" t="str">
         <f>I27&amp;H27&amp;J27</f>
@@ -21242,10 +21242,10 @@
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="236" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C28" s="236" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E28" s="236" t="str">
         <f>I28&amp;H28&amp;J28</f>
@@ -21277,10 +21277,10 @@
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="236" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C29" s="236" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E29" s="236" t="str">
         <f t="shared" ref="E29:E36" si="9">I29&amp;H29&amp;J29</f>
@@ -21312,10 +21312,10 @@
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="236" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C30" s="236" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E30" s="236" t="str">
         <f t="shared" si="9"/>
@@ -21347,10 +21347,10 @@
     </row>
     <row r="31" spans="2:14">
       <c r="B31" s="236" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C31" s="236" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E31" s="236" t="str">
         <f t="shared" si="9"/>
@@ -21382,10 +21382,10 @@
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="236" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C32" s="236" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E32" s="236" t="str">
         <f t="shared" si="9"/>
@@ -21417,10 +21417,10 @@
     </row>
     <row r="33" spans="2:20">
       <c r="B33" s="252" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C33" s="254" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E33" s="236" t="str">
         <f t="shared" si="9"/>
@@ -21452,10 +21452,10 @@
     </row>
     <row r="34" spans="2:20">
       <c r="B34" s="252" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C34" s="254" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E34" s="236" t="str">
         <f t="shared" si="9"/>
@@ -21487,10 +21487,10 @@
     </row>
     <row r="35" spans="2:20">
       <c r="B35" s="252" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C35" s="252" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E35" s="236" t="str">
         <f t="shared" si="9"/>
@@ -21522,10 +21522,10 @@
     </row>
     <row r="36" spans="2:20">
       <c r="B36" s="252" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C36" s="252" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E36" s="280" t="str">
         <f t="shared" si="9"/>
@@ -21557,10 +21557,10 @@
     </row>
     <row r="37" spans="2:20">
       <c r="B37" s="252" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C37" s="254" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E37" s="236" t="str">
         <f t="shared" ref="E37:E49" si="11">I37&amp;H37&amp;J37</f>
@@ -21592,10 +21592,10 @@
     </row>
     <row r="38" spans="2:20">
       <c r="B38" s="252" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C38" s="254" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E38" s="236" t="str">
         <f t="shared" si="11"/>
@@ -21627,10 +21627,10 @@
     </row>
     <row r="39" spans="2:20">
       <c r="B39" s="252" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C39" s="236" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E39" s="236" t="str">
         <f t="shared" si="11"/>
@@ -21662,10 +21662,10 @@
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="252" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C40" s="236" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E40" s="236" t="str">
         <f t="shared" si="11"/>
@@ -21697,10 +21697,10 @@
     </row>
     <row r="41" spans="2:20">
       <c r="B41" s="252" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C41" s="236" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E41" s="236" t="str">
         <f t="shared" si="11"/>
@@ -21732,10 +21732,10 @@
     </row>
     <row r="42" spans="2:20">
       <c r="B42" s="252" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C42" s="236" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E42" s="236" t="str">
         <f t="shared" si="11"/>
@@ -21767,10 +21767,10 @@
     </row>
     <row r="43" spans="2:20">
       <c r="B43" s="252" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C43" s="236" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E43" s="236" t="str">
         <f t="shared" si="11"/>
@@ -21802,10 +21802,10 @@
     </row>
     <row r="44" spans="2:20" s="231" customFormat="1">
       <c r="B44" s="252" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C44" s="236" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E44" s="236" t="str">
         <f t="shared" si="11"/>
@@ -21845,10 +21845,10 @@
     </row>
     <row r="45" spans="2:20">
       <c r="B45" s="253" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C45" s="236" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E45" s="236" t="str">
         <f t="shared" si="11"/>
@@ -21891,7 +21891,7 @@
         <v>24</v>
       </c>
       <c r="C46" s="236" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E46" s="236" t="str">
         <f t="shared" si="11"/>
@@ -21934,7 +21934,7 @@
         <v>26</v>
       </c>
       <c r="C47" s="236" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E47" s="236" t="str">
         <f t="shared" si="11"/>
@@ -21969,7 +21969,7 @@
         <v>25</v>
       </c>
       <c r="C48" s="236" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E48" s="236" t="str">
         <f t="shared" si="11"/>
@@ -22001,10 +22001,10 @@
     </row>
     <row r="49" spans="2:20">
       <c r="B49" s="252" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C49" s="236" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E49" s="236" t="str">
         <f t="shared" si="11"/>
@@ -22036,7 +22036,7 @@
         <v>12</v>
       </c>
       <c r="C50" s="236" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E50" s="236" t="str">
         <f t="shared" ref="E50:E55" si="16">I50&amp;H50&amp;J50</f>
@@ -22068,7 +22068,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="236" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E51" s="236" t="str">
         <f t="shared" si="16"/>
@@ -22097,10 +22097,10 @@
     </row>
     <row r="52" spans="2:20">
       <c r="B52" s="253" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C52" s="236" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E52" s="236" t="str">
         <f t="shared" si="16"/>
@@ -22132,7 +22132,7 @@
         <v>32</v>
       </c>
       <c r="C53" s="236" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E53" s="236" t="str">
         <f t="shared" si="16"/>
@@ -22164,7 +22164,7 @@
         <v>31</v>
       </c>
       <c r="C54" s="236" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E54" s="236" t="str">
         <f t="shared" si="16"/>
@@ -22196,7 +22196,7 @@
         <v>29</v>
       </c>
       <c r="C55" s="236" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E55" s="236" t="str">
         <f t="shared" si="16"/>
@@ -22231,7 +22231,7 @@
         <v>33</v>
       </c>
       <c r="C56" s="236" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E56" s="236" t="str">
         <f t="shared" ref="E56:E64" si="17">I56&amp;H56&amp;J56</f>
@@ -22266,7 +22266,7 @@
         <v>30</v>
       </c>
       <c r="C57" s="236" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E57" s="236" t="str">
         <f t="shared" si="17"/>
@@ -22298,10 +22298,10 @@
     </row>
     <row r="58" spans="2:20">
       <c r="B58" s="252" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="236" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E58" s="236" t="str">
         <f t="shared" si="17"/>
@@ -22341,10 +22341,10 @@
     </row>
     <row r="59" spans="2:20">
       <c r="B59" s="253" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C59" s="236" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E59" s="236" t="str">
         <f t="shared" si="17"/>
@@ -22376,10 +22376,10 @@
     </row>
     <row r="60" spans="2:20">
       <c r="B60" s="252" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C60" s="236" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E60" s="236" t="str">
         <f t="shared" si="17"/>
@@ -22414,7 +22414,7 @@
         <v>11</v>
       </c>
       <c r="C61" s="236" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E61" s="236" t="str">
         <f t="shared" si="17"/>
@@ -22449,7 +22449,7 @@
         <v>27</v>
       </c>
       <c r="C62" s="236" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E62" s="236" t="str">
         <f t="shared" si="17"/>
@@ -22481,10 +22481,10 @@
     </row>
     <row r="63" spans="2:20">
       <c r="B63" s="252" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C63" s="236" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E63" s="236" t="str">
         <f t="shared" si="17"/>
@@ -22519,7 +22519,7 @@
         <v>34</v>
       </c>
       <c r="C64" s="236" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E64" s="236" t="str">
         <f t="shared" si="17"/>
@@ -22554,7 +22554,7 @@
         <v>35</v>
       </c>
       <c r="C65" s="236" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E65" s="236" t="str">
         <f t="shared" ref="E65:E75" si="18">I65&amp;H65&amp;J65</f>
@@ -22589,7 +22589,7 @@
         <v>36</v>
       </c>
       <c r="C66" s="236" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E66" s="236" t="str">
         <f t="shared" si="18"/>
@@ -22621,10 +22621,10 @@
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="252" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C67" s="236" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E67" s="236" t="str">
         <f t="shared" si="18"/>
@@ -22659,7 +22659,7 @@
         <v>37</v>
       </c>
       <c r="C68" s="236" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E68" s="236" t="str">
         <f t="shared" si="18"/>
@@ -22691,10 +22691,10 @@
     </row>
     <row r="69" spans="2:11">
       <c r="B69" s="252" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="C69" s="236" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E69" s="236" t="str">
         <f t="shared" si="18"/>
@@ -22726,10 +22726,10 @@
     </row>
     <row r="70" spans="2:11">
       <c r="B70" s="252" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" s="236" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E70" s="236" t="str">
         <f t="shared" si="18"/>
@@ -22761,10 +22761,10 @@
     </row>
     <row r="71" spans="2:11">
       <c r="B71" s="252" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="236" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E71" s="236" t="str">
         <f t="shared" si="18"/>
@@ -22796,10 +22796,10 @@
     </row>
     <row r="72" spans="2:11">
       <c r="B72" s="252" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72" s="236" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E72" s="236" t="str">
         <f t="shared" si="18"/>
@@ -22831,10 +22831,10 @@
     </row>
     <row r="73" spans="2:11">
       <c r="B73" s="253" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73" s="236" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E73" s="236" t="str">
         <f t="shared" si="18"/>
@@ -22866,10 +22866,10 @@
     </row>
     <row r="74" spans="2:11">
       <c r="B74" s="252" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C74" s="236" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E74" s="236" t="str">
         <f t="shared" si="18"/>
@@ -22901,10 +22901,10 @@
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="252" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C75" s="236" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E75" s="236" t="str">
         <f t="shared" si="18"/>
@@ -22936,10 +22936,10 @@
     </row>
     <row r="76" spans="2:11">
       <c r="B76" s="279" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C76" s="280" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E76" s="236" t="str">
         <f t="shared" ref="E76:E84" si="19">I76&amp;H76&amp;J76</f>
@@ -22971,10 +22971,10 @@
     </row>
     <row r="77" spans="2:11">
       <c r="B77" s="252" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C77" s="236" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E77" s="236" t="str">
         <f t="shared" si="19"/>
@@ -23006,10 +23006,10 @@
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="252" t="s">
+        <v>426</v>
+      </c>
+      <c r="C78" s="236" t="s">
         <v>430</v>
-      </c>
-      <c r="C78" s="236" t="s">
-        <v>434</v>
       </c>
       <c r="E78" s="236" t="str">
         <f t="shared" si="19"/>
@@ -23041,10 +23041,10 @@
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="252" t="s">
+        <v>427</v>
+      </c>
+      <c r="C79" s="236" t="s">
         <v>431</v>
-      </c>
-      <c r="C79" s="236" t="s">
-        <v>435</v>
       </c>
       <c r="E79" s="236" t="str">
         <f t="shared" si="19"/>
@@ -23076,10 +23076,10 @@
     </row>
     <row r="80" spans="2:11">
       <c r="B80" s="252" t="s">
+        <v>428</v>
+      </c>
+      <c r="C80" s="236" t="s">
         <v>432</v>
-      </c>
-      <c r="C80" s="236" t="s">
-        <v>436</v>
       </c>
       <c r="E80" s="236" t="str">
         <f t="shared" si="19"/>
@@ -23111,10 +23111,10 @@
     </row>
     <row r="81" spans="2:12">
       <c r="B81" s="252" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C81" s="236" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E81" s="236" t="str">
         <f t="shared" si="19"/>
@@ -23146,10 +23146,10 @@
     </row>
     <row r="82" spans="2:12">
       <c r="B82" s="252" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C82" s="236" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E82" s="236" t="str">
         <f t="shared" si="19"/>
@@ -23181,10 +23181,10 @@
     </row>
     <row r="83" spans="2:12">
       <c r="B83" s="252" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C83" s="236" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E83" s="236" t="str">
         <f t="shared" si="19"/>
@@ -23216,10 +23216,10 @@
     </row>
     <row r="84" spans="2:12">
       <c r="B84" s="253" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C84" s="236" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E84" s="236" t="str">
         <f t="shared" si="19"/>
@@ -23252,10 +23252,10 @@
     </row>
     <row r="85" spans="2:12">
       <c r="B85" s="252" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C85" s="236" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E85" s="236" t="str">
         <f t="shared" ref="E85:E86" si="22">I85&amp;H85&amp;J85</f>
@@ -23285,10 +23285,10 @@
     </row>
     <row r="86" spans="2:12">
       <c r="B86" s="252" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C86" s="236" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E86" s="236" t="str">
         <f t="shared" si="22"/>
@@ -23317,10 +23317,10 @@
     </row>
     <row r="87" spans="2:12">
       <c r="B87" s="252" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E87" s="236" t="str">
         <f t="shared" ref="E87:E88" si="24">I87&amp;H87&amp;J87</f>
@@ -23352,10 +23352,10 @@
     </row>
     <row r="88" spans="2:12">
       <c r="B88" s="252" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C88" s="236" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E88" s="236" t="str">
         <f t="shared" si="24"/>
@@ -23382,15 +23382,15 @@
         <v>_UK</v>
       </c>
       <c r="K88" s="236" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="2:12">
       <c r="B89" s="252" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C89" s="236" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E89" s="236" t="str">
         <f>LEFT(B4,1)&amp;I89&amp;H89&amp;J89</f>
@@ -23417,15 +23417,15 @@
         <v>_Whitegate</v>
       </c>
       <c r="K89" s="236" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="2:12">
       <c r="B90" s="252" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C90" s="236" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E90" s="236" t="str">
         <f>I90&amp;$B$4&amp;H90&amp;J90</f>
@@ -23449,15 +23449,15 @@
       </c>
       <c r="J90" s="234"/>
       <c r="K90" s="236" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="2:12">
       <c r="B91" s="253" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C91" s="236" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E91" s="236" t="str">
         <f t="shared" ref="E91:E94" si="27">I91&amp;$B$4&amp;H91&amp;J91</f>
@@ -23481,15 +23481,15 @@
       </c>
       <c r="J91" s="234"/>
       <c r="K91" s="236" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="2:12">
       <c r="B92" s="252" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C92" s="236" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E92" s="236" t="str">
         <f t="shared" si="27"/>
@@ -23513,7 +23513,7 @@
       </c>
       <c r="J92" s="234"/>
       <c r="K92" s="236" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="2:12">
@@ -23539,7 +23539,7 @@
       </c>
       <c r="J93" s="234"/>
       <c r="K93" s="236" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94" spans="2:12">
@@ -23565,7 +23565,7 @@
       </c>
       <c r="J94" s="234"/>
       <c r="K94" s="236" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -23583,13 +23583,13 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="142"/>
+    <col min="1" max="1" width="9.1328125" style="142"/>
     <col min="2" max="2" width="19" style="142" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="142" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" style="142" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="142"/>
+    <col min="3" max="3" width="18.265625" style="142" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.86328125" style="142" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="142"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
@@ -23604,7 +23604,7 @@
       <c r="H2" s="239"/>
       <c r="I2" s="239"/>
     </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1">
+    <row r="3" spans="2:10" ht="14.65" thickBot="1">
       <c r="B3" s="235" t="s">
         <v>15</v>
       </c>
@@ -23632,13 +23632,13 @@
     </row>
     <row r="4" spans="2:10" ht="28.5" customHeight="1">
       <c r="B4" s="240" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C4" s="240" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D4" s="241" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E4" s="241"/>
       <c r="F4" s="241"/>
@@ -23648,7 +23648,7 @@
     </row>
     <row r="5" spans="2:10" ht="28.5" customHeight="1">
       <c r="B5" s="246" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C5" s="246"/>
       <c r="D5" s="247"/>
@@ -23977,7 +23977,7 @@
       </c>
       <c r="F21" s="243"/>
       <c r="G21" s="243" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H21" s="243"/>
       <c r="I21" s="243"/>
@@ -23999,7 +23999,7 @@
       </c>
       <c r="F22" s="243"/>
       <c r="G22" s="243" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H22" s="243"/>
       <c r="I22" s="243"/>
@@ -24273,7 +24273,7 @@
         <v>BIOJKR</v>
       </c>
       <c r="D36" s="282" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E36" s="243" t="s">
         <v>10</v>
@@ -24660,7 +24660,7 @@
       </c>
       <c r="F55" s="243"/>
       <c r="G55" s="243" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H55" s="243"/>
       <c r="I55" s="243"/>
@@ -24702,11 +24702,11 @@
       </c>
       <c r="F57" s="243"/>
       <c r="G57" s="243" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H57" s="243"/>
       <c r="I57" s="243" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="2:12">
@@ -24726,7 +24726,7 @@
       </c>
       <c r="F58" s="243"/>
       <c r="G58" s="243" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H58" s="243"/>
       <c r="I58" s="243"/>
@@ -24748,7 +24748,7 @@
       </c>
       <c r="F59" s="243"/>
       <c r="G59" s="243" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H59" s="243"/>
       <c r="I59" s="243"/>
@@ -24770,7 +24770,7 @@
       </c>
       <c r="F60" s="243"/>
       <c r="G60" s="243" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H60" s="243"/>
       <c r="I60" s="243"/>
@@ -24792,14 +24792,14 @@
       </c>
       <c r="F61" s="243"/>
       <c r="G61" s="243" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H61" s="243"/>
       <c r="I61" s="243"/>
     </row>
     <row r="62" spans="2:12">
       <c r="B62" s="258" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C62" s="258"/>
       <c r="D62" s="258"/>
@@ -24814,7 +24814,7 @@
     </row>
     <row r="63" spans="2:12">
       <c r="B63" s="251" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C63" s="248" t="str">
         <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M13</f>
@@ -24825,7 +24825,7 @@
         <v>Methane - eNergy Emissions (SUP)</v>
       </c>
       <c r="E63" s="243" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F63" s="243"/>
       <c r="G63" s="243"/>
@@ -24837,7 +24837,7 @@
     </row>
     <row r="64" spans="2:12">
       <c r="B64" s="251" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C64" s="248" t="str">
         <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M14</f>
@@ -24848,7 +24848,7 @@
         <v>Methane Emissions - Process Emissions (SUP)</v>
       </c>
       <c r="E64" s="243" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F64" s="243"/>
       <c r="G64" s="243"/>
@@ -24860,7 +24860,7 @@
     </row>
     <row r="65" spans="2:12">
       <c r="B65" s="251" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C65" s="248" t="str">
         <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M15</f>
@@ -24871,7 +24871,7 @@
         <v>N2O Emissions - eNergy Emissions (SUP)</v>
       </c>
       <c r="E65" s="243" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F65" s="243"/>
       <c r="G65" s="243"/>
@@ -24883,7 +24883,7 @@
     </row>
     <row r="66" spans="2:12">
       <c r="B66" s="251" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C66" s="248" t="str">
         <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M16</f>
@@ -24894,7 +24894,7 @@
         <v>Sulfur dioxide - eNergy Emissions (SUP)</v>
       </c>
       <c r="E66" s="243" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F66" s="243"/>
       <c r="G66" s="243"/>
@@ -24906,7 +24906,7 @@
     </row>
     <row r="67" spans="2:12">
       <c r="B67" s="251" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C67" s="248" t="str">
         <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M17</f>
@@ -24917,7 +24917,7 @@
         <v>Carbon Dioxide - eNergy Emissions (SUP)</v>
       </c>
       <c r="E67" s="243" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F67" s="243"/>
       <c r="G67" s="243"/>
@@ -24926,7 +24926,7 @@
     </row>
     <row r="68" spans="2:12">
       <c r="B68" s="251" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C68" s="248" t="str">
         <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M18</f>
@@ -24937,7 +24937,7 @@
         <v>Carbon Dioxide - Process Emissions (SUP)</v>
       </c>
       <c r="E68" s="243" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F68" s="243"/>
       <c r="G68" s="243"/>
@@ -24946,7 +24946,7 @@
     </row>
     <row r="69" spans="2:12">
       <c r="B69" s="251" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C69" s="248" t="str">
         <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M19</f>
@@ -24957,7 +24957,7 @@
         <v>Carbon Dioxide - Sequestered (SUP)</v>
       </c>
       <c r="E69" s="243" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F69" s="243"/>
       <c r="G69" s="243"/>
@@ -24966,7 +24966,7 @@
     </row>
     <row r="70" spans="2:12">
       <c r="B70" s="251" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C70" s="248" t="str">
         <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M20</f>
@@ -24977,7 +24977,7 @@
         <v>Nitrogen Oxide  - eNergy Emissions (SUP)</v>
       </c>
       <c r="E70" s="243" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F70" s="243"/>
       <c r="G70" s="243"/>
@@ -24986,7 +24986,7 @@
     </row>
     <row r="71" spans="2:12">
       <c r="B71" s="251" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C71" s="248" t="str">
         <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M21</f>
@@ -24997,7 +24997,7 @@
         <v>Particulate Matter &lt;10 µm (SUP)</v>
       </c>
       <c r="E71" s="243" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F71" s="243"/>
       <c r="G71" s="243"/>
@@ -25006,7 +25006,7 @@
     </row>
     <row r="72" spans="2:12">
       <c r="B72" s="251" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C72" s="248" t="str">
         <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M22</f>
@@ -25017,7 +25017,7 @@
         <v>Particulate Matter &lt;2.5 µm (SUP)</v>
       </c>
       <c r="E72" s="243" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F72" s="243"/>
       <c r="G72" s="243"/>
@@ -25279,25 +25279,25 @@
       <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="234" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" style="234" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.140625" customWidth="1"/>
+    <col min="5" max="5" width="58.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" customWidth="1"/>
+    <col min="8" max="8" width="30.3984375" customWidth="1"/>
+    <col min="9" max="9" width="25.3984375" customWidth="1"/>
+    <col min="10" max="10" width="17.3984375" customWidth="1"/>
+    <col min="14" max="14" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="26.25">
+    <row r="1" spans="2:21" ht="25.5">
       <c r="B1" s="244" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C1" s="244"/>
       <c r="D1" s="245"/>
@@ -25321,12 +25321,12 @@
       <c r="I3" s="239"/>
       <c r="J3" s="239"/>
     </row>
-    <row r="4" spans="2:21" ht="15.75" thickBot="1">
+    <row r="4" spans="2:21" ht="14.65" thickBot="1">
       <c r="B4" s="235" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="235" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D4" s="235" t="s">
         <v>2</v>
@@ -25352,29 +25352,29 @@
     </row>
     <row r="5" spans="2:21" s="231" customFormat="1">
       <c r="B5" s="241" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C5" s="240"/>
       <c r="D5" s="240" t="s">
+        <v>362</v>
+      </c>
+      <c r="E5" s="240" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="240" t="s">
+        <v>363</v>
+      </c>
+      <c r="G5" s="240" t="s">
+        <v>364</v>
+      </c>
+      <c r="H5" s="240" t="s">
+        <v>365</v>
+      </c>
+      <c r="I5" s="242" t="s">
         <v>366</v>
       </c>
-      <c r="E5" s="240" t="s">
-        <v>295</v>
-      </c>
-      <c r="F5" s="240" t="s">
-        <v>367</v>
-      </c>
-      <c r="G5" s="240" t="s">
-        <v>368</v>
-      </c>
-      <c r="H5" s="240" t="s">
-        <v>369</v>
-      </c>
-      <c r="I5" s="242" t="s">
-        <v>370</v>
-      </c>
       <c r="J5" s="242" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
@@ -25389,7 +25389,7 @@
     </row>
     <row r="6" spans="2:21" s="231" customFormat="1">
       <c r="B6" s="247" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C6" s="246"/>
       <c r="D6" s="246"/>
@@ -25431,7 +25431,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H7" s="236"/>
       <c r="I7" s="260"/>
@@ -25458,7 +25458,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H8" s="261"/>
       <c r="I8" s="260"/>
@@ -25485,7 +25485,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H9" s="261"/>
       <c r="I9" s="260"/>
@@ -25512,7 +25512,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H10" s="261"/>
       <c r="I10" s="260"/>
@@ -25539,7 +25539,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H11" s="261"/>
       <c r="I11" s="260"/>
@@ -25566,7 +25566,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H12" s="261"/>
       <c r="I12" s="260"/>
@@ -25593,7 +25593,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H13" s="261"/>
       <c r="I13" s="260"/>
@@ -25620,7 +25620,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H14" s="261"/>
       <c r="I14" s="260"/>
@@ -25647,7 +25647,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H15" s="261"/>
       <c r="I15" s="260"/>
@@ -25674,7 +25674,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H16" s="261"/>
       <c r="I16" s="260"/>
@@ -25701,7 +25701,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H17" s="236"/>
       <c r="I17" s="236"/>
@@ -25728,7 +25728,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H18" s="260"/>
       <c r="I18" s="260"/>
@@ -25755,7 +25755,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H19" s="261"/>
       <c r="I19" s="260"/>
@@ -25782,7 +25782,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H20" s="261"/>
       <c r="I20" s="260"/>
@@ -25809,7 +25809,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H21" s="260"/>
       <c r="I21" s="260"/>
@@ -25818,7 +25818,7 @@
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="246" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C22" s="246"/>
       <c r="D22" s="246"/>
@@ -25850,7 +25850,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H23" s="264"/>
       <c r="I23" s="265"/>
@@ -25877,7 +25877,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H24" s="264"/>
       <c r="I24" s="265"/>
@@ -25904,7 +25904,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H25" s="264"/>
       <c r="I25" s="265"/>
@@ -25931,7 +25931,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H26" s="255"/>
       <c r="I26" s="265"/>
@@ -25958,7 +25958,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H27" s="255"/>
       <c r="I27" s="265"/>
@@ -25985,7 +25985,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H28" s="255"/>
       <c r="I28" s="265"/>
@@ -26012,7 +26012,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H29" s="255"/>
       <c r="I29" s="265"/>
@@ -26039,7 +26039,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H30" s="255"/>
       <c r="I30" s="265"/>
@@ -26066,7 +26066,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="280" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H31" s="255"/>
       <c r="I31" s="265"/>
@@ -26093,7 +26093,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H32" s="255"/>
       <c r="I32" s="265"/>
@@ -26120,7 +26120,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H33" s="255"/>
       <c r="I33" s="265"/>
@@ -26147,7 +26147,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H34" s="255"/>
       <c r="I34" s="265"/>
@@ -26186,7 +26186,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H35" s="256"/>
       <c r="I35" s="265"/>
@@ -26225,7 +26225,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H36" s="256"/>
       <c r="I36" s="265"/>
@@ -26264,7 +26264,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H37" s="256"/>
       <c r="I37" s="265"/>
@@ -26303,7 +26303,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H38" s="256"/>
       <c r="I38" s="265"/>
@@ -26331,7 +26331,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H39" s="256"/>
       <c r="I39" s="267"/>
@@ -26352,7 +26352,7 @@
     </row>
     <row r="40" spans="2:23" s="234" customFormat="1">
       <c r="B40" s="246" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C40" s="246"/>
       <c r="D40" s="246"/>
@@ -26396,7 +26396,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H41" s="255"/>
       <c r="I41" s="265"/>
@@ -26435,7 +26435,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H42" s="255"/>
       <c r="I42" s="265"/>
@@ -26474,7 +26474,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H43" s="255"/>
       <c r="I43" s="265"/>
@@ -26513,7 +26513,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H44" s="255"/>
       <c r="I44" s="265"/>
@@ -26552,7 +26552,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H45" s="255"/>
       <c r="I45" s="265"/>
@@ -26591,7 +26591,7 @@
         <v>10</v>
       </c>
       <c r="G46" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H46" s="256"/>
       <c r="I46" s="265"/>
@@ -26618,7 +26618,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H47" s="256"/>
       <c r="I47" s="265"/>
@@ -26645,7 +26645,7 @@
         <v>10</v>
       </c>
       <c r="G48" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H48" s="256"/>
       <c r="I48" s="265"/>
@@ -26680,7 +26680,7 @@
         <v>10</v>
       </c>
       <c r="G49" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H49" s="256"/>
       <c r="I49" s="265"/>
@@ -26715,7 +26715,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H50" s="256"/>
       <c r="I50" s="267"/>
@@ -26743,7 +26743,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H51" s="236"/>
       <c r="I51" s="236"/>
@@ -26775,7 +26775,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H52" s="236"/>
       <c r="I52" s="236"/>
@@ -26807,7 +26807,7 @@
         <v>10</v>
       </c>
       <c r="G53" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H53" s="236"/>
       <c r="I53" s="236"/>
@@ -26839,7 +26839,7 @@
         <v>10</v>
       </c>
       <c r="G54" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H54" s="236"/>
       <c r="I54" s="236"/>
@@ -26871,7 +26871,7 @@
         <v>10</v>
       </c>
       <c r="G55" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H55" s="236"/>
       <c r="I55" s="236"/>
@@ -26898,7 +26898,7 @@
         <v>10</v>
       </c>
       <c r="G56" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H56" s="236"/>
       <c r="I56" s="236"/>
@@ -26925,7 +26925,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H57" s="236"/>
       <c r="I57" s="236"/>
@@ -26952,7 +26952,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H58" s="236"/>
       <c r="I58" s="236"/>
@@ -26979,7 +26979,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H59" s="236"/>
       <c r="I59" s="236"/>
@@ -27006,7 +27006,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H60" s="236"/>
       <c r="I60" s="236"/>
@@ -27033,7 +27033,7 @@
         <v>10</v>
       </c>
       <c r="G61" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H61" s="236"/>
       <c r="I61" s="236"/>
@@ -27060,7 +27060,7 @@
         <v>10</v>
       </c>
       <c r="G62" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H62" s="236"/>
       <c r="I62" s="236"/>
@@ -27087,7 +27087,7 @@
         <v>10</v>
       </c>
       <c r="G63" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H63" s="236"/>
       <c r="I63" s="236"/>
@@ -27114,7 +27114,7 @@
         <v>10</v>
       </c>
       <c r="G64" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H64" s="236"/>
       <c r="I64" s="236"/>
@@ -27141,7 +27141,7 @@
         <v>10</v>
       </c>
       <c r="G65" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H65" s="236"/>
       <c r="I65" s="236"/>
@@ -27168,7 +27168,7 @@
         <v>10</v>
       </c>
       <c r="G66" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H66" s="236"/>
       <c r="I66" s="236"/>
@@ -27195,7 +27195,7 @@
         <v>10</v>
       </c>
       <c r="G67" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H67" s="236"/>
       <c r="I67" s="236"/>
@@ -27222,7 +27222,7 @@
         <v>10</v>
       </c>
       <c r="G68" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H68" s="236"/>
       <c r="I68" s="236"/>
@@ -27249,7 +27249,7 @@
         <v>10</v>
       </c>
       <c r="G69" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H69" s="236"/>
       <c r="I69" s="236"/>
@@ -27276,7 +27276,7 @@
         <v>10</v>
       </c>
       <c r="G70" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H70" s="236"/>
       <c r="I70" s="236"/>
@@ -27303,7 +27303,7 @@
         <v>10</v>
       </c>
       <c r="G71" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H71" s="236"/>
       <c r="I71" s="236"/>
@@ -27330,7 +27330,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H72" s="236"/>
       <c r="I72" s="236"/>
@@ -27357,7 +27357,7 @@
         <v>10</v>
       </c>
       <c r="G73" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H73" s="236"/>
       <c r="I73" s="236"/>
@@ -27384,7 +27384,7 @@
         <v>10</v>
       </c>
       <c r="G74" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H74" s="236"/>
       <c r="I74" s="236"/>
@@ -27411,7 +27411,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H75" s="236"/>
       <c r="I75" s="236"/>
@@ -27438,7 +27438,7 @@
         <v>10</v>
       </c>
       <c r="G76" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H76" s="236"/>
       <c r="I76" s="236"/>
@@ -27465,7 +27465,7 @@
         <v>10</v>
       </c>
       <c r="G77" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H77" s="236"/>
       <c r="I77" s="236"/>
@@ -27492,7 +27492,7 @@
         <v>10</v>
       </c>
       <c r="G78" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H78" s="236"/>
       <c r="I78" s="236"/>
@@ -27519,7 +27519,7 @@
         <v>10</v>
       </c>
       <c r="G79" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H79" s="236"/>
       <c r="I79" s="236"/>
@@ -27546,7 +27546,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H80" s="236"/>
       <c r="I80" s="236"/>
@@ -27571,7 +27571,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H81" s="236"/>
       <c r="I81" s="236"/>
@@ -27595,7 +27595,7 @@
         <v>10</v>
       </c>
       <c r="G82" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H82" s="236"/>
       <c r="I82" s="236"/>
@@ -27622,10 +27622,10 @@
         <v>10</v>
       </c>
       <c r="G83" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H83" s="236" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I83" s="236"/>
       <c r="J83" s="236"/>
@@ -27652,10 +27652,10 @@
         <v>10</v>
       </c>
       <c r="G84" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H84" s="236" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I84" s="236"/>
       <c r="J84" s="236"/>
@@ -27681,7 +27681,7 @@
         <v>10</v>
       </c>
       <c r="G85" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H85" s="256"/>
       <c r="I85" s="267" t="str">
@@ -27692,7 +27692,7 @@
     </row>
     <row r="86" spans="2:11">
       <c r="B86" s="246" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C86" s="246"/>
       <c r="D86" s="246"/>
@@ -27724,7 +27724,7 @@
         <v>10</v>
       </c>
       <c r="G87" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H87" s="256"/>
       <c r="I87" s="267"/>
@@ -27751,7 +27751,7 @@
         <v>10</v>
       </c>
       <c r="G88" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H88" s="249"/>
       <c r="I88" s="249"/>
@@ -27778,7 +27778,7 @@
         <v>10</v>
       </c>
       <c r="G89" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H89" s="249"/>
       <c r="I89" s="249"/>
@@ -27805,7 +27805,7 @@
         <v>10</v>
       </c>
       <c r="G90" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H90" s="249"/>
       <c r="I90" s="249"/>
@@ -27832,10 +27832,10 @@
         <v>10</v>
       </c>
       <c r="G91" s="236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H91" s="249" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I91" s="249"/>
       <c r="J91" s="249"/>
@@ -27855,280 +27855,280 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="216"/>
-    <col min="2" max="2" width="11.5703125" style="216" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="216" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="216"/>
+    <col min="2" max="2" width="11.59765625" style="216" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" style="216" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="216" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="216"/>
-    <col min="9" max="9" width="10.28515625" style="216" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="201" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="216" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="216"/>
-    <col min="13" max="13" width="11.28515625" style="216" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="216" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.1328125" style="216"/>
+    <col min="9" max="9" width="10.265625" style="216" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.86328125" style="201" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.86328125" style="216" customWidth="1"/>
+    <col min="12" max="12" width="9.1328125" style="216"/>
+    <col min="13" max="13" width="11.265625" style="216" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.73046875" style="216" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="37" style="216" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.85546875" style="216" customWidth="1"/>
-    <col min="18" max="262" width="9.140625" style="216"/>
-    <col min="263" max="263" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="266" max="518" width="9.140625" style="216"/>
-    <col min="519" max="519" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="522" max="774" width="9.140625" style="216"/>
-    <col min="775" max="775" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="778" max="1030" width="9.140625" style="216"/>
-    <col min="1031" max="1031" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1286" width="9.140625" style="216"/>
-    <col min="1287" max="1287" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1542" width="9.140625" style="216"/>
-    <col min="1543" max="1543" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1798" width="9.140625" style="216"/>
-    <col min="1799" max="1799" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="1802" max="2054" width="9.140625" style="216"/>
-    <col min="2055" max="2055" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2310" width="9.140625" style="216"/>
-    <col min="2311" max="2311" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2566" width="9.140625" style="216"/>
-    <col min="2567" max="2567" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2822" width="9.140625" style="216"/>
-    <col min="2823" max="2823" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="2826" max="3078" width="9.140625" style="216"/>
-    <col min="3079" max="3079" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3334" width="9.140625" style="216"/>
-    <col min="3335" max="3335" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3590" width="9.140625" style="216"/>
-    <col min="3591" max="3591" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3846" width="9.140625" style="216"/>
-    <col min="3847" max="3847" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="3850" max="4102" width="9.140625" style="216"/>
-    <col min="4103" max="4103" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4358" width="9.140625" style="216"/>
-    <col min="4359" max="4359" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4614" width="9.140625" style="216"/>
-    <col min="4615" max="4615" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4870" width="9.140625" style="216"/>
-    <col min="4871" max="4871" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="4874" max="5126" width="9.140625" style="216"/>
-    <col min="5127" max="5127" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5382" width="9.140625" style="216"/>
-    <col min="5383" max="5383" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5638" width="9.140625" style="216"/>
-    <col min="5639" max="5639" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5894" width="9.140625" style="216"/>
-    <col min="5895" max="5895" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="5898" max="6150" width="9.140625" style="216"/>
-    <col min="6151" max="6151" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6406" width="9.140625" style="216"/>
-    <col min="6407" max="6407" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6662" width="9.140625" style="216"/>
-    <col min="6663" max="6663" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6918" width="9.140625" style="216"/>
-    <col min="6919" max="6919" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="6922" max="7174" width="9.140625" style="216"/>
-    <col min="7175" max="7175" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7430" width="9.140625" style="216"/>
-    <col min="7431" max="7431" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7686" width="9.140625" style="216"/>
-    <col min="7687" max="7687" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7942" width="9.140625" style="216"/>
-    <col min="7943" max="7943" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="7946" max="8198" width="9.140625" style="216"/>
-    <col min="8199" max="8199" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8454" width="9.140625" style="216"/>
-    <col min="8455" max="8455" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8710" width="9.140625" style="216"/>
-    <col min="8711" max="8711" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8966" width="9.140625" style="216"/>
-    <col min="8967" max="8967" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="8970" max="9222" width="9.140625" style="216"/>
-    <col min="9223" max="9223" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9478" width="9.140625" style="216"/>
-    <col min="9479" max="9479" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9734" width="9.140625" style="216"/>
-    <col min="9735" max="9735" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9990" width="9.140625" style="216"/>
-    <col min="9991" max="9991" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="9994" max="10246" width="9.140625" style="216"/>
-    <col min="10247" max="10247" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10502" width="9.140625" style="216"/>
-    <col min="10503" max="10503" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10758" width="9.140625" style="216"/>
-    <col min="10759" max="10759" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="10762" max="11014" width="9.140625" style="216"/>
-    <col min="11015" max="11015" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11270" width="9.140625" style="216"/>
-    <col min="11271" max="11271" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11526" width="9.140625" style="216"/>
-    <col min="11527" max="11527" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11782" width="9.140625" style="216"/>
-    <col min="11783" max="11783" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="11786" max="12038" width="9.140625" style="216"/>
-    <col min="12039" max="12039" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12294" width="9.140625" style="216"/>
-    <col min="12295" max="12295" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12550" width="9.140625" style="216"/>
-    <col min="12551" max="12551" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12806" width="9.140625" style="216"/>
-    <col min="12807" max="12807" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="12810" max="13062" width="9.140625" style="216"/>
-    <col min="13063" max="13063" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13318" width="9.140625" style="216"/>
-    <col min="13319" max="13319" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13574" width="9.140625" style="216"/>
-    <col min="13575" max="13575" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13830" width="9.140625" style="216"/>
-    <col min="13831" max="13831" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="13834" max="14086" width="9.140625" style="216"/>
-    <col min="14087" max="14087" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14342" width="9.140625" style="216"/>
-    <col min="14343" max="14343" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14598" width="9.140625" style="216"/>
-    <col min="14599" max="14599" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14854" width="9.140625" style="216"/>
-    <col min="14855" max="14855" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="14858" max="15110" width="9.140625" style="216"/>
-    <col min="15111" max="15111" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15366" width="9.140625" style="216"/>
-    <col min="15367" max="15367" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15622" width="9.140625" style="216"/>
-    <col min="15623" max="15623" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15878" width="9.140625" style="216"/>
-    <col min="15879" max="15879" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="15882" max="16134" width="9.140625" style="216"/>
-    <col min="16135" max="16135" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="11.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16384" width="9.140625" style="216"/>
+    <col min="16" max="17" width="9.86328125" style="216" customWidth="1"/>
+    <col min="18" max="262" width="9.1328125" style="216"/>
+    <col min="263" max="263" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="266" max="518" width="9.1328125" style="216"/>
+    <col min="519" max="519" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="522" max="774" width="9.1328125" style="216"/>
+    <col min="775" max="775" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="778" max="1030" width="9.1328125" style="216"/>
+    <col min="1031" max="1031" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1286" width="9.1328125" style="216"/>
+    <col min="1287" max="1287" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1542" width="9.1328125" style="216"/>
+    <col min="1543" max="1543" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1798" width="9.1328125" style="216"/>
+    <col min="1799" max="1799" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="1802" max="2054" width="9.1328125" style="216"/>
+    <col min="2055" max="2055" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2310" width="9.1328125" style="216"/>
+    <col min="2311" max="2311" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2566" width="9.1328125" style="216"/>
+    <col min="2567" max="2567" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2822" width="9.1328125" style="216"/>
+    <col min="2823" max="2823" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="2826" max="3078" width="9.1328125" style="216"/>
+    <col min="3079" max="3079" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3334" width="9.1328125" style="216"/>
+    <col min="3335" max="3335" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3590" width="9.1328125" style="216"/>
+    <col min="3591" max="3591" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3846" width="9.1328125" style="216"/>
+    <col min="3847" max="3847" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="3850" max="4102" width="9.1328125" style="216"/>
+    <col min="4103" max="4103" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4358" width="9.1328125" style="216"/>
+    <col min="4359" max="4359" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4614" width="9.1328125" style="216"/>
+    <col min="4615" max="4615" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4870" width="9.1328125" style="216"/>
+    <col min="4871" max="4871" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="4874" max="5126" width="9.1328125" style="216"/>
+    <col min="5127" max="5127" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5382" width="9.1328125" style="216"/>
+    <col min="5383" max="5383" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5638" width="9.1328125" style="216"/>
+    <col min="5639" max="5639" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5894" width="9.1328125" style="216"/>
+    <col min="5895" max="5895" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="5898" max="6150" width="9.1328125" style="216"/>
+    <col min="6151" max="6151" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6406" width="9.1328125" style="216"/>
+    <col min="6407" max="6407" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6662" width="9.1328125" style="216"/>
+    <col min="6663" max="6663" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6918" width="9.1328125" style="216"/>
+    <col min="6919" max="6919" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="6922" max="7174" width="9.1328125" style="216"/>
+    <col min="7175" max="7175" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7430" width="9.1328125" style="216"/>
+    <col min="7431" max="7431" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7686" width="9.1328125" style="216"/>
+    <col min="7687" max="7687" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7942" width="9.1328125" style="216"/>
+    <col min="7943" max="7943" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="7946" max="8198" width="9.1328125" style="216"/>
+    <col min="8199" max="8199" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8454" width="9.1328125" style="216"/>
+    <col min="8455" max="8455" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8710" width="9.1328125" style="216"/>
+    <col min="8711" max="8711" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8966" width="9.1328125" style="216"/>
+    <col min="8967" max="8967" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="8970" max="9222" width="9.1328125" style="216"/>
+    <col min="9223" max="9223" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9478" width="9.1328125" style="216"/>
+    <col min="9479" max="9479" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9734" width="9.1328125" style="216"/>
+    <col min="9735" max="9735" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9990" width="9.1328125" style="216"/>
+    <col min="9991" max="9991" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="9994" max="10246" width="9.1328125" style="216"/>
+    <col min="10247" max="10247" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10502" width="9.1328125" style="216"/>
+    <col min="10503" max="10503" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10758" width="9.1328125" style="216"/>
+    <col min="10759" max="10759" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="10762" max="11014" width="9.1328125" style="216"/>
+    <col min="11015" max="11015" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11270" width="9.1328125" style="216"/>
+    <col min="11271" max="11271" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11526" width="9.1328125" style="216"/>
+    <col min="11527" max="11527" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11782" width="9.1328125" style="216"/>
+    <col min="11783" max="11783" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="11786" max="12038" width="9.1328125" style="216"/>
+    <col min="12039" max="12039" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12294" width="9.1328125" style="216"/>
+    <col min="12295" max="12295" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12550" width="9.1328125" style="216"/>
+    <col min="12551" max="12551" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12806" width="9.1328125" style="216"/>
+    <col min="12807" max="12807" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="12810" max="13062" width="9.1328125" style="216"/>
+    <col min="13063" max="13063" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13318" width="9.1328125" style="216"/>
+    <col min="13319" max="13319" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13574" width="9.1328125" style="216"/>
+    <col min="13575" max="13575" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13830" width="9.1328125" style="216"/>
+    <col min="13831" max="13831" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="13834" max="14086" width="9.1328125" style="216"/>
+    <col min="14087" max="14087" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14342" width="9.1328125" style="216"/>
+    <col min="14343" max="14343" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14598" width="9.1328125" style="216"/>
+    <col min="14599" max="14599" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14854" width="9.1328125" style="216"/>
+    <col min="14855" max="14855" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="14858" max="15110" width="9.1328125" style="216"/>
+    <col min="15111" max="15111" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15366" width="9.1328125" style="216"/>
+    <col min="15367" max="15367" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15622" width="9.1328125" style="216"/>
+    <col min="15623" max="15623" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15878" width="9.1328125" style="216"/>
+    <col min="15879" max="15879" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="15882" max="16134" width="9.1328125" style="216"/>
+    <col min="16135" max="16135" width="10.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="14.86328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="11.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16384" width="9.1328125" style="216"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="18.75">
+    <row r="1" spans="2:19" ht="18">
       <c r="B1" s="218" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C1" s="219"/>
       <c r="D1" s="219"/>
@@ -28138,44 +28138,44 @@
     </row>
     <row r="3" spans="2:19">
       <c r="E3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="221" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C4" s="221" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="221" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="221" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="222" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G4" s="223" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H4" s="222" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I4" s="223" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="J4" s="223" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K4" s="223" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="15.75" thickBot="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="14.65" thickBot="1">
       <c r="B5" s="224" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C5" s="224"/>
       <c r="D5" s="224"/>
@@ -28184,13 +28184,13 @@
       <c r="G5" s="224"/>
       <c r="H5" s="224"/>
       <c r="I5" s="224" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J5" s="224" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K5" s="224" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="2:19">
@@ -28303,7 +28303,7 @@
         <v>FT-SUPELC</v>
       </c>
       <c r="D10" s="216" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="216" t="str">
         <f>Commodities!C55</f>
@@ -28384,43 +28384,43 @@
   <dimension ref="B1:U69"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="78" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q62" sqref="Q62"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="35"/>
-    <col min="2" max="2" width="12.5703125" style="216" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="35" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="35" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="35" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="35" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="35" customWidth="1"/>
-    <col min="16" max="22" width="9.140625" style="35"/>
+    <col min="1" max="1" width="9.1328125" style="35"/>
+    <col min="2" max="2" width="12.59765625" style="216" customWidth="1"/>
+    <col min="3" max="3" width="23.265625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.86328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.265625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.265625" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1328125" style="35" customWidth="1"/>
+    <col min="12" max="12" width="12.73046875" style="35" customWidth="1"/>
+    <col min="13" max="13" width="19.1328125" style="35" customWidth="1"/>
+    <col min="14" max="14" width="15.1328125" style="35" customWidth="1"/>
+    <col min="15" max="15" width="10.59765625" style="35" customWidth="1"/>
+    <col min="16" max="22" width="9.1328125" style="35"/>
     <col min="23" max="23" width="16" style="35" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.42578125" style="35" customWidth="1"/>
-    <col min="25" max="25" width="38.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="35"/>
+    <col min="24" max="24" width="19.3984375" style="35" customWidth="1"/>
+    <col min="25" max="25" width="38.59765625" style="35" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.1328125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="18.75">
+    <row r="1" spans="2:20" ht="18">
       <c r="B1" s="11" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="2:20" s="216" customFormat="1"/>
-    <row r="3" spans="2:20" ht="18.75">
+    <row r="3" spans="2:20" ht="18">
       <c r="G3" s="474" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
@@ -28436,73 +28436,73 @@
     </row>
     <row r="4" spans="2:20">
       <c r="C4" s="17" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>567</v>
+        <v>613</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>562</v>
+        <v>614</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>563</v>
+        <v>615</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>564</v>
+        <v>616</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>565</v>
+        <v>617</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>566</v>
+        <v>618</v>
       </c>
       <c r="N4" s="62" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" ht="26.25" thickBot="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="26.65" thickBot="1">
       <c r="C5" s="10" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N5" s="9"/>
     </row>
@@ -28551,7 +28551,7 @@
         <v>13.293106237838872</v>
       </c>
       <c r="N6" s="215" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="2:20">
@@ -28599,13 +28599,13 @@
         <v>12.890088334941915</v>
       </c>
       <c r="N7" s="215" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="R7" s="35" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="T7" s="216" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="2:20">
@@ -28653,7 +28653,7 @@
         <v>2.065279967615445</v>
       </c>
       <c r="N8" s="215" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9" spans="2:20">
@@ -28704,10 +28704,10 @@
         <v>0.95000000000000495</v>
       </c>
       <c r="R9" s="35" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="S9" s="35" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="2:20">
@@ -28758,7 +28758,7 @@
         <v>1.2700000000000062</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="S10" s="35">
         <v>58.93</v>
@@ -28812,7 +28812,7 @@
         <v>0.87557603686636576</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="S11" s="35">
         <v>19.86</v>
@@ -28866,7 +28866,7 @@
         <v>1.0669585115925122</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="S12" s="35">
         <v>102.22</v>
@@ -29295,33 +29295,33 @@
     </row>
     <row r="24" spans="3:21">
       <c r="C24" s="462" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D24" s="463"/>
       <c r="E24" s="463"/>
       <c r="F24" s="464"/>
       <c r="G24" s="515" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H24" s="515"/>
       <c r="I24" s="515"/>
       <c r="J24" s="516"/>
       <c r="K24" s="517" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="L24" s="518"/>
       <c r="M24" s="519" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="N24" s="518"/>
       <c r="S24"/>
     </row>
     <row r="25" spans="3:21">
       <c r="C25" s="458" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D25" s="458" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="460">
         <v>2010</v>
@@ -29357,10 +29357,10 @@
     </row>
     <row r="26" spans="3:21">
       <c r="C26" s="450" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D26" s="450" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E26" s="452">
         <v>91</v>
@@ -29396,10 +29396,10 @@
     </row>
     <row r="27" spans="3:21">
       <c r="C27" s="450" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D27" s="450" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E27" s="452">
         <v>8.6999999999999993</v>
@@ -29436,10 +29436,10 @@
     </row>
     <row r="28" spans="3:21">
       <c r="C28" s="454" t="s">
+        <v>530</v>
+      </c>
+      <c r="D28" s="454" t="s">
         <v>534</v>
-      </c>
-      <c r="D28" s="454" t="s">
-        <v>538</v>
       </c>
       <c r="E28" s="456">
         <v>108</v>
@@ -29476,7 +29476,7 @@
     </row>
     <row r="29" spans="3:21" s="216" customFormat="1">
       <c r="C29" s="52" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D29" s="58"/>
       <c r="E29"/>
@@ -29508,7 +29508,7 @@
     </row>
     <row r="31" spans="3:21" s="216" customFormat="1">
       <c r="C31" s="471" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D31" s="471"/>
       <c r="E31" s="475">
@@ -29559,7 +29559,7 @@
         <v xml:space="preserve">IEA crude oil </v>
       </c>
       <c r="D32" s="473" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E32" s="468">
         <f>E26/Conversions!$C$10</f>
@@ -29609,7 +29609,7 @@
         <v>Natural Gas - EU</v>
       </c>
       <c r="D33" s="451" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E33" s="465">
         <f>E27/Conversions!$C$10</f>
@@ -29659,7 +29659,7 @@
         <v>Steam coal - EU</v>
       </c>
       <c r="D34" s="455" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E34" s="470">
         <f>E28/Conversions!$C$10</f>
@@ -29720,7 +29720,7 @@
     </row>
     <row r="36" spans="3:20">
       <c r="C36" s="471" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D36" s="471"/>
       <c r="E36" s="475">
@@ -29771,7 +29771,7 @@
         <v xml:space="preserve">IEA crude oil </v>
       </c>
       <c r="D37" s="473" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E37" s="468">
         <f>E32/Conversions!$C$5</f>
@@ -29821,7 +29821,7 @@
         <v>Natural Gas - EU</v>
       </c>
       <c r="D38" s="451" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E38" s="465">
         <f>E33/Conversions!$C$3</f>
@@ -29871,7 +29871,7 @@
         <v>Steam coal - EU</v>
       </c>
       <c r="D39" s="455" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E39" s="470">
         <f>E34/(Conversions!$C$2*1000)</f>
@@ -29951,33 +29951,33 @@
     </row>
     <row r="42" spans="3:20">
       <c r="C42" s="462" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D42" s="463"/>
       <c r="E42" s="463"/>
       <c r="F42" s="464"/>
       <c r="G42" s="515" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H42" s="515"/>
       <c r="I42" s="515"/>
       <c r="J42" s="516"/>
       <c r="K42" s="517" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="L42" s="518"/>
       <c r="M42" s="519" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="N42" s="518"/>
       <c r="O42"/>
     </row>
     <row r="43" spans="3:20">
       <c r="C43" s="458" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D43" s="458" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E43" s="460">
         <v>2010</v>
@@ -30013,10 +30013,10 @@
     </row>
     <row r="44" spans="3:20">
       <c r="C44" s="450" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D44" s="450" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="E44" s="452">
         <v>90</v>
@@ -30054,10 +30054,10 @@
     </row>
     <row r="45" spans="3:20">
       <c r="C45" s="450" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D45" s="450" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="E45" s="452">
         <v>8.6</v>
@@ -30095,10 +30095,10 @@
     </row>
     <row r="46" spans="3:20">
       <c r="C46" s="454" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D46" s="454" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="E46" s="456">
         <v>106</v>
@@ -30136,7 +30136,7 @@
     </row>
     <row r="47" spans="3:20">
       <c r="C47" s="52" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D47" s="58"/>
       <c r="E47" s="442"/>
@@ -30172,7 +30172,7 @@
     </row>
     <row r="49" spans="3:20">
       <c r="C49" s="471" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D49" s="471"/>
       <c r="E49" s="475">
@@ -30225,7 +30225,7 @@
         <v xml:space="preserve">IEA crude oil </v>
       </c>
       <c r="D50" s="473" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="E50" s="468">
         <f>E44/Conversions!$C$11</f>
@@ -30277,7 +30277,7 @@
         <v>Natural Gas - EU</v>
       </c>
       <c r="D51" s="451" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="E51" s="465">
         <f>E45/Conversions!$C$11</f>
@@ -30329,7 +30329,7 @@
         <v>Steam coal - EU</v>
       </c>
       <c r="D52" s="455" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="E52" s="470">
         <f>E46/Conversions!$C$11</f>
@@ -30394,7 +30394,7 @@
     </row>
     <row r="54" spans="3:20">
       <c r="C54" s="471" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D54" s="471"/>
       <c r="E54" s="475">
@@ -30446,7 +30446,7 @@
         <v xml:space="preserve">IEA crude oil </v>
       </c>
       <c r="D55" s="473" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="E55" s="468">
         <f>E50/Conversions!$C$5</f>
@@ -30497,7 +30497,7 @@
         <v>Natural Gas - EU</v>
       </c>
       <c r="D56" s="451" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="E56" s="465">
         <f>E51/Conversions!$C$3</f>
@@ -30548,7 +30548,7 @@
         <v>Steam coal - EU</v>
       </c>
       <c r="D57" s="455" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="E57" s="470">
         <f>E52/(Conversions!$C$2*1000)</f>
@@ -30787,35 +30787,35 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:W62"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="216"/>
-    <col min="2" max="2" width="14.28515625" style="216" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="216" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="12.85546875" style="216" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="216"/>
+    <col min="2" max="2" width="14.265625" style="216" customWidth="1"/>
+    <col min="3" max="3" width="22.1328125" style="216" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.73046875" style="216" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.265625" style="216" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="12.86328125" style="216" customWidth="1"/>
     <col min="15" max="16" width="13" style="216" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" style="216" customWidth="1"/>
-    <col min="18" max="18" width="29.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="9.140625" style="216"/>
-    <col min="23" max="23" width="14.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.5703125" style="216" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="216"/>
+    <col min="17" max="17" width="21.86328125" style="216" customWidth="1"/>
+    <col min="18" max="18" width="29.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="9.1328125" style="216"/>
+    <col min="23" max="23" width="14.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.59765625" style="216" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1328125" style="216"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18.75">
+    <row r="2" spans="2:12" ht="18">
       <c r="B2" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="13" t="s">
-        <v>114</v>
+        <v>609</v>
       </c>
       <c r="F2" s="123"/>
       <c r="G2" s="123"/>
@@ -30827,69 +30827,69 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="17" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="H3" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="I3" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="J3" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="K3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="36" t="s">
-        <v>46</v>
-      </c>
       <c r="L3" s="124" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="32.450000000000003" customHeight="1" thickBot="1">
       <c r="B4" s="10" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L4" s="125"/>
     </row>
@@ -31534,9 +31534,9 @@
       <c r="K21" s="74"/>
       <c r="L21" s="33"/>
     </row>
-    <row r="22" spans="2:18" ht="18.75">
+    <row r="22" spans="2:18" ht="18">
       <c r="B22" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -31554,81 +31554,81 @@
     </row>
     <row r="23" spans="2:18" ht="30.75" customHeight="1">
       <c r="B23" s="17" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="36" t="str">
         <f>Imports_Fossil!H4</f>
-        <v>2018~EUR18</v>
+        <v>2018~MEUR2018</v>
       </c>
       <c r="H23" s="36" t="str">
         <f>Imports_Fossil!I4</f>
-        <v>2019~EUR19</v>
+        <v>2019~MEUR2019</v>
       </c>
       <c r="I23" s="36" t="str">
         <f>Imports_Fossil!J4</f>
-        <v>2025~EUR19</v>
+        <v>2025~MEUR2019</v>
       </c>
       <c r="J23" s="36" t="str">
         <f>Imports_Fossil!K4</f>
-        <v>2030~EUR19</v>
+        <v>2030~MEUR2019</v>
       </c>
       <c r="K23" s="36" t="str">
         <f>Imports_Fossil!L4</f>
-        <v>2035~EUR19</v>
+        <v>2035~MEUR2019</v>
       </c>
       <c r="L23" s="36" t="str">
         <f>Imports_Fossil!M4</f>
-        <v>2040~EUR19</v>
+        <v>2040~MEUR2019</v>
       </c>
       <c r="M23" s="124" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" ht="26.25" thickBot="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="26.65" thickBot="1">
       <c r="B24" s="10" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="H24" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M24" s="125"/>
     </row>
@@ -31677,7 +31677,7 @@
         <v>35.031244673834173</v>
       </c>
       <c r="M25" s="490" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -31694,14 +31694,14 @@
       <c r="L26" s="122"/>
       <c r="M26" s="122"/>
     </row>
-    <row r="27" spans="2:18" ht="26.25">
+    <row r="27" spans="2:18" ht="25.5">
       <c r="B27" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="13" t="s">
-        <v>115</v>
+        <v>610</v>
       </c>
       <c r="F27" s="66"/>
       <c r="G27" s="122"/>
@@ -31711,7 +31711,7 @@
       <c r="K27" s="122"/>
       <c r="L27" s="122"/>
       <c r="N27" s="177" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O27" s="175"/>
       <c r="P27" s="175"/>
@@ -31720,79 +31720,79 @@
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="17" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K28" s="124" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N28" s="216" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" ht="15.75" thickBot="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" ht="14.65" thickBot="1">
       <c r="B29" s="10" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="F29" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="G29" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K29" s="125"/>
       <c r="N29" s="176"/>
       <c r="O29" s="176"/>
       <c r="P29" s="214" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q29" s="214"/>
       <c r="R29" s="214" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" ht="15.75" thickBot="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="14.65" thickBot="1">
       <c r="B30" s="67" t="str">
         <f t="shared" ref="B30" si="0">B13</f>
         <v>IE,National</v>
@@ -31830,13 +31830,13 @@
         <v>4.6910989010989006</v>
       </c>
       <c r="K30" s="520" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N30" s="185" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O30" s="212" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P30" s="204">
         <v>0.53</v>
@@ -32158,14 +32158,14 @@
       <c r="J39" s="38"/>
       <c r="K39" s="184"/>
     </row>
-    <row r="40" spans="2:23" ht="18.75">
+    <row r="40" spans="2:23" ht="18">
       <c r="B40" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="4"/>
       <c r="E40" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I40" s="37"/>
       <c r="J40" s="37"/>
@@ -32181,16 +32181,16 @@
     </row>
     <row r="41" spans="2:23">
       <c r="B41" s="17" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F41" s="36">
         <v>2018</v>
@@ -32220,7 +32220,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="124" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P41" s="36"/>
       <c r="R41"/>
@@ -32230,18 +32230,18 @@
       <c r="V41"/>
       <c r="W41"/>
     </row>
-    <row r="42" spans="2:23" ht="15.75" thickBot="1">
+    <row r="42" spans="2:23" ht="14.65" thickBot="1">
       <c r="B42" s="9" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>10</v>
@@ -32268,7 +32268,7 @@
         <v>10</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
@@ -32332,7 +32332,7 @@
         <v>5</v>
       </c>
       <c r="O43" s="87" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P43" s="76"/>
       <c r="R43"/>
@@ -32394,7 +32394,7 @@
         <v>5</v>
       </c>
       <c r="O44" s="88" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P44" s="74"/>
       <c r="R44"/>
@@ -32456,7 +32456,7 @@
         <v>5</v>
       </c>
       <c r="O45" s="88" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P45" s="74"/>
       <c r="R45"/>
@@ -32511,7 +32511,7 @@
         <v>5</v>
       </c>
       <c r="O46" s="89" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P46" s="75"/>
       <c r="R46"/>
@@ -32521,9 +32521,9 @@
       <c r="V46"/>
       <c r="W46"/>
     </row>
-    <row r="47" spans="2:23" ht="15.75" thickBot="1">
+    <row r="47" spans="2:23" ht="14.65" thickBot="1">
       <c r="B47" s="70" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C47" s="70"/>
       <c r="D47" s="70"/>
@@ -32559,7 +32559,7 @@
       </c>
       <c r="N47" s="277"/>
       <c r="O47" s="90" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P47" s="77"/>
       <c r="R47"/>
@@ -32622,7 +32622,7 @@
         <v>5</v>
       </c>
       <c r="O48" s="87" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P48" s="76"/>
       <c r="R48"/>
@@ -32684,7 +32684,7 @@
         <v>5</v>
       </c>
       <c r="O49" s="88" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P49" s="74"/>
       <c r="R49" s="40"/>
@@ -32741,7 +32741,7 @@
         <v>5</v>
       </c>
       <c r="O50" s="88" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P50" s="74"/>
       <c r="R50" s="40"/>
@@ -32798,14 +32798,14 @@
         <v>5</v>
       </c>
       <c r="O51" s="89" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P51" s="75"/>
       <c r="R51" s="40"/>
     </row>
-    <row r="52" spans="2:18" ht="15.75" thickBot="1">
+    <row r="52" spans="2:18" ht="14.65" thickBot="1">
       <c r="B52" s="70" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C52" s="70"/>
       <c r="D52" s="70"/>
@@ -32841,7 +32841,7 @@
       </c>
       <c r="N52" s="277"/>
       <c r="O52" s="90" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P52" s="77"/>
       <c r="R52" s="40"/>
@@ -32899,7 +32899,7 @@
         <v>5</v>
       </c>
       <c r="O53" s="87" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P53" s="76"/>
       <c r="R53" s="207">
@@ -32958,7 +32958,7 @@
         <v>5</v>
       </c>
       <c r="O54" s="88" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P54" s="74"/>
       <c r="R54" s="40"/>
@@ -33015,7 +33015,7 @@
         <v>5</v>
       </c>
       <c r="O55" s="88" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P55" s="74"/>
       <c r="R55" s="40"/>
@@ -33072,14 +33072,14 @@
         <v>5</v>
       </c>
       <c r="O56" s="89" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P56" s="75"/>
       <c r="R56" s="40"/>
     </row>
-    <row r="57" spans="2:18" ht="15.75" thickBot="1">
+    <row r="57" spans="2:18" ht="14.65" thickBot="1">
       <c r="B57" s="70" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C57" s="70"/>
       <c r="D57" s="70"/>
@@ -33115,7 +33115,7 @@
       </c>
       <c r="N57" s="277"/>
       <c r="O57" s="90" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P57" s="77"/>
       <c r="R57" s="40"/>
@@ -33173,7 +33173,7 @@
         <v>5</v>
       </c>
       <c r="O58" s="87" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P58" s="76"/>
       <c r="R58" s="205">
@@ -33233,7 +33233,7 @@
         <v>5</v>
       </c>
       <c r="O59" s="88" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P59" s="74"/>
       <c r="R59" s="40"/>
@@ -33290,7 +33290,7 @@
         <v>5</v>
       </c>
       <c r="O60" s="88" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P60" s="74"/>
       <c r="R60" s="40"/>
@@ -33347,14 +33347,14 @@
         <v>5</v>
       </c>
       <c r="O61" s="89" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P61" s="75"/>
       <c r="R61" s="40"/>
     </row>
-    <row r="62" spans="2:18" ht="15.75" thickBot="1">
+    <row r="62" spans="2:18" ht="14.65" thickBot="1">
       <c r="B62" s="72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C62" s="72"/>
       <c r="D62" s="72"/>
@@ -33390,7 +33390,7 @@
       </c>
       <c r="N62" s="278"/>
       <c r="O62" s="91" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P62" s="78"/>
       <c r="R62" s="40"/>
@@ -33404,12 +33404,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -33555,6 +33549,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -33565,22 +33565,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F32A5943-069C-47E6-B7B1-1C4E8CC11B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33598,6 +33582,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
   <ds:schemaRefs>

--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model-VA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6738FC0E-79D5-4A92-B8E6-031AC7684FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D064734-D3D9-45FF-A063-02EB0E92B4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="23" r:id="rId1"/>
@@ -866,7 +866,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="644">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -2851,6 +2851,51 @@
   </si>
   <si>
     <t>NCAP_BND~0</t>
+  </si>
+  <si>
+    <t>\I: Emissions commodities aggregator</t>
+  </si>
+  <si>
+    <t>TOTCO2</t>
+  </si>
+  <si>
+    <t>Total CO2 Emmissions</t>
+  </si>
+  <si>
+    <t>AGRCO2N</t>
+  </si>
+  <si>
+    <t>INDCO2N</t>
+  </si>
+  <si>
+    <t>INDCO2P</t>
+  </si>
+  <si>
+    <t>PWRCO2N</t>
+  </si>
+  <si>
+    <t>RSDCO2</t>
+  </si>
+  <si>
+    <t>SRVCO2N</t>
+  </si>
+  <si>
+    <t>TRACO2N</t>
+  </si>
+  <si>
+    <t>TOTCO2INT</t>
+  </si>
+  <si>
+    <t>TRACO2INT</t>
+  </si>
+  <si>
+    <t>Total CO2 Emmissions including international</t>
+  </si>
+  <si>
+    <t>~COMAGG_R1C2</t>
+  </si>
+  <si>
+    <t>LO</t>
   </si>
 </sst>
 </file>
@@ -7048,7 +7093,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>31750</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -7148,9 +7193,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7188,9 +7233,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7223,26 +7268,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7275,26 +7303,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7497,17 +7508,17 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="1" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="6" width="14.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="8" max="10" width="8.1796875" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -10351,23 +10362,23 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="20.7265625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18.75">
+    <row r="2" spans="2:15" ht="18.5">
       <c r="B2" s="3" t="s">
         <v>50</v>
       </c>
@@ -10424,7 +10435,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15.75" thickBot="1">
+    <row r="4" spans="2:15" ht="15" thickBot="1">
       <c r="B4" s="9" t="s">
         <v>515</v>
       </c>
@@ -10694,7 +10705,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="2:15" ht="18.75">
+    <row r="13" spans="2:15" ht="18.5">
       <c r="B13" s="3" t="s">
         <v>55</v>
       </c>
@@ -10713,7 +10724,7 @@
       <c r="M13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="2:15" ht="25.5">
+    <row r="14" spans="2:15" ht="26">
       <c r="B14" s="11" t="s">
         <v>513</v>
       </c>
@@ -10743,7 +10754,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="105"/>
     </row>
-    <row r="15" spans="2:15" ht="15.75" thickBot="1">
+    <row r="15" spans="2:15" ht="15" thickBot="1">
       <c r="B15" s="8" t="s">
         <v>515</v>
       </c>
@@ -11055,21 +11066,21 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="22"/>
-    <col min="2" max="2" width="12.85546875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="69.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="22" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="22"/>
-    <col min="10" max="10" width="14.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="9.1796875" style="22"/>
+    <col min="2" max="2" width="12.81640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="69.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" style="22" customWidth="1"/>
+    <col min="7" max="9" width="9.1796875" style="22"/>
+    <col min="10" max="10" width="14.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.54296875" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="18.75">
+    <row r="2" spans="2:18" ht="18.5">
       <c r="B2" s="3" t="s">
         <v>131</v>
       </c>
@@ -11119,7 +11130,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:18" ht="15">
+    <row r="5" spans="2:18" ht="14.5">
       <c r="B5" s="21" t="str">
         <f>Processes!C51</f>
         <v>IE,National</v>
@@ -11144,7 +11155,7 @@
       </c>
       <c r="R5" s="23"/>
     </row>
-    <row r="6" spans="2:18" ht="15">
+    <row r="6" spans="2:18" ht="14.5">
       <c r="B6" s="21" t="str">
         <f>Processes!C54</f>
         <v>IE,National</v>
@@ -11167,7 +11178,7 @@
       <c r="G6" s="452"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="2:18" ht="15">
+    <row r="7" spans="2:18" ht="14.5">
       <c r="B7" s="21" t="str">
         <f>Processes!C60</f>
         <v>IE,National</v>
@@ -11190,7 +11201,7 @@
       <c r="G7" s="452"/>
       <c r="R7" s="23"/>
     </row>
-    <row r="8" spans="2:18" ht="15">
+    <row r="8" spans="2:18" ht="14.5">
       <c r="B8" s="21" t="str">
         <f>Processes!C66</f>
         <v>IE,National</v>
@@ -11213,7 +11224,7 @@
       <c r="G8" s="452"/>
       <c r="R8" s="23"/>
     </row>
-    <row r="9" spans="2:18" ht="15">
+    <row r="9" spans="2:18" ht="14.5">
       <c r="B9" s="21" t="str">
         <f>Processes!C69</f>
         <v>IE,National</v>
@@ -11236,7 +11247,7 @@
       <c r="G9" s="452"/>
       <c r="R9" s="23"/>
     </row>
-    <row r="10" spans="2:18" ht="15">
+    <row r="10" spans="2:18" ht="14.5">
       <c r="B10" s="21" t="str">
         <f>Processes!C57</f>
         <v>IE,National</v>
@@ -11259,7 +11270,7 @@
       <c r="G10" s="452"/>
       <c r="R10" s="23"/>
     </row>
-    <row r="11" spans="2:18" ht="15">
+    <row r="11" spans="2:18" ht="14.5">
       <c r="B11" s="21" t="str">
         <f>Processes!C72</f>
         <v>IE,National</v>
@@ -11282,7 +11293,7 @@
       <c r="G11" s="452"/>
       <c r="R11" s="23"/>
     </row>
-    <row r="12" spans="2:18" ht="15">
+    <row r="12" spans="2:18" ht="14.5">
       <c r="B12" s="21" t="str">
         <f>Processes!C75</f>
         <v>IE,National</v>
@@ -11305,7 +11316,7 @@
       <c r="G12" s="452"/>
       <c r="R12" s="23"/>
     </row>
-    <row r="13" spans="2:18" ht="15">
+    <row r="13" spans="2:18" ht="14.5">
       <c r="B13" s="21" t="str">
         <f>Processes!C63</f>
         <v>IE,National</v>
@@ -11328,7 +11339,7 @@
       <c r="G13" s="452"/>
       <c r="R13" s="23"/>
     </row>
-    <row r="14" spans="2:18" ht="15">
+    <row r="14" spans="2:18" ht="14.5">
       <c r="B14" s="45" t="str">
         <f>Processes!C78</f>
         <v>IE,National</v>
@@ -11351,7 +11362,7 @@
       <c r="G14" s="452"/>
       <c r="R14" s="23"/>
     </row>
-    <row r="15" spans="2:18" ht="15">
+    <row r="15" spans="2:18" ht="14.5">
       <c r="B15" s="21" t="str">
         <f>Processes!C52</f>
         <v>IE,National</v>
@@ -11374,7 +11385,7 @@
       <c r="G15" s="452"/>
       <c r="R15" s="23"/>
     </row>
-    <row r="16" spans="2:18" ht="15">
+    <row r="16" spans="2:18" ht="14.5">
       <c r="B16" s="21" t="str">
         <f>Processes!C55</f>
         <v>IE,National</v>
@@ -11397,7 +11408,7 @@
       <c r="G16" s="452"/>
       <c r="R16" s="23"/>
     </row>
-    <row r="17" spans="2:18" ht="15">
+    <row r="17" spans="2:18" ht="14.5">
       <c r="B17" s="21" t="str">
         <f>Processes!C61</f>
         <v>IE,National</v>
@@ -11420,7 +11431,7 @@
       <c r="G17" s="452"/>
       <c r="R17" s="23"/>
     </row>
-    <row r="18" spans="2:18" ht="15">
+    <row r="18" spans="2:18" ht="14.5">
       <c r="B18" s="21" t="str">
         <f>Processes!C67</f>
         <v>IE,National</v>
@@ -11443,7 +11454,7 @@
       <c r="G18" s="452"/>
       <c r="R18" s="23"/>
     </row>
-    <row r="19" spans="2:18" ht="15">
+    <row r="19" spans="2:18" ht="14.5">
       <c r="B19" s="21" t="str">
         <f>Processes!C70</f>
         <v>IE,National</v>
@@ -11466,7 +11477,7 @@
       <c r="G19" s="452"/>
       <c r="R19" s="23"/>
     </row>
-    <row r="20" spans="2:18" ht="15">
+    <row r="20" spans="2:18" ht="14.5">
       <c r="B20" s="21" t="str">
         <f>Processes!C58</f>
         <v>IE,National</v>
@@ -11809,7 +11820,7 @@
       <c r="F36" s="50"/>
       <c r="G36" s="190"/>
     </row>
-    <row r="37" spans="2:7" ht="15">
+    <row r="37" spans="2:7" ht="14.5">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -11817,7 +11828,7 @@
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="2:7" ht="15">
+    <row r="38" spans="2:7" ht="14.5">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -11825,7 +11836,7 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="2:7" ht="15">
+    <row r="39" spans="2:7" ht="14.5">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -11833,7 +11844,7 @@
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="2:7" ht="15">
+    <row r="40" spans="2:7" ht="14.5">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -11841,7 +11852,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="2:7" ht="15">
+    <row r="41" spans="2:7" ht="14.5">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -11849,7 +11860,7 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="2:7" ht="15">
+    <row r="42" spans="2:7" ht="14.5">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -11875,21 +11886,21 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="9.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="23"/>
+    <col min="2" max="2" width="9.7265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="23" customWidth="1"/>
     <col min="4" max="4" width="17" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="23"/>
-    <col min="7" max="20" width="9.42578125" style="25" customWidth="1"/>
-    <col min="21" max="23" width="9.42578125" style="23" customWidth="1"/>
-    <col min="24" max="24" width="28.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="23"/>
-    <col min="26" max="26" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="23"/>
+    <col min="7" max="20" width="9.453125" style="25" customWidth="1"/>
+    <col min="21" max="23" width="9.453125" style="23" customWidth="1"/>
+    <col min="24" max="24" width="28.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.1796875" style="23"/>
+    <col min="26" max="26" width="13.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17" style="23" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="23"/>
+    <col min="28" max="16384" width="9.1796875" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26">
@@ -11897,7 +11908,7 @@
       <c r="S1" s="23"/>
       <c r="T1" s="23"/>
     </row>
-    <row r="2" spans="2:26" ht="18.75">
+    <row r="2" spans="2:26" ht="18.5">
       <c r="B2" s="112" t="s">
         <v>145</v>
       </c>
@@ -11922,7 +11933,7 @@
       <c r="S2" s="124"/>
       <c r="T2" s="23"/>
     </row>
-    <row r="3" spans="2:26" ht="25.5">
+    <row r="3" spans="2:26" ht="26">
       <c r="B3" s="110" t="s">
         <v>513</v>
       </c>
@@ -12648,29 +12659,29 @@
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="13.42578125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="23"/>
+    <col min="2" max="2" width="13.453125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="23" customWidth="1"/>
     <col min="6" max="6" width="10" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" style="23" customWidth="1"/>
     <col min="10" max="10" width="11" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="10.140625" style="23" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="10.28515625" style="23" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="23"/>
+    <col min="11" max="15" width="10.1796875" style="23" customWidth="1"/>
+    <col min="16" max="16" width="9.7265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="10.26953125" style="23" customWidth="1"/>
+    <col min="22" max="22" width="9.1796875" style="23"/>
     <col min="23" max="23" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="23"/>
+    <col min="24" max="24" width="26.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1796875" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="18.75">
+    <row r="2" spans="2:20" ht="18.5">
       <c r="B2" s="3" t="s">
         <v>57</v>
       </c>
@@ -12736,7 +12747,7 @@
       </c>
       <c r="R3"/>
     </row>
-    <row r="4" spans="2:20" ht="15.75" thickBot="1">
+    <row r="4" spans="2:20" ht="15" thickBot="1">
       <c r="B4" s="13" t="s">
         <v>515</v>
       </c>
@@ -13543,20 +13554,20 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6297AC73-3506-47A0-A87E-4DEE2B4424AC}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="18.85546875" style="23" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="9.1796875" style="23"/>
+    <col min="2" max="2" width="18.81640625" style="23" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="162" t="s">
         <v>266</v>
       </c>
@@ -13565,12 +13576,12 @@
       <c r="D1" s="156"/>
       <c r="E1" s="156"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+    <row r="5" spans="1:7" ht="15" thickBot="1">
       <c r="B5" s="163" t="s">
         <v>16</v>
       </c>
@@ -13590,7 +13601,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="B6" s="23" t="str">
         <f>Commodities!C68</f>
         <v>SUPCO2N</v>
@@ -13608,7 +13619,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="B7" s="23" t="str">
         <f>Commodities!C64</f>
         <v>SUPCH4N</v>
@@ -13617,7 +13628,7 @@
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="B8" s="23" t="str">
         <f>Commodities!C67</f>
         <v>SUPSO2N</v>
@@ -13626,7 +13637,7 @@
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="B9" s="23" t="str">
         <f>Commodities!C71</f>
         <v>SUPNOXN</v>
@@ -13635,16 +13646,144 @@
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="B10" s="23" t="str">
         <f>Commodities!C72</f>
         <v>SUPPM10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="B11" s="23" t="str">
         <f>Commodities!C73</f>
         <v>SUPPM25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1">
+      <c r="B16" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="164" t="s">
+        <v>630</v>
+      </c>
+      <c r="F16" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="164" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="C17" s="23">
+        <v>1</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="G17" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="C18" s="23">
+        <v>1</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="C19" s="23">
+        <v>1</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="G19" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="23" t="s">
+        <v>635</v>
+      </c>
+      <c r="C20" s="23">
+        <v>1</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>635</v>
+      </c>
+      <c r="G20" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="23" t="s">
+        <v>636</v>
+      </c>
+      <c r="C21" s="23">
+        <v>1</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>636</v>
+      </c>
+      <c r="G21" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="C22" s="23">
+        <v>1</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="G22" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="23" t="s">
+        <v>638</v>
+      </c>
+      <c r="C23" s="23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>638</v>
+      </c>
+      <c r="G23" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="F24" s="23" t="s">
+        <v>640</v>
+      </c>
+      <c r="G24" s="23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -13666,9 +13805,9 @@
       <selection pane="topRight" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
     <col min="2" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13713,7 +13852,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1">
+    <row r="3" spans="1:22" ht="15" thickBot="1">
       <c r="A3" s="69" t="s">
         <v>92</v>
       </c>
@@ -13748,7 +13887,7 @@
       </c>
       <c r="Q4" s="23"/>
     </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1">
+    <row r="5" spans="1:22" ht="15" thickBot="1">
       <c r="A5" s="75" t="s">
         <v>96</v>
       </c>
@@ -13758,7 +13897,7 @@
       </c>
       <c r="J5" s="23"/>
     </row>
-    <row r="6" spans="1:22" ht="15.75" thickBot="1">
+    <row r="6" spans="1:22" ht="15" thickBot="1">
       <c r="A6" s="77"/>
       <c r="B6" s="78" t="s">
         <v>18</v>
@@ -13801,7 +13940,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" thickBot="1">
+    <row r="7" spans="1:22" ht="15" thickBot="1">
       <c r="A7" s="80" t="s">
         <v>98</v>
       </c>
@@ -13854,7 +13993,7 @@
       <c r="R7" s="84"/>
       <c r="S7" s="84"/>
     </row>
-    <row r="8" spans="1:22" ht="15.75" thickBot="1">
+    <row r="8" spans="1:22" ht="15" thickBot="1">
       <c r="A8" s="80" t="s">
         <v>98</v>
       </c>
@@ -13907,7 +14046,7 @@
       <c r="R8" s="84"/>
       <c r="S8" s="84"/>
     </row>
-    <row r="9" spans="1:22" ht="15.75" thickBot="1">
+    <row r="9" spans="1:22" ht="15" thickBot="1">
       <c r="A9" s="80" t="s">
         <v>103</v>
       </c>
@@ -13960,7 +14099,7 @@
       <c r="R9" s="84"/>
       <c r="S9" s="84"/>
     </row>
-    <row r="10" spans="1:22" ht="15.75" thickBot="1">
+    <row r="10" spans="1:22" ht="15" thickBot="1">
       <c r="A10" s="80" t="s">
         <v>103</v>
       </c>
@@ -14013,7 +14152,7 @@
       <c r="R10" s="84"/>
       <c r="S10" s="84"/>
     </row>
-    <row r="11" spans="1:22" ht="15.75" thickBot="1">
+    <row r="11" spans="1:22" ht="15" thickBot="1">
       <c r="A11" s="80" t="s">
         <v>83</v>
       </c>
@@ -14060,7 +14199,7 @@
         <v>5.4816516360000005</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" thickBot="1">
+    <row r="12" spans="1:22" ht="15" thickBot="1">
       <c r="A12" s="80" t="s">
         <v>83</v>
       </c>
@@ -14107,7 +14246,7 @@
         <v>13.781408235406515</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" thickBot="1">
+    <row r="13" spans="1:22" ht="15" thickBot="1">
       <c r="A13" s="80" t="s">
         <v>84</v>
       </c>
@@ -14154,7 +14293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" thickBot="1">
+    <row r="14" spans="1:22" ht="15" thickBot="1">
       <c r="A14" s="80" t="s">
         <v>84</v>
       </c>
@@ -14207,7 +14346,7 @@
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:22" ht="15.75" thickBot="1">
+    <row r="16" spans="1:22" ht="15" thickBot="1">
       <c r="A16" s="75" t="s">
         <v>100</v>
       </c>
@@ -14223,7 +14362,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15.75" thickBot="1">
+    <row r="17" spans="1:26" ht="15" thickBot="1">
       <c r="A17" s="77"/>
       <c r="B17" s="78" t="s">
         <v>18</v>
@@ -14293,7 +14432,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15.75" thickBot="1">
+    <row r="18" spans="1:26" ht="15" thickBot="1">
       <c r="A18" s="80" t="s">
         <v>98</v>
       </c>
@@ -14342,7 +14481,7 @@
       <c r="O18" s="23"/>
       <c r="P18" s="87"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" thickBot="1">
+    <row r="19" spans="1:26" ht="15" thickBot="1">
       <c r="A19" s="80" t="s">
         <v>98</v>
       </c>
@@ -14429,7 +14568,7 @@
         <v>2.6576562288177672</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1">
+    <row r="20" spans="1:26" ht="15" thickBot="1">
       <c r="A20" s="80" t="s">
         <v>103</v>
       </c>
@@ -14476,7 +14615,7 @@
         <v>144.52992698400001</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1">
+    <row r="21" spans="1:26" ht="15" thickBot="1">
       <c r="A21" s="80" t="s">
         <v>103</v>
       </c>
@@ -14563,7 +14702,7 @@
         <v>5.4463236801828891</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15.75" thickBot="1">
+    <row r="22" spans="1:26" ht="15" thickBot="1">
       <c r="A22" s="80" t="s">
         <v>83</v>
       </c>
@@ -14611,7 +14750,7 @@
       </c>
       <c r="P22" s="87"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" thickBot="1">
+    <row r="23" spans="1:26" ht="15" thickBot="1">
       <c r="A23" s="80" t="s">
         <v>83</v>
       </c>
@@ -14698,7 +14837,7 @@
         <v>12.446066141998699</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15.75" thickBot="1">
+    <row r="24" spans="1:26" ht="15" thickBot="1">
       <c r="A24" s="80" t="s">
         <v>84</v>
       </c>
@@ -14745,7 +14884,7 @@
         <v>3.8660492520000003</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15.75" thickBot="1">
+    <row r="25" spans="1:26" ht="15" thickBot="1">
       <c r="A25" s="80" t="s">
         <v>84</v>
       </c>
@@ -14832,7 +14971,7 @@
         <v>24.555246283161342</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1">
+    <row r="26" spans="1:26" ht="15" thickBot="1">
       <c r="A26" s="75" t="s">
         <v>102</v>
       </c>
@@ -14849,7 +14988,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15.75" thickBot="1">
+    <row r="27" spans="1:26" ht="15" thickBot="1">
       <c r="A27" s="90"/>
       <c r="B27" s="78" t="s">
         <v>18</v>
@@ -14919,7 +15058,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15.75" thickBot="1">
+    <row r="28" spans="1:26" ht="15" thickBot="1">
       <c r="A28" s="80" t="s">
         <v>98</v>
       </c>
@@ -14967,7 +15106,7 @@
       </c>
       <c r="P28" s="87"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" thickBot="1">
+    <row r="29" spans="1:26" ht="15" thickBot="1">
       <c r="A29" s="80" t="s">
         <v>98</v>
       </c>
@@ -15054,7 +15193,7 @@
         <v>3.425007675166559</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15.75" thickBot="1">
+    <row r="30" spans="1:26" ht="15" thickBot="1">
       <c r="A30" s="80" t="s">
         <v>103</v>
       </c>
@@ -15101,7 +15240,7 @@
         <v>236.79263826000002</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15.75" thickBot="1">
+    <row r="31" spans="1:26" ht="15" thickBot="1">
       <c r="A31" s="80" t="s">
         <v>103</v>
       </c>
@@ -15188,7 +15327,7 @@
         <v>6.8687312392684552</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15.75" thickBot="1">
+    <row r="32" spans="1:26" ht="15" thickBot="1">
       <c r="A32" s="80" t="s">
         <v>83</v>
       </c>
@@ -15236,7 +15375,7 @@
       </c>
       <c r="P32" s="87"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" thickBot="1">
+    <row r="33" spans="1:26" ht="15" thickBot="1">
       <c r="A33" s="80" t="s">
         <v>83</v>
       </c>
@@ -15323,7 +15462,7 @@
         <v>14.991427037204447</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="15.75" thickBot="1">
+    <row r="34" spans="1:26" ht="15" thickBot="1">
       <c r="A34" s="80" t="s">
         <v>84</v>
       </c>
@@ -15370,7 +15509,7 @@
         <v>4.3794765360000003</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="15.75" thickBot="1">
+    <row r="35" spans="1:26" ht="15" thickBot="1">
       <c r="A35" s="80" t="s">
         <v>84</v>
       </c>
@@ -15467,7 +15606,7 @@
       <c r="M36" s="57"/>
       <c r="N36" s="57"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" thickBot="1">
+    <row r="37" spans="1:26" ht="15" thickBot="1">
       <c r="A37" s="75" t="s">
         <v>104</v>
       </c>
@@ -15487,7 +15626,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="15.75" thickBot="1">
+    <row r="38" spans="1:26" ht="15" thickBot="1">
       <c r="A38" s="77"/>
       <c r="B38" s="78" t="s">
         <v>18</v>
@@ -15557,7 +15696,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="15.75" thickBot="1">
+    <row r="39" spans="1:26" ht="15" thickBot="1">
       <c r="A39" s="80" t="s">
         <v>98</v>
       </c>
@@ -15605,7 +15744,7 @@
       </c>
       <c r="P39" s="87"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" thickBot="1">
+    <row r="40" spans="1:26" ht="15" thickBot="1">
       <c r="A40" s="80" t="s">
         <v>98</v>
       </c>
@@ -15692,7 +15831,7 @@
         <v>3.0319740075244952</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="15.75" thickBot="1">
+    <row r="41" spans="1:26" ht="15" thickBot="1">
       <c r="A41" s="80" t="s">
         <v>103</v>
       </c>
@@ -15739,7 +15878,7 @@
         <v>17.883748728000004</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="15.75" thickBot="1">
+    <row r="42" spans="1:26" ht="15" thickBot="1">
       <c r="A42" s="80" t="s">
         <v>103</v>
       </c>
@@ -15826,7 +15965,7 @@
         <v>6.1949592375963451</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15.75" thickBot="1">
+    <row r="43" spans="1:26" ht="15" thickBot="1">
       <c r="A43" s="80" t="s">
         <v>83</v>
       </c>
@@ -15874,7 +16013,7 @@
       </c>
       <c r="P43" s="87"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" thickBot="1">
+    <row r="44" spans="1:26" ht="15" thickBot="1">
       <c r="A44" s="80" t="s">
         <v>83</v>
       </c>
@@ -15961,7 +16100,7 @@
         <v>18.45386649024168</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="15.75" thickBot="1">
+    <row r="45" spans="1:26" ht="15" thickBot="1">
       <c r="A45" s="80" t="s">
         <v>84</v>
       </c>
@@ -16008,7 +16147,7 @@
         <v>4.602800448</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="15.75" thickBot="1">
+    <row r="46" spans="1:26" ht="15" thickBot="1">
       <c r="A46" s="80" t="s">
         <v>84</v>
       </c>
@@ -16105,7 +16244,7 @@
       <c r="M47" s="57"/>
       <c r="N47" s="57"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" thickBot="1">
+    <row r="48" spans="1:26" ht="15" thickBot="1">
       <c r="A48" s="75" t="s">
         <v>105</v>
       </c>
@@ -16125,7 +16264,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="15.75" thickBot="1">
+    <row r="49" spans="1:26" ht="15" thickBot="1">
       <c r="A49" s="77"/>
       <c r="B49" s="78" t="s">
         <v>18</v>
@@ -16195,7 +16334,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="15.75" thickBot="1">
+    <row r="50" spans="1:26" ht="15" thickBot="1">
       <c r="A50" s="80" t="s">
         <v>98</v>
       </c>
@@ -16243,7 +16382,7 @@
       </c>
       <c r="P50" s="87"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" thickBot="1">
+    <row r="51" spans="1:26" ht="15" thickBot="1">
       <c r="A51" s="80" t="s">
         <v>98</v>
       </c>
@@ -16330,7 +16469,7 @@
         <v>3.949052565355978</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="15.75" thickBot="1">
+    <row r="52" spans="1:26" ht="15" thickBot="1">
       <c r="A52" s="80" t="s">
         <v>103</v>
       </c>
@@ -16377,7 +16516,7 @@
         <v>110.14646000400001</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="15.75" thickBot="1">
+    <row r="53" spans="1:26" ht="15" thickBot="1">
       <c r="A53" s="80" t="s">
         <v>103</v>
       </c>
@@ -16464,7 +16603,7 @@
         <v>7.8793892417766198</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="15.75" thickBot="1">
+    <row r="54" spans="1:26" ht="15" thickBot="1">
       <c r="A54" s="80" t="s">
         <v>83</v>
       </c>
@@ -16512,7 +16651,7 @@
       </c>
       <c r="P54" s="87"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" thickBot="1">
+    <row r="55" spans="1:26" ht="15" thickBot="1">
       <c r="A55" s="80" t="s">
         <v>83</v>
       </c>
@@ -16599,7 +16738,7 @@
         <v>22.533930278145014</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="15.75" thickBot="1">
+    <row r="56" spans="1:26" ht="15" thickBot="1">
       <c r="A56" s="80" t="s">
         <v>84</v>
       </c>
@@ -16646,7 +16785,7 @@
         <v>5.1162277320000005</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="15.75" thickBot="1">
+    <row r="57" spans="1:26" ht="15" thickBot="1">
       <c r="A57" s="80" t="s">
         <v>84</v>
       </c>
@@ -16753,9 +16892,9 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="16384" width="9.1796875" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -16870,35 +17009,35 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7265625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.54296875" customWidth="1"/>
+    <col min="25" max="25" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:30">
@@ -17369,7 +17508,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1">
+    <row r="10" spans="1:30" ht="15" thickBot="1">
       <c r="A10" s="229" t="s">
         <v>279</v>
       </c>
@@ -17611,7 +17750,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>31750</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -17641,47 +17780,47 @@
       <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="38.140625" style="133" customWidth="1"/>
+    <col min="1" max="1" width="38.1796875" style="133" customWidth="1"/>
     <col min="2" max="2" width="13" style="131" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.5703125" style="134" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="134"/>
-    <col min="6" max="6" width="6.140625" style="135" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="135" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="134" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="135" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.54296875" style="134" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="134"/>
+    <col min="6" max="6" width="6.1796875" style="135" customWidth="1"/>
+    <col min="7" max="7" width="5.81640625" style="135" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" style="134" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1796875" style="135" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="135" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="135" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="132" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="131" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="131" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" style="131" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="131" customWidth="1"/>
-    <col min="17" max="17" width="7.42578125" style="131" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" style="131" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.28515625" style="131" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" style="131" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.42578125" style="131" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" style="131" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="5.42578125" style="131" customWidth="1"/>
-    <col min="26" max="26" width="5.42578125" style="135" customWidth="1"/>
-    <col min="27" max="27" width="8.140625" style="132" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.7109375" style="132" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="5.5703125" style="131" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" style="131" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.7109375" style="131" customWidth="1"/>
-    <col min="33" max="33" width="5.5703125" style="131" customWidth="1"/>
-    <col min="34" max="34" width="5.85546875" style="131" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.81640625" style="135" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="132" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1796875" style="131" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.1796875" style="131" customWidth="1"/>
+    <col min="15" max="15" width="5.26953125" style="131" customWidth="1"/>
+    <col min="16" max="16" width="7.453125" style="131" customWidth="1"/>
+    <col min="17" max="17" width="7.453125" style="131" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1796875" style="131" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.26953125" style="131" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.453125" style="131" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.453125" style="131" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.81640625" style="131" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="5.453125" style="131" customWidth="1"/>
+    <col min="26" max="26" width="5.453125" style="135" customWidth="1"/>
+    <col min="27" max="27" width="8.1796875" style="132" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.7265625" style="132" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="5.54296875" style="131" customWidth="1"/>
+    <col min="31" max="31" width="8.7265625" style="131" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.7265625" style="131" customWidth="1"/>
+    <col min="33" max="33" width="5.54296875" style="131" customWidth="1"/>
+    <col min="34" max="34" width="5.81640625" style="131" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="7" style="131" customWidth="1"/>
-    <col min="37" max="40" width="5.5703125" style="131" customWidth="1"/>
-    <col min="41" max="41" width="8.7109375" style="132" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.42578125" style="132" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.28515625" style="131" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.140625" style="131"/>
+    <col min="37" max="40" width="5.54296875" style="131" customWidth="1"/>
+    <col min="41" max="41" width="8.7265625" style="132" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.453125" style="132" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.26953125" style="131" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.1796875" style="131"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="98.25" thickBot="1">
+    <row r="1" spans="1:43" ht="95.5" thickBot="1">
       <c r="A1" s="212" t="s">
         <v>428</v>
       </c>
@@ -20272,37 +20411,37 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="85.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.5703125" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.54296875" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" customWidth="1"/>
+    <col min="6" max="6" width="85.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.54296875" customWidth="1"/>
+    <col min="16" max="16" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="1.5703125" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="1.5703125" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="1.5703125" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="1.5703125" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="1.54296875" customWidth="1"/>
+    <col min="20" max="20" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.54296875" customWidth="1"/>
+    <col min="22" max="22" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="1.54296875" customWidth="1"/>
+    <col min="26" max="26" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="1.54296875" customWidth="1"/>
+    <col min="29" max="29" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:29" ht="18.75">
+    <row r="3" spans="2:29" ht="18.5">
       <c r="B3" s="165" t="s">
         <v>282</v>
       </c>
@@ -20331,7 +20470,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="2:29" ht="15.75" thickBot="1">
+    <row r="4" spans="2:29" ht="15" thickBot="1">
       <c r="B4" s="166" t="s">
         <v>279</v>
       </c>
@@ -23386,17 +23525,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:I73"/>
+  <dimension ref="B2:I76"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
@@ -23411,7 +23550,7 @@
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
     </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1">
+    <row r="3" spans="2:9" ht="15" thickBot="1">
       <c r="B3" s="166" t="s">
         <v>15</v>
       </c>
@@ -24836,7 +24975,54 @@
       <c r="H73" s="174"/>
       <c r="I73" s="174"/>
     </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="185" t="s">
+        <v>629</v>
+      </c>
+      <c r="C74" s="185"/>
+      <c r="D74" s="185"/>
+      <c r="E74" s="185"/>
+      <c r="F74" s="185"/>
+      <c r="G74" s="185"/>
+      <c r="H74" s="185"/>
+      <c r="I74" s="185"/>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="174" t="s">
+        <v>270</v>
+      </c>
+      <c r="C75" t="s">
+        <v>630</v>
+      </c>
+      <c r="D75" t="s">
+        <v>631</v>
+      </c>
+      <c r="E75" s="174" t="s">
+        <v>271</v>
+      </c>
+      <c r="F75" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="174" t="s">
+        <v>270</v>
+      </c>
+      <c r="C76" t="s">
+        <v>639</v>
+      </c>
+      <c r="D76" t="s">
+        <v>641</v>
+      </c>
+      <c r="E76" s="174" t="s">
+        <v>271</v>
+      </c>
+      <c r="F76" t="s">
+        <v>643</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -24847,27 +25033,27 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.140625" customWidth="1"/>
+    <col min="5" max="5" width="58.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" customWidth="1"/>
+    <col min="8" max="8" width="30.453125" customWidth="1"/>
+    <col min="9" max="9" width="25.453125" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" customWidth="1"/>
+    <col min="14" max="14" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="26.25">
+    <row r="1" spans="2:10" ht="26">
       <c r="B1" s="175" t="s">
         <v>350</v>
       </c>
@@ -24893,7 +25079,7 @@
       <c r="I3" s="170"/>
       <c r="J3" s="170"/>
     </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1">
+    <row r="4" spans="2:10" ht="15" thickBot="1">
       <c r="B4" s="166" t="s">
         <v>1</v>
       </c>
@@ -27253,278 +27439,278 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="11.5703125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="23"/>
+    <col min="2" max="2" width="11.54296875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="23"/>
-    <col min="9" max="9" width="10.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="23" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="23"/>
-    <col min="13" max="13" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.1796875" style="23"/>
+    <col min="9" max="9" width="10.26953125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="23"/>
+    <col min="13" max="13" width="11.26953125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7265625" style="23" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="37" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.85546875" style="23" customWidth="1"/>
-    <col min="18" max="262" width="9.140625" style="23"/>
-    <col min="263" max="263" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="266" max="518" width="9.140625" style="23"/>
-    <col min="519" max="519" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="522" max="774" width="9.140625" style="23"/>
-    <col min="775" max="775" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="778" max="1030" width="9.140625" style="23"/>
-    <col min="1031" max="1031" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1286" width="9.140625" style="23"/>
-    <col min="1287" max="1287" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1542" width="9.140625" style="23"/>
-    <col min="1543" max="1543" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1798" width="9.140625" style="23"/>
-    <col min="1799" max="1799" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1802" max="2054" width="9.140625" style="23"/>
-    <col min="2055" max="2055" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2310" width="9.140625" style="23"/>
-    <col min="2311" max="2311" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2566" width="9.140625" style="23"/>
-    <col min="2567" max="2567" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2822" width="9.140625" style="23"/>
-    <col min="2823" max="2823" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2826" max="3078" width="9.140625" style="23"/>
-    <col min="3079" max="3079" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3334" width="9.140625" style="23"/>
-    <col min="3335" max="3335" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3590" width="9.140625" style="23"/>
-    <col min="3591" max="3591" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3846" width="9.140625" style="23"/>
-    <col min="3847" max="3847" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3850" max="4102" width="9.140625" style="23"/>
-    <col min="4103" max="4103" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4358" width="9.140625" style="23"/>
-    <col min="4359" max="4359" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4614" width="9.140625" style="23"/>
-    <col min="4615" max="4615" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4870" width="9.140625" style="23"/>
-    <col min="4871" max="4871" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4874" max="5126" width="9.140625" style="23"/>
-    <col min="5127" max="5127" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5382" width="9.140625" style="23"/>
-    <col min="5383" max="5383" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5638" width="9.140625" style="23"/>
-    <col min="5639" max="5639" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5894" width="9.140625" style="23"/>
-    <col min="5895" max="5895" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5898" max="6150" width="9.140625" style="23"/>
-    <col min="6151" max="6151" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6406" width="9.140625" style="23"/>
-    <col min="6407" max="6407" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6662" width="9.140625" style="23"/>
-    <col min="6663" max="6663" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6918" width="9.140625" style="23"/>
-    <col min="6919" max="6919" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6922" max="7174" width="9.140625" style="23"/>
-    <col min="7175" max="7175" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7430" width="9.140625" style="23"/>
-    <col min="7431" max="7431" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7686" width="9.140625" style="23"/>
-    <col min="7687" max="7687" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7942" width="9.140625" style="23"/>
-    <col min="7943" max="7943" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7946" max="8198" width="9.140625" style="23"/>
-    <col min="8199" max="8199" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8454" width="9.140625" style="23"/>
-    <col min="8455" max="8455" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8710" width="9.140625" style="23"/>
-    <col min="8711" max="8711" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8966" width="9.140625" style="23"/>
-    <col min="8967" max="8967" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8970" max="9222" width="9.140625" style="23"/>
-    <col min="9223" max="9223" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9478" width="9.140625" style="23"/>
-    <col min="9479" max="9479" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9734" width="9.140625" style="23"/>
-    <col min="9735" max="9735" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9990" width="9.140625" style="23"/>
-    <col min="9991" max="9991" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9994" max="10246" width="9.140625" style="23"/>
-    <col min="10247" max="10247" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10502" width="9.140625" style="23"/>
-    <col min="10503" max="10503" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10758" width="9.140625" style="23"/>
-    <col min="10759" max="10759" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10762" max="11014" width="9.140625" style="23"/>
-    <col min="11015" max="11015" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11270" width="9.140625" style="23"/>
-    <col min="11271" max="11271" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11526" width="9.140625" style="23"/>
-    <col min="11527" max="11527" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11782" width="9.140625" style="23"/>
-    <col min="11783" max="11783" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11786" max="12038" width="9.140625" style="23"/>
-    <col min="12039" max="12039" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12294" width="9.140625" style="23"/>
-    <col min="12295" max="12295" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12550" width="9.140625" style="23"/>
-    <col min="12551" max="12551" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12806" width="9.140625" style="23"/>
-    <col min="12807" max="12807" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12810" max="13062" width="9.140625" style="23"/>
-    <col min="13063" max="13063" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13318" width="9.140625" style="23"/>
-    <col min="13319" max="13319" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13574" width="9.140625" style="23"/>
-    <col min="13575" max="13575" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13830" width="9.140625" style="23"/>
-    <col min="13831" max="13831" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13834" max="14086" width="9.140625" style="23"/>
-    <col min="14087" max="14087" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14342" width="9.140625" style="23"/>
-    <col min="14343" max="14343" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14598" width="9.140625" style="23"/>
-    <col min="14599" max="14599" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14854" width="9.140625" style="23"/>
-    <col min="14855" max="14855" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14858" max="15110" width="9.140625" style="23"/>
-    <col min="15111" max="15111" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15366" width="9.140625" style="23"/>
-    <col min="15367" max="15367" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15622" width="9.140625" style="23"/>
-    <col min="15623" max="15623" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15878" width="9.140625" style="23"/>
-    <col min="15879" max="15879" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15882" max="16134" width="9.140625" style="23"/>
-    <col min="16135" max="16135" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16384" width="9.140625" style="23"/>
+    <col min="16" max="17" width="9.81640625" style="23" customWidth="1"/>
+    <col min="18" max="262" width="9.1796875" style="23"/>
+    <col min="263" max="263" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="266" max="518" width="9.1796875" style="23"/>
+    <col min="519" max="519" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="522" max="774" width="9.1796875" style="23"/>
+    <col min="775" max="775" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="778" max="1030" width="9.1796875" style="23"/>
+    <col min="1031" max="1031" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1286" width="9.1796875" style="23"/>
+    <col min="1287" max="1287" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1542" width="9.1796875" style="23"/>
+    <col min="1543" max="1543" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1798" width="9.1796875" style="23"/>
+    <col min="1799" max="1799" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1802" max="2054" width="9.1796875" style="23"/>
+    <col min="2055" max="2055" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2310" width="9.1796875" style="23"/>
+    <col min="2311" max="2311" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2566" width="9.1796875" style="23"/>
+    <col min="2567" max="2567" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2822" width="9.1796875" style="23"/>
+    <col min="2823" max="2823" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2826" max="3078" width="9.1796875" style="23"/>
+    <col min="3079" max="3079" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3334" width="9.1796875" style="23"/>
+    <col min="3335" max="3335" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3590" width="9.1796875" style="23"/>
+    <col min="3591" max="3591" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3846" width="9.1796875" style="23"/>
+    <col min="3847" max="3847" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3850" max="4102" width="9.1796875" style="23"/>
+    <col min="4103" max="4103" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4358" width="9.1796875" style="23"/>
+    <col min="4359" max="4359" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4614" width="9.1796875" style="23"/>
+    <col min="4615" max="4615" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4870" width="9.1796875" style="23"/>
+    <col min="4871" max="4871" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4874" max="5126" width="9.1796875" style="23"/>
+    <col min="5127" max="5127" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5382" width="9.1796875" style="23"/>
+    <col min="5383" max="5383" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5638" width="9.1796875" style="23"/>
+    <col min="5639" max="5639" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5894" width="9.1796875" style="23"/>
+    <col min="5895" max="5895" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5898" max="6150" width="9.1796875" style="23"/>
+    <col min="6151" max="6151" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6406" width="9.1796875" style="23"/>
+    <col min="6407" max="6407" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6662" width="9.1796875" style="23"/>
+    <col min="6663" max="6663" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6918" width="9.1796875" style="23"/>
+    <col min="6919" max="6919" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6922" max="7174" width="9.1796875" style="23"/>
+    <col min="7175" max="7175" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7430" width="9.1796875" style="23"/>
+    <col min="7431" max="7431" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7686" width="9.1796875" style="23"/>
+    <col min="7687" max="7687" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7942" width="9.1796875" style="23"/>
+    <col min="7943" max="7943" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7946" max="8198" width="9.1796875" style="23"/>
+    <col min="8199" max="8199" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8454" width="9.1796875" style="23"/>
+    <col min="8455" max="8455" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8710" width="9.1796875" style="23"/>
+    <col min="8711" max="8711" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8966" width="9.1796875" style="23"/>
+    <col min="8967" max="8967" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8970" max="9222" width="9.1796875" style="23"/>
+    <col min="9223" max="9223" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9478" width="9.1796875" style="23"/>
+    <col min="9479" max="9479" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9734" width="9.1796875" style="23"/>
+    <col min="9735" max="9735" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9990" width="9.1796875" style="23"/>
+    <col min="9991" max="9991" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9994" max="10246" width="9.1796875" style="23"/>
+    <col min="10247" max="10247" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10502" width="9.1796875" style="23"/>
+    <col min="10503" max="10503" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10758" width="9.1796875" style="23"/>
+    <col min="10759" max="10759" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10762" max="11014" width="9.1796875" style="23"/>
+    <col min="11015" max="11015" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11270" width="9.1796875" style="23"/>
+    <col min="11271" max="11271" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11526" width="9.1796875" style="23"/>
+    <col min="11527" max="11527" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11782" width="9.1796875" style="23"/>
+    <col min="11783" max="11783" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11786" max="12038" width="9.1796875" style="23"/>
+    <col min="12039" max="12039" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12294" width="9.1796875" style="23"/>
+    <col min="12295" max="12295" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12550" width="9.1796875" style="23"/>
+    <col min="12551" max="12551" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12806" width="9.1796875" style="23"/>
+    <col min="12807" max="12807" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12810" max="13062" width="9.1796875" style="23"/>
+    <col min="13063" max="13063" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13318" width="9.1796875" style="23"/>
+    <col min="13319" max="13319" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13574" width="9.1796875" style="23"/>
+    <col min="13575" max="13575" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13830" width="9.1796875" style="23"/>
+    <col min="13831" max="13831" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13834" max="14086" width="9.1796875" style="23"/>
+    <col min="14087" max="14087" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14342" width="9.1796875" style="23"/>
+    <col min="14343" max="14343" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14598" width="9.1796875" style="23"/>
+    <col min="14599" max="14599" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14854" width="9.1796875" style="23"/>
+    <col min="14855" max="14855" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14858" max="15110" width="9.1796875" style="23"/>
+    <col min="15111" max="15111" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15366" width="9.1796875" style="23"/>
+    <col min="15367" max="15367" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15622" width="9.1796875" style="23"/>
+    <col min="15623" max="15623" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15878" width="9.1796875" style="23"/>
+    <col min="15879" max="15879" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15882" max="16134" width="9.1796875" style="23"/>
+    <col min="16135" max="16135" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16384" width="9.1796875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="18.75">
+    <row r="1" spans="2:19" ht="18.5">
       <c r="B1" s="154" t="s">
         <v>224</v>
       </c>
@@ -27571,7 +27757,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="15.75" thickBot="1">
+    <row r="5" spans="2:19" ht="15" thickBot="1">
       <c r="B5" s="159" t="s">
         <v>211</v>
       </c>
@@ -27785,37 +27971,37 @@
       <selection activeCell="K42" sqref="K42:L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="12.5703125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="23" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="23" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="23" customWidth="1"/>
-    <col min="16" max="22" width="9.140625" style="23"/>
+    <col min="1" max="1" width="9.1796875" style="23"/>
+    <col min="2" max="2" width="12.54296875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.26953125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" style="23" customWidth="1"/>
+    <col min="12" max="12" width="12.7265625" style="23" customWidth="1"/>
+    <col min="13" max="13" width="19.1796875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" style="23" customWidth="1"/>
+    <col min="15" max="15" width="10.54296875" style="23" customWidth="1"/>
+    <col min="16" max="22" width="9.1796875" style="23"/>
     <col min="23" max="23" width="16" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.42578125" style="23" customWidth="1"/>
-    <col min="25" max="25" width="38.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="23"/>
+    <col min="24" max="24" width="19.453125" style="23" customWidth="1"/>
+    <col min="25" max="25" width="38.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.1796875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="18.75">
+    <row r="1" spans="2:20" ht="18.5">
       <c r="B1" s="3" t="s">
         <v>544</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="3" spans="2:20" ht="18.75">
+    <row r="3" spans="2:20" ht="18.5">
       <c r="G3" s="257" t="s">
         <v>557</v>
       </c>
@@ -27869,7 +28055,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="26.25" thickBot="1">
+    <row r="5" spans="2:20" ht="26.5" thickBot="1">
       <c r="C5" s="9" t="s">
         <v>515</v>
       </c>
@@ -30188,24 +30374,24 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="14.28515625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="12.85546875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="23"/>
+    <col min="2" max="2" width="14.26953125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="12.81640625" style="23" customWidth="1"/>
     <col min="15" max="16" width="13" style="23" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" style="23" customWidth="1"/>
-    <col min="18" max="18" width="29.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="9.140625" style="23"/>
-    <col min="23" max="23" width="14.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="23"/>
+    <col min="17" max="17" width="21.81640625" style="23" customWidth="1"/>
+    <col min="18" max="18" width="29.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="9.1796875" style="23"/>
+    <col min="23" max="23" width="14.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1796875" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18.75">
+    <row r="2" spans="2:12" ht="18.5">
       <c r="B2" s="3" t="s">
         <v>81</v>
       </c>
@@ -30257,7 +30443,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="32.450000000000003" customHeight="1" thickBot="1">
+    <row r="4" spans="2:12" ht="32.5" customHeight="1" thickBot="1">
       <c r="B4" s="9" t="s">
         <v>514</v>
       </c>
@@ -30931,7 +31117,7 @@
       <c r="K21" s="50"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="2:18" ht="18.75">
+    <row r="22" spans="2:18" ht="18.5">
       <c r="B22" s="3" t="s">
         <v>81</v>
       </c>
@@ -30993,7 +31179,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="26.25" thickBot="1">
+    <row r="24" spans="2:18" ht="26.5" thickBot="1">
       <c r="B24" s="9" t="s">
         <v>514</v>
       </c>
@@ -31091,7 +31277,7 @@
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
     </row>
-    <row r="27" spans="2:18" ht="26.25">
+    <row r="27" spans="2:18" ht="26">
       <c r="B27" s="3" t="s">
         <v>109</v>
       </c>
@@ -31150,7 +31336,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="15.75" thickBot="1">
+    <row r="29" spans="2:18" ht="15" thickBot="1">
       <c r="B29" s="9" t="s">
         <v>514</v>
       </c>
@@ -31189,7 +31375,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="15.75" thickBot="1">
+    <row r="30" spans="2:18" ht="15" thickBot="1">
       <c r="B30" s="43" t="str">
         <f t="shared" ref="B30" si="0">B13</f>
         <v>IE,National</v>
@@ -31548,7 +31734,7 @@
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
     </row>
-    <row r="40" spans="2:23" ht="18.75">
+    <row r="40" spans="2:23" ht="18.5">
       <c r="B40" s="3" t="s">
         <v>82</v>
       </c>
@@ -31619,7 +31805,7 @@
       <c r="V41"/>
       <c r="W41"/>
     </row>
-    <row r="42" spans="2:23" ht="15.75" thickBot="1">
+    <row r="42" spans="2:23" ht="15" thickBot="1">
       <c r="B42" s="8" t="s">
         <v>514</v>
       </c>
@@ -31910,7 +32096,7 @@
       <c r="V46"/>
       <c r="W46"/>
     </row>
-    <row r="47" spans="2:23" ht="15.75" thickBot="1">
+    <row r="47" spans="2:23" ht="15" thickBot="1">
       <c r="B47" s="46" t="s">
         <v>79</v>
       </c>
@@ -32192,7 +32378,7 @@
       <c r="P51" s="51"/>
       <c r="R51" s="25"/>
     </row>
-    <row r="52" spans="2:18" ht="15.75" thickBot="1">
+    <row r="52" spans="2:18" ht="15" thickBot="1">
       <c r="B52" s="46" t="s">
         <v>79</v>
       </c>
@@ -32466,7 +32652,7 @@
       <c r="P56" s="51"/>
       <c r="R56" s="25"/>
     </row>
-    <row r="57" spans="2:18" ht="15.75" thickBot="1">
+    <row r="57" spans="2:18" ht="15" thickBot="1">
       <c r="B57" s="46" t="s">
         <v>79</v>
       </c>
@@ -32741,7 +32927,7 @@
       <c r="P61" s="51"/>
       <c r="R61" s="25"/>
     </row>
-    <row r="62" spans="2:18" ht="15.75" thickBot="1">
+    <row r="62" spans="2:18" ht="15" thickBot="1">
       <c r="B62" s="48" t="s">
         <v>79</v>
       </c>
@@ -32793,21 +32979,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -32953,31 +33124,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F32A5943-069C-47E6-B7B1-1C4E8CC11B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32993,4 +33155,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model-VA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D064734-D3D9-45FF-A063-02EB0E92B4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE99769C-978F-4AB0-AE19-C2C9592C0750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="23" r:id="rId1"/>
@@ -21,14 +21,15 @@
     <sheet name="Processes" sheetId="21" r:id="rId6"/>
     <sheet name="SUP_FuelTech" sheetId="17" r:id="rId7"/>
     <sheet name="Imports_Fossil" sheetId="2" r:id="rId8"/>
-    <sheet name="Imports_Bio" sheetId="7" r:id="rId9"/>
-    <sheet name="Domestic" sheetId="3" r:id="rId10"/>
-    <sheet name="Domestic_Bio" sheetId="10" r:id="rId11"/>
-    <sheet name="Refinery" sheetId="12" r:id="rId12"/>
-    <sheet name="Interconnector" sheetId="5" r:id="rId13"/>
-    <sheet name="Emi" sheetId="19" r:id="rId14"/>
-    <sheet name="SEAI-AEA_BioData" sheetId="9" r:id="rId15"/>
-    <sheet name="Conversions" sheetId="16" r:id="rId16"/>
+    <sheet name="Import CO2" sheetId="24" r:id="rId9"/>
+    <sheet name="Imports_Bio" sheetId="7" r:id="rId10"/>
+    <sheet name="Domestic" sheetId="3" r:id="rId11"/>
+    <sheet name="Domestic_Bio" sheetId="10" r:id="rId12"/>
+    <sheet name="Refinery" sheetId="12" r:id="rId13"/>
+    <sheet name="Interconnector" sheetId="5" r:id="rId14"/>
+    <sheet name="Emi" sheetId="19" r:id="rId15"/>
+    <sheet name="SEAI-AEA_BioData" sheetId="9" r:id="rId16"/>
+    <sheet name="Conversions" sheetId="16" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
@@ -55,23 +56,23 @@
     <definedName name="_Regression_Y" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
     <definedName name="aa" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="aa" localSheetId="13" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="aa" localSheetId="14" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec" localSheetId="13" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="14" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec2" localSheetId="13" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="14" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec3" localSheetId="13" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="14" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elecc" localSheetId="13" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="14" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
@@ -111,11 +112,11 @@
     <definedName name="RiskUseFixedSeed" hidden="1">TRUE</definedName>
     <definedName name="RiskUseMultipleCPUs" hidden="1">FALSE</definedName>
     <definedName name="table6" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="table6" localSheetId="13" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="table6" localSheetId="14" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="13" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="14" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
   </definedNames>
@@ -700,6 +701,430 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{B0F85010-F9B2-47CB-9375-04326ED8B0CF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Sets declarations are </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>inherited. 
+Allowed Process Sets</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ELE </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Thermal Electric Power Plant)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CHP </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Combined Heat and Power)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+STGTSS </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Pump Storage)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+STGIPS</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Pump Storage IP)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+PRE </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Genric Process/Technology)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DMD</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Demand Device)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+IMP </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">(Import)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EXP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Export)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+MIN </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Mining Process)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+RNW </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Renewable Technology)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+HPL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Heating Plant)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{52EEC1BB-A777-480F-8EA4-1E3AD2AFBED1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Allowed TsLvl
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ANNUAL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Annual level)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SEASON</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Seasonal level)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WEEKLY</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Weekly level)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DAYNITE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (day and night level)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{B8EF7B5F-2F8F-47CA-ADBA-F9EDC376D86D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Needed only when one wants to override the VEDA default assignment
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{9B6DA35A-DE29-4C4B-A21C-820644749B91}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Allowed Vintage</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NO</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (if empty by default mean </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NO</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+YES</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>KanORS</author>
   </authors>
   <commentList>
@@ -755,7 +1180,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={DF35ABC3-9BB5-47E6-9E75-DAC846139278}</author>
@@ -773,7 +1198,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Alessandro Chiodi</author>
@@ -807,7 +1232,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={826B8038-8340-4DCF-B1C7-9C31DF36714F}</author>
@@ -866,7 +1291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="662">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -2853,56 +3278,111 @@
     <t>NCAP_BND~0</t>
   </si>
   <si>
+    <t>Pja</t>
+  </si>
+  <si>
+    <t>MINCO2-CAL</t>
+  </si>
+  <si>
+    <t>COST~2018</t>
+  </si>
+  <si>
+    <t>AGRCO2N</t>
+  </si>
+  <si>
+    <t>INDCO2N</t>
+  </si>
+  <si>
+    <t>INDCO2P</t>
+  </si>
+  <si>
+    <t>PWRCO2N</t>
+  </si>
+  <si>
+    <t>RSDCO2</t>
+  </si>
+  <si>
+    <t>SRVCO2N</t>
+  </si>
+  <si>
+    <t>TRACO2N</t>
+  </si>
+  <si>
+    <t>Import of Wood Pellets  - Step 1</t>
+  </si>
+  <si>
+    <t>Import of Wood Pellets  - Step 2</t>
+  </si>
+  <si>
+    <t>Import of Wood Pellets  - Step 3</t>
+  </si>
+  <si>
+    <t>Import of Wood Pellets  - Step 4</t>
+  </si>
+  <si>
+    <t>Cost (€/MWh)</t>
+  </si>
+  <si>
+    <t>Cost (€/GJ)</t>
+  </si>
+  <si>
+    <t>Potential quantities of wood pellets available for import to Ireland (PJ)</t>
+  </si>
+  <si>
+    <t>Totoal (PJ)</t>
+  </si>
+  <si>
+    <t>From SEAI Heat Study</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>SEAI, 2022. Sustainable bioenergy for heat, National Heat study, Spatial Assessment of Resources and Evaluation of Costs and GHG Emissions</t>
+  </si>
+  <si>
+    <t>SEAI Heat Study</t>
+  </si>
+  <si>
+    <t>Domestic CO2 calibration</t>
+  </si>
+  <si>
+    <t>~COMAGG_R1C2</t>
+  </si>
+  <si>
+    <t>TOTCO2</t>
+  </si>
+  <si>
+    <t>TOTCO2INT</t>
+  </si>
+  <si>
+    <t>TRACO2INT</t>
+  </si>
+  <si>
     <t>\I: Emissions commodities aggregator</t>
   </si>
   <si>
-    <t>TOTCO2</t>
-  </si>
-  <si>
     <t>Total CO2 Emmissions</t>
   </si>
   <si>
-    <t>AGRCO2N</t>
-  </si>
-  <si>
-    <t>INDCO2N</t>
-  </si>
-  <si>
-    <t>INDCO2P</t>
-  </si>
-  <si>
-    <t>PWRCO2N</t>
-  </si>
-  <si>
-    <t>RSDCO2</t>
-  </si>
-  <si>
-    <t>SRVCO2N</t>
-  </si>
-  <si>
-    <t>TRACO2N</t>
-  </si>
-  <si>
-    <t>TOTCO2INT</t>
-  </si>
-  <si>
-    <t>TRACO2INT</t>
+    <t>LO</t>
   </si>
   <si>
     <t>Total CO2 Emmissions including international</t>
   </si>
   <si>
-    <t>~COMAGG_R1C2</t>
-  </si>
-  <si>
-    <t>LO</t>
+    <t>Vahid Aryanpur (UCC,vahid.aryanpur@ucc.ie)</t>
+  </si>
+  <si>
+    <t>Bakytzhan Suleimenov (UCC, bsuleimenov@ucc.ie)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
@@ -2911,7 +3391,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.0;[Red]\-#,##0.0"/>
     <numFmt numFmtId="170" formatCode="#,##0.000;[Red]\-#,##0.000"/>
   </numFmts>
-  <fonts count="62">
+  <fonts count="66">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3341,6 +3821,31 @@
       <sz val="10"/>
       <name val="MS Sans Serif"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="29">
@@ -5076,7 +5581,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5085,8 +5590,20 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="456">
+  <cellXfs count="488">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6273,6 +6790,76 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="64" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="64" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="64" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="64" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6324,16 +6911,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="12" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="20">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="Comma 2" xfId="15" xr:uid="{8EAB90B5-DA25-4C48-A66A-D14A2BCBB95E}"/>
+    <cellStyle name="Comma 2 2" xfId="16" xr:uid="{C3D1F38D-4B80-4E61-B983-0467EBCD118F}"/>
+    <cellStyle name="Comma 2 2 2" xfId="19" xr:uid="{CB3C5580-3555-450A-87C5-BE87F31B8FA2}"/>
+    <cellStyle name="Comma 2 3" xfId="18" xr:uid="{909C6C48-0409-438D-A962-F9567CBAA46B}"/>
+    <cellStyle name="Comma 3" xfId="17" xr:uid="{22B30534-93D4-457E-AC12-0447548E19A1}"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="8" xr:uid="{4C671E58-F0B1-48D4-BD8A-E4C5F735094E}"/>
     <cellStyle name="Normal 2" xfId="6" xr:uid="{3D1F24A5-7B62-4933-90AC-B7DE3913179A}"/>
+    <cellStyle name="Normal 3" xfId="10" xr:uid="{3A5DCF80-BC8D-49C1-B4F6-BDDD1028664B}"/>
+    <cellStyle name="Normal 5" xfId="12" xr:uid="{74CEF3ED-0D60-47C8-B1B4-1A49024E2AD9}"/>
+    <cellStyle name="Normal 5 2 2" xfId="13" xr:uid="{3ACC3B69-92B6-474A-BC03-8602E10CB9DB}"/>
     <cellStyle name="Normal_2000balx" xfId="7" xr:uid="{EFD0CB67-65B2-4C54-B075-572C00869A7E}"/>
+    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="9" xr:uid="{F7F83E46-EBD5-4CAB-9F34-C6097ED8BD9F}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="11" xr:uid="{A71DCDAC-074E-4012-92BF-C1020F72F4B1}"/>
+    <cellStyle name="Percent 3" xfId="14" xr:uid="{FB47DF39-E1AE-4A7C-976B-577886D4D5B4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6782,7 +7399,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>14325</xdr:colOff>
+      <xdr:colOff>11150</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>38212</xdr:rowOff>
     </xdr:to>
@@ -6828,7 +7445,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>2683</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>4500</xdr:rowOff>
+      <xdr:rowOff>7675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6875,9 +7492,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>312511</xdr:colOff>
+      <xdr:colOff>315686</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>4500</xdr:rowOff>
+      <xdr:rowOff>7675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6927,7 +7544,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1408474</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>4500</xdr:rowOff>
+      <xdr:rowOff>7675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6977,7 +7594,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>109275</xdr:rowOff>
+      <xdr:rowOff>106100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7145,6 +7762,55 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>272141</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>108855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>27213</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>149871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4490355" y="14804569"/>
+          <a:ext cx="4397829" cy="4667445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
@@ -7163,7 +7829,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7505,20 +8171,20 @@
   <dimension ref="A1:Z99"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B27" sqref="B27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="4" width="21.7265625" customWidth="1"/>
-    <col min="5" max="6" width="14.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="8" max="10" width="8.1796875" customWidth="1"/>
+    <col min="5" max="6" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+    <col min="8" max="10" width="8.08984375" customWidth="1"/>
     <col min="11" max="11" width="9.7265625" customWidth="1"/>
-    <col min="12" max="12" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="8.08984375" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" customWidth="1"/>
+    <col min="15" max="15" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -7942,12 +8608,12 @@
       <c r="Z15" s="277"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
-      <c r="A16" s="440" t="s">
+      <c r="A16" s="464" t="s">
         <v>579</v>
       </c>
-      <c r="B16" s="440"/>
-      <c r="C16" s="440"/>
-      <c r="D16" s="440"/>
+      <c r="B16" s="464"/>
+      <c r="C16" s="464"/>
+      <c r="D16" s="464"/>
       <c r="E16" s="278"/>
       <c r="F16" s="278"/>
       <c r="G16" s="279"/>
@@ -8031,11 +8697,11 @@
       <c r="A19" s="283" t="s">
         <v>580</v>
       </c>
-      <c r="B19" s="439" t="s">
+      <c r="B19" s="463" t="s">
         <v>595</v>
       </c>
-      <c r="C19" s="439"/>
-      <c r="D19" s="439"/>
+      <c r="C19" s="463"/>
+      <c r="D19" s="463"/>
       <c r="E19" s="284"/>
       <c r="F19" s="284"/>
       <c r="G19" s="285"/>
@@ -8063,11 +8729,11 @@
       <c r="A20" s="283" t="s">
         <v>581</v>
       </c>
-      <c r="B20" s="439" t="s">
+      <c r="B20" s="463" t="s">
         <v>594</v>
       </c>
-      <c r="C20" s="439"/>
-      <c r="D20" s="439"/>
+      <c r="C20" s="463"/>
+      <c r="D20" s="463"/>
       <c r="E20" s="284"/>
       <c r="F20" s="284"/>
       <c r="G20" s="285"/>
@@ -8155,11 +8821,11 @@
       <c r="A23" s="283" t="s">
         <v>583</v>
       </c>
-      <c r="B23" s="439" t="s">
+      <c r="B23" s="463" t="s">
         <v>592</v>
       </c>
-      <c r="C23" s="439"/>
-      <c r="D23" s="439"/>
+      <c r="C23" s="463"/>
+      <c r="D23" s="463"/>
       <c r="E23" s="277"/>
       <c r="F23" s="277"/>
       <c r="G23" s="277"/>
@@ -8247,11 +8913,11 @@
       <c r="A26" s="283" t="s">
         <v>584</v>
       </c>
-      <c r="B26" s="439" t="s">
-        <v>591</v>
-      </c>
-      <c r="C26" s="439"/>
-      <c r="D26" s="439"/>
+      <c r="B26" s="463" t="s">
+        <v>660</v>
+      </c>
+      <c r="C26" s="463"/>
+      <c r="D26" s="463"/>
       <c r="E26" s="277"/>
       <c r="F26" s="277"/>
       <c r="G26" s="277"/>
@@ -8277,9 +8943,11 @@
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1">
       <c r="A27" s="283"/>
-      <c r="B27" s="286"/>
-      <c r="C27" s="286"/>
-      <c r="D27" s="286"/>
+      <c r="B27" s="463" t="s">
+        <v>661</v>
+      </c>
+      <c r="C27" s="463"/>
+      <c r="D27" s="463"/>
       <c r="E27" s="277"/>
       <c r="F27" s="277"/>
       <c r="G27" s="277"/>
@@ -8367,11 +9035,11 @@
       <c r="A30" s="283" t="s">
         <v>586</v>
       </c>
-      <c r="B30" s="441" t="s">
+      <c r="B30" s="465" t="s">
         <v>587</v>
       </c>
-      <c r="C30" s="439"/>
-      <c r="D30" s="439"/>
+      <c r="C30" s="463"/>
+      <c r="D30" s="463"/>
       <c r="E30" s="288"/>
       <c r="F30" s="288"/>
       <c r="G30" s="277"/>
@@ -8399,11 +9067,11 @@
       <c r="A31" s="283" t="s">
         <v>588</v>
       </c>
-      <c r="B31" s="439" t="s">
+      <c r="B31" s="463" t="s">
         <v>589</v>
       </c>
-      <c r="C31" s="439"/>
-      <c r="D31" s="439"/>
+      <c r="C31" s="463"/>
+      <c r="D31" s="463"/>
       <c r="E31" s="288"/>
       <c r="F31" s="288"/>
       <c r="G31" s="277"/>
@@ -10334,7 +11002,7 @@
       <c r="Z99" s="277"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="B19:D19"/>
@@ -10342,6 +11010,7 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B30" r:id="rId1" xr:uid="{F7F8F6D6-10DA-4B47-BA30-3EBC39D07587}"/>
@@ -10354,18 +11023,2897 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="B2:W79"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="3.81640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="31.90625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" style="23" customWidth="1"/>
+    <col min="6" max="13" width="10.81640625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="12.81640625" style="23" customWidth="1"/>
+    <col min="15" max="16" width="13" style="23" customWidth="1"/>
+    <col min="17" max="17" width="21.81640625" style="23" customWidth="1"/>
+    <col min="18" max="18" width="29.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="9.08984375" style="23"/>
+    <col min="23" max="23" width="14.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.08984375" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="18.5">
+      <c r="B2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="32.65" customHeight="1" thickBot="1">
+      <c r="B4" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="93"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="21" t="str">
+        <f>Processes!C23</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C5" s="21" t="str">
+        <f>Processes!D23</f>
+        <v>IMPBIOETH1G_S1</v>
+      </c>
+      <c r="D5" s="22" t="str">
+        <f>Processes!E23</f>
+        <v>Import of Ethanol 1st generation  - Step 1</v>
+      </c>
+      <c r="E5" s="22" t="str">
+        <f>Commodities!$C$30</f>
+        <v>BIOETH1G</v>
+      </c>
+      <c r="F5" s="50">
+        <f>'SEAI-AEA_BioData'!K$23</f>
+        <v>18.176172733352441</v>
+      </c>
+      <c r="G5" s="50">
+        <f>'SEAI-AEA_BioData'!L$23</f>
+        <v>17.579057991783699</v>
+      </c>
+      <c r="H5" s="50">
+        <f>'SEAI-AEA_BioData'!M$23</f>
+        <v>16.599789815610968</v>
+      </c>
+      <c r="I5" s="50">
+        <f>'SEAI-AEA_BioData'!N$23</f>
+        <v>15.883252125728479</v>
+      </c>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="22"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="21" t="str">
+        <f>Processes!C24</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C6" s="21" t="str">
+        <f>Processes!D24</f>
+        <v>IMPBIOETH1G_S2</v>
+      </c>
+      <c r="D6" s="22" t="str">
+        <f>Processes!E24</f>
+        <v>Import of Ethanol 1st generation  - Step 2</v>
+      </c>
+      <c r="E6" s="22" t="str">
+        <f>Commodities!$C$30</f>
+        <v>BIOETH1G</v>
+      </c>
+      <c r="F6" s="50">
+        <f>'SEAI-AEA_BioData'!K$33</f>
+        <v>18.916595012897677</v>
+      </c>
+      <c r="G6" s="50">
+        <f>'SEAI-AEA_BioData'!L$33</f>
+        <v>19.083787140536923</v>
+      </c>
+      <c r="H6" s="50">
+        <f>'SEAI-AEA_BioData'!M$33</f>
+        <v>18.916595012897677</v>
+      </c>
+      <c r="I6" s="50">
+        <f>'SEAI-AEA_BioData'!N$33</f>
+        <v>19.131556319862423</v>
+      </c>
+      <c r="J6" s="50">
+        <f>I6*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
+        <v>20.390211340906003</v>
+      </c>
+      <c r="K6" s="50">
+        <f>I6*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
+        <v>21.397135357740865</v>
+      </c>
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="22" t="str">
+        <f>Processes!C25</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C7" s="22" t="str">
+        <f>Processes!D25</f>
+        <v>IMPBIOETH1G_S3</v>
+      </c>
+      <c r="D7" s="22" t="str">
+        <f>Processes!E25</f>
+        <v>Import of Ethanol 1st generation  - Step 3</v>
+      </c>
+      <c r="E7" s="22" t="str">
+        <f>Commodities!$C$30</f>
+        <v>BIOETH1G</v>
+      </c>
+      <c r="F7" s="50">
+        <f>'SEAI-AEA_BioData'!K$44</f>
+        <v>19.680901882105665</v>
+      </c>
+      <c r="G7" s="50">
+        <f>'SEAI-AEA_BioData'!L$44</f>
+        <v>20.684054647941146</v>
+      </c>
+      <c r="H7" s="50">
+        <f>'SEAI-AEA_BioData'!M$44</f>
+        <v>21.758861182764878</v>
+      </c>
+      <c r="I7" s="50">
+        <f>'SEAI-AEA_BioData'!N$44</f>
+        <v>23.550205407471097</v>
+      </c>
+      <c r="J7" s="50">
+        <f>I7*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
+        <v>25.099561026383665</v>
+      </c>
+      <c r="K7" s="50">
+        <f>I7*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
+        <v>26.339045521513725</v>
+      </c>
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="39" t="str">
+        <f>Processes!C26</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C8" s="39" t="str">
+        <f>Processes!D26</f>
+        <v>IMPBIOETH1G_S4</v>
+      </c>
+      <c r="D8" s="39" t="str">
+        <f>Processes!E26</f>
+        <v>Import of Ethanol 1st generation  - Step 4</v>
+      </c>
+      <c r="E8" s="39" t="str">
+        <f>Commodities!$C$30</f>
+        <v>BIOETH1G</v>
+      </c>
+      <c r="F8" s="51">
+        <f>'SEAI-AEA_BioData'!K$55</f>
+        <v>20.636285468615647</v>
+      </c>
+      <c r="G8" s="51">
+        <f>'SEAI-AEA_BioData'!L$55</f>
+        <v>22.714244769274863</v>
+      </c>
+      <c r="H8" s="51">
+        <f>'SEAI-AEA_BioData'!M$55</f>
+        <v>25.174357504538072</v>
+      </c>
+      <c r="I8" s="51">
+        <f>'SEAI-AEA_BioData'!N$55</f>
+        <v>28.757045953950509</v>
+      </c>
+      <c r="J8" s="51">
+        <f>I8*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
+        <v>30.648956871973571</v>
+      </c>
+      <c r="K8" s="51">
+        <f>I8*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
+        <v>32.162485606392018</v>
+      </c>
+      <c r="L8" s="39"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="22" t="str">
+        <f>Processes!C27</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C9" s="22" t="str">
+        <f>Processes!D27</f>
+        <v>IMPBIODST1G_S1</v>
+      </c>
+      <c r="D9" s="22" t="str">
+        <f>Processes!E27</f>
+        <v>Import of Biodiesel 1st generation  - Step 1</v>
+      </c>
+      <c r="E9" s="22" t="str">
+        <f>Commodities!$C$32</f>
+        <v>BIODST1G</v>
+      </c>
+      <c r="F9" s="50">
+        <f>'SEAI-AEA_BioData'!K$25</f>
+        <v>31.360466227190216</v>
+      </c>
+      <c r="G9" s="50">
+        <f>'SEAI-AEA_BioData'!L$25</f>
+        <v>33.175695041559187</v>
+      </c>
+      <c r="H9" s="50">
+        <f>'SEAI-AEA_BioData'!M$25</f>
+        <v>31.862042610107956</v>
+      </c>
+      <c r="I9" s="50">
+        <f>'SEAI-AEA_BioData'!N$25</f>
+        <v>31.336581637527466</v>
+      </c>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="22"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="22" t="str">
+        <f>Processes!C28</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C10" s="22" t="str">
+        <f>Processes!D28</f>
+        <v>IMPBIODST1G_S2</v>
+      </c>
+      <c r="D10" s="22" t="str">
+        <f>Processes!E28</f>
+        <v>Import of Biodiesel 1st generation  - Step 2</v>
+      </c>
+      <c r="E10" s="22" t="str">
+        <f>Commodities!$C$32</f>
+        <v>BIODST1G</v>
+      </c>
+      <c r="F10" s="50">
+        <f>'SEAI-AEA_BioData'!K$35</f>
+        <v>32.650234068978691</v>
+      </c>
+      <c r="G10" s="50">
+        <f>'SEAI-AEA_BioData'!L$35</f>
+        <v>35.826884494124393</v>
+      </c>
+      <c r="H10" s="50">
+        <f>'SEAI-AEA_BioData'!M$35</f>
+        <v>35.97019203210089</v>
+      </c>
+      <c r="I10" s="50">
+        <f>'SEAI-AEA_BioData'!N$35</f>
+        <v>37.021113977261869</v>
+      </c>
+      <c r="J10" s="50">
+        <f>I10*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
+        <v>39.456713581029099</v>
+      </c>
+      <c r="K10" s="50">
+        <f>I10*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
+        <v>41.405193264042879</v>
+      </c>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="22" t="str">
+        <f>Processes!C29</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C11" s="22" t="str">
+        <f>Processes!D29</f>
+        <v>IMPBIODST1G_S3</v>
+      </c>
+      <c r="D11" s="22" t="str">
+        <f>Processes!E29</f>
+        <v>Import of Biodiesel 1st generation  - Step 3</v>
+      </c>
+      <c r="E11" s="22" t="str">
+        <f>Commodities!$C$32</f>
+        <v>BIODST1G</v>
+      </c>
+      <c r="F11" s="50">
+        <f>'SEAI-AEA_BioData'!K$46</f>
+        <v>33.916117321104423</v>
+      </c>
+      <c r="G11" s="50">
+        <f>'SEAI-AEA_BioData'!L$46</f>
+        <v>38.334766408713094</v>
+      </c>
+      <c r="H11" s="50">
+        <f>'SEAI-AEA_BioData'!M$46</f>
+        <v>40.460494888697809</v>
+      </c>
+      <c r="I11" s="50">
+        <f>'SEAI-AEA_BioData'!N$46</f>
+        <v>43.756568262157252</v>
+      </c>
+      <c r="J11" s="50">
+        <f>I11*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
+        <v>46.635289858351811</v>
+      </c>
+      <c r="K11" s="50">
+        <f>I11*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
+        <v>48.938267135307449</v>
+      </c>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="39" t="str">
+        <f>Processes!C30</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C12" s="39" t="str">
+        <f>Processes!D30</f>
+        <v>IMPBIODST1G_S4</v>
+      </c>
+      <c r="D12" s="39" t="str">
+        <f>Processes!E30</f>
+        <v>Import of Biodiesel 1st generation  - Step 4</v>
+      </c>
+      <c r="E12" s="39" t="str">
+        <f>Commodities!$C$32</f>
+        <v>BIODST1G</v>
+      </c>
+      <c r="F12" s="51">
+        <f>'SEAI-AEA_BioData'!K$57</f>
+        <v>35.540269418171391</v>
+      </c>
+      <c r="G12" s="51">
+        <f>'SEAI-AEA_BioData'!L$57</f>
+        <v>41.917454858125538</v>
+      </c>
+      <c r="H12" s="51">
+        <f>'SEAI-AEA_BioData'!M$57</f>
+        <v>46.527180663036205</v>
+      </c>
+      <c r="I12" s="51">
+        <f>'SEAI-AEA_BioData'!N$57</f>
+        <v>52.832712334002096</v>
+      </c>
+      <c r="J12" s="51">
+        <f>I12*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
+        <v>56.308548671765386</v>
+      </c>
+      <c r="K12" s="51">
+        <f>I12*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
+        <v>59.089217741976029</v>
+      </c>
+      <c r="L12" s="39"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="448" t="str">
+        <f>Processes!C32</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C13" s="448" t="str">
+        <f>Processes!D32</f>
+        <v>IMPBIOWPE_S1</v>
+      </c>
+      <c r="D13" s="448" t="str">
+        <f>Processes!E32</f>
+        <v>Import of Wood Pellets  - Step 1</v>
+      </c>
+      <c r="E13" s="448" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F13" s="445">
+        <f t="shared" ref="F13:K13" si="0">$F$67</f>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="G13" s="445">
+        <f t="shared" si="0"/>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="H13" s="445">
+        <f t="shared" si="0"/>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="I13" s="445">
+        <f t="shared" si="0"/>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="J13" s="445">
+        <f t="shared" si="0"/>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="K13" s="445">
+        <f t="shared" si="0"/>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="L13" s="448"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="448" t="str">
+        <f>Processes!C33</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C14" s="448" t="str">
+        <f>Processes!D33</f>
+        <v>IMPBIOWPE_S2</v>
+      </c>
+      <c r="D14" s="448" t="str">
+        <f>Processes!E33</f>
+        <v>Import of Wood Pellets  - Step 2</v>
+      </c>
+      <c r="E14" s="448" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F14" s="445">
+        <f t="shared" ref="F14:K14" si="1">$F$68</f>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="G14" s="445">
+        <f t="shared" si="1"/>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="H14" s="445">
+        <f t="shared" si="1"/>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="I14" s="445">
+        <f t="shared" si="1"/>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="J14" s="445">
+        <f t="shared" si="1"/>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="K14" s="445">
+        <f t="shared" si="1"/>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="L14" s="448"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="448" t="str">
+        <f>Processes!C34</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C15" s="448" t="str">
+        <f>Processes!D34</f>
+        <v>IMPBIOWPE_S3</v>
+      </c>
+      <c r="D15" s="448" t="str">
+        <f>Processes!E34</f>
+        <v>Import of Wood Pellets  - Step 3</v>
+      </c>
+      <c r="E15" s="448" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F15" s="445">
+        <f t="shared" ref="F15:K15" si="2">$F$69</f>
+        <v>10.166666666666666</v>
+      </c>
+      <c r="G15" s="445">
+        <f t="shared" si="2"/>
+        <v>10.166666666666666</v>
+      </c>
+      <c r="H15" s="445">
+        <f t="shared" si="2"/>
+        <v>10.166666666666666</v>
+      </c>
+      <c r="I15" s="445">
+        <f t="shared" si="2"/>
+        <v>10.166666666666666</v>
+      </c>
+      <c r="J15" s="445">
+        <f t="shared" si="2"/>
+        <v>10.166666666666666</v>
+      </c>
+      <c r="K15" s="445">
+        <f t="shared" si="2"/>
+        <v>10.166666666666666</v>
+      </c>
+      <c r="L15" s="448"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="443" t="str">
+        <f>Processes!C35</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C16" s="443" t="str">
+        <f>Processes!D35</f>
+        <v>IMPBIOWPE_S4</v>
+      </c>
+      <c r="D16" s="443" t="str">
+        <f>Processes!E35</f>
+        <v>Import of Wood Pellets  - Step 4</v>
+      </c>
+      <c r="E16" s="443" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F16" s="447">
+        <f t="shared" ref="F16:K16" si="3">$F$70</f>
+        <v>11.194444444444443</v>
+      </c>
+      <c r="G16" s="447">
+        <f t="shared" si="3"/>
+        <v>11.194444444444443</v>
+      </c>
+      <c r="H16" s="447">
+        <f t="shared" si="3"/>
+        <v>11.194444444444443</v>
+      </c>
+      <c r="I16" s="447">
+        <f t="shared" si="3"/>
+        <v>11.194444444444443</v>
+      </c>
+      <c r="J16" s="447">
+        <f t="shared" si="3"/>
+        <v>11.194444444444443</v>
+      </c>
+      <c r="K16" s="447">
+        <f t="shared" si="3"/>
+        <v>11.194444444444443</v>
+      </c>
+      <c r="L16" s="443"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="22" t="str">
+        <f>Processes!C36</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C17" s="22" t="str">
+        <f>Processes!D36</f>
+        <v>IMPBIOWCH_S1</v>
+      </c>
+      <c r="D17" s="22" t="str">
+        <f>Processes!E36</f>
+        <v>Import of Wood Chip  - Step 1</v>
+      </c>
+      <c r="E17" s="22" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F17" s="50">
+        <f>'SEAI-AEA_BioData'!K$19</f>
+        <v>5.2068405464794116</v>
+      </c>
+      <c r="G17" s="50">
+        <f>'SEAI-AEA_BioData'!L$19</f>
+        <v>4.1559186013184295</v>
+      </c>
+      <c r="H17" s="50">
+        <f>'SEAI-AEA_BioData'!M$19</f>
+        <v>3.5588038597496894</v>
+      </c>
+      <c r="I17" s="50">
+        <f>'SEAI-AEA_BioData'!N$19</f>
+        <v>3.3916117321104422</v>
+      </c>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="22" t="str">
+        <f>Processes!C37</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C18" s="22" t="str">
+        <f>Processes!D37</f>
+        <v>IMPBIOWCH_S2</v>
+      </c>
+      <c r="D18" s="22" t="str">
+        <f>Processes!E37</f>
+        <v>Import of Wood Chip  - Step 2</v>
+      </c>
+      <c r="E18" s="22" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F18" s="50">
+        <f>'SEAI-AEA_BioData'!K$40</f>
+        <v>5.3979172637814079</v>
+      </c>
+      <c r="G18" s="50">
+        <f>'SEAI-AEA_BioData'!L$40</f>
+        <v>4.4186490876086744</v>
+      </c>
+      <c r="H18" s="50">
+        <f>'SEAI-AEA_BioData'!M$40</f>
+        <v>3.9409572943536828</v>
+      </c>
+      <c r="I18" s="50">
+        <f>'SEAI-AEA_BioData'!N$40</f>
+        <v>3.8693035253654342</v>
+      </c>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="22" t="str">
+        <f>Processes!C38</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C19" s="22" t="str">
+        <f>Processes!D38</f>
+        <v>IMPBIOWCH_S3</v>
+      </c>
+      <c r="D19" s="22" t="str">
+        <f>Processes!E38</f>
+        <v>Import of Wood Chip  - Step 3</v>
+      </c>
+      <c r="E19" s="22" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F19" s="50">
+        <f>'SEAI-AEA_BioData'!K$29</f>
+        <v>6.1383395433266452</v>
+      </c>
+      <c r="G19" s="50">
+        <f>'SEAI-AEA_BioData'!L$29</f>
+        <v>5.039648418840164</v>
+      </c>
+      <c r="H19" s="50">
+        <f>'SEAI-AEA_BioData'!M$29</f>
+        <v>4.4664182669341734</v>
+      </c>
+      <c r="I19" s="50">
+        <f>'SEAI-AEA_BioData'!N$29</f>
+        <v>4.3708799082831753</v>
+      </c>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="39" t="str">
+        <f>Processes!C39</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C20" s="39" t="str">
+        <f>Processes!D39</f>
+        <v>IMPBIOWCH_S4</v>
+      </c>
+      <c r="D20" s="39" t="str">
+        <f>Processes!E39</f>
+        <v>Import of Wood Chip  - Step 4</v>
+      </c>
+      <c r="E20" s="39" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F20" s="51">
+        <f>'SEAI-AEA_BioData'!K$51</f>
+        <v>6.3771854399541414</v>
+      </c>
+      <c r="G20" s="51">
+        <f>'SEAI-AEA_BioData'!L$51</f>
+        <v>5.3979172637814079</v>
+      </c>
+      <c r="H20" s="51">
+        <f>'SEAI-AEA_BioData'!M$51</f>
+        <v>4.9918792395146649</v>
+      </c>
+      <c r="I20" s="51">
+        <f>'SEAI-AEA_BioData'!N$51</f>
+        <v>5.039648418840164</v>
+      </c>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="39"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="2:18" ht="18.5">
+      <c r="B22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="F22" s="5" t="str">
+        <f>Imports_Fossil!G3</f>
+        <v>~FI_T: IRE_PRICE</v>
+      </c>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+    </row>
+    <row r="23" spans="2:18" ht="30.75" customHeight="1">
+      <c r="B23" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="7" t="str">
+        <f>Imports_Fossil!H4</f>
+        <v>2018~MEUR2018</v>
+      </c>
+      <c r="H23" s="7" t="str">
+        <f>Imports_Fossil!I4</f>
+        <v>2019~MEUR2019</v>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f>Imports_Fossil!J4</f>
+        <v>2025~MEUR2019</v>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f>Imports_Fossil!K4</f>
+        <v>2030~MEUR2019</v>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f>Imports_Fossil!L4</f>
+        <v>2035~MEUR2019</v>
+      </c>
+      <c r="L23" s="7" t="str">
+        <f>Imports_Fossil!M4</f>
+        <v>2040~MEUR2019</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="26.5" thickBot="1">
+      <c r="B24" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="93"/>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="206" t="str">
+        <f>Processes!C31</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C25" s="206" t="str">
+        <f>Processes!D31</f>
+        <v>IMPBIOJKR_S1</v>
+      </c>
+      <c r="D25" s="206" t="str">
+        <f>Processes!E31</f>
+        <v>Import of Bio Jet Kerosene - Step 1</v>
+      </c>
+      <c r="E25" s="206" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="206" t="str">
+        <f>Commodities!C36</f>
+        <v>BIOJKR</v>
+      </c>
+      <c r="G25" s="207">
+        <f>Imports_Fossil!H18*1.6</f>
+        <v>26.566026131233826</v>
+      </c>
+      <c r="H25" s="207">
+        <f>Imports_Fossil!I16*1.6</f>
+        <v>25.964334287665327</v>
+      </c>
+      <c r="I25" s="207">
+        <f>Imports_Fossil!J16*1.6</f>
+        <v>29.261392609908548</v>
+      </c>
+      <c r="J25" s="207">
+        <f>Imports_Fossil!K16*1.6</f>
+        <v>31.322054061310553</v>
+      </c>
+      <c r="K25" s="207">
+        <f>Imports_Fossil!L16*1.6</f>
+        <v>33.382715512712565</v>
+      </c>
+      <c r="L25" s="207">
+        <f>Imports_Fossil!M16*1.6</f>
+        <v>35.031244673834173</v>
+      </c>
+      <c r="M25" s="270" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+    </row>
+    <row r="27" spans="2:18" ht="26">
+      <c r="B27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="F27" s="42"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="N27" s="129" t="s">
+        <v>153</v>
+      </c>
+      <c r="O27" s="127"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="127"/>
+      <c r="R27" s="127"/>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" ht="24.9" customHeight="1" thickBot="1">
+      <c r="B29" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="93"/>
+      <c r="N29" s="128"/>
+      <c r="O29" s="128"/>
+      <c r="P29" s="153" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q29" s="153"/>
+      <c r="R29" s="153" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="15" thickBot="1">
+      <c r="B30" s="43" t="str">
+        <f t="shared" ref="B30" si="4">B13</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C30" s="43" t="str">
+        <f t="shared" ref="C30:D30" si="5">C13</f>
+        <v>IMPBIOWPE_S1</v>
+      </c>
+      <c r="D30" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>Import of Wood Pellets  - Step 1</v>
+      </c>
+      <c r="E30" s="22" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F30" s="94">
+        <f t="shared" ref="F30:F37" si="6">SUM($P$30:$R$30)</f>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G30" s="94">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+        <v>4.3203296703296701</v>
+      </c>
+      <c r="H30" s="94">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+        <v>4.4527472527472529</v>
+      </c>
+      <c r="I30" s="94">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+        <v>4.5851648351648358</v>
+      </c>
+      <c r="J30" s="94">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+        <v>4.6910989010989006</v>
+      </c>
+      <c r="K30" s="471" t="s">
+        <v>114</v>
+      </c>
+      <c r="N30" s="130" t="s">
+        <v>157</v>
+      </c>
+      <c r="O30" s="151" t="s">
+        <v>158</v>
+      </c>
+      <c r="P30" s="144">
+        <v>0.53</v>
+      </c>
+      <c r="Q30" s="144">
+        <v>1.91</v>
+      </c>
+      <c r="R30" s="144">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="B31" s="21" t="str">
+        <f t="shared" ref="B31" si="7">B14</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C31" s="21" t="str">
+        <f t="shared" ref="C31:D31" si="8">C14</f>
+        <v>IMPBIOWPE_S2</v>
+      </c>
+      <c r="D31" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>Import of Wood Pellets  - Step 2</v>
+      </c>
+      <c r="E31" s="22" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F31" s="41">
+        <f t="shared" si="6"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G31" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+        <v>4.3203296703296701</v>
+      </c>
+      <c r="H31" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+        <v>4.4527472527472529</v>
+      </c>
+      <c r="I31" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+        <v>4.5851648351648358</v>
+      </c>
+      <c r="J31" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+        <v>4.6910989010989006</v>
+      </c>
+      <c r="K31" s="472"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="149"/>
+      <c r="P31" s="149"/>
+      <c r="Q31" s="149"/>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="B32" s="21" t="str">
+        <f t="shared" ref="B32" si="9">B15</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C32" s="21" t="str">
+        <f t="shared" ref="C32:D32" si="10">C15</f>
+        <v>IMPBIOWPE_S3</v>
+      </c>
+      <c r="D32" s="21" t="str">
+        <f t="shared" si="10"/>
+        <v>Import of Wood Pellets  - Step 3</v>
+      </c>
+      <c r="E32" s="22" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F32" s="41">
+        <f t="shared" si="6"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G32" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+        <v>4.3203296703296701</v>
+      </c>
+      <c r="H32" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+        <v>4.4527472527472529</v>
+      </c>
+      <c r="I32" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+        <v>4.5851648351648358</v>
+      </c>
+      <c r="J32" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+        <v>4.6910989010989006</v>
+      </c>
+      <c r="K32" s="472"/>
+      <c r="M32" s="22"/>
+    </row>
+    <row r="33" spans="2:23">
+      <c r="B33" s="45" t="str">
+        <f t="shared" ref="B33" si="11">B16</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C33" s="45" t="str">
+        <f t="shared" ref="C33:D33" si="12">C16</f>
+        <v>IMPBIOWPE_S4</v>
+      </c>
+      <c r="D33" s="45" t="str">
+        <f t="shared" si="12"/>
+        <v>Import of Wood Pellets  - Step 4</v>
+      </c>
+      <c r="E33" s="39" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F33" s="28">
+        <f t="shared" si="6"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G33" s="28">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+        <v>4.3203296703296701</v>
+      </c>
+      <c r="H33" s="28">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+        <v>4.4527472527472529</v>
+      </c>
+      <c r="I33" s="28">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+        <v>4.5851648351648358</v>
+      </c>
+      <c r="J33" s="28">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+        <v>4.6910989010989006</v>
+      </c>
+      <c r="K33" s="472"/>
+      <c r="M33" s="22"/>
+    </row>
+    <row r="34" spans="2:23">
+      <c r="B34" s="95" t="str">
+        <f t="shared" ref="B34" si="13">B17</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C34" s="95" t="str">
+        <f t="shared" ref="C34:D34" si="14">C17</f>
+        <v>IMPBIOWCH_S1</v>
+      </c>
+      <c r="D34" s="95" t="str">
+        <f t="shared" si="14"/>
+        <v>Import of Wood Chip  - Step 1</v>
+      </c>
+      <c r="E34" s="22" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F34" s="96">
+        <f t="shared" si="6"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G34" s="96">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+        <v>4.3203296703296701</v>
+      </c>
+      <c r="H34" s="96">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+        <v>4.4527472527472529</v>
+      </c>
+      <c r="I34" s="96">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+        <v>4.5851648351648358</v>
+      </c>
+      <c r="J34" s="96">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+        <v>4.6910989010989006</v>
+      </c>
+      <c r="K34" s="472"/>
+      <c r="M34" s="22"/>
+    </row>
+    <row r="35" spans="2:23">
+      <c r="B35" s="21" t="str">
+        <f t="shared" ref="B35" si="15">B18</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C35" s="21" t="str">
+        <f t="shared" ref="C35:D35" si="16">C18</f>
+        <v>IMPBIOWCH_S2</v>
+      </c>
+      <c r="D35" s="21" t="str">
+        <f t="shared" si="16"/>
+        <v>Import of Wood Chip  - Step 2</v>
+      </c>
+      <c r="E35" s="22" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F35" s="41">
+        <f t="shared" si="6"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G35" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+        <v>4.3203296703296701</v>
+      </c>
+      <c r="H35" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+        <v>4.4527472527472529</v>
+      </c>
+      <c r="I35" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+        <v>4.5851648351648358</v>
+      </c>
+      <c r="J35" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+        <v>4.6910989010989006</v>
+      </c>
+      <c r="K35" s="472"/>
+      <c r="M35" s="22"/>
+    </row>
+    <row r="36" spans="2:23">
+      <c r="B36" s="21" t="str">
+        <f t="shared" ref="B36" si="17">B19</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C36" s="21" t="str">
+        <f t="shared" ref="C36:D36" si="18">C19</f>
+        <v>IMPBIOWCH_S3</v>
+      </c>
+      <c r="D36" s="21" t="str">
+        <f t="shared" si="18"/>
+        <v>Import of Wood Chip  - Step 3</v>
+      </c>
+      <c r="E36" s="22" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F36" s="41">
+        <f t="shared" si="6"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G36" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+        <v>4.3203296703296701</v>
+      </c>
+      <c r="H36" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+        <v>4.4527472527472529</v>
+      </c>
+      <c r="I36" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+        <v>4.5851648351648358</v>
+      </c>
+      <c r="J36" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+        <v>4.6910989010989006</v>
+      </c>
+      <c r="K36" s="472"/>
+      <c r="M36" s="22"/>
+    </row>
+    <row r="37" spans="2:23">
+      <c r="B37" s="45" t="str">
+        <f t="shared" ref="B37" si="19">B20</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C37" s="45" t="str">
+        <f t="shared" ref="C37:D37" si="20">C20</f>
+        <v>IMPBIOWCH_S4</v>
+      </c>
+      <c r="D37" s="45" t="str">
+        <f t="shared" si="20"/>
+        <v>Import of Wood Chip  - Step 4</v>
+      </c>
+      <c r="E37" s="39" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F37" s="28">
+        <f t="shared" si="6"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G37" s="28">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+        <v>4.3203296703296701</v>
+      </c>
+      <c r="H37" s="28">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+        <v>4.4527472527472529</v>
+      </c>
+      <c r="I37" s="28">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+        <v>4.5851648351648358</v>
+      </c>
+      <c r="J37" s="28">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+        <v>4.6910989010989006</v>
+      </c>
+      <c r="K37" s="473"/>
+      <c r="M37" s="22"/>
+    </row>
+    <row r="38" spans="2:23">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+    </row>
+    <row r="39" spans="2:23">
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+    </row>
+    <row r="40" spans="2:23" ht="18.5">
+      <c r="B40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+    </row>
+    <row r="41" spans="2:23">
+      <c r="B41" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="7">
+        <v>2018</v>
+      </c>
+      <c r="G41" s="7">
+        <v>2020</v>
+      </c>
+      <c r="H41" s="7">
+        <v>2025</v>
+      </c>
+      <c r="I41" s="7">
+        <v>2030</v>
+      </c>
+      <c r="J41" s="7">
+        <v>2035</v>
+      </c>
+      <c r="K41" s="7">
+        <v>2040</v>
+      </c>
+      <c r="L41" s="7">
+        <v>2045</v>
+      </c>
+      <c r="M41" s="7">
+        <v>2050</v>
+      </c>
+      <c r="N41" s="195">
+        <v>0</v>
+      </c>
+      <c r="O41" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="P41" s="7"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+    </row>
+    <row r="42" spans="2:23" ht="26.65" customHeight="1" thickBot="1">
+      <c r="B42" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+    </row>
+    <row r="43" spans="2:23">
+      <c r="B43" s="43" t="str">
+        <f>Imports_Bio!B5</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C43" s="43" t="str">
+        <f>Imports_Bio!C5</f>
+        <v>IMPBIOETH1G_S1</v>
+      </c>
+      <c r="D43" s="43" t="str">
+        <f>Imports_Bio!D5</f>
+        <v>Import of Ethanol 1st generation  - Step 1</v>
+      </c>
+      <c r="E43" s="44" t="str">
+        <f>Commodities!$C$30</f>
+        <v>BIOETH1G</v>
+      </c>
+      <c r="F43" s="146">
+        <f>'EB2018'!AJ3*Conversions!$C$2</f>
+        <v>0.95614079147278108</v>
+      </c>
+      <c r="G43" s="52">
+        <f>F43</f>
+        <v>0.95614079147278108</v>
+      </c>
+      <c r="H43" s="52">
+        <f t="shared" ref="H43:M43" si="21">G43</f>
+        <v>0.95614079147278108</v>
+      </c>
+      <c r="I43" s="52">
+        <f t="shared" si="21"/>
+        <v>0.95614079147278108</v>
+      </c>
+      <c r="J43" s="52">
+        <f t="shared" si="21"/>
+        <v>0.95614079147278108</v>
+      </c>
+      <c r="K43" s="52">
+        <f t="shared" si="21"/>
+        <v>0.95614079147278108</v>
+      </c>
+      <c r="L43" s="52">
+        <f t="shared" si="21"/>
+        <v>0.95614079147278108</v>
+      </c>
+      <c r="M43" s="52">
+        <f t="shared" si="21"/>
+        <v>0.95614079147278108</v>
+      </c>
+      <c r="N43" s="196">
+        <v>5</v>
+      </c>
+      <c r="O43" s="61" t="s">
+        <v>451</v>
+      </c>
+      <c r="P43" s="52"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+    </row>
+    <row r="44" spans="2:23">
+      <c r="B44" s="21" t="str">
+        <f>Imports_Bio!B6</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C44" s="21" t="str">
+        <f>Imports_Bio!C6</f>
+        <v>IMPBIOETH1G_S2</v>
+      </c>
+      <c r="D44" s="21" t="str">
+        <f>Imports_Bio!D6</f>
+        <v>Import of Ethanol 1st generation  - Step 2</v>
+      </c>
+      <c r="E44" s="22" t="str">
+        <f>Commodities!$C$30</f>
+        <v>BIOETH1G</v>
+      </c>
+      <c r="F44" s="148">
+        <v>0</v>
+      </c>
+      <c r="G44" s="50">
+        <f>G43*2</f>
+        <v>1.9122815829455622</v>
+      </c>
+      <c r="H44" s="50">
+        <f t="shared" ref="H44:M45" si="22">H43*2</f>
+        <v>1.9122815829455622</v>
+      </c>
+      <c r="I44" s="50">
+        <f t="shared" si="22"/>
+        <v>1.9122815829455622</v>
+      </c>
+      <c r="J44" s="50">
+        <f t="shared" si="22"/>
+        <v>1.9122815829455622</v>
+      </c>
+      <c r="K44" s="50">
+        <f t="shared" si="22"/>
+        <v>1.9122815829455622</v>
+      </c>
+      <c r="L44" s="50">
+        <f t="shared" si="22"/>
+        <v>1.9122815829455622</v>
+      </c>
+      <c r="M44" s="50">
+        <f t="shared" si="22"/>
+        <v>1.9122815829455622</v>
+      </c>
+      <c r="N44" s="197">
+        <v>5</v>
+      </c>
+      <c r="O44" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="P44" s="50"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+    </row>
+    <row r="45" spans="2:23">
+      <c r="B45" s="21" t="str">
+        <f>Imports_Bio!B7</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C45" s="21" t="str">
+        <f>Imports_Bio!C7</f>
+        <v>IMPBIOETH1G_S3</v>
+      </c>
+      <c r="D45" s="21" t="str">
+        <f>Imports_Bio!D7</f>
+        <v>Import of Ethanol 1st generation  - Step 3</v>
+      </c>
+      <c r="E45" s="22" t="str">
+        <f>Commodities!$C$30</f>
+        <v>BIOETH1G</v>
+      </c>
+      <c r="F45" s="148">
+        <v>0</v>
+      </c>
+      <c r="G45" s="50">
+        <f>G44*2</f>
+        <v>3.8245631658911243</v>
+      </c>
+      <c r="H45" s="50">
+        <f t="shared" si="22"/>
+        <v>3.8245631658911243</v>
+      </c>
+      <c r="I45" s="50">
+        <f t="shared" si="22"/>
+        <v>3.8245631658911243</v>
+      </c>
+      <c r="J45" s="50">
+        <f t="shared" si="22"/>
+        <v>3.8245631658911243</v>
+      </c>
+      <c r="K45" s="50">
+        <f t="shared" si="22"/>
+        <v>3.8245631658911243</v>
+      </c>
+      <c r="L45" s="50">
+        <f t="shared" si="22"/>
+        <v>3.8245631658911243</v>
+      </c>
+      <c r="M45" s="50">
+        <f t="shared" si="22"/>
+        <v>3.8245631658911243</v>
+      </c>
+      <c r="N45" s="197">
+        <v>5</v>
+      </c>
+      <c r="O45" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="P45" s="50"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+    </row>
+    <row r="46" spans="2:23">
+      <c r="B46" s="45" t="str">
+        <f>"*"&amp;Imports_Bio!B8</f>
+        <v>*IE,National</v>
+      </c>
+      <c r="C46" s="45" t="str">
+        <f>"*"&amp;Imports_Bio!C8</f>
+        <v>*IMPBIOETH1G_S4</v>
+      </c>
+      <c r="D46" s="45" t="str">
+        <f>Imports_Bio!D8</f>
+        <v>Import of Ethanol 1st generation  - Step 4</v>
+      </c>
+      <c r="E46" s="39" t="str">
+        <f>Commodities!$C$30</f>
+        <v>BIOETH1G</v>
+      </c>
+      <c r="F46" s="150">
+        <v>0</v>
+      </c>
+      <c r="G46" s="51">
+        <v>27.064417978971818</v>
+      </c>
+      <c r="H46" s="51">
+        <v>27.064417978971818</v>
+      </c>
+      <c r="I46" s="51">
+        <v>27.064417978971818</v>
+      </c>
+      <c r="J46" s="51">
+        <v>27.064417978971818</v>
+      </c>
+      <c r="K46" s="51">
+        <v>27.064417978971818</v>
+      </c>
+      <c r="L46" s="51">
+        <v>27.064417978971818</v>
+      </c>
+      <c r="M46" s="51">
+        <v>27.064417978971818</v>
+      </c>
+      <c r="N46" s="198">
+        <v>5</v>
+      </c>
+      <c r="O46" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="P46" s="51"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+    </row>
+    <row r="47" spans="2:23" ht="15" thickBot="1">
+      <c r="B47" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53">
+        <f>H47</f>
+        <v>59.810866344000004</v>
+      </c>
+      <c r="H47" s="53">
+        <f>I47</f>
+        <v>59.810866344000004</v>
+      </c>
+      <c r="I47" s="53">
+        <f>'SEAI-AEA_BioData'!G54*Conversions!$C$2/1000</f>
+        <v>59.810866344000004</v>
+      </c>
+      <c r="J47" s="53">
+        <f>I47</f>
+        <v>59.810866344000004</v>
+      </c>
+      <c r="K47" s="53">
+        <f t="shared" ref="K47:M47" si="23">J47</f>
+        <v>59.810866344000004</v>
+      </c>
+      <c r="L47" s="53">
+        <f t="shared" si="23"/>
+        <v>59.810866344000004</v>
+      </c>
+      <c r="M47" s="53">
+        <f t="shared" si="23"/>
+        <v>59.810866344000004</v>
+      </c>
+      <c r="N47" s="199"/>
+      <c r="O47" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="P47" s="53"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+    </row>
+    <row r="48" spans="2:23">
+      <c r="B48" s="43" t="str">
+        <f>Imports_Bio!B9</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C48" s="43" t="str">
+        <f>Imports_Bio!C9</f>
+        <v>IMPBIODST1G_S1</v>
+      </c>
+      <c r="D48" s="43" t="str">
+        <f>Imports_Bio!D9</f>
+        <v>Import of Biodiesel 1st generation  - Step 1</v>
+      </c>
+      <c r="E48" s="44" t="str">
+        <f>Commodities!$C$32</f>
+        <v>BIODST1G</v>
+      </c>
+      <c r="F48" s="146">
+        <f>'EB2018'!AI3*Conversions!$C$2</f>
+        <v>4.3883698143827266</v>
+      </c>
+      <c r="G48" s="52">
+        <f>F48</f>
+        <v>4.3883698143827266</v>
+      </c>
+      <c r="H48" s="52">
+        <f t="shared" ref="H48:M48" si="24">G48</f>
+        <v>4.3883698143827266</v>
+      </c>
+      <c r="I48" s="52">
+        <f t="shared" si="24"/>
+        <v>4.3883698143827266</v>
+      </c>
+      <c r="J48" s="52">
+        <f t="shared" si="24"/>
+        <v>4.3883698143827266</v>
+      </c>
+      <c r="K48" s="52">
+        <f t="shared" si="24"/>
+        <v>4.3883698143827266</v>
+      </c>
+      <c r="L48" s="52">
+        <f t="shared" si="24"/>
+        <v>4.3883698143827266</v>
+      </c>
+      <c r="M48" s="52">
+        <f t="shared" si="24"/>
+        <v>4.3883698143827266</v>
+      </c>
+      <c r="N48" s="196">
+        <v>5</v>
+      </c>
+      <c r="O48" s="61" t="s">
+        <v>451</v>
+      </c>
+      <c r="P48" s="52"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+    </row>
+    <row r="49" spans="2:18">
+      <c r="B49" s="21" t="str">
+        <f>Imports_Bio!B10</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C49" s="21" t="str">
+        <f>Imports_Bio!C10</f>
+        <v>IMPBIODST1G_S2</v>
+      </c>
+      <c r="D49" s="21" t="str">
+        <f>Imports_Bio!D10</f>
+        <v>Import of Biodiesel 1st generation  - Step 2</v>
+      </c>
+      <c r="E49" s="22" t="str">
+        <f>Commodities!$C$32</f>
+        <v>BIODST1G</v>
+      </c>
+      <c r="F49" s="148">
+        <v>0</v>
+      </c>
+      <c r="G49" s="50">
+        <f>G48*2</f>
+        <v>8.7767396287654531</v>
+      </c>
+      <c r="H49" s="50">
+        <f t="shared" ref="H49:M50" si="25">H48*2</f>
+        <v>8.7767396287654531</v>
+      </c>
+      <c r="I49" s="50">
+        <f t="shared" si="25"/>
+        <v>8.7767396287654531</v>
+      </c>
+      <c r="J49" s="50">
+        <f t="shared" si="25"/>
+        <v>8.7767396287654531</v>
+      </c>
+      <c r="K49" s="50">
+        <f t="shared" si="25"/>
+        <v>8.7767396287654531</v>
+      </c>
+      <c r="L49" s="50">
+        <f t="shared" si="25"/>
+        <v>8.7767396287654531</v>
+      </c>
+      <c r="M49" s="50">
+        <f t="shared" si="25"/>
+        <v>8.7767396287654531</v>
+      </c>
+      <c r="N49" s="197">
+        <v>5</v>
+      </c>
+      <c r="O49" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="P49" s="50"/>
+      <c r="R49" s="25"/>
+    </row>
+    <row r="50" spans="2:18">
+      <c r="B50" s="21" t="str">
+        <f>Imports_Bio!B11</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C50" s="21" t="str">
+        <f>Imports_Bio!C11</f>
+        <v>IMPBIODST1G_S3</v>
+      </c>
+      <c r="D50" s="21" t="str">
+        <f>Imports_Bio!D11</f>
+        <v>Import of Biodiesel 1st generation  - Step 3</v>
+      </c>
+      <c r="E50" s="22" t="str">
+        <f>Commodities!$C$32</f>
+        <v>BIODST1G</v>
+      </c>
+      <c r="F50" s="148">
+        <v>0</v>
+      </c>
+      <c r="G50" s="50">
+        <f>G49*2</f>
+        <v>17.553479257530906</v>
+      </c>
+      <c r="H50" s="50">
+        <f t="shared" si="25"/>
+        <v>17.553479257530906</v>
+      </c>
+      <c r="I50" s="50">
+        <f t="shared" si="25"/>
+        <v>17.553479257530906</v>
+      </c>
+      <c r="J50" s="50">
+        <f t="shared" si="25"/>
+        <v>17.553479257530906</v>
+      </c>
+      <c r="K50" s="50">
+        <f t="shared" si="25"/>
+        <v>17.553479257530906</v>
+      </c>
+      <c r="L50" s="50">
+        <f t="shared" si="25"/>
+        <v>17.553479257530906</v>
+      </c>
+      <c r="M50" s="50">
+        <f t="shared" si="25"/>
+        <v>17.553479257530906</v>
+      </c>
+      <c r="N50" s="197">
+        <v>5</v>
+      </c>
+      <c r="O50" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="P50" s="50"/>
+      <c r="R50" s="25"/>
+    </row>
+    <row r="51" spans="2:18">
+      <c r="B51" s="45" t="str">
+        <f>"*"&amp;Imports_Bio!B12</f>
+        <v>*IE,National</v>
+      </c>
+      <c r="C51" s="45" t="str">
+        <f>"*"&amp;Imports_Bio!C12</f>
+        <v>*IMPBIODST1G_S4</v>
+      </c>
+      <c r="D51" s="45" t="str">
+        <f>Imports_Bio!D12</f>
+        <v>Import of Biodiesel 1st generation  - Step 4</v>
+      </c>
+      <c r="E51" s="39" t="str">
+        <f>Commodities!$C$32</f>
+        <v>BIODST1G</v>
+      </c>
+      <c r="F51" s="150">
+        <v>0</v>
+      </c>
+      <c r="G51" s="51">
+        <f>G52-SUM(G48:G50)</f>
+        <v>72.040001193884791</v>
+      </c>
+      <c r="H51" s="51">
+        <f t="shared" ref="H51:M51" si="26">H52-SUM(H48:H50)</f>
+        <v>72.040001193884791</v>
+      </c>
+      <c r="I51" s="51">
+        <f t="shared" si="26"/>
+        <v>72.040001193884791</v>
+      </c>
+      <c r="J51" s="51">
+        <f t="shared" si="26"/>
+        <v>72.040001193884791</v>
+      </c>
+      <c r="K51" s="51">
+        <f t="shared" si="26"/>
+        <v>72.040001193884791</v>
+      </c>
+      <c r="L51" s="51">
+        <f t="shared" si="26"/>
+        <v>72.040001193884791</v>
+      </c>
+      <c r="M51" s="51">
+        <f t="shared" si="26"/>
+        <v>72.040001193884791</v>
+      </c>
+      <c r="N51" s="198">
+        <v>5</v>
+      </c>
+      <c r="O51" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="P51" s="51"/>
+      <c r="R51" s="25"/>
+    </row>
+    <row r="52" spans="2:18" ht="15" thickBot="1">
+      <c r="B52" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="54">
+        <f>H52</f>
+        <v>102.75858989456388</v>
+      </c>
+      <c r="H52" s="54">
+        <f>I52</f>
+        <v>102.75858989456388</v>
+      </c>
+      <c r="I52" s="54">
+        <f>2727.05194883825*Conversions!$C$2*0.9</f>
+        <v>102.75858989456388</v>
+      </c>
+      <c r="J52" s="54">
+        <f>I52</f>
+        <v>102.75858989456388</v>
+      </c>
+      <c r="K52" s="54">
+        <f t="shared" ref="K52:M52" si="27">J52</f>
+        <v>102.75858989456388</v>
+      </c>
+      <c r="L52" s="54">
+        <f t="shared" si="27"/>
+        <v>102.75858989456388</v>
+      </c>
+      <c r="M52" s="54">
+        <f t="shared" si="27"/>
+        <v>102.75858989456388</v>
+      </c>
+      <c r="N52" s="199"/>
+      <c r="O52" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="P52" s="53"/>
+      <c r="R52" s="25"/>
+    </row>
+    <row r="53" spans="2:18">
+      <c r="B53" s="446" t="str">
+        <f>Imports_Bio!B13</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C53" s="446" t="str">
+        <f>Imports_Bio!C13</f>
+        <v>IMPBIOWPE_S1</v>
+      </c>
+      <c r="D53" s="446" t="str">
+        <f>Imports_Bio!D13</f>
+        <v>Import of Wood Pellets  - Step 1</v>
+      </c>
+      <c r="E53" s="448" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F53" s="444">
+        <f>'EB2018'!AE3*Conversions!$C$2*Imports_Bio!$R$53</f>
+        <v>0.71165055175994518</v>
+      </c>
+      <c r="G53" s="445">
+        <f>G67</f>
+        <v>1.8</v>
+      </c>
+      <c r="H53" s="445">
+        <f t="shared" ref="H53:M53" si="28">H67</f>
+        <v>1.8</v>
+      </c>
+      <c r="I53" s="445">
+        <f t="shared" si="28"/>
+        <v>1.8</v>
+      </c>
+      <c r="J53" s="445">
+        <f t="shared" si="28"/>
+        <v>1.8</v>
+      </c>
+      <c r="K53" s="445">
+        <f t="shared" si="28"/>
+        <v>3.6</v>
+      </c>
+      <c r="L53" s="445">
+        <f t="shared" si="28"/>
+        <v>7.2</v>
+      </c>
+      <c r="M53" s="445">
+        <f t="shared" si="28"/>
+        <v>7.2</v>
+      </c>
+      <c r="N53" s="442">
+        <v>5</v>
+      </c>
+      <c r="O53" s="441" t="s">
+        <v>218</v>
+      </c>
+      <c r="P53" s="52"/>
+      <c r="R53" s="147">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18">
+      <c r="B54" s="449" t="str">
+        <f>Imports_Bio!B14</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C54" s="449" t="str">
+        <f>Imports_Bio!C14</f>
+        <v>IMPBIOWPE_S2</v>
+      </c>
+      <c r="D54" s="449" t="str">
+        <f>Imports_Bio!D14</f>
+        <v>Import of Wood Pellets  - Step 2</v>
+      </c>
+      <c r="E54" s="448" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F54" s="450">
+        <v>0</v>
+      </c>
+      <c r="G54" s="445">
+        <f t="shared" ref="G54:M56" si="29">G68</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="445">
+        <f t="shared" si="29"/>
+        <v>3.6</v>
+      </c>
+      <c r="I54" s="445">
+        <f t="shared" si="29"/>
+        <v>18</v>
+      </c>
+      <c r="J54" s="445">
+        <f t="shared" si="29"/>
+        <v>36</v>
+      </c>
+      <c r="K54" s="445">
+        <f t="shared" si="29"/>
+        <v>54</v>
+      </c>
+      <c r="L54" s="445">
+        <f t="shared" si="29"/>
+        <v>61.2</v>
+      </c>
+      <c r="M54" s="445">
+        <f t="shared" si="29"/>
+        <v>61.2</v>
+      </c>
+      <c r="N54" s="451">
+        <v>5</v>
+      </c>
+      <c r="O54" s="452" t="s">
+        <v>647</v>
+      </c>
+      <c r="P54" s="50"/>
+      <c r="R54" s="25"/>
+    </row>
+    <row r="55" spans="2:18">
+      <c r="B55" s="449" t="str">
+        <f>Imports_Bio!B15</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C55" s="449" t="str">
+        <f>Imports_Bio!C15</f>
+        <v>IMPBIOWPE_S3</v>
+      </c>
+      <c r="D55" s="449" t="str">
+        <f>Imports_Bio!D15</f>
+        <v>Import of Wood Pellets  - Step 3</v>
+      </c>
+      <c r="E55" s="448" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F55" s="450">
+        <v>0</v>
+      </c>
+      <c r="G55" s="445">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="445">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="445">
+        <f t="shared" si="29"/>
+        <v>54</v>
+      </c>
+      <c r="J55" s="445">
+        <f t="shared" si="29"/>
+        <v>54</v>
+      </c>
+      <c r="K55" s="445">
+        <f t="shared" si="29"/>
+        <v>54</v>
+      </c>
+      <c r="L55" s="445">
+        <f t="shared" si="29"/>
+        <v>54</v>
+      </c>
+      <c r="M55" s="445">
+        <f t="shared" si="29"/>
+        <v>54</v>
+      </c>
+      <c r="N55" s="451">
+        <v>5</v>
+      </c>
+      <c r="O55" s="452" t="s">
+        <v>647</v>
+      </c>
+      <c r="P55" s="50"/>
+      <c r="R55" s="25"/>
+    </row>
+    <row r="56" spans="2:18">
+      <c r="B56" s="453" t="str">
+        <f>B55</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C56" s="449" t="str">
+        <f>Imports_Bio!C16</f>
+        <v>IMPBIOWPE_S4</v>
+      </c>
+      <c r="D56" s="453" t="str">
+        <f>Imports_Bio!D16</f>
+        <v>Import of Wood Pellets  - Step 4</v>
+      </c>
+      <c r="E56" s="443" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F56" s="454">
+        <v>0</v>
+      </c>
+      <c r="G56" s="447">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="447">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="447">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="447">
+        <f t="shared" si="29"/>
+        <v>3.6</v>
+      </c>
+      <c r="K56" s="447">
+        <f t="shared" si="29"/>
+        <v>36</v>
+      </c>
+      <c r="L56" s="447">
+        <f t="shared" si="29"/>
+        <v>36</v>
+      </c>
+      <c r="M56" s="447">
+        <f t="shared" si="29"/>
+        <v>36</v>
+      </c>
+      <c r="N56" s="455">
+        <v>5</v>
+      </c>
+      <c r="O56" s="452" t="s">
+        <v>647</v>
+      </c>
+      <c r="P56" s="51"/>
+      <c r="R56" s="25"/>
+    </row>
+    <row r="57" spans="2:18" ht="15" thickBot="1">
+      <c r="B57" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="462"/>
+      <c r="G57" s="462">
+        <f>SUM(G53:G56)</f>
+        <v>1.8</v>
+      </c>
+      <c r="H57" s="462">
+        <f t="shared" ref="H57:M57" si="30">SUM(H53:H56)</f>
+        <v>5.4</v>
+      </c>
+      <c r="I57" s="462">
+        <f t="shared" si="30"/>
+        <v>73.8</v>
+      </c>
+      <c r="J57" s="462">
+        <f t="shared" si="30"/>
+        <v>95.399999999999991</v>
+      </c>
+      <c r="K57" s="462">
+        <f t="shared" si="30"/>
+        <v>147.6</v>
+      </c>
+      <c r="L57" s="462">
+        <f t="shared" si="30"/>
+        <v>158.4</v>
+      </c>
+      <c r="M57" s="462">
+        <f t="shared" si="30"/>
+        <v>158.4</v>
+      </c>
+      <c r="N57" s="199"/>
+      <c r="O57" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="P57" s="53"/>
+      <c r="R57" s="25"/>
+    </row>
+    <row r="58" spans="2:18">
+      <c r="B58" s="43" t="str">
+        <f>Imports_Bio!B17</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C58" s="43" t="str">
+        <f>Imports_Bio!C17</f>
+        <v>IMPBIOWCH_S1</v>
+      </c>
+      <c r="D58" s="43" t="str">
+        <f>Imports_Bio!D17</f>
+        <v>Import of Wood Chip  - Step 1</v>
+      </c>
+      <c r="E58" s="44" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F58" s="146">
+        <f>'EB2018'!AE3*Conversions!$C$2*Imports_Bio!$R$58</f>
+        <v>0.30499309361140514</v>
+      </c>
+      <c r="G58" s="52">
+        <f>MAX(F58:F58)</f>
+        <v>0.30499309361140514</v>
+      </c>
+      <c r="H58" s="52">
+        <f>G58</f>
+        <v>0.30499309361140514</v>
+      </c>
+      <c r="I58" s="52">
+        <f t="shared" ref="I58:M58" si="31">H58</f>
+        <v>0.30499309361140514</v>
+      </c>
+      <c r="J58" s="52">
+        <f t="shared" si="31"/>
+        <v>0.30499309361140514</v>
+      </c>
+      <c r="K58" s="52">
+        <f t="shared" si="31"/>
+        <v>0.30499309361140514</v>
+      </c>
+      <c r="L58" s="52">
+        <f t="shared" si="31"/>
+        <v>0.30499309361140514</v>
+      </c>
+      <c r="M58" s="52">
+        <f t="shared" si="31"/>
+        <v>0.30499309361140514</v>
+      </c>
+      <c r="N58" s="196">
+        <v>5</v>
+      </c>
+      <c r="O58" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="P58" s="52"/>
+      <c r="R58" s="145">
+        <f>1-R53</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18">
+      <c r="B59" s="21" t="str">
+        <f>Imports_Bio!B18</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C59" s="21" t="str">
+        <f>Imports_Bio!C18</f>
+        <v>IMPBIOWCH_S2</v>
+      </c>
+      <c r="D59" s="21" t="str">
+        <f>Imports_Bio!D18</f>
+        <v>Import of Wood Chip  - Step 2</v>
+      </c>
+      <c r="E59" s="22" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F59" s="148">
+        <v>0</v>
+      </c>
+      <c r="G59" s="50">
+        <f>G58*2</f>
+        <v>0.60998618722281028</v>
+      </c>
+      <c r="H59" s="50">
+        <f t="shared" ref="H59:M60" si="32">H58*2</f>
+        <v>0.60998618722281028</v>
+      </c>
+      <c r="I59" s="50">
+        <f t="shared" si="32"/>
+        <v>0.60998618722281028</v>
+      </c>
+      <c r="J59" s="50">
+        <f t="shared" si="32"/>
+        <v>0.60998618722281028</v>
+      </c>
+      <c r="K59" s="50">
+        <f t="shared" si="32"/>
+        <v>0.60998618722281028</v>
+      </c>
+      <c r="L59" s="50">
+        <f t="shared" si="32"/>
+        <v>0.60998618722281028</v>
+      </c>
+      <c r="M59" s="50">
+        <f t="shared" si="32"/>
+        <v>0.60998618722281028</v>
+      </c>
+      <c r="N59" s="197">
+        <v>5</v>
+      </c>
+      <c r="O59" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="P59" s="50"/>
+      <c r="R59" s="25"/>
+    </row>
+    <row r="60" spans="2:18">
+      <c r="B60" s="21" t="str">
+        <f>Imports_Bio!B19</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C60" s="21" t="str">
+        <f>Imports_Bio!C19</f>
+        <v>IMPBIOWCH_S3</v>
+      </c>
+      <c r="D60" s="21" t="str">
+        <f>Imports_Bio!D19</f>
+        <v>Import of Wood Chip  - Step 3</v>
+      </c>
+      <c r="E60" s="22" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F60" s="148">
+        <v>0</v>
+      </c>
+      <c r="G60" s="50">
+        <f>G59*2</f>
+        <v>1.2199723744456206</v>
+      </c>
+      <c r="H60" s="50">
+        <f t="shared" si="32"/>
+        <v>1.2199723744456206</v>
+      </c>
+      <c r="I60" s="50">
+        <f t="shared" si="32"/>
+        <v>1.2199723744456206</v>
+      </c>
+      <c r="J60" s="50">
+        <f t="shared" si="32"/>
+        <v>1.2199723744456206</v>
+      </c>
+      <c r="K60" s="50">
+        <f t="shared" si="32"/>
+        <v>1.2199723744456206</v>
+      </c>
+      <c r="L60" s="50">
+        <f t="shared" si="32"/>
+        <v>1.2199723744456206</v>
+      </c>
+      <c r="M60" s="50">
+        <f t="shared" si="32"/>
+        <v>1.2199723744456206</v>
+      </c>
+      <c r="N60" s="197">
+        <v>5</v>
+      </c>
+      <c r="O60" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="P60" s="50"/>
+      <c r="R60" s="25"/>
+    </row>
+    <row r="61" spans="2:18">
+      <c r="B61" s="45" t="str">
+        <f>"*"&amp;Imports_Bio!B20</f>
+        <v>*IE,National</v>
+      </c>
+      <c r="C61" s="45" t="str">
+        <f>"*"&amp;Imports_Bio!C20</f>
+        <v>*IMPBIOWCH_S4</v>
+      </c>
+      <c r="D61" s="45" t="str">
+        <f>Imports_Bio!D20</f>
+        <v>Import of Wood Chip  - Step 4</v>
+      </c>
+      <c r="E61" s="39" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F61" s="150">
+        <v>0</v>
+      </c>
+      <c r="G61" s="51">
+        <f>G62-SUM(G58:G60)</f>
+        <v>34.580521056720166</v>
+      </c>
+      <c r="H61" s="51">
+        <f t="shared" ref="H61:M61" si="33">H62-SUM(H58:H60)</f>
+        <v>34.580521056720166</v>
+      </c>
+      <c r="I61" s="51">
+        <f t="shared" si="33"/>
+        <v>34.580521056720166</v>
+      </c>
+      <c r="J61" s="51">
+        <f t="shared" si="33"/>
+        <v>34.580521056720166</v>
+      </c>
+      <c r="K61" s="51">
+        <f t="shared" si="33"/>
+        <v>34.580521056720166</v>
+      </c>
+      <c r="L61" s="51">
+        <f t="shared" si="33"/>
+        <v>34.580521056720166</v>
+      </c>
+      <c r="M61" s="51">
+        <f t="shared" si="33"/>
+        <v>34.580521056720166</v>
+      </c>
+      <c r="N61" s="198">
+        <v>5</v>
+      </c>
+      <c r="O61" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="P61" s="51"/>
+      <c r="R61" s="25"/>
+    </row>
+    <row r="62" spans="2:18" ht="15" thickBot="1">
+      <c r="B62" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54">
+        <f>H62</f>
+        <v>36.715472712</v>
+      </c>
+      <c r="H62" s="54">
+        <f>I62</f>
+        <v>36.715472712</v>
+      </c>
+      <c r="I62" s="54">
+        <f>'SEAI-AEA_BioData'!G50*Conversions!$C$2/1000</f>
+        <v>36.715472712</v>
+      </c>
+      <c r="J62" s="54">
+        <f>I62</f>
+        <v>36.715472712</v>
+      </c>
+      <c r="K62" s="54">
+        <f>J62</f>
+        <v>36.715472712</v>
+      </c>
+      <c r="L62" s="54">
+        <f>K62</f>
+        <v>36.715472712</v>
+      </c>
+      <c r="M62" s="54">
+        <f>L62</f>
+        <v>36.715472712</v>
+      </c>
+      <c r="N62" s="200"/>
+      <c r="O62" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="P62" s="54"/>
+      <c r="R62" s="25"/>
+    </row>
+    <row r="65" spans="4:13">
+      <c r="G65" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="66" spans="4:13" ht="15" thickBot="1">
+      <c r="D66" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="E66" s="461" t="s">
+        <v>643</v>
+      </c>
+      <c r="F66" s="461" t="s">
+        <v>644</v>
+      </c>
+      <c r="G66" s="461">
+        <v>2020</v>
+      </c>
+      <c r="H66" s="461">
+        <v>2025</v>
+      </c>
+      <c r="I66" s="461">
+        <v>2030</v>
+      </c>
+      <c r="J66" s="461">
+        <v>2035</v>
+      </c>
+      <c r="K66" s="461">
+        <v>2040</v>
+      </c>
+      <c r="L66" s="461">
+        <v>2045</v>
+      </c>
+      <c r="M66" s="461">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="67" spans="4:13">
+      <c r="D67" s="43" t="s">
+        <v>639</v>
+      </c>
+      <c r="E67" s="23">
+        <f>34.7</f>
+        <v>34.700000000000003</v>
+      </c>
+      <c r="F67" s="456">
+        <f>E67/3.6</f>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="G67" s="23">
+        <f>500*3.6/1000</f>
+        <v>1.8</v>
+      </c>
+      <c r="H67" s="23">
+        <f>500*3.6/1000</f>
+        <v>1.8</v>
+      </c>
+      <c r="I67" s="23">
+        <f>500*3.6/1000</f>
+        <v>1.8</v>
+      </c>
+      <c r="J67" s="23">
+        <f>500*3.6/1000</f>
+        <v>1.8</v>
+      </c>
+      <c r="K67" s="23">
+        <f>1000*3.6/1000</f>
+        <v>3.6</v>
+      </c>
+      <c r="L67" s="23">
+        <f>2000*3.6/1000</f>
+        <v>7.2</v>
+      </c>
+      <c r="M67" s="23">
+        <f>2000*3.6/1000</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="68" spans="4:13">
+      <c r="D68" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="E68" s="23">
+        <f>34.7</f>
+        <v>34.700000000000003</v>
+      </c>
+      <c r="F68" s="456">
+        <f t="shared" ref="F68:F70" si="34">E68/3.6</f>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="G68" s="23">
+        <v>0</v>
+      </c>
+      <c r="H68" s="23">
+        <f>1000*3.6/1000</f>
+        <v>3.6</v>
+      </c>
+      <c r="I68" s="23">
+        <f>5000*3.6/1000</f>
+        <v>18</v>
+      </c>
+      <c r="J68" s="23">
+        <f>10000*3.6/1000</f>
+        <v>36</v>
+      </c>
+      <c r="K68" s="23">
+        <f>15000*3.6/1000</f>
+        <v>54</v>
+      </c>
+      <c r="L68" s="23">
+        <f>17000*3.6/1000</f>
+        <v>61.2</v>
+      </c>
+      <c r="M68" s="23">
+        <f>17000*3.6/1000</f>
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="69" spans="4:13">
+      <c r="D69" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="E69" s="23">
+        <f>36.6</f>
+        <v>36.6</v>
+      </c>
+      <c r="F69" s="456">
+        <f t="shared" si="34"/>
+        <v>10.166666666666666</v>
+      </c>
+      <c r="G69" s="23">
+        <v>0</v>
+      </c>
+      <c r="H69" s="23">
+        <v>0</v>
+      </c>
+      <c r="I69" s="23">
+        <f>15000*3.6/1000</f>
+        <v>54</v>
+      </c>
+      <c r="J69" s="23">
+        <f>I69</f>
+        <v>54</v>
+      </c>
+      <c r="K69" s="23">
+        <f t="shared" ref="K69:M69" si="35">J69</f>
+        <v>54</v>
+      </c>
+      <c r="L69" s="23">
+        <f t="shared" si="35"/>
+        <v>54</v>
+      </c>
+      <c r="M69" s="23">
+        <f t="shared" si="35"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="4:13">
+      <c r="D70" s="45" t="s">
+        <v>642</v>
+      </c>
+      <c r="E70" s="27">
+        <f>40.3</f>
+        <v>40.299999999999997</v>
+      </c>
+      <c r="F70" s="457">
+        <f t="shared" si="34"/>
+        <v>11.194444444444443</v>
+      </c>
+      <c r="G70" s="27">
+        <v>0</v>
+      </c>
+      <c r="H70" s="27">
+        <v>0</v>
+      </c>
+      <c r="I70" s="27">
+        <v>0</v>
+      </c>
+      <c r="J70" s="27">
+        <f>1000*3.6/1000</f>
+        <v>3.6</v>
+      </c>
+      <c r="K70" s="27">
+        <f>10000*3.6/1000</f>
+        <v>36</v>
+      </c>
+      <c r="L70" s="27">
+        <f>K70</f>
+        <v>36</v>
+      </c>
+      <c r="M70" s="27">
+        <f>L70</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="4:13">
+      <c r="E71" s="66"/>
+      <c r="F71" s="66" t="s">
+        <v>646</v>
+      </c>
+      <c r="G71" s="66">
+        <f>SUM(G67:G70)</f>
+        <v>1.8</v>
+      </c>
+      <c r="H71" s="66">
+        <f t="shared" ref="H71:M71" si="36">SUM(H67:H70)</f>
+        <v>5.4</v>
+      </c>
+      <c r="I71" s="66">
+        <f t="shared" si="36"/>
+        <v>73.8</v>
+      </c>
+      <c r="J71" s="66">
+        <f t="shared" si="36"/>
+        <v>95.399999999999991</v>
+      </c>
+      <c r="K71" s="66">
+        <f t="shared" si="36"/>
+        <v>147.6</v>
+      </c>
+      <c r="L71" s="66">
+        <f t="shared" si="36"/>
+        <v>158.4</v>
+      </c>
+      <c r="M71" s="66">
+        <f t="shared" si="36"/>
+        <v>158.4</v>
+      </c>
+    </row>
+    <row r="72" spans="4:13">
+      <c r="D72" s="459" t="s">
+        <v>648</v>
+      </c>
+      <c r="E72" s="460" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="79" spans="4:13">
+      <c r="D79" s="458"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K30:K37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:O35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B2" sqref="B2:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
     <col min="4" max="4" width="34.81640625" customWidth="1"/>
     <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="11" customWidth="1"/>
@@ -10640,11 +14188,11 @@
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
-      <c r="F9" s="450" t="s">
+      <c r="F9" s="474" t="s">
         <v>223</v>
       </c>
-      <c r="G9" s="450"/>
-      <c r="H9" s="450"/>
+      <c r="G9" s="474"/>
+      <c r="H9" s="474"/>
       <c r="I9" s="192" t="s">
         <v>222</v>
       </c>
@@ -11057,7 +14605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:R42"/>
@@ -11066,18 +14614,18 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="22"/>
+    <col min="1" max="1" width="9.08984375" style="22"/>
     <col min="2" max="2" width="12.81640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" style="22" customWidth="1"/>
     <col min="4" max="4" width="69.7265625" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" style="22" customWidth="1"/>
-    <col min="7" max="9" width="9.1796875" style="22"/>
-    <col min="10" max="10" width="14.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" style="22" customWidth="1"/>
+    <col min="7" max="9" width="9.08984375" style="22"/>
+    <col min="10" max="10" width="14.08984375" style="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="39.54296875" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="22"/>
+    <col min="12" max="16384" width="9.08984375" style="22"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="18.5">
@@ -11150,7 +14698,7 @@
       <c r="F5" s="50">
         <v>10</v>
       </c>
-      <c r="G5" s="451" t="s">
+      <c r="G5" s="475" t="s">
         <v>142</v>
       </c>
       <c r="R5" s="23"/>
@@ -11175,7 +14723,7 @@
       <c r="F6" s="50">
         <v>10</v>
       </c>
-      <c r="G6" s="452"/>
+      <c r="G6" s="476"/>
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" ht="14.5">
@@ -11198,7 +14746,7 @@
       <c r="F7" s="50">
         <v>10</v>
       </c>
-      <c r="G7" s="452"/>
+      <c r="G7" s="476"/>
       <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" ht="14.5">
@@ -11221,7 +14769,7 @@
       <c r="F8" s="50">
         <v>10</v>
       </c>
-      <c r="G8" s="452"/>
+      <c r="G8" s="476"/>
       <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" ht="14.5">
@@ -11244,7 +14792,7 @@
       <c r="F9" s="50">
         <v>10</v>
       </c>
-      <c r="G9" s="452"/>
+      <c r="G9" s="476"/>
       <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" ht="14.5">
@@ -11267,7 +14815,7 @@
       <c r="F10" s="50">
         <v>10</v>
       </c>
-      <c r="G10" s="452"/>
+      <c r="G10" s="476"/>
       <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" ht="14.5">
@@ -11290,7 +14838,7 @@
       <c r="F11" s="50">
         <v>10</v>
       </c>
-      <c r="G11" s="452"/>
+      <c r="G11" s="476"/>
       <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" ht="14.5">
@@ -11313,7 +14861,7 @@
       <c r="F12" s="50">
         <v>10</v>
       </c>
-      <c r="G12" s="452"/>
+      <c r="G12" s="476"/>
       <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" ht="14.5">
@@ -11336,7 +14884,7 @@
       <c r="F13" s="50">
         <v>10</v>
       </c>
-      <c r="G13" s="452"/>
+      <c r="G13" s="476"/>
       <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" ht="14.5">
@@ -11359,7 +14907,7 @@
       <c r="F14" s="51">
         <v>10</v>
       </c>
-      <c r="G14" s="452"/>
+      <c r="G14" s="476"/>
       <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" ht="14.5">
@@ -11382,7 +14930,7 @@
       <c r="F15" s="50">
         <v>10</v>
       </c>
-      <c r="G15" s="452"/>
+      <c r="G15" s="476"/>
       <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" ht="14.5">
@@ -11405,7 +14953,7 @@
       <c r="F16" s="50">
         <v>10</v>
       </c>
-      <c r="G16" s="452"/>
+      <c r="G16" s="476"/>
       <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" ht="14.5">
@@ -11428,7 +14976,7 @@
       <c r="F17" s="50">
         <v>10</v>
       </c>
-      <c r="G17" s="452"/>
+      <c r="G17" s="476"/>
       <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" ht="14.5">
@@ -11451,7 +14999,7 @@
       <c r="F18" s="50">
         <v>10</v>
       </c>
-      <c r="G18" s="452"/>
+      <c r="G18" s="476"/>
       <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" ht="14.5">
@@ -11474,7 +15022,7 @@
       <c r="F19" s="50">
         <v>10</v>
       </c>
-      <c r="G19" s="452"/>
+      <c r="G19" s="476"/>
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" ht="14.5">
@@ -11497,7 +15045,7 @@
       <c r="F20" s="50">
         <v>10</v>
       </c>
-      <c r="G20" s="452"/>
+      <c r="G20" s="476"/>
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18">
@@ -11520,7 +15068,7 @@
       <c r="F21" s="50">
         <v>10</v>
       </c>
-      <c r="G21" s="452"/>
+      <c r="G21" s="476"/>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="21" t="str">
@@ -11542,7 +15090,7 @@
       <c r="F22" s="50">
         <v>10</v>
       </c>
-      <c r="G22" s="452"/>
+      <c r="G22" s="476"/>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="21" t="str">
@@ -11564,7 +15112,7 @@
       <c r="F23" s="50">
         <v>10</v>
       </c>
-      <c r="G23" s="452"/>
+      <c r="G23" s="476"/>
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="45" t="str">
@@ -11586,7 +15134,7 @@
       <c r="F24" s="51">
         <v>10</v>
       </c>
-      <c r="G24" s="452"/>
+      <c r="G24" s="476"/>
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="21" t="str">
@@ -11608,7 +15156,7 @@
       <c r="F25" s="50">
         <v>10</v>
       </c>
-      <c r="G25" s="452"/>
+      <c r="G25" s="476"/>
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="21" t="str">
@@ -11630,7 +15178,7 @@
       <c r="F26" s="50">
         <v>10</v>
       </c>
-      <c r="G26" s="452"/>
+      <c r="G26" s="476"/>
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="21" t="str">
@@ -11652,7 +15200,7 @@
       <c r="F27" s="50">
         <v>10</v>
       </c>
-      <c r="G27" s="452"/>
+      <c r="G27" s="476"/>
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="21" t="str">
@@ -11674,7 +15222,7 @@
       <c r="F28" s="50">
         <v>10</v>
       </c>
-      <c r="G28" s="452"/>
+      <c r="G28" s="476"/>
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="21" t="str">
@@ -11696,7 +15244,7 @@
       <c r="F29" s="50">
         <v>10</v>
       </c>
-      <c r="G29" s="452"/>
+      <c r="G29" s="476"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="21" t="str">
@@ -11718,7 +15266,7 @@
       <c r="F30" s="50">
         <v>10</v>
       </c>
-      <c r="G30" s="452"/>
+      <c r="G30" s="476"/>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="21" t="str">
@@ -11740,7 +15288,7 @@
       <c r="F31" s="50">
         <v>10</v>
       </c>
-      <c r="G31" s="452"/>
+      <c r="G31" s="476"/>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="21" t="str">
@@ -11762,7 +15310,7 @@
       <c r="F32" s="50">
         <v>10</v>
       </c>
-      <c r="G32" s="452"/>
+      <c r="G32" s="476"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="21" t="str">
@@ -11784,7 +15332,7 @@
       <c r="F33" s="50">
         <v>10</v>
       </c>
-      <c r="G33" s="452"/>
+      <c r="G33" s="476"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="45" t="str">
@@ -11806,7 +15354,7 @@
       <c r="F34" s="51">
         <v>10</v>
       </c>
-      <c r="G34" s="453"/>
+      <c r="G34" s="477"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="21"/>
@@ -11877,7 +15425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B1:AD35"/>
@@ -11886,21 +15434,21 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="23"/>
+    <col min="1" max="1" width="9.08984375" style="23"/>
     <col min="2" max="2" width="9.7265625" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.54296875" style="23" customWidth="1"/>
     <col min="4" max="4" width="17" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="23"/>
-    <col min="7" max="20" width="9.453125" style="25" customWidth="1"/>
-    <col min="21" max="23" width="9.453125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="23"/>
+    <col min="7" max="20" width="9.26953125" style="25" customWidth="1"/>
+    <col min="21" max="23" width="9.26953125" style="23" customWidth="1"/>
     <col min="24" max="24" width="28.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.1796875" style="23"/>
+    <col min="25" max="25" width="9.08984375" style="23"/>
     <col min="26" max="26" width="13.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17" style="23" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.1796875" style="23"/>
+    <col min="28" max="16384" width="9.08984375" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26">
@@ -12650,7 +16198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B2:T36"/>
@@ -12659,26 +16207,26 @@
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="23"/>
-    <col min="2" max="2" width="13.453125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" style="23"/>
+    <col min="2" max="2" width="13.26953125" style="23" customWidth="1"/>
     <col min="3" max="3" width="17.7265625" style="23" customWidth="1"/>
     <col min="4" max="4" width="46.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" style="23" customWidth="1"/>
     <col min="6" max="6" width="10" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.26953125" style="23" customWidth="1"/>
     <col min="8" max="8" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1796875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" style="23" customWidth="1"/>
     <col min="10" max="10" width="11" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="10.1796875" style="23" customWidth="1"/>
+    <col min="11" max="15" width="10.08984375" style="23" customWidth="1"/>
     <col min="16" max="16" width="9.7265625" style="23" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="10.26953125" style="23" customWidth="1"/>
-    <col min="22" max="22" width="9.1796875" style="23"/>
+    <col min="22" max="22" width="9.08984375" style="23"/>
     <col min="23" max="23" width="12" style="23" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="26.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1796875" style="23"/>
+    <col min="25" max="16384" width="9.08984375" style="23"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="18.5">
@@ -12907,21 +16455,21 @@
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="450" t="s">
+      <c r="G7" s="474" t="s">
         <v>159</v>
       </c>
-      <c r="H7" s="450"/>
-      <c r="I7" s="450"/>
-      <c r="J7" s="450"/>
-      <c r="K7" s="450"/>
+      <c r="H7" s="474"/>
+      <c r="I7" s="474"/>
+      <c r="J7" s="474"/>
+      <c r="K7" s="474"/>
       <c r="L7" s="193" t="s">
         <v>67</v>
       </c>
       <c r="M7" s="192"/>
-      <c r="N7" s="454" t="s">
+      <c r="N7" s="478" t="s">
         <v>220</v>
       </c>
-      <c r="O7" s="454"/>
+      <c r="O7" s="478"/>
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
@@ -13551,20 +17099,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6297AC73-3506-47A0-A87E-4DEE2B4424AC}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="23"/>
+    <col min="1" max="1" width="9.08984375" style="23"/>
     <col min="2" max="2" width="18.81640625" style="23" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="23"/>
+    <col min="3" max="16384" width="9.08984375" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -13658,131 +17206,155 @@
         <v>SUPPM25</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1">
-      <c r="B16" s="163" t="s">
+    <row r="16" spans="1:7">
+      <c r="B16" s="481" t="s">
+        <v>652</v>
+      </c>
+      <c r="C16" s="480"/>
+      <c r="D16" s="480"/>
+      <c r="E16" s="480"/>
+      <c r="F16" s="481" t="s">
+        <v>652</v>
+      </c>
+      <c r="G16" s="480"/>
+    </row>
+    <row r="17" spans="2:7" ht="15" thickBot="1">
+      <c r="B17" s="483" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="164" t="s">
-        <v>630</v>
-      </c>
-      <c r="F16" s="163" t="s">
+      <c r="C17" s="484" t="s">
+        <v>653</v>
+      </c>
+      <c r="D17" s="480"/>
+      <c r="E17" s="480"/>
+      <c r="F17" s="483" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="164" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="23" t="s">
+      <c r="G17" s="484" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="482" t="s">
         <v>632</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C18" s="482">
         <v>1</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="D18" s="480"/>
+      <c r="E18" s="480"/>
+      <c r="F18" s="482" t="s">
         <v>632</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G18" s="482">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="23" t="s">
+    <row r="19" spans="2:7">
+      <c r="B19" s="482" t="s">
         <v>633</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C19" s="482">
         <v>1</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="D19" s="480"/>
+      <c r="E19" s="480"/>
+      <c r="F19" s="482" t="s">
         <v>633</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G19" s="482">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="23" t="s">
+    <row r="20" spans="2:7">
+      <c r="B20" s="482" t="s">
         <v>634</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C20" s="482">
         <v>1</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="D20" s="480"/>
+      <c r="E20" s="480"/>
+      <c r="F20" s="482" t="s">
         <v>634</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G20" s="482">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="23" t="s">
+    <row r="21" spans="2:7">
+      <c r="B21" s="482" t="s">
         <v>635</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C21" s="482">
         <v>1</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="D21" s="480"/>
+      <c r="E21" s="480"/>
+      <c r="F21" s="482" t="s">
         <v>635</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G21" s="482">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="23" t="s">
+    <row r="22" spans="2:7">
+      <c r="B22" s="482" t="s">
         <v>636</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C22" s="482">
         <v>1</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="D22" s="480"/>
+      <c r="E22" s="480"/>
+      <c r="F22" s="482" t="s">
         <v>636</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G22" s="482">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="23" t="s">
+    <row r="23" spans="2:7">
+      <c r="B23" s="482" t="s">
         <v>637</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C23" s="482">
         <v>1</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="D23" s="480"/>
+      <c r="E23" s="480"/>
+      <c r="F23" s="482" t="s">
         <v>637</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G23" s="482">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="23" t="s">
+    <row r="24" spans="2:7">
+      <c r="B24" s="482" t="s">
         <v>638</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C24" s="482">
         <v>1</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="D24" s="480"/>
+      <c r="E24" s="480"/>
+      <c r="F24" s="482" t="s">
         <v>638</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G24" s="482">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
-      <c r="F24" s="23" t="s">
-        <v>640</v>
-      </c>
-      <c r="G24" s="23">
+    <row r="25" spans="2:7">
+      <c r="B25" s="480"/>
+      <c r="C25" s="480"/>
+      <c r="D25" s="480"/>
+      <c r="E25" s="480"/>
+      <c r="F25" s="482" t="s">
+        <v>655</v>
+      </c>
+      <c r="G25" s="482">
         <v>1</v>
       </c>
     </row>
@@ -13792,22 +17364,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet12">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D3" sqref="D3"/>
-      <selection pane="topRight" activeCell="Z2" sqref="Z2"/>
+      <selection pane="topRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
     <col min="2" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13828,10 +17400,10 @@
       <c r="J1" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="455" t="s">
+      <c r="P1" s="479" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="455"/>
+      <c r="Q1" s="479"/>
     </row>
     <row r="2" spans="1:22">
       <c r="H2" s="23"/>
@@ -14463,7 +18035,7 @@
         <v>0.31987152000000002</v>
       </c>
       <c r="K18" s="41">
-        <f t="shared" ref="K18:N18" si="8">D18*$K$3/1000</f>
+        <f t="shared" ref="K18:M18" si="8">D18*$K$3/1000</f>
         <v>0.31614526800000003</v>
       </c>
       <c r="L18" s="41">
@@ -14475,7 +18047,7 @@
         <v>18.931076747999999</v>
       </c>
       <c r="N18" s="41">
-        <f t="shared" si="8"/>
+        <f>G18*$K$3/1000</f>
         <v>48.176628371999996</v>
       </c>
       <c r="O18" s="23"/>
@@ -14516,7 +18088,7 @@
         <v>5.2068405464794116</v>
       </c>
       <c r="L19" s="41">
-        <f t="shared" si="9"/>
+        <f>E19/$K$2</f>
         <v>4.1559186013184295</v>
       </c>
       <c r="M19" s="41">
@@ -16881,7 +20453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60F2DFA-A498-428E-8EBC-6735D731296E}">
   <sheetPr codeName="Sheet14">
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -16892,9 +20464,9 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="23"/>
+    <col min="1" max="16384" width="9.08984375" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -17011,21 +20583,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" customWidth="1"/>
     <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="5.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.7265625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.81640625" bestFit="1" customWidth="1"/>
@@ -17780,32 +21352,31 @@
       <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="38.1796875" style="133" customWidth="1"/>
+    <col min="1" max="1" width="38.08984375" style="133" customWidth="1"/>
     <col min="2" max="2" width="13" style="131" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7.54296875" style="134" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="134"/>
-    <col min="6" max="6" width="6.1796875" style="135" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" style="134"/>
+    <col min="6" max="6" width="6.08984375" style="135" customWidth="1"/>
     <col min="7" max="7" width="5.81640625" style="135" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" style="134" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1796875" style="135" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.26953125" style="134" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.08984375" style="135" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="135" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.81640625" style="135" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.7265625" style="132" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1796875" style="131" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1796875" style="131" customWidth="1"/>
+    <col min="13" max="13" width="8.08984375" style="131" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.08984375" style="131" customWidth="1"/>
     <col min="15" max="15" width="5.26953125" style="131" customWidth="1"/>
-    <col min="16" max="16" width="7.453125" style="131" customWidth="1"/>
-    <col min="17" max="17" width="7.453125" style="131" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.1796875" style="131" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.26953125" style="131" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.453125" style="131" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.453125" style="131" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.26953125" style="131" customWidth="1"/>
+    <col min="17" max="17" width="7.26953125" style="131" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.08984375" style="131" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.26953125" style="131" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.26953125" style="131" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.81640625" style="131" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="5.453125" style="131" customWidth="1"/>
-    <col min="26" max="26" width="5.453125" style="135" customWidth="1"/>
-    <col min="27" max="27" width="8.1796875" style="132" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="5.26953125" style="131" customWidth="1"/>
+    <col min="26" max="26" width="5.26953125" style="135" customWidth="1"/>
+    <col min="27" max="27" width="8.08984375" style="132" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="6.7265625" style="132" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="5.54296875" style="131" customWidth="1"/>
     <col min="31" max="31" width="8.7265625" style="131" bestFit="1" customWidth="1"/>
@@ -17815,12 +21386,12 @@
     <col min="35" max="36" width="7" style="131" customWidth="1"/>
     <col min="37" max="40" width="5.54296875" style="131" customWidth="1"/>
     <col min="41" max="41" width="8.7265625" style="132" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.453125" style="132" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.26953125" style="132" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="9.26953125" style="131" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.1796875" style="131"/>
+    <col min="44" max="16384" width="9.08984375" style="131"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="95.5" thickBot="1">
+    <row r="1" spans="1:43" ht="120.5" thickBot="1">
       <c r="A1" s="212" t="s">
         <v>428</v>
       </c>
@@ -20407,8 +23978,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B3:AC86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20425,18 +23996,18 @@
     <col min="10" max="10" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="1.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35.7265625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="1.54296875" customWidth="1"/>
     <col min="16" max="16" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="1.54296875" customWidth="1"/>
-    <col min="20" max="20" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.08984375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="1.54296875" customWidth="1"/>
     <col min="22" max="22" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="26.81640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="1.54296875" customWidth="1"/>
-    <col min="26" max="26" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="1.54296875" customWidth="1"/>
     <col min="29" max="29" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
@@ -23527,11 +27098,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView topLeftCell="A47" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
@@ -24976,53 +28547,58 @@
       <c r="I73" s="174"/>
     </row>
     <row r="74" spans="2:9">
-      <c r="B74" s="185" t="s">
-        <v>629</v>
-      </c>
-      <c r="C74" s="185"/>
-      <c r="D74" s="185"/>
-      <c r="E74" s="185"/>
-      <c r="F74" s="185"/>
-      <c r="G74" s="185"/>
-      <c r="H74" s="185"/>
-      <c r="I74" s="185"/>
+      <c r="B74" s="487" t="s">
+        <v>656</v>
+      </c>
+      <c r="C74" s="487"/>
+      <c r="D74" s="487"/>
+      <c r="E74" s="487"/>
+      <c r="F74" s="487"/>
+      <c r="G74" s="487"/>
+      <c r="H74" s="487"/>
+      <c r="I74" s="487"/>
     </row>
     <row r="75" spans="2:9">
-      <c r="B75" s="174" t="s">
+      <c r="B75" s="486" t="s">
         <v>270</v>
       </c>
-      <c r="C75" t="s">
-        <v>630</v>
-      </c>
-      <c r="D75" t="s">
-        <v>631</v>
-      </c>
-      <c r="E75" s="174" t="s">
+      <c r="C75" s="485" t="s">
+        <v>653</v>
+      </c>
+      <c r="D75" s="485" t="s">
+        <v>657</v>
+      </c>
+      <c r="E75" s="486" t="s">
         <v>271</v>
       </c>
-      <c r="F75" t="s">
-        <v>643</v>
-      </c>
+      <c r="F75" s="485" t="s">
+        <v>658</v>
+      </c>
+      <c r="G75" s="485"/>
+      <c r="H75" s="485"/>
+      <c r="I75" s="485"/>
     </row>
     <row r="76" spans="2:9">
-      <c r="B76" s="174" t="s">
+      <c r="B76" s="486" t="s">
         <v>270</v>
       </c>
-      <c r="C76" t="s">
-        <v>639</v>
-      </c>
-      <c r="D76" t="s">
-        <v>641</v>
-      </c>
-      <c r="E76" s="174" t="s">
+      <c r="C76" s="485" t="s">
+        <v>654</v>
+      </c>
+      <c r="D76" s="485" t="s">
+        <v>659</v>
+      </c>
+      <c r="E76" s="486" t="s">
         <v>271</v>
       </c>
-      <c r="F76" t="s">
-        <v>643</v>
-      </c>
+      <c r="F76" s="485" t="s">
+        <v>658</v>
+      </c>
+      <c r="G76" s="485"/>
+      <c r="H76" s="485"/>
+      <c r="I76" s="485"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -25033,8 +28609,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:T91"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -25045,12 +28621,12 @@
     <col min="5" max="5" width="58.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.54296875" customWidth="1"/>
     <col min="7" max="7" width="12.81640625" customWidth="1"/>
-    <col min="8" max="8" width="30.453125" customWidth="1"/>
-    <col min="9" max="9" width="25.453125" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" customWidth="1"/>
+    <col min="8" max="8" width="30.26953125" customWidth="1"/>
+    <col min="9" max="9" width="25.26953125" customWidth="1"/>
+    <col min="10" max="10" width="17.26953125" customWidth="1"/>
     <col min="14" max="14" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.1796875" customWidth="1"/>
+    <col min="16" max="16" width="4.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="26">
@@ -27436,278 +31012,278 @@
   <dimension ref="B1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="23"/>
+    <col min="1" max="1" width="9.08984375" style="23"/>
     <col min="2" max="2" width="11.54296875" style="23" customWidth="1"/>
     <col min="3" max="3" width="11.26953125" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.1796875" style="23"/>
+    <col min="5" max="5" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.08984375" style="23"/>
     <col min="9" max="9" width="10.26953125" style="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.81640625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="23"/>
+    <col min="12" max="12" width="9.08984375" style="23"/>
     <col min="13" max="13" width="11.26953125" style="23" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.7265625" style="23" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="37" style="23" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="9.81640625" style="23" customWidth="1"/>
-    <col min="18" max="262" width="9.1796875" style="23"/>
+    <col min="18" max="262" width="9.08984375" style="23"/>
     <col min="263" max="263" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="264" max="264" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="266" max="518" width="9.1796875" style="23"/>
+    <col min="265" max="265" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="266" max="518" width="9.08984375" style="23"/>
     <col min="519" max="519" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="520" max="520" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="522" max="774" width="9.1796875" style="23"/>
+    <col min="521" max="521" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="522" max="774" width="9.08984375" style="23"/>
     <col min="775" max="775" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="776" max="776" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="778" max="1030" width="9.1796875" style="23"/>
+    <col min="777" max="777" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="778" max="1030" width="9.08984375" style="23"/>
     <col min="1031" max="1031" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="1032" max="1032" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1286" width="9.1796875" style="23"/>
+    <col min="1033" max="1033" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1286" width="9.08984375" style="23"/>
     <col min="1287" max="1287" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="1288" max="1288" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1542" width="9.1796875" style="23"/>
+    <col min="1289" max="1289" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1542" width="9.08984375" style="23"/>
     <col min="1543" max="1543" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="1544" max="1544" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1798" width="9.1796875" style="23"/>
+    <col min="1545" max="1545" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1798" width="9.08984375" style="23"/>
     <col min="1799" max="1799" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="1800" max="1800" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1802" max="2054" width="9.1796875" style="23"/>
+    <col min="1801" max="1801" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="1802" max="2054" width="9.08984375" style="23"/>
     <col min="2055" max="2055" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="2056" max="2056" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2310" width="9.1796875" style="23"/>
+    <col min="2057" max="2057" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2310" width="9.08984375" style="23"/>
     <col min="2311" max="2311" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="2312" max="2312" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2566" width="9.1796875" style="23"/>
+    <col min="2313" max="2313" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2566" width="9.08984375" style="23"/>
     <col min="2567" max="2567" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="2568" max="2568" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2822" width="9.1796875" style="23"/>
+    <col min="2569" max="2569" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2822" width="9.08984375" style="23"/>
     <col min="2823" max="2823" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="2824" max="2824" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2826" max="3078" width="9.1796875" style="23"/>
+    <col min="2825" max="2825" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2826" max="3078" width="9.08984375" style="23"/>
     <col min="3079" max="3079" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="3080" max="3080" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3334" width="9.1796875" style="23"/>
+    <col min="3081" max="3081" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3334" width="9.08984375" style="23"/>
     <col min="3335" max="3335" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="3336" max="3336" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3590" width="9.1796875" style="23"/>
+    <col min="3337" max="3337" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3590" width="9.08984375" style="23"/>
     <col min="3591" max="3591" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="3592" max="3592" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3846" width="9.1796875" style="23"/>
+    <col min="3593" max="3593" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3846" width="9.08984375" style="23"/>
     <col min="3847" max="3847" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="3848" max="3848" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3850" max="4102" width="9.1796875" style="23"/>
+    <col min="3849" max="3849" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3850" max="4102" width="9.08984375" style="23"/>
     <col min="4103" max="4103" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="4104" max="4104" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4358" width="9.1796875" style="23"/>
+    <col min="4105" max="4105" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4358" width="9.08984375" style="23"/>
     <col min="4359" max="4359" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="4360" max="4360" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4614" width="9.1796875" style="23"/>
+    <col min="4361" max="4361" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4614" width="9.08984375" style="23"/>
     <col min="4615" max="4615" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="4616" max="4616" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4870" width="9.1796875" style="23"/>
+    <col min="4617" max="4617" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4870" width="9.08984375" style="23"/>
     <col min="4871" max="4871" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="4872" max="4872" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4874" max="5126" width="9.1796875" style="23"/>
+    <col min="4873" max="4873" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4874" max="5126" width="9.08984375" style="23"/>
     <col min="5127" max="5127" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="5128" max="5128" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5382" width="9.1796875" style="23"/>
+    <col min="5129" max="5129" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5382" width="9.08984375" style="23"/>
     <col min="5383" max="5383" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="5384" max="5384" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5638" width="9.1796875" style="23"/>
+    <col min="5385" max="5385" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5638" width="9.08984375" style="23"/>
     <col min="5639" max="5639" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="5640" max="5640" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5894" width="9.1796875" style="23"/>
+    <col min="5641" max="5641" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5894" width="9.08984375" style="23"/>
     <col min="5895" max="5895" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="5896" max="5896" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5898" max="6150" width="9.1796875" style="23"/>
+    <col min="5897" max="5897" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5898" max="6150" width="9.08984375" style="23"/>
     <col min="6151" max="6151" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="6152" max="6152" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6406" width="9.1796875" style="23"/>
+    <col min="6153" max="6153" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6406" width="9.08984375" style="23"/>
     <col min="6407" max="6407" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="6408" max="6408" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6662" width="9.1796875" style="23"/>
+    <col min="6409" max="6409" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6662" width="9.08984375" style="23"/>
     <col min="6663" max="6663" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="6664" max="6664" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6918" width="9.1796875" style="23"/>
+    <col min="6665" max="6665" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6918" width="9.08984375" style="23"/>
     <col min="6919" max="6919" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="6920" max="6920" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6922" max="7174" width="9.1796875" style="23"/>
+    <col min="6921" max="6921" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6922" max="7174" width="9.08984375" style="23"/>
     <col min="7175" max="7175" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="7176" max="7176" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7430" width="9.1796875" style="23"/>
+    <col min="7177" max="7177" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7430" width="9.08984375" style="23"/>
     <col min="7431" max="7431" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="7432" max="7432" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7686" width="9.1796875" style="23"/>
+    <col min="7433" max="7433" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7686" width="9.08984375" style="23"/>
     <col min="7687" max="7687" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="7688" max="7688" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7942" width="9.1796875" style="23"/>
+    <col min="7689" max="7689" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7942" width="9.08984375" style="23"/>
     <col min="7943" max="7943" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="7944" max="7944" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7946" max="8198" width="9.1796875" style="23"/>
+    <col min="7945" max="7945" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="7946" max="8198" width="9.08984375" style="23"/>
     <col min="8199" max="8199" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="8200" max="8200" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8454" width="9.1796875" style="23"/>
+    <col min="8201" max="8201" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8454" width="9.08984375" style="23"/>
     <col min="8455" max="8455" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="8456" max="8456" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8710" width="9.1796875" style="23"/>
+    <col min="8457" max="8457" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8710" width="9.08984375" style="23"/>
     <col min="8711" max="8711" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="8712" max="8712" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8966" width="9.1796875" style="23"/>
+    <col min="8713" max="8713" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8966" width="9.08984375" style="23"/>
     <col min="8967" max="8967" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="8968" max="8968" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8970" max="9222" width="9.1796875" style="23"/>
+    <col min="8969" max="8969" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="8970" max="9222" width="9.08984375" style="23"/>
     <col min="9223" max="9223" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="9224" max="9224" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9478" width="9.1796875" style="23"/>
+    <col min="9225" max="9225" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9478" width="9.08984375" style="23"/>
     <col min="9479" max="9479" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="9480" max="9480" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9734" width="9.1796875" style="23"/>
+    <col min="9481" max="9481" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9734" width="9.08984375" style="23"/>
     <col min="9735" max="9735" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="9736" max="9736" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9990" width="9.1796875" style="23"/>
+    <col min="9737" max="9737" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9990" width="9.08984375" style="23"/>
     <col min="9991" max="9991" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="9992" max="9992" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9994" max="10246" width="9.1796875" style="23"/>
+    <col min="9993" max="9993" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="9994" max="10246" width="9.08984375" style="23"/>
     <col min="10247" max="10247" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="10248" max="10248" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10502" width="9.1796875" style="23"/>
+    <col min="10249" max="10249" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10502" width="9.08984375" style="23"/>
     <col min="10503" max="10503" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="10504" max="10504" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10758" width="9.1796875" style="23"/>
+    <col min="10505" max="10505" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10758" width="9.08984375" style="23"/>
     <col min="10759" max="10759" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="10760" max="10760" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10762" max="11014" width="9.1796875" style="23"/>
+    <col min="10761" max="10761" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="10762" max="11014" width="9.08984375" style="23"/>
     <col min="11015" max="11015" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="11016" max="11016" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11270" width="9.1796875" style="23"/>
+    <col min="11017" max="11017" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11270" width="9.08984375" style="23"/>
     <col min="11271" max="11271" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="11272" max="11272" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11526" width="9.1796875" style="23"/>
+    <col min="11273" max="11273" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11526" width="9.08984375" style="23"/>
     <col min="11527" max="11527" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="11528" max="11528" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11782" width="9.1796875" style="23"/>
+    <col min="11529" max="11529" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11782" width="9.08984375" style="23"/>
     <col min="11783" max="11783" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="11784" max="11784" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11786" max="12038" width="9.1796875" style="23"/>
+    <col min="11785" max="11785" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="11786" max="12038" width="9.08984375" style="23"/>
     <col min="12039" max="12039" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="12040" max="12040" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12294" width="9.1796875" style="23"/>
+    <col min="12041" max="12041" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12294" width="9.08984375" style="23"/>
     <col min="12295" max="12295" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="12296" max="12296" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12550" width="9.1796875" style="23"/>
+    <col min="12297" max="12297" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12550" width="9.08984375" style="23"/>
     <col min="12551" max="12551" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="12552" max="12552" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12806" width="9.1796875" style="23"/>
+    <col min="12553" max="12553" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12806" width="9.08984375" style="23"/>
     <col min="12807" max="12807" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="12808" max="12808" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12810" max="13062" width="9.1796875" style="23"/>
+    <col min="12809" max="12809" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="12810" max="13062" width="9.08984375" style="23"/>
     <col min="13063" max="13063" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="13064" max="13064" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13318" width="9.1796875" style="23"/>
+    <col min="13065" max="13065" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13318" width="9.08984375" style="23"/>
     <col min="13319" max="13319" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="13320" max="13320" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13574" width="9.1796875" style="23"/>
+    <col min="13321" max="13321" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13574" width="9.08984375" style="23"/>
     <col min="13575" max="13575" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="13576" max="13576" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13830" width="9.1796875" style="23"/>
+    <col min="13577" max="13577" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13830" width="9.08984375" style="23"/>
     <col min="13831" max="13831" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="13832" max="13832" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13834" max="14086" width="9.1796875" style="23"/>
+    <col min="13833" max="13833" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="13834" max="14086" width="9.08984375" style="23"/>
     <col min="14087" max="14087" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="14088" max="14088" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14342" width="9.1796875" style="23"/>
+    <col min="14089" max="14089" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14342" width="9.08984375" style="23"/>
     <col min="14343" max="14343" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="14344" max="14344" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14598" width="9.1796875" style="23"/>
+    <col min="14345" max="14345" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14598" width="9.08984375" style="23"/>
     <col min="14599" max="14599" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="14600" max="14600" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14854" width="9.1796875" style="23"/>
+    <col min="14601" max="14601" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14854" width="9.08984375" style="23"/>
     <col min="14855" max="14855" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="14856" max="14856" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14858" max="15110" width="9.1796875" style="23"/>
+    <col min="14857" max="14857" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="14858" max="15110" width="9.08984375" style="23"/>
     <col min="15111" max="15111" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="15112" max="15112" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15366" width="9.1796875" style="23"/>
+    <col min="15113" max="15113" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15366" width="9.08984375" style="23"/>
     <col min="15367" max="15367" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="15368" max="15368" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15622" width="9.1796875" style="23"/>
+    <col min="15369" max="15369" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15622" width="9.08984375" style="23"/>
     <col min="15623" max="15623" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="15624" max="15624" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15878" width="9.1796875" style="23"/>
+    <col min="15625" max="15625" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15878" width="9.08984375" style="23"/>
     <col min="15879" max="15879" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="15880" max="15880" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15882" max="16134" width="9.1796875" style="23"/>
+    <col min="15881" max="15881" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="15882" max="16134" width="9.08984375" style="23"/>
     <col min="16135" max="16135" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="16136" max="16136" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="11.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16384" width="9.1796875" style="23"/>
+    <col min="16137" max="16137" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16384" width="9.08984375" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="18.5">
@@ -27967,31 +31543,31 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:U69"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="78" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42:L42"/>
+    <sheetView zoomScale="78" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="23"/>
+    <col min="1" max="1" width="9.08984375" style="23"/>
     <col min="2" max="2" width="12.54296875" style="23" customWidth="1"/>
     <col min="3" max="3" width="23.26953125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.81640625" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.08984375" style="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1796875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="14.08984375" style="23" customWidth="1"/>
     <col min="12" max="12" width="12.7265625" style="23" customWidth="1"/>
-    <col min="13" max="13" width="19.1796875" style="23" customWidth="1"/>
-    <col min="14" max="14" width="15.1796875" style="23" customWidth="1"/>
+    <col min="13" max="13" width="19.08984375" style="23" customWidth="1"/>
+    <col min="14" max="14" width="15.08984375" style="23" customWidth="1"/>
     <col min="15" max="15" width="10.54296875" style="23" customWidth="1"/>
-    <col min="16" max="22" width="9.1796875" style="23"/>
+    <col min="16" max="22" width="9.08984375" style="23"/>
     <col min="23" max="23" width="16" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.453125" style="23" customWidth="1"/>
+    <col min="24" max="24" width="19.26953125" style="23" customWidth="1"/>
     <col min="25" max="25" width="38.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.1796875" style="23"/>
+    <col min="26" max="16384" width="9.08984375" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="18.5">
@@ -28883,20 +32459,20 @@
       <c r="D24" s="246"/>
       <c r="E24" s="246"/>
       <c r="F24" s="247"/>
-      <c r="G24" s="442" t="s">
+      <c r="G24" s="466" t="s">
         <v>527</v>
       </c>
-      <c r="H24" s="442"/>
-      <c r="I24" s="442"/>
-      <c r="J24" s="443"/>
-      <c r="K24" s="444" t="s">
+      <c r="H24" s="466"/>
+      <c r="I24" s="466"/>
+      <c r="J24" s="467"/>
+      <c r="K24" s="468" t="s">
         <v>528</v>
       </c>
-      <c r="L24" s="445"/>
-      <c r="M24" s="446" t="s">
+      <c r="L24" s="469"/>
+      <c r="M24" s="470" t="s">
         <v>529</v>
       </c>
-      <c r="N24" s="445"/>
+      <c r="N24" s="469"/>
       <c r="S24"/>
     </row>
     <row r="25" spans="3:21">
@@ -29539,20 +33115,20 @@
       <c r="D42" s="246"/>
       <c r="E42" s="246"/>
       <c r="F42" s="247"/>
-      <c r="G42" s="442" t="s">
+      <c r="G42" s="466" t="s">
         <v>527</v>
       </c>
-      <c r="H42" s="442"/>
-      <c r="I42" s="442"/>
-      <c r="J42" s="443"/>
-      <c r="K42" s="444" t="s">
+      <c r="H42" s="466"/>
+      <c r="I42" s="466"/>
+      <c r="J42" s="467"/>
+      <c r="K42" s="468" t="s">
         <v>528</v>
       </c>
-      <c r="L42" s="445"/>
-      <c r="M42" s="446" t="s">
+      <c r="L42" s="469"/>
+      <c r="M42" s="470" t="s">
         <v>555</v>
       </c>
-      <c r="N42" s="445"/>
+      <c r="N42" s="469"/>
       <c r="O42"/>
     </row>
     <row r="43" spans="3:20">
@@ -30366,2619 +33942,242 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="B2:W62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A665F926-DECD-4DB2-B495-3F9BFC1DFD4C}">
+  <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="23"/>
-    <col min="2" max="2" width="14.26953125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="12.81640625" style="23" customWidth="1"/>
-    <col min="15" max="16" width="13" style="23" customWidth="1"/>
-    <col min="17" max="17" width="21.81640625" style="23" customWidth="1"/>
-    <col min="18" max="18" width="29.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="9.1796875" style="23"/>
-    <col min="23" max="23" width="14.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1796875" style="23"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="18.7265625" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18.5">
-      <c r="B2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="6" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2" s="169" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="169"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" thickBot="1">
+      <c r="B3" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="166" t="s">
         <v>513</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="166" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="166" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="166" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="166" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="166" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="52">
+      <c r="B4" s="172" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171" t="s">
+        <v>351</v>
+      </c>
+      <c r="E4" s="171" t="s">
+        <v>280</v>
+      </c>
+      <c r="F4" s="171" t="s">
+        <v>352</v>
+      </c>
+      <c r="G4" s="171" t="s">
+        <v>353</v>
+      </c>
+      <c r="H4" s="171" t="s">
+        <v>354</v>
+      </c>
+      <c r="I4" s="173" t="s">
+        <v>355</v>
+      </c>
+      <c r="J4" s="173" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D5" t="s">
+        <v>630</v>
+      </c>
+      <c r="E5" s="439" t="s">
+        <v>651</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="E6" s="439"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="E9" s="169" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="2:10" ht="15" thickBot="1">
+      <c r="B10" s="166" t="s">
+        <v>513</v>
+      </c>
+      <c r="C10" s="166" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="166" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="32.5" customHeight="1" thickBot="1">
-      <c r="B4" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="F10" s="166" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="166" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="172" t="s">
+        <v>515</v>
+      </c>
+      <c r="C11" s="172" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="93"/>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="21" t="str">
-        <f>Processes!C23</f>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="172" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="2" t="str">
+        <f>Processes!C60</f>
         <v>IE,National</v>
       </c>
-      <c r="C5" s="21" t="str">
-        <f>Processes!D23</f>
-        <v>IMPBIOETH1G_S1</v>
-      </c>
-      <c r="D5" s="22" t="str">
-        <f>Processes!E23</f>
-        <v>Import of Ethanol 1st generation  - Step 1</v>
-      </c>
-      <c r="E5" s="22" t="str">
-        <f>Commodities!$C$30</f>
-        <v>BIOETH1G</v>
-      </c>
-      <c r="F5" s="50">
-        <f>'SEAI-AEA_BioData'!K$23</f>
-        <v>18.176172733352441</v>
-      </c>
-      <c r="G5" s="50">
-        <f>'SEAI-AEA_BioData'!L$23</f>
-        <v>17.579057991783699</v>
-      </c>
-      <c r="H5" s="50">
-        <f>'SEAI-AEA_BioData'!M$23</f>
-        <v>16.599789815610968</v>
-      </c>
-      <c r="I5" s="50">
-        <f>'SEAI-AEA_BioData'!N$23</f>
-        <v>15.883252125728479</v>
-      </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="22"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="21" t="str">
-        <f>Processes!C24</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C6" s="21" t="str">
-        <f>Processes!D24</f>
-        <v>IMPBIOETH1G_S2</v>
-      </c>
-      <c r="D6" s="22" t="str">
-        <f>Processes!E24</f>
-        <v>Import of Ethanol 1st generation  - Step 2</v>
-      </c>
-      <c r="E6" s="22" t="str">
-        <f>Commodities!$C$30</f>
-        <v>BIOETH1G</v>
-      </c>
-      <c r="F6" s="50">
-        <f>'SEAI-AEA_BioData'!K$33</f>
-        <v>18.916595012897677</v>
-      </c>
-      <c r="G6" s="50">
-        <f>'SEAI-AEA_BioData'!L$33</f>
-        <v>19.083787140536923</v>
-      </c>
-      <c r="H6" s="50">
-        <f>'SEAI-AEA_BioData'!M$33</f>
-        <v>18.916595012897677</v>
-      </c>
-      <c r="I6" s="50">
-        <f>'SEAI-AEA_BioData'!N$33</f>
-        <v>19.131556319862423</v>
-      </c>
-      <c r="J6" s="50">
-        <f>I6*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
-        <v>20.390211340906003</v>
-      </c>
-      <c r="K6" s="50">
-        <f>I6*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
-        <v>21.397135357740865</v>
-      </c>
-      <c r="L6" s="22"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="22" t="str">
-        <f>Processes!C25</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C7" s="22" t="str">
-        <f>Processes!D25</f>
-        <v>IMPBIOETH1G_S3</v>
-      </c>
-      <c r="D7" s="22" t="str">
-        <f>Processes!E25</f>
-        <v>Import of Ethanol 1st generation  - Step 3</v>
-      </c>
-      <c r="E7" s="22" t="str">
-        <f>Commodities!$C$30</f>
-        <v>BIOETH1G</v>
-      </c>
-      <c r="F7" s="50">
-        <f>'SEAI-AEA_BioData'!K$44</f>
-        <v>19.680901882105665</v>
-      </c>
-      <c r="G7" s="50">
-        <f>'SEAI-AEA_BioData'!L$44</f>
-        <v>20.684054647941146</v>
-      </c>
-      <c r="H7" s="50">
-        <f>'SEAI-AEA_BioData'!M$44</f>
-        <v>21.758861182764878</v>
-      </c>
-      <c r="I7" s="50">
-        <f>'SEAI-AEA_BioData'!N$44</f>
-        <v>23.550205407471097</v>
-      </c>
-      <c r="J7" s="50">
-        <f>I7*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
-        <v>25.099561026383665</v>
-      </c>
-      <c r="K7" s="50">
-        <f>I7*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
-        <v>26.339045521513725</v>
-      </c>
-      <c r="L7" s="22"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="39" t="str">
-        <f>Processes!C26</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C8" s="39" t="str">
-        <f>Processes!D26</f>
-        <v>IMPBIOETH1G_S4</v>
-      </c>
-      <c r="D8" s="39" t="str">
-        <f>Processes!E26</f>
-        <v>Import of Ethanol 1st generation  - Step 4</v>
-      </c>
-      <c r="E8" s="39" t="str">
-        <f>Commodities!$C$30</f>
-        <v>BIOETH1G</v>
-      </c>
-      <c r="F8" s="51">
-        <f>'SEAI-AEA_BioData'!K$55</f>
-        <v>20.636285468615647</v>
-      </c>
-      <c r="G8" s="51">
-        <f>'SEAI-AEA_BioData'!L$55</f>
-        <v>22.714244769274863</v>
-      </c>
-      <c r="H8" s="51">
-        <f>'SEAI-AEA_BioData'!M$55</f>
-        <v>25.174357504538072</v>
-      </c>
-      <c r="I8" s="51">
-        <f>'SEAI-AEA_BioData'!N$55</f>
-        <v>28.757045953950509</v>
-      </c>
-      <c r="J8" s="51">
-        <f>I8*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
-        <v>30.648956871973571</v>
-      </c>
-      <c r="K8" s="51">
-        <f>I8*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
-        <v>32.162485606392018</v>
-      </c>
-      <c r="L8" s="39"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="22" t="str">
-        <f>Processes!C27</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C9" s="22" t="str">
-        <f>Processes!D27</f>
-        <v>IMPBIODST1G_S1</v>
-      </c>
-      <c r="D9" s="22" t="str">
-        <f>Processes!E27</f>
-        <v>Import of Biodiesel 1st generation  - Step 1</v>
-      </c>
-      <c r="E9" s="22" t="str">
-        <f>Commodities!$C$32</f>
-        <v>BIODST1G</v>
-      </c>
-      <c r="F9" s="50">
-        <f>'SEAI-AEA_BioData'!K$25</f>
-        <v>31.360466227190216</v>
-      </c>
-      <c r="G9" s="50">
-        <f>'SEAI-AEA_BioData'!L$25</f>
-        <v>33.175695041559187</v>
-      </c>
-      <c r="H9" s="50">
-        <f>'SEAI-AEA_BioData'!M$25</f>
-        <v>31.862042610107956</v>
-      </c>
-      <c r="I9" s="50">
-        <f>'SEAI-AEA_BioData'!N$25</f>
-        <v>31.336581637527466</v>
-      </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="22"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="22" t="str">
-        <f>Processes!C28</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C10" s="22" t="str">
-        <f>Processes!D28</f>
-        <v>IMPBIODST1G_S2</v>
-      </c>
-      <c r="D10" s="22" t="str">
-        <f>Processes!E28</f>
-        <v>Import of Biodiesel 1st generation  - Step 2</v>
-      </c>
-      <c r="E10" s="22" t="str">
-        <f>Commodities!$C$32</f>
-        <v>BIODST1G</v>
-      </c>
-      <c r="F10" s="50">
-        <f>'SEAI-AEA_BioData'!K$35</f>
-        <v>32.650234068978691</v>
-      </c>
-      <c r="G10" s="50">
-        <f>'SEAI-AEA_BioData'!L$35</f>
-        <v>35.826884494124393</v>
-      </c>
-      <c r="H10" s="50">
-        <f>'SEAI-AEA_BioData'!M$35</f>
-        <v>35.97019203210089</v>
-      </c>
-      <c r="I10" s="50">
-        <f>'SEAI-AEA_BioData'!N$35</f>
-        <v>37.021113977261869</v>
-      </c>
-      <c r="J10" s="50">
-        <f>I10*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
-        <v>39.456713581029099</v>
-      </c>
-      <c r="K10" s="50">
-        <f>I10*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
-        <v>41.405193264042879</v>
-      </c>
-      <c r="L10" s="22"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="22" t="str">
-        <f>Processes!C29</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C11" s="22" t="str">
-        <f>Processes!D29</f>
-        <v>IMPBIODST1G_S3</v>
-      </c>
-      <c r="D11" s="22" t="str">
-        <f>Processes!E29</f>
-        <v>Import of Biodiesel 1st generation  - Step 3</v>
-      </c>
-      <c r="E11" s="22" t="str">
-        <f>Commodities!$C$32</f>
-        <v>BIODST1G</v>
-      </c>
-      <c r="F11" s="50">
-        <f>'SEAI-AEA_BioData'!K$46</f>
-        <v>33.916117321104423</v>
-      </c>
-      <c r="G11" s="50">
-        <f>'SEAI-AEA_BioData'!L$46</f>
-        <v>38.334766408713094</v>
-      </c>
-      <c r="H11" s="50">
-        <f>'SEAI-AEA_BioData'!M$46</f>
-        <v>40.460494888697809</v>
-      </c>
-      <c r="I11" s="50">
-        <f>'SEAI-AEA_BioData'!N$46</f>
-        <v>43.756568262157252</v>
-      </c>
-      <c r="J11" s="50">
-        <f>I11*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
-        <v>46.635289858351811</v>
-      </c>
-      <c r="K11" s="50">
-        <f>I11*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
-        <v>48.938267135307449</v>
-      </c>
-      <c r="L11" s="22"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="39" t="str">
-        <f>Processes!C30</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C12" s="39" t="str">
-        <f>Processes!D30</f>
-        <v>IMPBIODST1G_S4</v>
-      </c>
-      <c r="D12" s="39" t="str">
-        <f>Processes!E30</f>
-        <v>Import of Biodiesel 1st generation  - Step 4</v>
-      </c>
-      <c r="E12" s="39" t="str">
-        <f>Commodities!$C$32</f>
-        <v>BIODST1G</v>
-      </c>
-      <c r="F12" s="51">
-        <f>'SEAI-AEA_BioData'!K$57</f>
-        <v>35.540269418171391</v>
-      </c>
-      <c r="G12" s="51">
-        <f>'SEAI-AEA_BioData'!L$57</f>
-        <v>41.917454858125538</v>
-      </c>
-      <c r="H12" s="51">
-        <f>'SEAI-AEA_BioData'!M$57</f>
-        <v>46.527180663036205</v>
-      </c>
-      <c r="I12" s="51">
-        <f>'SEAI-AEA_BioData'!N$57</f>
-        <v>52.832712334002096</v>
-      </c>
-      <c r="J12" s="51">
-        <f>I12*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
-        <v>56.308548671765386</v>
-      </c>
-      <c r="K12" s="51">
-        <f>I12*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
-        <v>59.089217741976029</v>
-      </c>
-      <c r="L12" s="39"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="22" t="str">
-        <f>Processes!C32</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C13" s="22" t="str">
-        <f>Processes!D32</f>
-        <v>IMPBIOWPE_S1</v>
-      </c>
-      <c r="D13" s="22" t="str">
-        <f>Processes!E32</f>
-        <v>Import of Wood Pellets  - Step 1</v>
-      </c>
-      <c r="E13" s="22" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F13" s="50">
-        <f>'SEAI-AEA_BioData'!K$21</f>
-        <v>10.652526989586319</v>
-      </c>
-      <c r="G13" s="50">
-        <f>'SEAI-AEA_BioData'!L$21</f>
-        <v>8.5029139199388553</v>
-      </c>
-      <c r="H13" s="50">
-        <f>'SEAI-AEA_BioData'!M$21</f>
-        <v>7.2847998471386255</v>
-      </c>
-      <c r="I13" s="50">
-        <f>'SEAI-AEA_BioData'!N$21</f>
-        <v>6.9504155918601311</v>
-      </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="22"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="22" t="str">
-        <f>Processes!C33</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C14" s="22" t="str">
-        <f>Processes!D33</f>
-        <v>IMPBIOWPE_S2</v>
-      </c>
-      <c r="D14" s="22" t="str">
-        <f>Processes!E33</f>
-        <v>Import of Wood Pellets  - Step 2</v>
-      </c>
-      <c r="E14" s="22" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F14" s="50">
-        <f>'SEAI-AEA_BioData'!K$42</f>
-        <v>11.034680424190311</v>
-      </c>
-      <c r="G14" s="50">
-        <f>'SEAI-AEA_BioData'!L$42</f>
-        <v>9.0522594821820963</v>
-      </c>
-      <c r="H14" s="50">
-        <f>'SEAI-AEA_BioData'!M$42</f>
-        <v>8.0729913060093619</v>
-      </c>
-      <c r="I14" s="50">
-        <f>'SEAI-AEA_BioData'!N$42</f>
-        <v>7.9057991783701151</v>
-      </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="22"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="22" t="str">
-        <f>Processes!C34</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C15" s="22" t="str">
-        <f>Processes!D34</f>
-        <v>IMPBIOWPE_S3</v>
-      </c>
-      <c r="D15" s="22" t="str">
-        <f>Processes!E34</f>
-        <v>Import of Wood Pellets  - Step 3</v>
-      </c>
-      <c r="E15" s="22" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F15" s="50">
-        <f>'SEAI-AEA_BioData'!K$31</f>
-        <v>12.27667908665329</v>
-      </c>
-      <c r="G15" s="50">
-        <f>'SEAI-AEA_BioData'!L$31</f>
-        <v>10.103181427343078</v>
-      </c>
-      <c r="H15" s="50">
-        <f>'SEAI-AEA_BioData'!M$31</f>
-        <v>8.9328365338683469</v>
-      </c>
-      <c r="I15" s="50">
-        <f>'SEAI-AEA_BioData'!N$31</f>
-        <v>8.7656444062291001</v>
-      </c>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="22"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="39" t="str">
-        <f>Processes!C35</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C16" s="39" t="str">
-        <f>Processes!D35</f>
-        <v>IMPBIOWPE_S4</v>
-      </c>
-      <c r="D16" s="39" t="str">
-        <f>Processes!E35</f>
-        <v>Import of Wood Pellets  - Step 4</v>
-      </c>
-      <c r="E16" s="39" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F16" s="51">
-        <f>'SEAI-AEA_BioData'!K$53</f>
-        <v>12.778255469571032</v>
-      </c>
-      <c r="G16" s="51">
-        <f>'SEAI-AEA_BioData'!L$53</f>
-        <v>10.795834527562816</v>
-      </c>
-      <c r="H16" s="51">
-        <f>'SEAI-AEA_BioData'!M$53</f>
-        <v>9.9837584790293299</v>
-      </c>
-      <c r="I16" s="51">
-        <f>'SEAI-AEA_BioData'!N$53</f>
-        <v>10.055412248017578</v>
-      </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="39"/>
-    </row>
-    <row r="17" spans="2:18">
-      <c r="B17" s="22" t="str">
-        <f>Processes!C36</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C17" s="22" t="str">
-        <f>Processes!D36</f>
-        <v>IMPBIOWCH_S1</v>
-      </c>
-      <c r="D17" s="22" t="str">
-        <f>Processes!E36</f>
-        <v>Import of Wood Chip  - Step 1</v>
-      </c>
-      <c r="E17" s="22" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F17" s="50">
-        <f>'SEAI-AEA_BioData'!K$19</f>
-        <v>5.2068405464794116</v>
-      </c>
-      <c r="G17" s="50">
-        <f>'SEAI-AEA_BioData'!L$19</f>
-        <v>4.1559186013184295</v>
-      </c>
-      <c r="H17" s="50">
-        <f>'SEAI-AEA_BioData'!M$19</f>
-        <v>3.5588038597496894</v>
-      </c>
-      <c r="I17" s="50">
-        <f>'SEAI-AEA_BioData'!N$19</f>
-        <v>3.3916117321104422</v>
-      </c>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="22"/>
-    </row>
-    <row r="18" spans="2:18">
-      <c r="B18" s="22" t="str">
-        <f>Processes!C37</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C18" s="22" t="str">
-        <f>Processes!D37</f>
-        <v>IMPBIOWCH_S2</v>
-      </c>
-      <c r="D18" s="22" t="str">
-        <f>Processes!E37</f>
-        <v>Import of Wood Chip  - Step 2</v>
-      </c>
-      <c r="E18" s="22" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F18" s="50">
-        <f>'SEAI-AEA_BioData'!K$40</f>
-        <v>5.3979172637814079</v>
-      </c>
-      <c r="G18" s="50">
-        <f>'SEAI-AEA_BioData'!L$40</f>
-        <v>4.4186490876086744</v>
-      </c>
-      <c r="H18" s="50">
-        <f>'SEAI-AEA_BioData'!M$40</f>
-        <v>3.9409572943536828</v>
-      </c>
-      <c r="I18" s="50">
-        <f>'SEAI-AEA_BioData'!N$40</f>
-        <v>3.8693035253654342</v>
-      </c>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="22"/>
-    </row>
-    <row r="19" spans="2:18">
-      <c r="B19" s="22" t="str">
-        <f>Processes!C38</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C19" s="22" t="str">
-        <f>Processes!D38</f>
-        <v>IMPBIOWCH_S3</v>
-      </c>
-      <c r="D19" s="22" t="str">
-        <f>Processes!E38</f>
-        <v>Import of Wood Chip  - Step 3</v>
-      </c>
-      <c r="E19" s="22" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F19" s="50">
-        <f>'SEAI-AEA_BioData'!K$29</f>
-        <v>6.1383395433266452</v>
-      </c>
-      <c r="G19" s="50">
-        <f>'SEAI-AEA_BioData'!L$29</f>
-        <v>5.039648418840164</v>
-      </c>
-      <c r="H19" s="50">
-        <f>'SEAI-AEA_BioData'!M$29</f>
-        <v>4.4664182669341734</v>
-      </c>
-      <c r="I19" s="50">
-        <f>'SEAI-AEA_BioData'!N$29</f>
-        <v>4.3708799082831753</v>
-      </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="22"/>
-    </row>
-    <row r="20" spans="2:18">
-      <c r="B20" s="39" t="str">
-        <f>Processes!C39</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C20" s="39" t="str">
-        <f>Processes!D39</f>
-        <v>IMPBIOWCH_S4</v>
-      </c>
-      <c r="D20" s="39" t="str">
-        <f>Processes!E39</f>
-        <v>Import of Wood Chip  - Step 4</v>
-      </c>
-      <c r="E20" s="39" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F20" s="51">
-        <f>'SEAI-AEA_BioData'!K$51</f>
-        <v>6.3771854399541414</v>
-      </c>
-      <c r="G20" s="51">
-        <f>'SEAI-AEA_BioData'!L$51</f>
-        <v>5.3979172637814079</v>
-      </c>
-      <c r="H20" s="51">
-        <f>'SEAI-AEA_BioData'!M$51</f>
-        <v>4.9918792395146649</v>
-      </c>
-      <c r="I20" s="51">
-        <f>'SEAI-AEA_BioData'!N$51</f>
-        <v>5.039648418840164</v>
-      </c>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="39"/>
-    </row>
-    <row r="21" spans="2:18">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="2:18" ht="18.5">
-      <c r="B22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="F22" s="5" t="str">
-        <f>Imports_Fossil!G3</f>
-        <v>~FI_T: IRE_PRICE</v>
-      </c>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-    </row>
-    <row r="23" spans="2:18" ht="30.75" customHeight="1">
-      <c r="B23" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="7" t="str">
-        <f>Imports_Fossil!H4</f>
-        <v>2018~MEUR2018</v>
-      </c>
-      <c r="H23" s="7" t="str">
-        <f>Imports_Fossil!I4</f>
-        <v>2019~MEUR2019</v>
-      </c>
-      <c r="I23" s="7" t="str">
-        <f>Imports_Fossil!J4</f>
-        <v>2025~MEUR2019</v>
-      </c>
-      <c r="J23" s="7" t="str">
-        <f>Imports_Fossil!K4</f>
-        <v>2030~MEUR2019</v>
-      </c>
-      <c r="K23" s="7" t="str">
-        <f>Imports_Fossil!L4</f>
-        <v>2035~MEUR2019</v>
-      </c>
-      <c r="L23" s="7" t="str">
-        <f>Imports_Fossil!M4</f>
-        <v>2040~MEUR2019</v>
-      </c>
-      <c r="M23" s="38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" ht="26.5" thickBot="1">
-      <c r="B24" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M24" s="93"/>
-    </row>
-    <row r="25" spans="2:18">
-      <c r="B25" s="206" t="str">
-        <f>Processes!C31</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C25" s="206" t="str">
-        <f>Processes!D31</f>
-        <v>IMPBIOJKR_S1</v>
-      </c>
-      <c r="D25" s="206" t="str">
-        <f>Processes!E31</f>
-        <v>Import of Bio Jet Kerosene - Step 1</v>
-      </c>
-      <c r="E25" s="206" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="206" t="str">
-        <f>Commodities!C36</f>
-        <v>BIOJKR</v>
-      </c>
-      <c r="G25" s="207">
-        <f>Imports_Fossil!H18*1.6</f>
-        <v>26.566026131233826</v>
-      </c>
-      <c r="H25" s="207">
-        <f>Imports_Fossil!I16*1.6</f>
-        <v>25.964334287665327</v>
-      </c>
-      <c r="I25" s="207">
-        <f>Imports_Fossil!J16*1.6</f>
-        <v>29.261392609908548</v>
-      </c>
-      <c r="J25" s="207">
-        <f>Imports_Fossil!K16*1.6</f>
-        <v>31.322054061310553</v>
-      </c>
-      <c r="K25" s="207">
-        <f>Imports_Fossil!L16*1.6</f>
-        <v>33.382715512712565</v>
-      </c>
-      <c r="L25" s="207">
-        <f>Imports_Fossil!M16*1.6</f>
-        <v>35.031244673834173</v>
-      </c>
-      <c r="M25" s="270" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-    </row>
-    <row r="27" spans="2:18" ht="26">
-      <c r="B27" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="N27" s="129" t="s">
-        <v>153</v>
-      </c>
-      <c r="O27" s="127"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
-    </row>
-    <row r="28" spans="2:18">
-      <c r="B28" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K28" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="N28" s="23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" ht="15" thickBot="1">
-      <c r="B29" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29" s="93"/>
-      <c r="N29" s="128"/>
-      <c r="O29" s="128"/>
-      <c r="P29" s="153" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q29" s="153"/>
-      <c r="R29" s="153" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" ht="15" thickBot="1">
-      <c r="B30" s="43" t="str">
-        <f t="shared" ref="B30" si="0">B13</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C30" s="43" t="str">
-        <f t="shared" ref="C30:D30" si="1">C13</f>
-        <v>IMPBIOWPE_S1</v>
-      </c>
-      <c r="D30" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>Import of Wood Pellets  - Step 1</v>
-      </c>
-      <c r="E30" s="22" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F30" s="94">
-        <f t="shared" ref="F30:F37" si="2">SUM($P$30:$R$30)</f>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G30" s="94">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
-        <v>4.3203296703296701</v>
-      </c>
-      <c r="H30" s="94">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
-        <v>4.4527472527472529</v>
-      </c>
-      <c r="I30" s="94">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
-        <v>4.5851648351648358</v>
-      </c>
-      <c r="J30" s="94">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
-        <v>4.6910989010989006</v>
-      </c>
-      <c r="K30" s="447" t="s">
-        <v>114</v>
-      </c>
-      <c r="N30" s="130" t="s">
-        <v>157</v>
-      </c>
-      <c r="O30" s="151" t="s">
-        <v>158</v>
-      </c>
-      <c r="P30" s="144">
-        <v>0.53</v>
-      </c>
-      <c r="Q30" s="144">
-        <v>1.91</v>
-      </c>
-      <c r="R30" s="144">
-        <v>2.41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18">
-      <c r="B31" s="21" t="str">
-        <f t="shared" ref="B31" si="3">B14</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C31" s="21" t="str">
-        <f t="shared" ref="C31:D31" si="4">C14</f>
-        <v>IMPBIOWPE_S2</v>
-      </c>
-      <c r="D31" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>Import of Wood Pellets  - Step 2</v>
-      </c>
-      <c r="E31" s="22" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F31" s="41">
-        <f t="shared" si="2"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G31" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
-        <v>4.3203296703296701</v>
-      </c>
-      <c r="H31" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
-        <v>4.4527472527472529</v>
-      </c>
-      <c r="I31" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
-        <v>4.5851648351648358</v>
-      </c>
-      <c r="J31" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
-        <v>4.6910989010989006</v>
-      </c>
-      <c r="K31" s="448"/>
-      <c r="N31" s="152"/>
-      <c r="O31" s="149"/>
-      <c r="P31" s="149"/>
-      <c r="Q31" s="149"/>
-    </row>
-    <row r="32" spans="2:18">
-      <c r="B32" s="21" t="str">
-        <f t="shared" ref="B32" si="5">B15</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C32" s="21" t="str">
-        <f t="shared" ref="C32:D32" si="6">C15</f>
-        <v>IMPBIOWPE_S3</v>
-      </c>
-      <c r="D32" s="21" t="str">
-        <f t="shared" si="6"/>
-        <v>Import of Wood Pellets  - Step 3</v>
-      </c>
-      <c r="E32" s="22" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F32" s="41">
-        <f t="shared" si="2"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G32" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
-        <v>4.3203296703296701</v>
-      </c>
-      <c r="H32" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
-        <v>4.4527472527472529</v>
-      </c>
-      <c r="I32" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
-        <v>4.5851648351648358</v>
-      </c>
-      <c r="J32" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
-        <v>4.6910989010989006</v>
-      </c>
-      <c r="K32" s="448"/>
-      <c r="M32" s="22"/>
-    </row>
-    <row r="33" spans="2:23">
-      <c r="B33" s="45" t="str">
-        <f t="shared" ref="B33" si="7">B16</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C33" s="45" t="str">
-        <f t="shared" ref="C33:D33" si="8">C16</f>
-        <v>IMPBIOWPE_S4</v>
-      </c>
-      <c r="D33" s="45" t="str">
-        <f t="shared" si="8"/>
-        <v>Import of Wood Pellets  - Step 4</v>
-      </c>
-      <c r="E33" s="39" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F33" s="28">
-        <f t="shared" si="2"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G33" s="28">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
-        <v>4.3203296703296701</v>
-      </c>
-      <c r="H33" s="28">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
-        <v>4.4527472527472529</v>
-      </c>
-      <c r="I33" s="28">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
-        <v>4.5851648351648358</v>
-      </c>
-      <c r="J33" s="28">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
-        <v>4.6910989010989006</v>
-      </c>
-      <c r="K33" s="448"/>
-      <c r="M33" s="22"/>
-    </row>
-    <row r="34" spans="2:23">
-      <c r="B34" s="95" t="str">
-        <f t="shared" ref="B34" si="9">B17</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C34" s="95" t="str">
-        <f t="shared" ref="C34:D34" si="10">C17</f>
-        <v>IMPBIOWCH_S1</v>
-      </c>
-      <c r="D34" s="95" t="str">
-        <f t="shared" si="10"/>
-        <v>Import of Wood Chip  - Step 1</v>
-      </c>
-      <c r="E34" s="22" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F34" s="96">
-        <f t="shared" si="2"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G34" s="96">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
-        <v>4.3203296703296701</v>
-      </c>
-      <c r="H34" s="96">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
-        <v>4.4527472527472529</v>
-      </c>
-      <c r="I34" s="96">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
-        <v>4.5851648351648358</v>
-      </c>
-      <c r="J34" s="96">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
-        <v>4.6910989010989006</v>
-      </c>
-      <c r="K34" s="448"/>
-      <c r="M34" s="22"/>
-    </row>
-    <row r="35" spans="2:23">
-      <c r="B35" s="21" t="str">
-        <f t="shared" ref="B35" si="11">B18</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C35" s="21" t="str">
-        <f t="shared" ref="C35:D35" si="12">C18</f>
-        <v>IMPBIOWCH_S2</v>
-      </c>
-      <c r="D35" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v>Import of Wood Chip  - Step 2</v>
-      </c>
-      <c r="E35" s="22" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F35" s="41">
-        <f t="shared" si="2"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G35" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
-        <v>4.3203296703296701</v>
-      </c>
-      <c r="H35" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
-        <v>4.4527472527472529</v>
-      </c>
-      <c r="I35" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
-        <v>4.5851648351648358</v>
-      </c>
-      <c r="J35" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
-        <v>4.6910989010989006</v>
-      </c>
-      <c r="K35" s="448"/>
-      <c r="M35" s="22"/>
-    </row>
-    <row r="36" spans="2:23">
-      <c r="B36" s="21" t="str">
-        <f t="shared" ref="B36" si="13">B19</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C36" s="21" t="str">
-        <f t="shared" ref="C36:D36" si="14">C19</f>
-        <v>IMPBIOWCH_S3</v>
-      </c>
-      <c r="D36" s="21" t="str">
-        <f t="shared" si="14"/>
-        <v>Import of Wood Chip  - Step 3</v>
-      </c>
-      <c r="E36" s="22" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F36" s="41">
-        <f t="shared" si="2"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G36" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
-        <v>4.3203296703296701</v>
-      </c>
-      <c r="H36" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
-        <v>4.4527472527472529</v>
-      </c>
-      <c r="I36" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
-        <v>4.5851648351648358</v>
-      </c>
-      <c r="J36" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
-        <v>4.6910989010989006</v>
-      </c>
-      <c r="K36" s="448"/>
-      <c r="M36" s="22"/>
-    </row>
-    <row r="37" spans="2:23">
-      <c r="B37" s="45" t="str">
-        <f t="shared" ref="B37" si="15">B20</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C37" s="45" t="str">
-        <f t="shared" ref="C37:D37" si="16">C20</f>
-        <v>IMPBIOWCH_S4</v>
-      </c>
-      <c r="D37" s="45" t="str">
-        <f t="shared" si="16"/>
-        <v>Import of Wood Chip  - Step 4</v>
-      </c>
-      <c r="E37" s="39" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F37" s="28">
-        <f t="shared" si="2"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G37" s="28">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
-        <v>4.3203296703296701</v>
-      </c>
-      <c r="H37" s="28">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
-        <v>4.4527472527472529</v>
-      </c>
-      <c r="I37" s="28">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
-        <v>4.5851648351648358</v>
-      </c>
-      <c r="J37" s="28">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
-        <v>4.6910989010989006</v>
-      </c>
-      <c r="K37" s="449"/>
-      <c r="M37" s="22"/>
-    </row>
-    <row r="38" spans="2:23">
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-    </row>
-    <row r="39" spans="2:23">
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-    </row>
-    <row r="40" spans="2:23" ht="18.5">
-      <c r="B40" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
-      <c r="W40"/>
-    </row>
-    <row r="41" spans="2:23">
-      <c r="B41" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" s="7">
-        <v>2018</v>
-      </c>
-      <c r="G41" s="7">
-        <v>2020</v>
-      </c>
-      <c r="H41" s="7">
-        <v>2025</v>
-      </c>
-      <c r="I41" s="7">
-        <v>2030</v>
-      </c>
-      <c r="J41" s="7">
-        <v>2035</v>
-      </c>
-      <c r="K41" s="7">
-        <v>2040</v>
-      </c>
-      <c r="L41" s="7">
-        <v>2045</v>
-      </c>
-      <c r="M41" s="7">
-        <v>2050</v>
-      </c>
-      <c r="N41" s="195">
-        <v>0</v>
-      </c>
-      <c r="O41" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="P41" s="7"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-      <c r="W41"/>
-    </row>
-    <row r="42" spans="2:23" ht="15" thickBot="1">
-      <c r="B42" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
-      <c r="U42"/>
-      <c r="V42"/>
-      <c r="W42"/>
-    </row>
-    <row r="43" spans="2:23">
-      <c r="B43" s="43" t="str">
-        <f>Imports_Bio!B5</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C43" s="43" t="str">
-        <f>Imports_Bio!C5</f>
-        <v>IMPBIOETH1G_S1</v>
-      </c>
-      <c r="D43" s="43" t="str">
-        <f>Imports_Bio!D5</f>
-        <v>Import of Ethanol 1st generation  - Step 1</v>
-      </c>
-      <c r="E43" s="44" t="str">
-        <f>Commodities!$C$30</f>
-        <v>BIOETH1G</v>
-      </c>
-      <c r="F43" s="146">
-        <f>'EB2018'!AJ3*Conversions!$C$2</f>
-        <v>0.95614079147278108</v>
-      </c>
-      <c r="G43" s="52">
-        <f>F43</f>
-        <v>0.95614079147278108</v>
-      </c>
-      <c r="H43" s="52">
-        <f t="shared" ref="H43:M43" si="17">G43</f>
-        <v>0.95614079147278108</v>
-      </c>
-      <c r="I43" s="52">
-        <f t="shared" si="17"/>
-        <v>0.95614079147278108</v>
-      </c>
-      <c r="J43" s="52">
-        <f t="shared" si="17"/>
-        <v>0.95614079147278108</v>
-      </c>
-      <c r="K43" s="52">
-        <f t="shared" si="17"/>
-        <v>0.95614079147278108</v>
-      </c>
-      <c r="L43" s="52">
-        <f t="shared" si="17"/>
-        <v>0.95614079147278108</v>
-      </c>
-      <c r="M43" s="52">
-        <f t="shared" si="17"/>
-        <v>0.95614079147278108</v>
-      </c>
-      <c r="N43" s="196">
-        <v>5</v>
-      </c>
-      <c r="O43" s="61" t="s">
-        <v>451</v>
-      </c>
-      <c r="P43" s="52"/>
-      <c r="R43"/>
-      <c r="S43"/>
-      <c r="T43"/>
-      <c r="U43"/>
-      <c r="V43"/>
-      <c r="W43"/>
-    </row>
-    <row r="44" spans="2:23">
-      <c r="B44" s="21" t="str">
-        <f>Imports_Bio!B6</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C44" s="21" t="str">
-        <f>Imports_Bio!C6</f>
-        <v>IMPBIOETH1G_S2</v>
-      </c>
-      <c r="D44" s="21" t="str">
-        <f>Imports_Bio!D6</f>
-        <v>Import of Ethanol 1st generation  - Step 2</v>
-      </c>
-      <c r="E44" s="22" t="str">
-        <f>Commodities!$C$30</f>
-        <v>BIOETH1G</v>
-      </c>
-      <c r="F44" s="148">
-        <v>0</v>
-      </c>
-      <c r="G44" s="50">
-        <f>G43*2</f>
-        <v>1.9122815829455622</v>
-      </c>
-      <c r="H44" s="50">
-        <f t="shared" ref="H44:M45" si="18">H43*2</f>
-        <v>1.9122815829455622</v>
-      </c>
-      <c r="I44" s="50">
-        <f t="shared" si="18"/>
-        <v>1.9122815829455622</v>
-      </c>
-      <c r="J44" s="50">
-        <f t="shared" si="18"/>
-        <v>1.9122815829455622</v>
-      </c>
-      <c r="K44" s="50">
-        <f t="shared" si="18"/>
-        <v>1.9122815829455622</v>
-      </c>
-      <c r="L44" s="50">
-        <f t="shared" si="18"/>
-        <v>1.9122815829455622</v>
-      </c>
-      <c r="M44" s="50">
-        <f t="shared" si="18"/>
-        <v>1.9122815829455622</v>
-      </c>
-      <c r="N44" s="197">
-        <v>5</v>
-      </c>
-      <c r="O44" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="P44" s="50"/>
-      <c r="R44"/>
-      <c r="S44"/>
-      <c r="T44"/>
-      <c r="U44"/>
-      <c r="V44"/>
-      <c r="W44"/>
-    </row>
-    <row r="45" spans="2:23">
-      <c r="B45" s="21" t="str">
-        <f>Imports_Bio!B7</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C45" s="21" t="str">
-        <f>Imports_Bio!C7</f>
-        <v>IMPBIOETH1G_S3</v>
-      </c>
-      <c r="D45" s="21" t="str">
-        <f>Imports_Bio!D7</f>
-        <v>Import of Ethanol 1st generation  - Step 3</v>
-      </c>
-      <c r="E45" s="22" t="str">
-        <f>Commodities!$C$30</f>
-        <v>BIOETH1G</v>
-      </c>
-      <c r="F45" s="148">
-        <v>0</v>
-      </c>
-      <c r="G45" s="50">
-        <f>G44*2</f>
-        <v>3.8245631658911243</v>
-      </c>
-      <c r="H45" s="50">
-        <f t="shared" si="18"/>
-        <v>3.8245631658911243</v>
-      </c>
-      <c r="I45" s="50">
-        <f t="shared" si="18"/>
-        <v>3.8245631658911243</v>
-      </c>
-      <c r="J45" s="50">
-        <f t="shared" si="18"/>
-        <v>3.8245631658911243</v>
-      </c>
-      <c r="K45" s="50">
-        <f t="shared" si="18"/>
-        <v>3.8245631658911243</v>
-      </c>
-      <c r="L45" s="50">
-        <f t="shared" si="18"/>
-        <v>3.8245631658911243</v>
-      </c>
-      <c r="M45" s="50">
-        <f t="shared" si="18"/>
-        <v>3.8245631658911243</v>
-      </c>
-      <c r="N45" s="197">
-        <v>5</v>
-      </c>
-      <c r="O45" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="P45" s="50"/>
-      <c r="R45"/>
-      <c r="S45"/>
-      <c r="T45"/>
-      <c r="U45"/>
-      <c r="V45"/>
-      <c r="W45"/>
-    </row>
-    <row r="46" spans="2:23">
-      <c r="B46" s="45" t="str">
-        <f>"*"&amp;Imports_Bio!B8</f>
-        <v>*IE,National</v>
-      </c>
-      <c r="C46" s="45" t="str">
-        <f>"*"&amp;Imports_Bio!C8</f>
-        <v>*IMPBIOETH1G_S4</v>
-      </c>
-      <c r="D46" s="45" t="str">
-        <f>Imports_Bio!D8</f>
-        <v>Import of Ethanol 1st generation  - Step 4</v>
-      </c>
-      <c r="E46" s="39" t="str">
-        <f>Commodities!$C$30</f>
-        <v>BIOETH1G</v>
-      </c>
-      <c r="F46" s="150">
-        <v>0</v>
-      </c>
-      <c r="G46" s="51">
-        <v>27.064417978971818</v>
-      </c>
-      <c r="H46" s="51">
-        <v>27.064417978971818</v>
-      </c>
-      <c r="I46" s="51">
-        <v>27.064417978971818</v>
-      </c>
-      <c r="J46" s="51">
-        <v>27.064417978971818</v>
-      </c>
-      <c r="K46" s="51">
-        <v>27.064417978971818</v>
-      </c>
-      <c r="L46" s="51">
-        <v>27.064417978971818</v>
-      </c>
-      <c r="M46" s="51">
-        <v>27.064417978971818</v>
-      </c>
-      <c r="N46" s="198">
-        <v>5</v>
-      </c>
-      <c r="O46" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="P46" s="51"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
-      <c r="U46"/>
-      <c r="V46"/>
-      <c r="W46"/>
-    </row>
-    <row r="47" spans="2:23" ht="15" thickBot="1">
-      <c r="B47" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53">
-        <f>H47</f>
-        <v>59.810866344000004</v>
-      </c>
-      <c r="H47" s="53">
-        <f>I47</f>
-        <v>59.810866344000004</v>
-      </c>
-      <c r="I47" s="53">
-        <f>'SEAI-AEA_BioData'!G54*Conversions!$C$2/1000</f>
-        <v>59.810866344000004</v>
-      </c>
-      <c r="J47" s="53">
-        <f>I47</f>
-        <v>59.810866344000004</v>
-      </c>
-      <c r="K47" s="53">
-        <f t="shared" ref="K47:M47" si="19">J47</f>
-        <v>59.810866344000004</v>
-      </c>
-      <c r="L47" s="53">
-        <f t="shared" si="19"/>
-        <v>59.810866344000004</v>
-      </c>
-      <c r="M47" s="53">
-        <f t="shared" si="19"/>
-        <v>59.810866344000004</v>
-      </c>
-      <c r="N47" s="199"/>
-      <c r="O47" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="P47" s="53"/>
-      <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
-      <c r="U47"/>
-      <c r="V47"/>
-      <c r="W47"/>
-    </row>
-    <row r="48" spans="2:23">
-      <c r="B48" s="43" t="str">
-        <f>Imports_Bio!B9</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C48" s="43" t="str">
-        <f>Imports_Bio!C9</f>
-        <v>IMPBIODST1G_S1</v>
-      </c>
-      <c r="D48" s="43" t="str">
-        <f>Imports_Bio!D9</f>
-        <v>Import of Biodiesel 1st generation  - Step 1</v>
-      </c>
-      <c r="E48" s="44" t="str">
-        <f>Commodities!$C$32</f>
-        <v>BIODST1G</v>
-      </c>
-      <c r="F48" s="146">
-        <f>'EB2018'!AI3*Conversions!$C$2</f>
-        <v>4.3883698143827266</v>
-      </c>
-      <c r="G48" s="52">
-        <f>F48</f>
-        <v>4.3883698143827266</v>
-      </c>
-      <c r="H48" s="52">
-        <f t="shared" ref="H48:M48" si="20">G48</f>
-        <v>4.3883698143827266</v>
-      </c>
-      <c r="I48" s="52">
-        <f t="shared" si="20"/>
-        <v>4.3883698143827266</v>
-      </c>
-      <c r="J48" s="52">
-        <f t="shared" si="20"/>
-        <v>4.3883698143827266</v>
-      </c>
-      <c r="K48" s="52">
-        <f t="shared" si="20"/>
-        <v>4.3883698143827266</v>
-      </c>
-      <c r="L48" s="52">
-        <f t="shared" si="20"/>
-        <v>4.3883698143827266</v>
-      </c>
-      <c r="M48" s="52">
-        <f t="shared" si="20"/>
-        <v>4.3883698143827266</v>
-      </c>
-      <c r="N48" s="196">
-        <v>5</v>
-      </c>
-      <c r="O48" s="61" t="s">
-        <v>451</v>
-      </c>
-      <c r="P48" s="52"/>
-      <c r="R48"/>
-      <c r="S48"/>
-      <c r="T48"/>
-      <c r="U48"/>
-      <c r="V48"/>
-      <c r="W48"/>
-    </row>
-    <row r="49" spans="2:18">
-      <c r="B49" s="21" t="str">
-        <f>Imports_Bio!B10</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C49" s="21" t="str">
-        <f>Imports_Bio!C10</f>
-        <v>IMPBIODST1G_S2</v>
-      </c>
-      <c r="D49" s="21" t="str">
-        <f>Imports_Bio!D10</f>
-        <v>Import of Biodiesel 1st generation  - Step 2</v>
-      </c>
-      <c r="E49" s="22" t="str">
-        <f>Commodities!$C$32</f>
-        <v>BIODST1G</v>
-      </c>
-      <c r="F49" s="148">
-        <v>0</v>
-      </c>
-      <c r="G49" s="50">
-        <f>G48*2</f>
-        <v>8.7767396287654531</v>
-      </c>
-      <c r="H49" s="50">
-        <f t="shared" ref="H49:M50" si="21">H48*2</f>
-        <v>8.7767396287654531</v>
-      </c>
-      <c r="I49" s="50">
-        <f t="shared" si="21"/>
-        <v>8.7767396287654531</v>
-      </c>
-      <c r="J49" s="50">
-        <f t="shared" si="21"/>
-        <v>8.7767396287654531</v>
-      </c>
-      <c r="K49" s="50">
-        <f t="shared" si="21"/>
-        <v>8.7767396287654531</v>
-      </c>
-      <c r="L49" s="50">
-        <f t="shared" si="21"/>
-        <v>8.7767396287654531</v>
-      </c>
-      <c r="M49" s="50">
-        <f t="shared" si="21"/>
-        <v>8.7767396287654531</v>
-      </c>
-      <c r="N49" s="197">
-        <v>5</v>
-      </c>
-      <c r="O49" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="P49" s="50"/>
-      <c r="R49" s="25"/>
-    </row>
-    <row r="50" spans="2:18">
-      <c r="B50" s="21" t="str">
-        <f>Imports_Bio!B11</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C50" s="21" t="str">
-        <f>Imports_Bio!C11</f>
-        <v>IMPBIODST1G_S3</v>
-      </c>
-      <c r="D50" s="21" t="str">
-        <f>Imports_Bio!D11</f>
-        <v>Import of Biodiesel 1st generation  - Step 3</v>
-      </c>
-      <c r="E50" s="22" t="str">
-        <f>Commodities!$C$32</f>
-        <v>BIODST1G</v>
-      </c>
-      <c r="F50" s="148">
-        <v>0</v>
-      </c>
-      <c r="G50" s="50">
-        <f>G49*2</f>
-        <v>17.553479257530906</v>
-      </c>
-      <c r="H50" s="50">
-        <f t="shared" si="21"/>
-        <v>17.553479257530906</v>
-      </c>
-      <c r="I50" s="50">
-        <f t="shared" si="21"/>
-        <v>17.553479257530906</v>
-      </c>
-      <c r="J50" s="50">
-        <f t="shared" si="21"/>
-        <v>17.553479257530906</v>
-      </c>
-      <c r="K50" s="50">
-        <f t="shared" si="21"/>
-        <v>17.553479257530906</v>
-      </c>
-      <c r="L50" s="50">
-        <f t="shared" si="21"/>
-        <v>17.553479257530906</v>
-      </c>
-      <c r="M50" s="50">
-        <f t="shared" si="21"/>
-        <v>17.553479257530906</v>
-      </c>
-      <c r="N50" s="197">
-        <v>5</v>
-      </c>
-      <c r="O50" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="P50" s="50"/>
-      <c r="R50" s="25"/>
-    </row>
-    <row r="51" spans="2:18">
-      <c r="B51" s="45" t="str">
-        <f>"*"&amp;Imports_Bio!B12</f>
-        <v>*IE,National</v>
-      </c>
-      <c r="C51" s="45" t="str">
-        <f>"*"&amp;Imports_Bio!C12</f>
-        <v>*IMPBIODST1G_S4</v>
-      </c>
-      <c r="D51" s="45" t="str">
-        <f>Imports_Bio!D12</f>
-        <v>Import of Biodiesel 1st generation  - Step 4</v>
-      </c>
-      <c r="E51" s="39" t="str">
-        <f>Commodities!$C$32</f>
-        <v>BIODST1G</v>
-      </c>
-      <c r="F51" s="150">
-        <v>0</v>
-      </c>
-      <c r="G51" s="51">
-        <f>G52-SUM(G48:G50)</f>
-        <v>72.040001193884791</v>
-      </c>
-      <c r="H51" s="51">
-        <f t="shared" ref="H51:M51" si="22">H52-SUM(H48:H50)</f>
-        <v>72.040001193884791</v>
-      </c>
-      <c r="I51" s="51">
-        <f t="shared" si="22"/>
-        <v>72.040001193884791</v>
-      </c>
-      <c r="J51" s="51">
-        <f t="shared" si="22"/>
-        <v>72.040001193884791</v>
-      </c>
-      <c r="K51" s="51">
-        <f t="shared" si="22"/>
-        <v>72.040001193884791</v>
-      </c>
-      <c r="L51" s="51">
-        <f t="shared" si="22"/>
-        <v>72.040001193884791</v>
-      </c>
-      <c r="M51" s="51">
-        <f t="shared" si="22"/>
-        <v>72.040001193884791</v>
-      </c>
-      <c r="N51" s="198">
-        <v>5</v>
-      </c>
-      <c r="O51" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="P51" s="51"/>
-      <c r="R51" s="25"/>
-    </row>
-    <row r="52" spans="2:18" ht="15" thickBot="1">
-      <c r="B52" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53">
-        <f>H52</f>
-        <v>102.75858989456388</v>
-      </c>
-      <c r="H52" s="53">
-        <f>I52</f>
-        <v>102.75858989456388</v>
-      </c>
-      <c r="I52" s="53">
-        <f>2727.05194883825*Conversions!$C$2*0.9</f>
-        <v>102.75858989456388</v>
-      </c>
-      <c r="J52" s="53">
-        <f>I52</f>
-        <v>102.75858989456388</v>
-      </c>
-      <c r="K52" s="53">
-        <f t="shared" ref="K52:M52" si="23">J52</f>
-        <v>102.75858989456388</v>
-      </c>
-      <c r="L52" s="53">
-        <f t="shared" si="23"/>
-        <v>102.75858989456388</v>
-      </c>
-      <c r="M52" s="53">
-        <f t="shared" si="23"/>
-        <v>102.75858989456388</v>
-      </c>
-      <c r="N52" s="199"/>
-      <c r="O52" s="64" t="s">
-        <v>214</v>
-      </c>
-      <c r="P52" s="53"/>
-      <c r="R52" s="25"/>
-    </row>
-    <row r="53" spans="2:18">
-      <c r="B53" s="43" t="str">
-        <f>Imports_Bio!B13</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C53" s="43" t="str">
-        <f>Imports_Bio!C13</f>
-        <v>IMPBIOWPE_S1</v>
-      </c>
-      <c r="D53" s="43" t="str">
-        <f>Imports_Bio!D13</f>
-        <v>Import of Wood Pellets  - Step 1</v>
-      </c>
-      <c r="E53" s="22" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F53" s="146">
-        <f>'EB2018'!AE3*Conversions!$C$2*Imports_Bio!$R$53</f>
-        <v>0.71165055175994518</v>
-      </c>
-      <c r="G53" s="52">
-        <f>MAX(F53:F53)</f>
-        <v>0.71165055175994518</v>
-      </c>
-      <c r="H53" s="52">
-        <f>G53</f>
-        <v>0.71165055175994518</v>
-      </c>
-      <c r="I53" s="52">
-        <f t="shared" ref="I53:M53" si="24">H53</f>
-        <v>0.71165055175994518</v>
-      </c>
-      <c r="J53" s="52">
-        <f t="shared" si="24"/>
-        <v>0.71165055175994518</v>
-      </c>
-      <c r="K53" s="52">
-        <f t="shared" si="24"/>
-        <v>0.71165055175994518</v>
-      </c>
-      <c r="L53" s="52">
-        <f t="shared" si="24"/>
-        <v>0.71165055175994518</v>
-      </c>
-      <c r="M53" s="52">
-        <f t="shared" si="24"/>
-        <v>0.71165055175994518</v>
-      </c>
-      <c r="N53" s="196">
-        <v>5</v>
-      </c>
-      <c r="O53" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="P53" s="52"/>
-      <c r="R53" s="147">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18">
-      <c r="B54" s="21" t="str">
-        <f>Imports_Bio!B14</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C54" s="21" t="str">
-        <f>Imports_Bio!C14</f>
-        <v>IMPBIOWPE_S2</v>
-      </c>
-      <c r="D54" s="21" t="str">
-        <f>Imports_Bio!D14</f>
-        <v>Import of Wood Pellets  - Step 2</v>
-      </c>
-      <c r="E54" s="22" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F54" s="148">
-        <v>0</v>
-      </c>
-      <c r="G54" s="50">
-        <f>G53*2</f>
-        <v>1.4233011035198904</v>
-      </c>
-      <c r="H54" s="50">
-        <f t="shared" ref="H54:M55" si="25">H53*2</f>
-        <v>1.4233011035198904</v>
-      </c>
-      <c r="I54" s="50">
-        <f t="shared" si="25"/>
-        <v>1.4233011035198904</v>
-      </c>
-      <c r="J54" s="50">
-        <f t="shared" si="25"/>
-        <v>1.4233011035198904</v>
-      </c>
-      <c r="K54" s="50">
-        <f t="shared" si="25"/>
-        <v>1.4233011035198904</v>
-      </c>
-      <c r="L54" s="50">
-        <f t="shared" si="25"/>
-        <v>1.4233011035198904</v>
-      </c>
-      <c r="M54" s="50">
-        <f t="shared" si="25"/>
-        <v>1.4233011035198904</v>
-      </c>
-      <c r="N54" s="197">
-        <v>5</v>
-      </c>
-      <c r="O54" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="P54" s="50"/>
-      <c r="R54" s="25"/>
-    </row>
-    <row r="55" spans="2:18">
-      <c r="B55" s="21" t="str">
-        <f>Imports_Bio!B15</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C55" s="21" t="str">
-        <f>Imports_Bio!C15</f>
-        <v>IMPBIOWPE_S3</v>
-      </c>
-      <c r="D55" s="21" t="str">
-        <f>Imports_Bio!D15</f>
-        <v>Import of Wood Pellets  - Step 3</v>
-      </c>
-      <c r="E55" s="22" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F55" s="148">
-        <v>0</v>
-      </c>
-      <c r="G55" s="50">
-        <f>G54*2</f>
-        <v>2.8466022070397807</v>
-      </c>
-      <c r="H55" s="50">
-        <f t="shared" si="25"/>
-        <v>2.8466022070397807</v>
-      </c>
-      <c r="I55" s="50">
-        <f t="shared" si="25"/>
-        <v>2.8466022070397807</v>
-      </c>
-      <c r="J55" s="50">
-        <f t="shared" si="25"/>
-        <v>2.8466022070397807</v>
-      </c>
-      <c r="K55" s="50">
-        <f t="shared" si="25"/>
-        <v>2.8466022070397807</v>
-      </c>
-      <c r="L55" s="50">
-        <f t="shared" si="25"/>
-        <v>2.8466022070397807</v>
-      </c>
-      <c r="M55" s="50">
-        <f t="shared" si="25"/>
-        <v>2.8466022070397807</v>
-      </c>
-      <c r="N55" s="197">
-        <v>5</v>
-      </c>
-      <c r="O55" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="P55" s="50"/>
-      <c r="R55" s="25"/>
-    </row>
-    <row r="56" spans="2:18">
-      <c r="B56" s="45" t="str">
-        <f>"*"&amp;Imports_Bio!B16</f>
-        <v>*IE,National</v>
-      </c>
-      <c r="C56" s="45" t="str">
-        <f>"*"&amp;Imports_Bio!C16</f>
-        <v>*IMPBIOWPE_S4</v>
-      </c>
-      <c r="D56" s="45" t="str">
-        <f>Imports_Bio!D16</f>
-        <v>Import of Wood Pellets  - Step 4</v>
-      </c>
-      <c r="E56" s="39" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F56" s="150">
-        <v>0</v>
-      </c>
-      <c r="G56" s="51">
-        <f>G57-SUM(G53:G55)</f>
-        <v>105.16490614168039</v>
-      </c>
-      <c r="H56" s="51">
-        <f t="shared" ref="H56:M56" si="26">H57-SUM(H53:H55)</f>
-        <v>105.16490614168039</v>
-      </c>
-      <c r="I56" s="51">
-        <f t="shared" si="26"/>
-        <v>105.16490614168039</v>
-      </c>
-      <c r="J56" s="51">
-        <f t="shared" si="26"/>
-        <v>105.16490614168039</v>
-      </c>
-      <c r="K56" s="51">
-        <f t="shared" si="26"/>
-        <v>105.16490614168039</v>
-      </c>
-      <c r="L56" s="51">
-        <f t="shared" si="26"/>
-        <v>105.16490614168039</v>
-      </c>
-      <c r="M56" s="51">
-        <f t="shared" si="26"/>
-        <v>105.16490614168039</v>
-      </c>
-      <c r="N56" s="198">
-        <v>5</v>
-      </c>
-      <c r="O56" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="P56" s="51"/>
-      <c r="R56" s="25"/>
-    </row>
-    <row r="57" spans="2:18" ht="15" thickBot="1">
-      <c r="B57" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53">
-        <f>H57</f>
-        <v>110.14646000400001</v>
-      </c>
-      <c r="H57" s="53">
-        <f>I57</f>
-        <v>110.14646000400001</v>
-      </c>
-      <c r="I57" s="53">
-        <f>'SEAI-AEA_BioData'!G52*Conversions!$C$2/1000</f>
-        <v>110.14646000400001</v>
-      </c>
-      <c r="J57" s="53">
-        <f>I57</f>
-        <v>110.14646000400001</v>
-      </c>
-      <c r="K57" s="53">
-        <f t="shared" ref="K57:M57" si="27">J57</f>
-        <v>110.14646000400001</v>
-      </c>
-      <c r="L57" s="53">
-        <f t="shared" si="27"/>
-        <v>110.14646000400001</v>
-      </c>
-      <c r="M57" s="53">
-        <f t="shared" si="27"/>
-        <v>110.14646000400001</v>
-      </c>
-      <c r="N57" s="199"/>
-      <c r="O57" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="P57" s="53"/>
-      <c r="R57" s="25"/>
-    </row>
-    <row r="58" spans="2:18">
-      <c r="B58" s="43" t="str">
-        <f>Imports_Bio!B17</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C58" s="43" t="str">
-        <f>Imports_Bio!C17</f>
-        <v>IMPBIOWCH_S1</v>
-      </c>
-      <c r="D58" s="43" t="str">
-        <f>Imports_Bio!D17</f>
-        <v>Import of Wood Chip  - Step 1</v>
-      </c>
-      <c r="E58" s="44" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F58" s="146">
-        <f>'EB2018'!AE3*Conversions!$C$2*Imports_Bio!$R$58</f>
-        <v>0.30499309361140514</v>
-      </c>
-      <c r="G58" s="52">
-        <f>MAX(F58:F58)</f>
-        <v>0.30499309361140514</v>
-      </c>
-      <c r="H58" s="52">
-        <f>G58</f>
-        <v>0.30499309361140514</v>
-      </c>
-      <c r="I58" s="52">
-        <f t="shared" ref="I58:M58" si="28">H58</f>
-        <v>0.30499309361140514</v>
-      </c>
-      <c r="J58" s="52">
-        <f t="shared" si="28"/>
-        <v>0.30499309361140514</v>
-      </c>
-      <c r="K58" s="52">
-        <f t="shared" si="28"/>
-        <v>0.30499309361140514</v>
-      </c>
-      <c r="L58" s="52">
-        <f t="shared" si="28"/>
-        <v>0.30499309361140514</v>
-      </c>
-      <c r="M58" s="52">
-        <f t="shared" si="28"/>
-        <v>0.30499309361140514</v>
-      </c>
-      <c r="N58" s="196">
-        <v>5</v>
-      </c>
-      <c r="O58" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="P58" s="52"/>
-      <c r="R58" s="145">
-        <f>1-R53</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="59" spans="2:18">
-      <c r="B59" s="21" t="str">
-        <f>Imports_Bio!B18</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C59" s="21" t="str">
-        <f>Imports_Bio!C18</f>
-        <v>IMPBIOWCH_S2</v>
-      </c>
-      <c r="D59" s="21" t="str">
-        <f>Imports_Bio!D18</f>
-        <v>Import of Wood Chip  - Step 2</v>
-      </c>
-      <c r="E59" s="22" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F59" s="148">
-        <v>0</v>
-      </c>
-      <c r="G59" s="50">
-        <f>G58*2</f>
-        <v>0.60998618722281028</v>
-      </c>
-      <c r="H59" s="50">
-        <f t="shared" ref="H59:M60" si="29">H58*2</f>
-        <v>0.60998618722281028</v>
-      </c>
-      <c r="I59" s="50">
-        <f t="shared" si="29"/>
-        <v>0.60998618722281028</v>
-      </c>
-      <c r="J59" s="50">
-        <f t="shared" si="29"/>
-        <v>0.60998618722281028</v>
-      </c>
-      <c r="K59" s="50">
-        <f t="shared" si="29"/>
-        <v>0.60998618722281028</v>
-      </c>
-      <c r="L59" s="50">
-        <f t="shared" si="29"/>
-        <v>0.60998618722281028</v>
-      </c>
-      <c r="M59" s="50">
-        <f t="shared" si="29"/>
-        <v>0.60998618722281028</v>
-      </c>
-      <c r="N59" s="197">
-        <v>5</v>
-      </c>
-      <c r="O59" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="P59" s="50"/>
-      <c r="R59" s="25"/>
-    </row>
-    <row r="60" spans="2:18">
-      <c r="B60" s="21" t="str">
-        <f>Imports_Bio!B19</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C60" s="21" t="str">
-        <f>Imports_Bio!C19</f>
-        <v>IMPBIOWCH_S3</v>
-      </c>
-      <c r="D60" s="21" t="str">
-        <f>Imports_Bio!D19</f>
-        <v>Import of Wood Chip  - Step 3</v>
-      </c>
-      <c r="E60" s="22" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F60" s="148">
-        <v>0</v>
-      </c>
-      <c r="G60" s="50">
-        <f>G59*2</f>
-        <v>1.2199723744456206</v>
-      </c>
-      <c r="H60" s="50">
-        <f t="shared" si="29"/>
-        <v>1.2199723744456206</v>
-      </c>
-      <c r="I60" s="50">
-        <f t="shared" si="29"/>
-        <v>1.2199723744456206</v>
-      </c>
-      <c r="J60" s="50">
-        <f t="shared" si="29"/>
-        <v>1.2199723744456206</v>
-      </c>
-      <c r="K60" s="50">
-        <f t="shared" si="29"/>
-        <v>1.2199723744456206</v>
-      </c>
-      <c r="L60" s="50">
-        <f t="shared" si="29"/>
-        <v>1.2199723744456206</v>
-      </c>
-      <c r="M60" s="50">
-        <f t="shared" si="29"/>
-        <v>1.2199723744456206</v>
-      </c>
-      <c r="N60" s="197">
-        <v>5</v>
-      </c>
-      <c r="O60" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="P60" s="50"/>
-      <c r="R60" s="25"/>
-    </row>
-    <row r="61" spans="2:18">
-      <c r="B61" s="45" t="str">
-        <f>"*"&amp;Imports_Bio!B20</f>
-        <v>*IE,National</v>
-      </c>
-      <c r="C61" s="45" t="str">
-        <f>"*"&amp;Imports_Bio!C20</f>
-        <v>*IMPBIOWCH_S4</v>
-      </c>
-      <c r="D61" s="45" t="str">
-        <f>Imports_Bio!D20</f>
-        <v>Import of Wood Chip  - Step 4</v>
-      </c>
-      <c r="E61" s="39" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F61" s="150">
-        <v>0</v>
-      </c>
-      <c r="G61" s="51">
-        <f>G62-SUM(G58:G60)</f>
-        <v>34.580521056720166</v>
-      </c>
-      <c r="H61" s="51">
-        <f t="shared" ref="H61:M61" si="30">H62-SUM(H58:H60)</f>
-        <v>34.580521056720166</v>
-      </c>
-      <c r="I61" s="51">
-        <f t="shared" si="30"/>
-        <v>34.580521056720166</v>
-      </c>
-      <c r="J61" s="51">
-        <f t="shared" si="30"/>
-        <v>34.580521056720166</v>
-      </c>
-      <c r="K61" s="51">
-        <f t="shared" si="30"/>
-        <v>34.580521056720166</v>
-      </c>
-      <c r="L61" s="51">
-        <f t="shared" si="30"/>
-        <v>34.580521056720166</v>
-      </c>
-      <c r="M61" s="51">
-        <f t="shared" si="30"/>
-        <v>34.580521056720166</v>
-      </c>
-      <c r="N61" s="198">
-        <v>5</v>
-      </c>
-      <c r="O61" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="P61" s="51"/>
-      <c r="R61" s="25"/>
-    </row>
-    <row r="62" spans="2:18" ht="15" thickBot="1">
-      <c r="B62" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54">
-        <f>H62</f>
-        <v>36.715472712</v>
-      </c>
-      <c r="H62" s="54">
-        <f>I62</f>
-        <v>36.715472712</v>
-      </c>
-      <c r="I62" s="54">
-        <f>'SEAI-AEA_BioData'!G50*Conversions!$C$2/1000</f>
-        <v>36.715472712</v>
-      </c>
-      <c r="J62" s="54">
-        <f>I62</f>
-        <v>36.715472712</v>
-      </c>
-      <c r="K62" s="54">
-        <f>J62</f>
-        <v>36.715472712</v>
-      </c>
-      <c r="L62" s="54">
-        <f>K62</f>
-        <v>36.715472712</v>
-      </c>
-      <c r="M62" s="54">
-        <f>L62</f>
-        <v>36.715472712</v>
-      </c>
-      <c r="N62" s="200"/>
-      <c r="O62" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="P62" s="54"/>
-      <c r="R62" s="25"/>
+      <c r="C12" s="2" t="str">
+        <f>D5</f>
+        <v>MINCO2-CAL</v>
+      </c>
+      <c r="D12" s="439" t="s">
+        <v>651</v>
+      </c>
+      <c r="E12" s="259" t="s">
+        <v>632</v>
+      </c>
+      <c r="F12" s="55">
+        <v>1000000</v>
+      </c>
+      <c r="G12" s="440">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="E13" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="E14" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="E15" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="E16" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="E17" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" t="s">
+        <v>638</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K30:K37"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -33124,22 +34323,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F32A5943-069C-47E6-B7B1-1C4E8CC11B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33155,28 +34363,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE99769C-978F-4AB0-AE19-C2C9592C0750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8332C7B0-7DE8-416C-8B4A-B971426AFEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="23" r:id="rId1"/>
@@ -1291,7 +1291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="663">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -3375,6 +3375,9 @@
   </si>
   <si>
     <t>Bakytzhan Suleimenov (UCC, bsuleimenov@ucc.ie)</t>
+  </si>
+  <si>
+    <t>SUPCO2N</t>
   </si>
 </sst>
 </file>
@@ -5603,7 +5606,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="488">
+  <cellXfs count="480">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6910,24 +6913,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="15" fillId="12" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -17102,10 +17087,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6297AC73-3506-47A0-A87E-4DEE2B4424AC}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -17207,154 +17192,166 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="481" t="s">
+      <c r="B16" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C16" s="480"/>
-      <c r="D16" s="480"/>
-      <c r="E16" s="480"/>
-      <c r="F16" s="481" t="s">
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="G16" s="480"/>
+      <c r="G16"/>
     </row>
     <row r="17" spans="2:7" ht="15" thickBot="1">
-      <c r="B17" s="483" t="s">
+      <c r="B17" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="484" t="s">
+      <c r="C17" s="164" t="s">
         <v>653</v>
       </c>
-      <c r="D17" s="480"/>
-      <c r="E17" s="480"/>
-      <c r="F17" s="483" t="s">
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="484" t="s">
+      <c r="G17" s="164" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="482" t="s">
+      <c r="B18" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="C18" s="482">
+      <c r="C18" s="23">
         <v>1</v>
       </c>
-      <c r="D18" s="480"/>
-      <c r="E18" s="480"/>
-      <c r="F18" s="482" t="s">
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="G18" s="482">
+      <c r="G18" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="482" t="s">
+      <c r="B19" s="23" t="s">
         <v>633</v>
       </c>
-      <c r="C19" s="482">
+      <c r="C19" s="23">
         <v>1</v>
       </c>
-      <c r="D19" s="480"/>
-      <c r="E19" s="480"/>
-      <c r="F19" s="482" t="s">
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19" s="23" t="s">
         <v>633</v>
       </c>
-      <c r="G19" s="482">
+      <c r="G19" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="482" t="s">
+      <c r="B20" s="23" t="s">
         <v>634</v>
       </c>
-      <c r="C20" s="482">
+      <c r="C20" s="23">
         <v>1</v>
       </c>
-      <c r="D20" s="480"/>
-      <c r="E20" s="480"/>
-      <c r="F20" s="482" t="s">
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20" s="23" t="s">
         <v>634</v>
       </c>
-      <c r="G20" s="482">
+      <c r="G20" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="482" t="s">
+      <c r="B21" s="23" t="s">
         <v>635</v>
       </c>
-      <c r="C21" s="482">
+      <c r="C21" s="23">
         <v>1</v>
       </c>
-      <c r="D21" s="480"/>
-      <c r="E21" s="480"/>
-      <c r="F21" s="482" t="s">
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21" s="23" t="s">
         <v>635</v>
       </c>
-      <c r="G21" s="482">
+      <c r="G21" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="482" t="s">
+      <c r="B22" s="23" t="s">
         <v>636</v>
       </c>
-      <c r="C22" s="482">
+      <c r="C22" s="23">
         <v>1</v>
       </c>
-      <c r="D22" s="480"/>
-      <c r="E22" s="480"/>
-      <c r="F22" s="482" t="s">
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" s="23" t="s">
         <v>636</v>
       </c>
-      <c r="G22" s="482">
+      <c r="G22" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="482" t="s">
+      <c r="B23" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="C23" s="482">
+      <c r="C23" s="23">
         <v>1</v>
       </c>
-      <c r="D23" s="480"/>
-      <c r="E23" s="480"/>
-      <c r="F23" s="482" t="s">
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="G23" s="482">
+      <c r="G23" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="482" t="s">
+      <c r="B24" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="C24" s="482">
+      <c r="C24" s="23">
         <v>1</v>
       </c>
-      <c r="D24" s="480"/>
-      <c r="E24" s="480"/>
-      <c r="F24" s="482" t="s">
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="G24" s="482">
+      <c r="G24" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="480"/>
-      <c r="C25" s="480"/>
-      <c r="D25" s="480"/>
-      <c r="E25" s="480"/>
-      <c r="F25" s="482" t="s">
+      <c r="B25" t="s">
+        <v>662</v>
+      </c>
+      <c r="C25" s="23">
+        <v>1</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25" s="23" t="s">
         <v>655</v>
       </c>
-      <c r="G25" s="482">
+      <c r="G25" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="F26" t="s">
+        <v>662</v>
+      </c>
+      <c r="G26" s="23">
         <v>1</v>
       </c>
     </row>
@@ -21391,7 +21388,7 @@
     <col min="44" max="16384" width="9.08984375" style="131"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="120.5" thickBot="1">
+    <row r="1" spans="1:43" ht="120" thickBot="1">
       <c r="A1" s="212" t="s">
         <v>428</v>
       </c>
@@ -28547,56 +28544,50 @@
       <c r="I73" s="174"/>
     </row>
     <row r="74" spans="2:9">
-      <c r="B74" s="487" t="s">
+      <c r="B74" s="185" t="s">
         <v>656</v>
       </c>
-      <c r="C74" s="487"/>
-      <c r="D74" s="487"/>
-      <c r="E74" s="487"/>
-      <c r="F74" s="487"/>
-      <c r="G74" s="487"/>
-      <c r="H74" s="487"/>
-      <c r="I74" s="487"/>
+      <c r="C74" s="185"/>
+      <c r="D74" s="185"/>
+      <c r="E74" s="185"/>
+      <c r="F74" s="185"/>
+      <c r="G74" s="185"/>
+      <c r="H74" s="185"/>
+      <c r="I74" s="185"/>
     </row>
     <row r="75" spans="2:9">
-      <c r="B75" s="486" t="s">
+      <c r="B75" s="174" t="s">
         <v>270</v>
       </c>
-      <c r="C75" s="485" t="s">
+      <c r="C75" t="s">
         <v>653</v>
       </c>
-      <c r="D75" s="485" t="s">
+      <c r="D75" t="s">
         <v>657</v>
       </c>
-      <c r="E75" s="486" t="s">
+      <c r="E75" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="F75" s="485" t="s">
+      <c r="F75" t="s">
         <v>658</v>
       </c>
-      <c r="G75" s="485"/>
-      <c r="H75" s="485"/>
-      <c r="I75" s="485"/>
     </row>
     <row r="76" spans="2:9">
-      <c r="B76" s="486" t="s">
+      <c r="B76" s="174" t="s">
         <v>270</v>
       </c>
-      <c r="C76" s="485" t="s">
+      <c r="C76" t="s">
         <v>654</v>
       </c>
-      <c r="D76" s="485" t="s">
+      <c r="D76" t="s">
         <v>659</v>
       </c>
-      <c r="E76" s="486" t="s">
+      <c r="E76" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="F76" s="485" t="s">
+      <c r="F76" t="s">
         <v>658</v>
       </c>
-      <c r="G76" s="485"/>
-      <c r="H76" s="485"/>
-      <c r="I76" s="485"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33945,7 +33936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A665F926-DECD-4DB2-B495-3F9BFC1DFD4C}">
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -34163,21 +34154,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -34323,31 +34299,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F32A5943-069C-47E6-B7B1-1C4E8CC11B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34363,4 +34330,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8332C7B0-7DE8-416C-8B4A-B971426AFEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E6D853-616F-466F-A780-69CC1B235F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="23" r:id="rId1"/>
@@ -7695,7 +7695,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8159,17 +8159,17 @@
       <selection activeCell="B27" sqref="B27:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="21.7265625" customWidth="1"/>
-    <col min="5" max="6" width="14.08984375" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" customWidth="1"/>
-    <col min="8" max="10" width="8.08984375" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" customWidth="1"/>
-    <col min="12" max="12" width="8.08984375" customWidth="1"/>
+    <col min="1" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.26953125" customWidth="1"/>
-    <col min="15" max="15" width="13.26953125" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -11012,29 +11012,29 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:W79"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="9.36328125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="31.90625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" style="23" customWidth="1"/>
-    <col min="6" max="13" width="10.81640625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="12.81640625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="23" customWidth="1"/>
+    <col min="6" max="13" width="10.85546875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="23" customWidth="1"/>
     <col min="15" max="16" width="13" style="23" customWidth="1"/>
-    <col min="17" max="17" width="21.81640625" style="23" customWidth="1"/>
-    <col min="18" max="18" width="29.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="9.08984375" style="23"/>
-    <col min="23" max="23" width="14.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.08984375" style="23"/>
+    <col min="17" max="17" width="21.85546875" style="23" customWidth="1"/>
+    <col min="18" max="18" width="29.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="9.140625" style="23"/>
+    <col min="23" max="23" width="14.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18.5">
+    <row r="2" spans="2:12" ht="18.75">
       <c r="B2" s="3" t="s">
         <v>81</v>
       </c>
@@ -11784,7 +11784,7 @@
       <c r="K21" s="50"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="2:18" ht="18.5">
+    <row r="22" spans="2:18" ht="18.75">
       <c r="B22" s="3" t="s">
         <v>81</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="26.5" thickBot="1">
+    <row r="24" spans="2:18" ht="26.25" thickBot="1">
       <c r="B24" s="9" t="s">
         <v>514</v>
       </c>
@@ -11944,7 +11944,7 @@
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
     </row>
-    <row r="27" spans="2:18" ht="26">
+    <row r="27" spans="2:18" ht="26.25">
       <c r="B27" s="3" t="s">
         <v>109</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="24.9" customHeight="1" thickBot="1">
+    <row r="29" spans="2:18" ht="24.95" customHeight="1" thickBot="1">
       <c r="B29" s="9" t="s">
         <v>514</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="15" thickBot="1">
+    <row r="30" spans="2:18" ht="15.75" thickBot="1">
       <c r="B30" s="43" t="str">
         <f t="shared" ref="B30" si="4">B13</f>
         <v>IE,National</v>
@@ -12401,7 +12401,7 @@
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
     </row>
-    <row r="40" spans="2:23" ht="18.5">
+    <row r="40" spans="2:23" ht="18.75">
       <c r="B40" s="3" t="s">
         <v>82</v>
       </c>
@@ -12763,7 +12763,7 @@
       <c r="V46"/>
       <c r="W46"/>
     </row>
-    <row r="47" spans="2:23" ht="15" thickBot="1">
+    <row r="47" spans="2:23" ht="15.75" thickBot="1">
       <c r="B47" s="46" t="s">
         <v>79</v>
       </c>
@@ -13045,7 +13045,7 @@
       <c r="P51" s="51"/>
       <c r="R51" s="25"/>
     </row>
-    <row r="52" spans="2:18" ht="15" thickBot="1">
+    <row r="52" spans="2:18" ht="15.75" thickBot="1">
       <c r="B52" s="46" t="s">
         <v>79</v>
       </c>
@@ -13319,7 +13319,7 @@
       <c r="P56" s="51"/>
       <c r="R56" s="25"/>
     </row>
-    <row r="57" spans="2:18" ht="15" thickBot="1">
+    <row r="57" spans="2:18" ht="15.75" thickBot="1">
       <c r="B57" s="46" t="s">
         <v>79</v>
       </c>
@@ -13425,8 +13425,8 @@
     </row>
     <row r="59" spans="2:18">
       <c r="B59" s="21" t="str">
-        <f>Imports_Bio!B18</f>
-        <v>IE,National</v>
+        <f>"*"&amp;Imports_Bio!B18</f>
+        <v>*IE,National</v>
       </c>
       <c r="C59" s="21" t="str">
         <f>Imports_Bio!C18</f>
@@ -13482,8 +13482,8 @@
     </row>
     <row r="60" spans="2:18">
       <c r="B60" s="21" t="str">
-        <f>Imports_Bio!B19</f>
-        <v>IE,National</v>
+        <f>"*"&amp;Imports_Bio!B19</f>
+        <v>*IE,National</v>
       </c>
       <c r="C60" s="21" t="str">
         <f>Imports_Bio!C19</f>
@@ -13594,7 +13594,7 @@
       <c r="P61" s="51"/>
       <c r="R61" s="25"/>
     </row>
-    <row r="62" spans="2:18" ht="15" thickBot="1">
+    <row r="62" spans="2:18" ht="15.75" thickBot="1">
       <c r="B62" s="48" t="s">
         <v>79</v>
       </c>
@@ -13642,7 +13642,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="66" spans="4:13" ht="15" thickBot="1">
+    <row r="66" spans="4:13" ht="15.75" thickBot="1">
       <c r="D66" s="23" t="s">
         <v>650</v>
       </c>
@@ -13895,23 +13895,23 @@
       <selection activeCell="B2" sqref="B2:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" customWidth="1"/>
-    <col min="10" max="10" width="20.7265625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" customWidth="1"/>
-    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18.5">
+    <row r="2" spans="2:15" ht="18.75">
       <c r="B2" s="3" t="s">
         <v>50</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" thickBot="1">
+    <row r="4" spans="2:15" ht="15.75" thickBot="1">
       <c r="B4" s="9" t="s">
         <v>515</v>
       </c>
@@ -14238,7 +14238,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="2:15" ht="18.5">
+    <row r="13" spans="2:15" ht="18.75">
       <c r="B13" s="3" t="s">
         <v>55</v>
       </c>
@@ -14257,7 +14257,7 @@
       <c r="M13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="2:15" ht="26">
+    <row r="14" spans="2:15" ht="25.5">
       <c r="B14" s="11" t="s">
         <v>513</v>
       </c>
@@ -14287,7 +14287,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="105"/>
     </row>
-    <row r="15" spans="2:15" ht="15" thickBot="1">
+    <row r="15" spans="2:15" ht="15.75" thickBot="1">
       <c r="B15" s="8" t="s">
         <v>515</v>
       </c>
@@ -14599,21 +14599,21 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="22"/>
-    <col min="2" max="2" width="12.81640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="69.7265625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" style="22" customWidth="1"/>
-    <col min="7" max="9" width="9.08984375" style="22"/>
-    <col min="10" max="10" width="14.08984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.54296875" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.08984375" style="22"/>
+    <col min="1" max="1" width="9.140625" style="22"/>
+    <col min="2" max="2" width="12.85546875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="69.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="22" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="22"/>
+    <col min="10" max="10" width="14.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="18.5">
+    <row r="2" spans="2:18" ht="18.75">
       <c r="B2" s="3" t="s">
         <v>131</v>
       </c>
@@ -14663,7 +14663,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:18" ht="14.5">
+    <row r="5" spans="2:18" ht="15">
       <c r="B5" s="21" t="str">
         <f>Processes!C51</f>
         <v>IE,National</v>
@@ -14688,7 +14688,7 @@
       </c>
       <c r="R5" s="23"/>
     </row>
-    <row r="6" spans="2:18" ht="14.5">
+    <row r="6" spans="2:18" ht="15">
       <c r="B6" s="21" t="str">
         <f>Processes!C54</f>
         <v>IE,National</v>
@@ -14711,7 +14711,7 @@
       <c r="G6" s="476"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="2:18" ht="14.5">
+    <row r="7" spans="2:18" ht="15">
       <c r="B7" s="21" t="str">
         <f>Processes!C60</f>
         <v>IE,National</v>
@@ -14734,7 +14734,7 @@
       <c r="G7" s="476"/>
       <c r="R7" s="23"/>
     </row>
-    <row r="8" spans="2:18" ht="14.5">
+    <row r="8" spans="2:18" ht="15">
       <c r="B8" s="21" t="str">
         <f>Processes!C66</f>
         <v>IE,National</v>
@@ -14757,7 +14757,7 @@
       <c r="G8" s="476"/>
       <c r="R8" s="23"/>
     </row>
-    <row r="9" spans="2:18" ht="14.5">
+    <row r="9" spans="2:18" ht="15">
       <c r="B9" s="21" t="str">
         <f>Processes!C69</f>
         <v>IE,National</v>
@@ -14780,7 +14780,7 @@
       <c r="G9" s="476"/>
       <c r="R9" s="23"/>
     </row>
-    <row r="10" spans="2:18" ht="14.5">
+    <row r="10" spans="2:18" ht="15">
       <c r="B10" s="21" t="str">
         <f>Processes!C57</f>
         <v>IE,National</v>
@@ -14803,7 +14803,7 @@
       <c r="G10" s="476"/>
       <c r="R10" s="23"/>
     </row>
-    <row r="11" spans="2:18" ht="14.5">
+    <row r="11" spans="2:18" ht="15">
       <c r="B11" s="21" t="str">
         <f>Processes!C72</f>
         <v>IE,National</v>
@@ -14826,7 +14826,7 @@
       <c r="G11" s="476"/>
       <c r="R11" s="23"/>
     </row>
-    <row r="12" spans="2:18" ht="14.5">
+    <row r="12" spans="2:18" ht="15">
       <c r="B12" s="21" t="str">
         <f>Processes!C75</f>
         <v>IE,National</v>
@@ -14849,7 +14849,7 @@
       <c r="G12" s="476"/>
       <c r="R12" s="23"/>
     </row>
-    <row r="13" spans="2:18" ht="14.5">
+    <row r="13" spans="2:18" ht="15">
       <c r="B13" s="21" t="str">
         <f>Processes!C63</f>
         <v>IE,National</v>
@@ -14872,7 +14872,7 @@
       <c r="G13" s="476"/>
       <c r="R13" s="23"/>
     </row>
-    <row r="14" spans="2:18" ht="14.5">
+    <row r="14" spans="2:18" ht="15">
       <c r="B14" s="45" t="str">
         <f>Processes!C78</f>
         <v>IE,National</v>
@@ -14895,7 +14895,7 @@
       <c r="G14" s="476"/>
       <c r="R14" s="23"/>
     </row>
-    <row r="15" spans="2:18" ht="14.5">
+    <row r="15" spans="2:18" ht="15">
       <c r="B15" s="21" t="str">
         <f>Processes!C52</f>
         <v>IE,National</v>
@@ -14918,7 +14918,7 @@
       <c r="G15" s="476"/>
       <c r="R15" s="23"/>
     </row>
-    <row r="16" spans="2:18" ht="14.5">
+    <row r="16" spans="2:18" ht="15">
       <c r="B16" s="21" t="str">
         <f>Processes!C55</f>
         <v>IE,National</v>
@@ -14941,7 +14941,7 @@
       <c r="G16" s="476"/>
       <c r="R16" s="23"/>
     </row>
-    <row r="17" spans="2:18" ht="14.5">
+    <row r="17" spans="2:18" ht="15">
       <c r="B17" s="21" t="str">
         <f>Processes!C61</f>
         <v>IE,National</v>
@@ -14964,7 +14964,7 @@
       <c r="G17" s="476"/>
       <c r="R17" s="23"/>
     </row>
-    <row r="18" spans="2:18" ht="14.5">
+    <row r="18" spans="2:18" ht="15">
       <c r="B18" s="21" t="str">
         <f>Processes!C67</f>
         <v>IE,National</v>
@@ -14987,7 +14987,7 @@
       <c r="G18" s="476"/>
       <c r="R18" s="23"/>
     </row>
-    <row r="19" spans="2:18" ht="14.5">
+    <row r="19" spans="2:18" ht="15">
       <c r="B19" s="21" t="str">
         <f>Processes!C70</f>
         <v>IE,National</v>
@@ -15010,7 +15010,7 @@
       <c r="G19" s="476"/>
       <c r="R19" s="23"/>
     </row>
-    <row r="20" spans="2:18" ht="14.5">
+    <row r="20" spans="2:18" ht="15">
       <c r="B20" s="21" t="str">
         <f>Processes!C58</f>
         <v>IE,National</v>
@@ -15353,7 +15353,7 @@
       <c r="F36" s="50"/>
       <c r="G36" s="190"/>
     </row>
-    <row r="37" spans="2:7" ht="14.5">
+    <row r="37" spans="2:7" ht="15">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -15361,7 +15361,7 @@
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="2:7" ht="14.5">
+    <row r="38" spans="2:7" ht="15">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -15369,7 +15369,7 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="2:7" ht="14.5">
+    <row r="39" spans="2:7" ht="15">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -15377,7 +15377,7 @@
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="2:7" ht="14.5">
+    <row r="40" spans="2:7" ht="15">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -15385,7 +15385,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="2:7" ht="14.5">
+    <row r="41" spans="2:7" ht="15">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -15393,7 +15393,7 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="2:7" ht="14.5">
+    <row r="42" spans="2:7" ht="15">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -15419,21 +15419,21 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="23"/>
-    <col min="2" max="2" width="9.7265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="9.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="23" customWidth="1"/>
     <col min="4" max="4" width="17" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="23"/>
-    <col min="7" max="20" width="9.26953125" style="25" customWidth="1"/>
-    <col min="21" max="23" width="9.26953125" style="23" customWidth="1"/>
-    <col min="24" max="24" width="28.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.08984375" style="23"/>
-    <col min="26" max="26" width="13.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="23"/>
+    <col min="7" max="20" width="9.28515625" style="25" customWidth="1"/>
+    <col min="21" max="23" width="9.28515625" style="23" customWidth="1"/>
+    <col min="24" max="24" width="28.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="23"/>
+    <col min="26" max="26" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17" style="23" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.08984375" style="23"/>
+    <col min="28" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26">
@@ -15441,7 +15441,7 @@
       <c r="S1" s="23"/>
       <c r="T1" s="23"/>
     </row>
-    <row r="2" spans="2:26" ht="18.5">
+    <row r="2" spans="2:26" ht="18.75">
       <c r="B2" s="112" t="s">
         <v>145</v>
       </c>
@@ -15466,7 +15466,7 @@
       <c r="S2" s="124"/>
       <c r="T2" s="23"/>
     </row>
-    <row r="3" spans="2:26" ht="26">
+    <row r="3" spans="2:26" ht="25.5">
       <c r="B3" s="110" t="s">
         <v>513</v>
       </c>
@@ -16192,29 +16192,29 @@
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="23"/>
-    <col min="2" max="2" width="13.26953125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="46.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="23" customWidth="1"/>
     <col min="6" max="6" width="10" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" style="23" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="23" customWidth="1"/>
     <col min="10" max="10" width="11" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="10.08984375" style="23" customWidth="1"/>
-    <col min="16" max="16" width="9.7265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="10.26953125" style="23" customWidth="1"/>
-    <col min="22" max="22" width="9.08984375" style="23"/>
+    <col min="11" max="15" width="10.140625" style="23" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="10.28515625" style="23" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="23"/>
     <col min="23" max="23" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.08984375" style="23"/>
+    <col min="24" max="24" width="26.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="18.5">
+    <row r="2" spans="2:20" ht="18.75">
       <c r="B2" s="3" t="s">
         <v>57</v>
       </c>
@@ -16280,7 +16280,7 @@
       </c>
       <c r="R3"/>
     </row>
-    <row r="4" spans="2:20" ht="15" thickBot="1">
+    <row r="4" spans="2:20" ht="15.75" thickBot="1">
       <c r="B4" s="13" t="s">
         <v>515</v>
       </c>
@@ -17089,15 +17089,15 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="23"/>
-    <col min="2" max="2" width="18.81640625" style="23" customWidth="1"/>
-    <col min="3" max="16384" width="9.08984375" style="23"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="18.85546875" style="23" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -17114,7 +17114,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1">
       <c r="B5" s="163" t="s">
         <v>16</v>
       </c>
@@ -17203,7 +17203,7 @@
       </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="2:7" ht="15" thickBot="1">
+    <row r="17" spans="2:7" ht="15.75" thickBot="1">
       <c r="B17" s="163" t="s">
         <v>16</v>
       </c>
@@ -17374,9 +17374,9 @@
       <selection pane="topRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17421,7 +17421,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" thickBot="1">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1">
       <c r="A3" s="69" t="s">
         <v>92</v>
       </c>
@@ -17456,7 +17456,7 @@
       </c>
       <c r="Q4" s="23"/>
     </row>
-    <row r="5" spans="1:22" ht="15" thickBot="1">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1">
       <c r="A5" s="75" t="s">
         <v>96</v>
       </c>
@@ -17466,7 +17466,7 @@
       </c>
       <c r="J5" s="23"/>
     </row>
-    <row r="6" spans="1:22" ht="15" thickBot="1">
+    <row r="6" spans="1:22" ht="15.75" thickBot="1">
       <c r="A6" s="77"/>
       <c r="B6" s="78" t="s">
         <v>18</v>
@@ -17509,7 +17509,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" thickBot="1">
+    <row r="7" spans="1:22" ht="15.75" thickBot="1">
       <c r="A7" s="80" t="s">
         <v>98</v>
       </c>
@@ -17562,7 +17562,7 @@
       <c r="R7" s="84"/>
       <c r="S7" s="84"/>
     </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1">
+    <row r="8" spans="1:22" ht="15.75" thickBot="1">
       <c r="A8" s="80" t="s">
         <v>98</v>
       </c>
@@ -17615,7 +17615,7 @@
       <c r="R8" s="84"/>
       <c r="S8" s="84"/>
     </row>
-    <row r="9" spans="1:22" ht="15" thickBot="1">
+    <row r="9" spans="1:22" ht="15.75" thickBot="1">
       <c r="A9" s="80" t="s">
         <v>103</v>
       </c>
@@ -17668,7 +17668,7 @@
       <c r="R9" s="84"/>
       <c r="S9" s="84"/>
     </row>
-    <row r="10" spans="1:22" ht="15" thickBot="1">
+    <row r="10" spans="1:22" ht="15.75" thickBot="1">
       <c r="A10" s="80" t="s">
         <v>103</v>
       </c>
@@ -17721,7 +17721,7 @@
       <c r="R10" s="84"/>
       <c r="S10" s="84"/>
     </row>
-    <row r="11" spans="1:22" ht="15" thickBot="1">
+    <row r="11" spans="1:22" ht="15.75" thickBot="1">
       <c r="A11" s="80" t="s">
         <v>83</v>
       </c>
@@ -17768,7 +17768,7 @@
         <v>5.4816516360000005</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" thickBot="1">
+    <row r="12" spans="1:22" ht="15.75" thickBot="1">
       <c r="A12" s="80" t="s">
         <v>83</v>
       </c>
@@ -17815,7 +17815,7 @@
         <v>13.781408235406515</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1">
+    <row r="13" spans="1:22" ht="15.75" thickBot="1">
       <c r="A13" s="80" t="s">
         <v>84</v>
       </c>
@@ -17862,7 +17862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1">
+    <row r="14" spans="1:22" ht="15.75" thickBot="1">
       <c r="A14" s="80" t="s">
         <v>84</v>
       </c>
@@ -17915,7 +17915,7 @@
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1">
+    <row r="16" spans="1:22" ht="15.75" thickBot="1">
       <c r="A16" s="75" t="s">
         <v>100</v>
       </c>
@@ -17931,7 +17931,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15" thickBot="1">
+    <row r="17" spans="1:26" ht="15.75" thickBot="1">
       <c r="A17" s="77"/>
       <c r="B17" s="78" t="s">
         <v>18</v>
@@ -18001,7 +18001,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15" thickBot="1">
+    <row r="18" spans="1:26" ht="15.75" thickBot="1">
       <c r="A18" s="80" t="s">
         <v>98</v>
       </c>
@@ -18050,7 +18050,7 @@
       <c r="O18" s="23"/>
       <c r="P18" s="87"/>
     </row>
-    <row r="19" spans="1:26" ht="15" thickBot="1">
+    <row r="19" spans="1:26" ht="15.75" thickBot="1">
       <c r="A19" s="80" t="s">
         <v>98</v>
       </c>
@@ -18137,7 +18137,7 @@
         <v>2.6576562288177672</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" thickBot="1">
+    <row r="20" spans="1:26" ht="15.75" thickBot="1">
       <c r="A20" s="80" t="s">
         <v>103</v>
       </c>
@@ -18184,7 +18184,7 @@
         <v>144.52992698400001</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" thickBot="1">
+    <row r="21" spans="1:26" ht="15.75" thickBot="1">
       <c r="A21" s="80" t="s">
         <v>103</v>
       </c>
@@ -18271,7 +18271,7 @@
         <v>5.4463236801828891</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" thickBot="1">
+    <row r="22" spans="1:26" ht="15.75" thickBot="1">
       <c r="A22" s="80" t="s">
         <v>83</v>
       </c>
@@ -18319,7 +18319,7 @@
       </c>
       <c r="P22" s="87"/>
     </row>
-    <row r="23" spans="1:26" ht="15" thickBot="1">
+    <row r="23" spans="1:26" ht="15.75" thickBot="1">
       <c r="A23" s="80" t="s">
         <v>83</v>
       </c>
@@ -18406,7 +18406,7 @@
         <v>12.446066141998699</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" thickBot="1">
+    <row r="24" spans="1:26" ht="15.75" thickBot="1">
       <c r="A24" s="80" t="s">
         <v>84</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>3.8660492520000003</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" thickBot="1">
+    <row r="25" spans="1:26" ht="15.75" thickBot="1">
       <c r="A25" s="80" t="s">
         <v>84</v>
       </c>
@@ -18540,7 +18540,7 @@
         <v>24.555246283161342</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" thickBot="1">
+    <row r="26" spans="1:26" ht="15.75" thickBot="1">
       <c r="A26" s="75" t="s">
         <v>102</v>
       </c>
@@ -18557,7 +18557,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" thickBot="1">
+    <row r="27" spans="1:26" ht="15.75" thickBot="1">
       <c r="A27" s="90"/>
       <c r="B27" s="78" t="s">
         <v>18</v>
@@ -18627,7 +18627,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" thickBot="1">
+    <row r="28" spans="1:26" ht="15.75" thickBot="1">
       <c r="A28" s="80" t="s">
         <v>98</v>
       </c>
@@ -18675,7 +18675,7 @@
       </c>
       <c r="P28" s="87"/>
     </row>
-    <row r="29" spans="1:26" ht="15" thickBot="1">
+    <row r="29" spans="1:26" ht="15.75" thickBot="1">
       <c r="A29" s="80" t="s">
         <v>98</v>
       </c>
@@ -18762,7 +18762,7 @@
         <v>3.425007675166559</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" thickBot="1">
+    <row r="30" spans="1:26" ht="15.75" thickBot="1">
       <c r="A30" s="80" t="s">
         <v>103</v>
       </c>
@@ -18809,7 +18809,7 @@
         <v>236.79263826000002</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" thickBot="1">
+    <row r="31" spans="1:26" ht="15.75" thickBot="1">
       <c r="A31" s="80" t="s">
         <v>103</v>
       </c>
@@ -18896,7 +18896,7 @@
         <v>6.8687312392684552</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" thickBot="1">
+    <row r="32" spans="1:26" ht="15.75" thickBot="1">
       <c r="A32" s="80" t="s">
         <v>83</v>
       </c>
@@ -18944,7 +18944,7 @@
       </c>
       <c r="P32" s="87"/>
     </row>
-    <row r="33" spans="1:26" ht="15" thickBot="1">
+    <row r="33" spans="1:26" ht="15.75" thickBot="1">
       <c r="A33" s="80" t="s">
         <v>83</v>
       </c>
@@ -19031,7 +19031,7 @@
         <v>14.991427037204447</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="15" thickBot="1">
+    <row r="34" spans="1:26" ht="15.75" thickBot="1">
       <c r="A34" s="80" t="s">
         <v>84</v>
       </c>
@@ -19078,7 +19078,7 @@
         <v>4.3794765360000003</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="15" thickBot="1">
+    <row r="35" spans="1:26" ht="15.75" thickBot="1">
       <c r="A35" s="80" t="s">
         <v>84</v>
       </c>
@@ -19175,7 +19175,7 @@
       <c r="M36" s="57"/>
       <c r="N36" s="57"/>
     </row>
-    <row r="37" spans="1:26" ht="15" thickBot="1">
+    <row r="37" spans="1:26" ht="15.75" thickBot="1">
       <c r="A37" s="75" t="s">
         <v>104</v>
       </c>
@@ -19195,7 +19195,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="15" thickBot="1">
+    <row r="38" spans="1:26" ht="15.75" thickBot="1">
       <c r="A38" s="77"/>
       <c r="B38" s="78" t="s">
         <v>18</v>
@@ -19265,7 +19265,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="15" thickBot="1">
+    <row r="39" spans="1:26" ht="15.75" thickBot="1">
       <c r="A39" s="80" t="s">
         <v>98</v>
       </c>
@@ -19313,7 +19313,7 @@
       </c>
       <c r="P39" s="87"/>
     </row>
-    <row r="40" spans="1:26" ht="15" thickBot="1">
+    <row r="40" spans="1:26" ht="15.75" thickBot="1">
       <c r="A40" s="80" t="s">
         <v>98</v>
       </c>
@@ -19400,7 +19400,7 @@
         <v>3.0319740075244952</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="15" thickBot="1">
+    <row r="41" spans="1:26" ht="15.75" thickBot="1">
       <c r="A41" s="80" t="s">
         <v>103</v>
       </c>
@@ -19447,7 +19447,7 @@
         <v>17.883748728000004</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="15" thickBot="1">
+    <row r="42" spans="1:26" ht="15.75" thickBot="1">
       <c r="A42" s="80" t="s">
         <v>103</v>
       </c>
@@ -19534,7 +19534,7 @@
         <v>6.1949592375963451</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15" thickBot="1">
+    <row r="43" spans="1:26" ht="15.75" thickBot="1">
       <c r="A43" s="80" t="s">
         <v>83</v>
       </c>
@@ -19582,7 +19582,7 @@
       </c>
       <c r="P43" s="87"/>
     </row>
-    <row r="44" spans="1:26" ht="15" thickBot="1">
+    <row r="44" spans="1:26" ht="15.75" thickBot="1">
       <c r="A44" s="80" t="s">
         <v>83</v>
       </c>
@@ -19669,7 +19669,7 @@
         <v>18.45386649024168</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="15" thickBot="1">
+    <row r="45" spans="1:26" ht="15.75" thickBot="1">
       <c r="A45" s="80" t="s">
         <v>84</v>
       </c>
@@ -19716,7 +19716,7 @@
         <v>4.602800448</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="15" thickBot="1">
+    <row r="46" spans="1:26" ht="15.75" thickBot="1">
       <c r="A46" s="80" t="s">
         <v>84</v>
       </c>
@@ -19813,7 +19813,7 @@
       <c r="M47" s="57"/>
       <c r="N47" s="57"/>
     </row>
-    <row r="48" spans="1:26" ht="15" thickBot="1">
+    <row r="48" spans="1:26" ht="15.75" thickBot="1">
       <c r="A48" s="75" t="s">
         <v>105</v>
       </c>
@@ -19833,7 +19833,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="15" thickBot="1">
+    <row r="49" spans="1:26" ht="15.75" thickBot="1">
       <c r="A49" s="77"/>
       <c r="B49" s="78" t="s">
         <v>18</v>
@@ -19903,7 +19903,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="15" thickBot="1">
+    <row r="50" spans="1:26" ht="15.75" thickBot="1">
       <c r="A50" s="80" t="s">
         <v>98</v>
       </c>
@@ -19951,7 +19951,7 @@
       </c>
       <c r="P50" s="87"/>
     </row>
-    <row r="51" spans="1:26" ht="15" thickBot="1">
+    <row r="51" spans="1:26" ht="15.75" thickBot="1">
       <c r="A51" s="80" t="s">
         <v>98</v>
       </c>
@@ -20038,7 +20038,7 @@
         <v>3.949052565355978</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="15" thickBot="1">
+    <row r="52" spans="1:26" ht="15.75" thickBot="1">
       <c r="A52" s="80" t="s">
         <v>103</v>
       </c>
@@ -20085,7 +20085,7 @@
         <v>110.14646000400001</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="15" thickBot="1">
+    <row r="53" spans="1:26" ht="15.75" thickBot="1">
       <c r="A53" s="80" t="s">
         <v>103</v>
       </c>
@@ -20172,7 +20172,7 @@
         <v>7.8793892417766198</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="15" thickBot="1">
+    <row r="54" spans="1:26" ht="15.75" thickBot="1">
       <c r="A54" s="80" t="s">
         <v>83</v>
       </c>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="P54" s="87"/>
     </row>
-    <row r="55" spans="1:26" ht="15" thickBot="1">
+    <row r="55" spans="1:26" ht="15.75" thickBot="1">
       <c r="A55" s="80" t="s">
         <v>83</v>
       </c>
@@ -20307,7 +20307,7 @@
         <v>22.533930278145014</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="15" thickBot="1">
+    <row r="56" spans="1:26" ht="15.75" thickBot="1">
       <c r="A56" s="80" t="s">
         <v>84</v>
       </c>
@@ -20354,7 +20354,7 @@
         <v>5.1162277320000005</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="15" thickBot="1">
+    <row r="57" spans="1:26" ht="15.75" thickBot="1">
       <c r="A57" s="80" t="s">
         <v>84</v>
       </c>
@@ -20461,9 +20461,9 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.08984375" style="23"/>
+    <col min="1" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -20578,35 +20578,35 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="3.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.54296875" customWidth="1"/>
-    <col min="25" max="25" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:30">
@@ -21077,7 +21077,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1">
       <c r="A10" s="229" t="s">
         <v>279</v>
       </c>
@@ -21319,7 +21319,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -21349,46 +21349,46 @@
       <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="38.08984375" style="133" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" style="133" customWidth="1"/>
     <col min="2" max="2" width="13" style="131" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.54296875" style="134" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" style="134"/>
-    <col min="6" max="6" width="6.08984375" style="135" customWidth="1"/>
-    <col min="7" max="7" width="5.81640625" style="135" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.26953125" style="134" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.08984375" style="135" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" style="134" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="134"/>
+    <col min="6" max="6" width="6.140625" style="135" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="134" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="135" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="135" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.81640625" style="135" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="132" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.08984375" style="131" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.08984375" style="131" customWidth="1"/>
-    <col min="15" max="15" width="5.26953125" style="131" customWidth="1"/>
-    <col min="16" max="16" width="7.26953125" style="131" customWidth="1"/>
-    <col min="17" max="17" width="7.26953125" style="131" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.08984375" style="131" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.26953125" style="131" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.26953125" style="131" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.81640625" style="131" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="5.26953125" style="131" customWidth="1"/>
-    <col min="26" max="26" width="5.26953125" style="135" customWidth="1"/>
-    <col min="27" max="27" width="8.08984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.7265625" style="132" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="5.54296875" style="131" customWidth="1"/>
-    <col min="31" max="31" width="8.7265625" style="131" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.7265625" style="131" customWidth="1"/>
-    <col min="33" max="33" width="5.54296875" style="131" customWidth="1"/>
-    <col min="34" max="34" width="5.81640625" style="131" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="131" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="131" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" style="131" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="131" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="131" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" style="131" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.28515625" style="131" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" style="131" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.85546875" style="131" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="5.28515625" style="131" customWidth="1"/>
+    <col min="26" max="26" width="5.28515625" style="135" customWidth="1"/>
+    <col min="27" max="27" width="8.140625" style="132" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.7109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="5.5703125" style="131" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" style="131" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.7109375" style="131" customWidth="1"/>
+    <col min="33" max="33" width="5.5703125" style="131" customWidth="1"/>
+    <col min="34" max="34" width="5.85546875" style="131" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="7" style="131" customWidth="1"/>
-    <col min="37" max="40" width="5.54296875" style="131" customWidth="1"/>
-    <col min="41" max="41" width="8.7265625" style="132" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.26953125" style="132" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.26953125" style="131" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.08984375" style="131"/>
+    <col min="37" max="40" width="5.5703125" style="131" customWidth="1"/>
+    <col min="41" max="41" width="8.7109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.28515625" style="132" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.28515625" style="131" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="131"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="120" thickBot="1">
+    <row r="1" spans="1:43" ht="111.75" thickBot="1">
       <c r="A1" s="212" t="s">
         <v>428</v>
       </c>
@@ -23979,37 +23979,37 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.54296875" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" customWidth="1"/>
-    <col min="6" max="6" width="85.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.54296875" customWidth="1"/>
-    <col min="16" max="16" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="85.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="1.54296875" customWidth="1"/>
-    <col min="20" max="20" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="1.54296875" customWidth="1"/>
-    <col min="22" max="22" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="1.54296875" customWidth="1"/>
-    <col min="26" max="26" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="1.54296875" customWidth="1"/>
-    <col min="29" max="29" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="1.5703125" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.5703125" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="1.5703125" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="1.5703125" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:29" ht="18.5">
+    <row r="3" spans="2:29" ht="18.75">
       <c r="B3" s="165" t="s">
         <v>282</v>
       </c>
@@ -24038,7 +24038,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="2:29" ht="15" thickBot="1">
+    <row r="4" spans="2:29" ht="15.75" thickBot="1">
       <c r="B4" s="166" t="s">
         <v>279</v>
       </c>
@@ -27099,11 +27099,11 @@
       <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
@@ -27118,7 +27118,7 @@
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
     </row>
-    <row r="3" spans="2:9" ht="15" thickBot="1">
+    <row r="3" spans="2:9" ht="15.75" thickBot="1">
       <c r="B3" s="166" t="s">
         <v>15</v>
       </c>
@@ -28604,23 +28604,23 @@
       <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" customWidth="1"/>
-    <col min="8" max="8" width="30.26953125" customWidth="1"/>
-    <col min="9" max="9" width="25.26953125" customWidth="1"/>
-    <col min="10" max="10" width="17.26953125" customWidth="1"/>
-    <col min="14" max="14" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.08984375" customWidth="1"/>
+    <col min="5" max="5" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="26">
+    <row r="1" spans="2:10" ht="26.25">
       <c r="B1" s="175" t="s">
         <v>350</v>
       </c>
@@ -28646,7 +28646,7 @@
       <c r="I3" s="170"/>
       <c r="J3" s="170"/>
     </row>
-    <row r="4" spans="2:10" ht="15" thickBot="1">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1">
       <c r="B4" s="166" t="s">
         <v>1</v>
       </c>
@@ -31006,278 +31006,278 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="23"/>
-    <col min="2" max="2" width="11.54296875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="11.5703125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.08984375" style="23"/>
-    <col min="9" max="9" width="10.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.81640625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" style="23"/>
-    <col min="13" max="13" width="11.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="23"/>
+    <col min="9" max="9" width="10.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="23" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="23"/>
+    <col min="13" max="13" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="37" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.81640625" style="23" customWidth="1"/>
-    <col min="18" max="262" width="9.08984375" style="23"/>
-    <col min="263" max="263" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="266" max="518" width="9.08984375" style="23"/>
-    <col min="519" max="519" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="522" max="774" width="9.08984375" style="23"/>
-    <col min="775" max="775" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="778" max="1030" width="9.08984375" style="23"/>
-    <col min="1031" max="1031" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1286" width="9.08984375" style="23"/>
-    <col min="1287" max="1287" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1542" width="9.08984375" style="23"/>
-    <col min="1543" max="1543" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1798" width="9.08984375" style="23"/>
-    <col min="1799" max="1799" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="1802" max="2054" width="9.08984375" style="23"/>
-    <col min="2055" max="2055" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2310" width="9.08984375" style="23"/>
-    <col min="2311" max="2311" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2566" width="9.08984375" style="23"/>
-    <col min="2567" max="2567" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2822" width="9.08984375" style="23"/>
-    <col min="2823" max="2823" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="2826" max="3078" width="9.08984375" style="23"/>
-    <col min="3079" max="3079" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3334" width="9.08984375" style="23"/>
-    <col min="3335" max="3335" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3590" width="9.08984375" style="23"/>
-    <col min="3591" max="3591" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3846" width="9.08984375" style="23"/>
-    <col min="3847" max="3847" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3850" max="4102" width="9.08984375" style="23"/>
-    <col min="4103" max="4103" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4358" width="9.08984375" style="23"/>
-    <col min="4359" max="4359" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4614" width="9.08984375" style="23"/>
-    <col min="4615" max="4615" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4870" width="9.08984375" style="23"/>
-    <col min="4871" max="4871" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4874" max="5126" width="9.08984375" style="23"/>
-    <col min="5127" max="5127" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5382" width="9.08984375" style="23"/>
-    <col min="5383" max="5383" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5638" width="9.08984375" style="23"/>
-    <col min="5639" max="5639" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5894" width="9.08984375" style="23"/>
-    <col min="5895" max="5895" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="5898" max="6150" width="9.08984375" style="23"/>
-    <col min="6151" max="6151" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6406" width="9.08984375" style="23"/>
-    <col min="6407" max="6407" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6662" width="9.08984375" style="23"/>
-    <col min="6663" max="6663" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6918" width="9.08984375" style="23"/>
-    <col min="6919" max="6919" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6922" max="7174" width="9.08984375" style="23"/>
-    <col min="7175" max="7175" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7430" width="9.08984375" style="23"/>
-    <col min="7431" max="7431" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7686" width="9.08984375" style="23"/>
-    <col min="7687" max="7687" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7942" width="9.08984375" style="23"/>
-    <col min="7943" max="7943" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="7946" max="8198" width="9.08984375" style="23"/>
-    <col min="8199" max="8199" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8454" width="9.08984375" style="23"/>
-    <col min="8455" max="8455" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8710" width="9.08984375" style="23"/>
-    <col min="8711" max="8711" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8966" width="9.08984375" style="23"/>
-    <col min="8967" max="8967" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="8970" max="9222" width="9.08984375" style="23"/>
-    <col min="9223" max="9223" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9478" width="9.08984375" style="23"/>
-    <col min="9479" max="9479" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9734" width="9.08984375" style="23"/>
-    <col min="9735" max="9735" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9990" width="9.08984375" style="23"/>
-    <col min="9991" max="9991" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="9994" max="10246" width="9.08984375" style="23"/>
-    <col min="10247" max="10247" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10502" width="9.08984375" style="23"/>
-    <col min="10503" max="10503" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10758" width="9.08984375" style="23"/>
-    <col min="10759" max="10759" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="10762" max="11014" width="9.08984375" style="23"/>
-    <col min="11015" max="11015" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11270" width="9.08984375" style="23"/>
-    <col min="11271" max="11271" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11526" width="9.08984375" style="23"/>
-    <col min="11527" max="11527" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11782" width="9.08984375" style="23"/>
-    <col min="11783" max="11783" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="11786" max="12038" width="9.08984375" style="23"/>
-    <col min="12039" max="12039" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12294" width="9.08984375" style="23"/>
-    <col min="12295" max="12295" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12550" width="9.08984375" style="23"/>
-    <col min="12551" max="12551" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12806" width="9.08984375" style="23"/>
-    <col min="12807" max="12807" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="12810" max="13062" width="9.08984375" style="23"/>
-    <col min="13063" max="13063" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13318" width="9.08984375" style="23"/>
-    <col min="13319" max="13319" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13574" width="9.08984375" style="23"/>
-    <col min="13575" max="13575" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13830" width="9.08984375" style="23"/>
-    <col min="13831" max="13831" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="13834" max="14086" width="9.08984375" style="23"/>
-    <col min="14087" max="14087" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14342" width="9.08984375" style="23"/>
-    <col min="14343" max="14343" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14598" width="9.08984375" style="23"/>
-    <col min="14599" max="14599" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14854" width="9.08984375" style="23"/>
-    <col min="14855" max="14855" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="14858" max="15110" width="9.08984375" style="23"/>
-    <col min="15111" max="15111" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15366" width="9.08984375" style="23"/>
-    <col min="15367" max="15367" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15622" width="9.08984375" style="23"/>
-    <col min="15623" max="15623" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15878" width="9.08984375" style="23"/>
-    <col min="15879" max="15879" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="15882" max="16134" width="9.08984375" style="23"/>
-    <col min="16135" max="16135" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16384" width="9.08984375" style="23"/>
+    <col min="16" max="17" width="9.85546875" style="23" customWidth="1"/>
+    <col min="18" max="262" width="9.140625" style="23"/>
+    <col min="263" max="263" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="266" max="518" width="9.140625" style="23"/>
+    <col min="519" max="519" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="522" max="774" width="9.140625" style="23"/>
+    <col min="775" max="775" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="778" max="1030" width="9.140625" style="23"/>
+    <col min="1031" max="1031" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1286" width="9.140625" style="23"/>
+    <col min="1287" max="1287" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1542" width="9.140625" style="23"/>
+    <col min="1543" max="1543" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1798" width="9.140625" style="23"/>
+    <col min="1799" max="1799" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1802" max="2054" width="9.140625" style="23"/>
+    <col min="2055" max="2055" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2310" width="9.140625" style="23"/>
+    <col min="2311" max="2311" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2566" width="9.140625" style="23"/>
+    <col min="2567" max="2567" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2822" width="9.140625" style="23"/>
+    <col min="2823" max="2823" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2826" max="3078" width="9.140625" style="23"/>
+    <col min="3079" max="3079" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3334" width="9.140625" style="23"/>
+    <col min="3335" max="3335" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3590" width="9.140625" style="23"/>
+    <col min="3591" max="3591" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3846" width="9.140625" style="23"/>
+    <col min="3847" max="3847" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3850" max="4102" width="9.140625" style="23"/>
+    <col min="4103" max="4103" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4358" width="9.140625" style="23"/>
+    <col min="4359" max="4359" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4614" width="9.140625" style="23"/>
+    <col min="4615" max="4615" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4870" width="9.140625" style="23"/>
+    <col min="4871" max="4871" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4874" max="5126" width="9.140625" style="23"/>
+    <col min="5127" max="5127" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5382" width="9.140625" style="23"/>
+    <col min="5383" max="5383" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5638" width="9.140625" style="23"/>
+    <col min="5639" max="5639" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5894" width="9.140625" style="23"/>
+    <col min="5895" max="5895" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5898" max="6150" width="9.140625" style="23"/>
+    <col min="6151" max="6151" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6406" width="9.140625" style="23"/>
+    <col min="6407" max="6407" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6662" width="9.140625" style="23"/>
+    <col min="6663" max="6663" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6918" width="9.140625" style="23"/>
+    <col min="6919" max="6919" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6922" max="7174" width="9.140625" style="23"/>
+    <col min="7175" max="7175" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7430" width="9.140625" style="23"/>
+    <col min="7431" max="7431" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7686" width="9.140625" style="23"/>
+    <col min="7687" max="7687" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7942" width="9.140625" style="23"/>
+    <col min="7943" max="7943" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7946" max="8198" width="9.140625" style="23"/>
+    <col min="8199" max="8199" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8454" width="9.140625" style="23"/>
+    <col min="8455" max="8455" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8710" width="9.140625" style="23"/>
+    <col min="8711" max="8711" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8966" width="9.140625" style="23"/>
+    <col min="8967" max="8967" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8970" max="9222" width="9.140625" style="23"/>
+    <col min="9223" max="9223" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9478" width="9.140625" style="23"/>
+    <col min="9479" max="9479" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9734" width="9.140625" style="23"/>
+    <col min="9735" max="9735" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9990" width="9.140625" style="23"/>
+    <col min="9991" max="9991" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9994" max="10246" width="9.140625" style="23"/>
+    <col min="10247" max="10247" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10502" width="9.140625" style="23"/>
+    <col min="10503" max="10503" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10758" width="9.140625" style="23"/>
+    <col min="10759" max="10759" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10762" max="11014" width="9.140625" style="23"/>
+    <col min="11015" max="11015" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11270" width="9.140625" style="23"/>
+    <col min="11271" max="11271" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11526" width="9.140625" style="23"/>
+    <col min="11527" max="11527" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11782" width="9.140625" style="23"/>
+    <col min="11783" max="11783" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11786" max="12038" width="9.140625" style="23"/>
+    <col min="12039" max="12039" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12294" width="9.140625" style="23"/>
+    <col min="12295" max="12295" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12550" width="9.140625" style="23"/>
+    <col min="12551" max="12551" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12806" width="9.140625" style="23"/>
+    <col min="12807" max="12807" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12810" max="13062" width="9.140625" style="23"/>
+    <col min="13063" max="13063" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13318" width="9.140625" style="23"/>
+    <col min="13319" max="13319" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13574" width="9.140625" style="23"/>
+    <col min="13575" max="13575" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13830" width="9.140625" style="23"/>
+    <col min="13831" max="13831" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13834" max="14086" width="9.140625" style="23"/>
+    <col min="14087" max="14087" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14342" width="9.140625" style="23"/>
+    <col min="14343" max="14343" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14598" width="9.140625" style="23"/>
+    <col min="14599" max="14599" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14854" width="9.140625" style="23"/>
+    <col min="14855" max="14855" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14858" max="15110" width="9.140625" style="23"/>
+    <col min="15111" max="15111" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15366" width="9.140625" style="23"/>
+    <col min="15367" max="15367" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15622" width="9.140625" style="23"/>
+    <col min="15623" max="15623" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15878" width="9.140625" style="23"/>
+    <col min="15879" max="15879" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15882" max="16134" width="9.140625" style="23"/>
+    <col min="16135" max="16135" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="18.5">
+    <row r="1" spans="2:19" ht="18.75">
       <c r="B1" s="154" t="s">
         <v>224</v>
       </c>
@@ -31324,7 +31324,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="15" thickBot="1">
+    <row r="5" spans="2:19" ht="15.75" thickBot="1">
       <c r="B5" s="159" t="s">
         <v>211</v>
       </c>
@@ -31538,37 +31538,37 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="23"/>
-    <col min="2" max="2" width="12.54296875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.08984375" style="23" customWidth="1"/>
-    <col min="12" max="12" width="12.7265625" style="23" customWidth="1"/>
-    <col min="13" max="13" width="19.08984375" style="23" customWidth="1"/>
-    <col min="14" max="14" width="15.08984375" style="23" customWidth="1"/>
-    <col min="15" max="15" width="10.54296875" style="23" customWidth="1"/>
-    <col min="16" max="22" width="9.08984375" style="23"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="12.5703125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="23" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="23" customWidth="1"/>
+    <col min="16" max="22" width="9.140625" style="23"/>
     <col min="23" max="23" width="16" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.26953125" style="23" customWidth="1"/>
-    <col min="25" max="25" width="38.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.08984375" style="23"/>
+    <col min="24" max="24" width="19.28515625" style="23" customWidth="1"/>
+    <col min="25" max="25" width="38.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="18.5">
+    <row r="1" spans="2:20" ht="18.75">
       <c r="B1" s="3" t="s">
         <v>544</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="3" spans="2:20" ht="18.5">
+    <row r="3" spans="2:20" ht="18.75">
       <c r="G3" s="257" t="s">
         <v>557</v>
       </c>
@@ -31622,7 +31622,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="26.5" thickBot="1">
+    <row r="5" spans="2:20" ht="26.25" thickBot="1">
       <c r="C5" s="9" t="s">
         <v>515</v>
       </c>
@@ -33940,16 +33940,16 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="18.7265625" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.26953125" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
@@ -33965,7 +33965,7 @@
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
     </row>
-    <row r="3" spans="2:10" ht="15" thickBot="1">
+    <row r="3" spans="2:10" ht="15.75" thickBot="1">
       <c r="B3" s="166" t="s">
         <v>1</v>
       </c>
@@ -33994,7 +33994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="52">
+    <row r="4" spans="2:10" ht="51">
       <c r="B4" s="172" t="s">
         <v>133</v>
       </c>
@@ -34051,7 +34051,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:10" ht="15" thickBot="1">
+    <row r="10" spans="2:10" ht="15.75" thickBot="1">
       <c r="B10" s="166" t="s">
         <v>513</v>
       </c>
@@ -34154,6 +34154,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -34299,22 +34314,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F32A5943-069C-47E6-B7B1-1C4E8CC11B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34330,28 +34354,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6738FC0E-79D5-4A92-B8E6-031AC7684FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E6D853-616F-466F-A780-69CC1B235F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="23" r:id="rId1"/>
@@ -21,14 +21,15 @@
     <sheet name="Processes" sheetId="21" r:id="rId6"/>
     <sheet name="SUP_FuelTech" sheetId="17" r:id="rId7"/>
     <sheet name="Imports_Fossil" sheetId="2" r:id="rId8"/>
-    <sheet name="Imports_Bio" sheetId="7" r:id="rId9"/>
-    <sheet name="Domestic" sheetId="3" r:id="rId10"/>
-    <sheet name="Domestic_Bio" sheetId="10" r:id="rId11"/>
-    <sheet name="Refinery" sheetId="12" r:id="rId12"/>
-    <sheet name="Interconnector" sheetId="5" r:id="rId13"/>
-    <sheet name="Emi" sheetId="19" r:id="rId14"/>
-    <sheet name="SEAI-AEA_BioData" sheetId="9" r:id="rId15"/>
-    <sheet name="Conversions" sheetId="16" r:id="rId16"/>
+    <sheet name="Import CO2" sheetId="24" r:id="rId9"/>
+    <sheet name="Imports_Bio" sheetId="7" r:id="rId10"/>
+    <sheet name="Domestic" sheetId="3" r:id="rId11"/>
+    <sheet name="Domestic_Bio" sheetId="10" r:id="rId12"/>
+    <sheet name="Refinery" sheetId="12" r:id="rId13"/>
+    <sheet name="Interconnector" sheetId="5" r:id="rId14"/>
+    <sheet name="Emi" sheetId="19" r:id="rId15"/>
+    <sheet name="SEAI-AEA_BioData" sheetId="9" r:id="rId16"/>
+    <sheet name="Conversions" sheetId="16" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
@@ -55,23 +56,23 @@
     <definedName name="_Regression_Y" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
     <definedName name="aa" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="aa" localSheetId="13" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="aa" localSheetId="14" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec" localSheetId="13" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="14" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec2" localSheetId="13" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="14" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec3" localSheetId="13" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="14" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elecc" localSheetId="13" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="14" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
@@ -111,11 +112,11 @@
     <definedName name="RiskUseFixedSeed" hidden="1">TRUE</definedName>
     <definedName name="RiskUseMultipleCPUs" hidden="1">FALSE</definedName>
     <definedName name="table6" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="table6" localSheetId="13" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="table6" localSheetId="14" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="13" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="14" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
   </definedNames>
@@ -700,6 +701,430 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{B0F85010-F9B2-47CB-9375-04326ED8B0CF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Sets declarations are </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>inherited. 
+Allowed Process Sets</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ELE </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Thermal Electric Power Plant)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CHP </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Combined Heat and Power)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+STGTSS </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Pump Storage)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+STGIPS</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Pump Storage IP)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+PRE </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Genric Process/Technology)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DMD</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Demand Device)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+IMP </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">(Import)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EXP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Export)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+MIN </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Mining Process)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+RNW </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Renewable Technology)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+HPL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Heating Plant)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{52EEC1BB-A777-480F-8EA4-1E3AD2AFBED1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Allowed TsLvl
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ANNUAL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Annual level)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SEASON</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Seasonal level)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WEEKLY</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Weekly level)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DAYNITE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (day and night level)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{B8EF7B5F-2F8F-47CA-ADBA-F9EDC376D86D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Needed only when one wants to override the VEDA default assignment
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{9B6DA35A-DE29-4C4B-A21C-820644749B91}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Allowed Vintage</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NO</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (if empty by default mean </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NO</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+YES</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>KanORS</author>
   </authors>
   <commentList>
@@ -755,7 +1180,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={DF35ABC3-9BB5-47E6-9E75-DAC846139278}</author>
@@ -773,7 +1198,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Alessandro Chiodi</author>
@@ -807,7 +1232,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={826B8038-8340-4DCF-B1C7-9C31DF36714F}</author>
@@ -866,7 +1291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="663">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -2852,12 +3277,115 @@
   <si>
     <t>NCAP_BND~0</t>
   </si>
+  <si>
+    <t>Pja</t>
+  </si>
+  <si>
+    <t>MINCO2-CAL</t>
+  </si>
+  <si>
+    <t>COST~2018</t>
+  </si>
+  <si>
+    <t>AGRCO2N</t>
+  </si>
+  <si>
+    <t>INDCO2N</t>
+  </si>
+  <si>
+    <t>INDCO2P</t>
+  </si>
+  <si>
+    <t>PWRCO2N</t>
+  </si>
+  <si>
+    <t>RSDCO2</t>
+  </si>
+  <si>
+    <t>SRVCO2N</t>
+  </si>
+  <si>
+    <t>TRACO2N</t>
+  </si>
+  <si>
+    <t>Import of Wood Pellets  - Step 1</t>
+  </si>
+  <si>
+    <t>Import of Wood Pellets  - Step 2</t>
+  </si>
+  <si>
+    <t>Import of Wood Pellets  - Step 3</t>
+  </si>
+  <si>
+    <t>Import of Wood Pellets  - Step 4</t>
+  </si>
+  <si>
+    <t>Cost (€/MWh)</t>
+  </si>
+  <si>
+    <t>Cost (€/GJ)</t>
+  </si>
+  <si>
+    <t>Potential quantities of wood pellets available for import to Ireland (PJ)</t>
+  </si>
+  <si>
+    <t>Totoal (PJ)</t>
+  </si>
+  <si>
+    <t>From SEAI Heat Study</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>SEAI, 2022. Sustainable bioenergy for heat, National Heat study, Spatial Assessment of Resources and Evaluation of Costs and GHG Emissions</t>
+  </si>
+  <si>
+    <t>SEAI Heat Study</t>
+  </si>
+  <si>
+    <t>Domestic CO2 calibration</t>
+  </si>
+  <si>
+    <t>~COMAGG_R1C2</t>
+  </si>
+  <si>
+    <t>TOTCO2</t>
+  </si>
+  <si>
+    <t>TOTCO2INT</t>
+  </si>
+  <si>
+    <t>TRACO2INT</t>
+  </si>
+  <si>
+    <t>\I: Emissions commodities aggregator</t>
+  </si>
+  <si>
+    <t>Total CO2 Emmissions</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>Total CO2 Emmissions including international</t>
+  </si>
+  <si>
+    <t>Vahid Aryanpur (UCC,vahid.aryanpur@ucc.ie)</t>
+  </si>
+  <si>
+    <t>Bakytzhan Suleimenov (UCC, bsuleimenov@ucc.ie)</t>
+  </si>
+  <si>
+    <t>SUPCO2N</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
@@ -2866,7 +3394,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.0;[Red]\-#,##0.0"/>
     <numFmt numFmtId="170" formatCode="#,##0.000;[Red]\-#,##0.000"/>
   </numFmts>
-  <fonts count="62">
+  <fonts count="66">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3296,6 +3824,31 @@
       <sz val="10"/>
       <name val="MS Sans Serif"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="29">
@@ -5031,7 +5584,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5040,8 +5593,20 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="456">
+  <cellXfs count="480">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6228,6 +6793,76 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="64" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="64" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="64" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="64" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6280,15 +6915,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="20">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="Comma 2" xfId="15" xr:uid="{8EAB90B5-DA25-4C48-A66A-D14A2BCBB95E}"/>
+    <cellStyle name="Comma 2 2" xfId="16" xr:uid="{C3D1F38D-4B80-4E61-B983-0467EBCD118F}"/>
+    <cellStyle name="Comma 2 2 2" xfId="19" xr:uid="{CB3C5580-3555-450A-87C5-BE87F31B8FA2}"/>
+    <cellStyle name="Comma 2 3" xfId="18" xr:uid="{909C6C48-0409-438D-A962-F9567CBAA46B}"/>
+    <cellStyle name="Comma 3" xfId="17" xr:uid="{22B30534-93D4-457E-AC12-0447548E19A1}"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="8" xr:uid="{4C671E58-F0B1-48D4-BD8A-E4C5F735094E}"/>
     <cellStyle name="Normal 2" xfId="6" xr:uid="{3D1F24A5-7B62-4933-90AC-B7DE3913179A}"/>
+    <cellStyle name="Normal 3" xfId="10" xr:uid="{3A5DCF80-BC8D-49C1-B4F6-BDDD1028664B}"/>
+    <cellStyle name="Normal 5" xfId="12" xr:uid="{74CEF3ED-0D60-47C8-B1B4-1A49024E2AD9}"/>
+    <cellStyle name="Normal 5 2 2" xfId="13" xr:uid="{3ACC3B69-92B6-474A-BC03-8602E10CB9DB}"/>
     <cellStyle name="Normal_2000balx" xfId="7" xr:uid="{EFD0CB67-65B2-4C54-B075-572C00869A7E}"/>
+    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="9" xr:uid="{F7F83E46-EBD5-4CAB-9F34-C6097ED8BD9F}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="11" xr:uid="{A71DCDAC-074E-4012-92BF-C1020F72F4B1}"/>
+    <cellStyle name="Percent 3" xfId="14" xr:uid="{FB47DF39-E1AE-4A7C-976B-577886D4D5B4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6737,7 +7384,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>14325</xdr:colOff>
+      <xdr:colOff>11150</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>38212</xdr:rowOff>
     </xdr:to>
@@ -6783,7 +7430,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>2683</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>4500</xdr:rowOff>
+      <xdr:rowOff>7675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6830,9 +7477,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>312511</xdr:colOff>
+      <xdr:colOff>315686</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>4500</xdr:rowOff>
+      <xdr:rowOff>7675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6882,7 +7529,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1408474</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>4500</xdr:rowOff>
+      <xdr:rowOff>7675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6932,7 +7579,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>109275</xdr:rowOff>
+      <xdr:rowOff>106100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7100,6 +7747,55 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>272141</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>108855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>27213</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>149871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4490355" y="14804569"/>
+          <a:ext cx="4397829" cy="4667445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
@@ -7118,7 +7814,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7148,9 +7844,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7188,9 +7884,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7223,26 +7919,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7275,26 +7954,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7494,7 +8156,7 @@
   <dimension ref="A1:Z99"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B27" sqref="B27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -7506,8 +8168,8 @@
     <col min="11" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="8.140625" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -7931,12 +8593,12 @@
       <c r="Z15" s="277"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
-      <c r="A16" s="440" t="s">
+      <c r="A16" s="464" t="s">
         <v>579</v>
       </c>
-      <c r="B16" s="440"/>
-      <c r="C16" s="440"/>
-      <c r="D16" s="440"/>
+      <c r="B16" s="464"/>
+      <c r="C16" s="464"/>
+      <c r="D16" s="464"/>
       <c r="E16" s="278"/>
       <c r="F16" s="278"/>
       <c r="G16" s="279"/>
@@ -8020,11 +8682,11 @@
       <c r="A19" s="283" t="s">
         <v>580</v>
       </c>
-      <c r="B19" s="439" t="s">
+      <c r="B19" s="463" t="s">
         <v>595</v>
       </c>
-      <c r="C19" s="439"/>
-      <c r="D19" s="439"/>
+      <c r="C19" s="463"/>
+      <c r="D19" s="463"/>
       <c r="E19" s="284"/>
       <c r="F19" s="284"/>
       <c r="G19" s="285"/>
@@ -8052,11 +8714,11 @@
       <c r="A20" s="283" t="s">
         <v>581</v>
       </c>
-      <c r="B20" s="439" t="s">
+      <c r="B20" s="463" t="s">
         <v>594</v>
       </c>
-      <c r="C20" s="439"/>
-      <c r="D20" s="439"/>
+      <c r="C20" s="463"/>
+      <c r="D20" s="463"/>
       <c r="E20" s="284"/>
       <c r="F20" s="284"/>
       <c r="G20" s="285"/>
@@ -8144,11 +8806,11 @@
       <c r="A23" s="283" t="s">
         <v>583</v>
       </c>
-      <c r="B23" s="439" t="s">
+      <c r="B23" s="463" t="s">
         <v>592</v>
       </c>
-      <c r="C23" s="439"/>
-      <c r="D23" s="439"/>
+      <c r="C23" s="463"/>
+      <c r="D23" s="463"/>
       <c r="E23" s="277"/>
       <c r="F23" s="277"/>
       <c r="G23" s="277"/>
@@ -8236,11 +8898,11 @@
       <c r="A26" s="283" t="s">
         <v>584</v>
       </c>
-      <c r="B26" s="439" t="s">
-        <v>591</v>
-      </c>
-      <c r="C26" s="439"/>
-      <c r="D26" s="439"/>
+      <c r="B26" s="463" t="s">
+        <v>660</v>
+      </c>
+      <c r="C26" s="463"/>
+      <c r="D26" s="463"/>
       <c r="E26" s="277"/>
       <c r="F26" s="277"/>
       <c r="G26" s="277"/>
@@ -8266,9 +8928,11 @@
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1">
       <c r="A27" s="283"/>
-      <c r="B27" s="286"/>
-      <c r="C27" s="286"/>
-      <c r="D27" s="286"/>
+      <c r="B27" s="463" t="s">
+        <v>661</v>
+      </c>
+      <c r="C27" s="463"/>
+      <c r="D27" s="463"/>
       <c r="E27" s="277"/>
       <c r="F27" s="277"/>
       <c r="G27" s="277"/>
@@ -8356,11 +9020,11 @@
       <c r="A30" s="283" t="s">
         <v>586</v>
       </c>
-      <c r="B30" s="441" t="s">
+      <c r="B30" s="465" t="s">
         <v>587</v>
       </c>
-      <c r="C30" s="439"/>
-      <c r="D30" s="439"/>
+      <c r="C30" s="463"/>
+      <c r="D30" s="463"/>
       <c r="E30" s="288"/>
       <c r="F30" s="288"/>
       <c r="G30" s="277"/>
@@ -8388,11 +9052,11 @@
       <c r="A31" s="283" t="s">
         <v>588</v>
       </c>
-      <c r="B31" s="439" t="s">
+      <c r="B31" s="463" t="s">
         <v>589</v>
       </c>
-      <c r="C31" s="439"/>
-      <c r="D31" s="439"/>
+      <c r="C31" s="463"/>
+      <c r="D31" s="463"/>
       <c r="E31" s="288"/>
       <c r="F31" s="288"/>
       <c r="G31" s="277"/>
@@ -10323,7 +10987,7 @@
       <c r="Z99" s="277"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="B19:D19"/>
@@ -10331,6 +10995,7 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B30" r:id="rId1" xr:uid="{F7F8F6D6-10DA-4B47-BA30-3EBC39D07587}"/>
@@ -10343,18 +11008,2897 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="B2:W79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="23" customWidth="1"/>
+    <col min="6" max="13" width="10.85546875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="23" customWidth="1"/>
+    <col min="15" max="16" width="13" style="23" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" style="23" customWidth="1"/>
+    <col min="18" max="18" width="29.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="9.140625" style="23"/>
+    <col min="23" max="23" width="14.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="18.75">
+      <c r="B2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="32.65" customHeight="1" thickBot="1">
+      <c r="B4" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="93"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="21" t="str">
+        <f>Processes!C23</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C5" s="21" t="str">
+        <f>Processes!D23</f>
+        <v>IMPBIOETH1G_S1</v>
+      </c>
+      <c r="D5" s="22" t="str">
+        <f>Processes!E23</f>
+        <v>Import of Ethanol 1st generation  - Step 1</v>
+      </c>
+      <c r="E5" s="22" t="str">
+        <f>Commodities!$C$30</f>
+        <v>BIOETH1G</v>
+      </c>
+      <c r="F5" s="50">
+        <f>'SEAI-AEA_BioData'!K$23</f>
+        <v>18.176172733352441</v>
+      </c>
+      <c r="G5" s="50">
+        <f>'SEAI-AEA_BioData'!L$23</f>
+        <v>17.579057991783699</v>
+      </c>
+      <c r="H5" s="50">
+        <f>'SEAI-AEA_BioData'!M$23</f>
+        <v>16.599789815610968</v>
+      </c>
+      <c r="I5" s="50">
+        <f>'SEAI-AEA_BioData'!N$23</f>
+        <v>15.883252125728479</v>
+      </c>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="22"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="21" t="str">
+        <f>Processes!C24</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C6" s="21" t="str">
+        <f>Processes!D24</f>
+        <v>IMPBIOETH1G_S2</v>
+      </c>
+      <c r="D6" s="22" t="str">
+        <f>Processes!E24</f>
+        <v>Import of Ethanol 1st generation  - Step 2</v>
+      </c>
+      <c r="E6" s="22" t="str">
+        <f>Commodities!$C$30</f>
+        <v>BIOETH1G</v>
+      </c>
+      <c r="F6" s="50">
+        <f>'SEAI-AEA_BioData'!K$33</f>
+        <v>18.916595012897677</v>
+      </c>
+      <c r="G6" s="50">
+        <f>'SEAI-AEA_BioData'!L$33</f>
+        <v>19.083787140536923</v>
+      </c>
+      <c r="H6" s="50">
+        <f>'SEAI-AEA_BioData'!M$33</f>
+        <v>18.916595012897677</v>
+      </c>
+      <c r="I6" s="50">
+        <f>'SEAI-AEA_BioData'!N$33</f>
+        <v>19.131556319862423</v>
+      </c>
+      <c r="J6" s="50">
+        <f>I6*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
+        <v>20.390211340906003</v>
+      </c>
+      <c r="K6" s="50">
+        <f>I6*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
+        <v>21.397135357740865</v>
+      </c>
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="22" t="str">
+        <f>Processes!C25</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C7" s="22" t="str">
+        <f>Processes!D25</f>
+        <v>IMPBIOETH1G_S3</v>
+      </c>
+      <c r="D7" s="22" t="str">
+        <f>Processes!E25</f>
+        <v>Import of Ethanol 1st generation  - Step 3</v>
+      </c>
+      <c r="E7" s="22" t="str">
+        <f>Commodities!$C$30</f>
+        <v>BIOETH1G</v>
+      </c>
+      <c r="F7" s="50">
+        <f>'SEAI-AEA_BioData'!K$44</f>
+        <v>19.680901882105665</v>
+      </c>
+      <c r="G7" s="50">
+        <f>'SEAI-AEA_BioData'!L$44</f>
+        <v>20.684054647941146</v>
+      </c>
+      <c r="H7" s="50">
+        <f>'SEAI-AEA_BioData'!M$44</f>
+        <v>21.758861182764878</v>
+      </c>
+      <c r="I7" s="50">
+        <f>'SEAI-AEA_BioData'!N$44</f>
+        <v>23.550205407471097</v>
+      </c>
+      <c r="J7" s="50">
+        <f>I7*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
+        <v>25.099561026383665</v>
+      </c>
+      <c r="K7" s="50">
+        <f>I7*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
+        <v>26.339045521513725</v>
+      </c>
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="39" t="str">
+        <f>Processes!C26</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C8" s="39" t="str">
+        <f>Processes!D26</f>
+        <v>IMPBIOETH1G_S4</v>
+      </c>
+      <c r="D8" s="39" t="str">
+        <f>Processes!E26</f>
+        <v>Import of Ethanol 1st generation  - Step 4</v>
+      </c>
+      <c r="E8" s="39" t="str">
+        <f>Commodities!$C$30</f>
+        <v>BIOETH1G</v>
+      </c>
+      <c r="F8" s="51">
+        <f>'SEAI-AEA_BioData'!K$55</f>
+        <v>20.636285468615647</v>
+      </c>
+      <c r="G8" s="51">
+        <f>'SEAI-AEA_BioData'!L$55</f>
+        <v>22.714244769274863</v>
+      </c>
+      <c r="H8" s="51">
+        <f>'SEAI-AEA_BioData'!M$55</f>
+        <v>25.174357504538072</v>
+      </c>
+      <c r="I8" s="51">
+        <f>'SEAI-AEA_BioData'!N$55</f>
+        <v>28.757045953950509</v>
+      </c>
+      <c r="J8" s="51">
+        <f>I8*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
+        <v>30.648956871973571</v>
+      </c>
+      <c r="K8" s="51">
+        <f>I8*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
+        <v>32.162485606392018</v>
+      </c>
+      <c r="L8" s="39"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="22" t="str">
+        <f>Processes!C27</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C9" s="22" t="str">
+        <f>Processes!D27</f>
+        <v>IMPBIODST1G_S1</v>
+      </c>
+      <c r="D9" s="22" t="str">
+        <f>Processes!E27</f>
+        <v>Import of Biodiesel 1st generation  - Step 1</v>
+      </c>
+      <c r="E9" s="22" t="str">
+        <f>Commodities!$C$32</f>
+        <v>BIODST1G</v>
+      </c>
+      <c r="F9" s="50">
+        <f>'SEAI-AEA_BioData'!K$25</f>
+        <v>31.360466227190216</v>
+      </c>
+      <c r="G9" s="50">
+        <f>'SEAI-AEA_BioData'!L$25</f>
+        <v>33.175695041559187</v>
+      </c>
+      <c r="H9" s="50">
+        <f>'SEAI-AEA_BioData'!M$25</f>
+        <v>31.862042610107956</v>
+      </c>
+      <c r="I9" s="50">
+        <f>'SEAI-AEA_BioData'!N$25</f>
+        <v>31.336581637527466</v>
+      </c>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="22"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="22" t="str">
+        <f>Processes!C28</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C10" s="22" t="str">
+        <f>Processes!D28</f>
+        <v>IMPBIODST1G_S2</v>
+      </c>
+      <c r="D10" s="22" t="str">
+        <f>Processes!E28</f>
+        <v>Import of Biodiesel 1st generation  - Step 2</v>
+      </c>
+      <c r="E10" s="22" t="str">
+        <f>Commodities!$C$32</f>
+        <v>BIODST1G</v>
+      </c>
+      <c r="F10" s="50">
+        <f>'SEAI-AEA_BioData'!K$35</f>
+        <v>32.650234068978691</v>
+      </c>
+      <c r="G10" s="50">
+        <f>'SEAI-AEA_BioData'!L$35</f>
+        <v>35.826884494124393</v>
+      </c>
+      <c r="H10" s="50">
+        <f>'SEAI-AEA_BioData'!M$35</f>
+        <v>35.97019203210089</v>
+      </c>
+      <c r="I10" s="50">
+        <f>'SEAI-AEA_BioData'!N$35</f>
+        <v>37.021113977261869</v>
+      </c>
+      <c r="J10" s="50">
+        <f>I10*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
+        <v>39.456713581029099</v>
+      </c>
+      <c r="K10" s="50">
+        <f>I10*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
+        <v>41.405193264042879</v>
+      </c>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="22" t="str">
+        <f>Processes!C29</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C11" s="22" t="str">
+        <f>Processes!D29</f>
+        <v>IMPBIODST1G_S3</v>
+      </c>
+      <c r="D11" s="22" t="str">
+        <f>Processes!E29</f>
+        <v>Import of Biodiesel 1st generation  - Step 3</v>
+      </c>
+      <c r="E11" s="22" t="str">
+        <f>Commodities!$C$32</f>
+        <v>BIODST1G</v>
+      </c>
+      <c r="F11" s="50">
+        <f>'SEAI-AEA_BioData'!K$46</f>
+        <v>33.916117321104423</v>
+      </c>
+      <c r="G11" s="50">
+        <f>'SEAI-AEA_BioData'!L$46</f>
+        <v>38.334766408713094</v>
+      </c>
+      <c r="H11" s="50">
+        <f>'SEAI-AEA_BioData'!M$46</f>
+        <v>40.460494888697809</v>
+      </c>
+      <c r="I11" s="50">
+        <f>'SEAI-AEA_BioData'!N$46</f>
+        <v>43.756568262157252</v>
+      </c>
+      <c r="J11" s="50">
+        <f>I11*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
+        <v>46.635289858351811</v>
+      </c>
+      <c r="K11" s="50">
+        <f>I11*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
+        <v>48.938267135307449</v>
+      </c>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="39" t="str">
+        <f>Processes!C30</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C12" s="39" t="str">
+        <f>Processes!D30</f>
+        <v>IMPBIODST1G_S4</v>
+      </c>
+      <c r="D12" s="39" t="str">
+        <f>Processes!E30</f>
+        <v>Import of Biodiesel 1st generation  - Step 4</v>
+      </c>
+      <c r="E12" s="39" t="str">
+        <f>Commodities!$C$32</f>
+        <v>BIODST1G</v>
+      </c>
+      <c r="F12" s="51">
+        <f>'SEAI-AEA_BioData'!K$57</f>
+        <v>35.540269418171391</v>
+      </c>
+      <c r="G12" s="51">
+        <f>'SEAI-AEA_BioData'!L$57</f>
+        <v>41.917454858125538</v>
+      </c>
+      <c r="H12" s="51">
+        <f>'SEAI-AEA_BioData'!M$57</f>
+        <v>46.527180663036205</v>
+      </c>
+      <c r="I12" s="51">
+        <f>'SEAI-AEA_BioData'!N$57</f>
+        <v>52.832712334002096</v>
+      </c>
+      <c r="J12" s="51">
+        <f>I12*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
+        <v>56.308548671765386</v>
+      </c>
+      <c r="K12" s="51">
+        <f>I12*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
+        <v>59.089217741976029</v>
+      </c>
+      <c r="L12" s="39"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="448" t="str">
+        <f>Processes!C32</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C13" s="448" t="str">
+        <f>Processes!D32</f>
+        <v>IMPBIOWPE_S1</v>
+      </c>
+      <c r="D13" s="448" t="str">
+        <f>Processes!E32</f>
+        <v>Import of Wood Pellets  - Step 1</v>
+      </c>
+      <c r="E13" s="448" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F13" s="445">
+        <f t="shared" ref="F13:K13" si="0">$F$67</f>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="G13" s="445">
+        <f t="shared" si="0"/>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="H13" s="445">
+        <f t="shared" si="0"/>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="I13" s="445">
+        <f t="shared" si="0"/>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="J13" s="445">
+        <f t="shared" si="0"/>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="K13" s="445">
+        <f t="shared" si="0"/>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="L13" s="448"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="448" t="str">
+        <f>Processes!C33</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C14" s="448" t="str">
+        <f>Processes!D33</f>
+        <v>IMPBIOWPE_S2</v>
+      </c>
+      <c r="D14" s="448" t="str">
+        <f>Processes!E33</f>
+        <v>Import of Wood Pellets  - Step 2</v>
+      </c>
+      <c r="E14" s="448" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F14" s="445">
+        <f t="shared" ref="F14:K14" si="1">$F$68</f>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="G14" s="445">
+        <f t="shared" si="1"/>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="H14" s="445">
+        <f t="shared" si="1"/>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="I14" s="445">
+        <f t="shared" si="1"/>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="J14" s="445">
+        <f t="shared" si="1"/>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="K14" s="445">
+        <f t="shared" si="1"/>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="L14" s="448"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="448" t="str">
+        <f>Processes!C34</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C15" s="448" t="str">
+        <f>Processes!D34</f>
+        <v>IMPBIOWPE_S3</v>
+      </c>
+      <c r="D15" s="448" t="str">
+        <f>Processes!E34</f>
+        <v>Import of Wood Pellets  - Step 3</v>
+      </c>
+      <c r="E15" s="448" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F15" s="445">
+        <f t="shared" ref="F15:K15" si="2">$F$69</f>
+        <v>10.166666666666666</v>
+      </c>
+      <c r="G15" s="445">
+        <f t="shared" si="2"/>
+        <v>10.166666666666666</v>
+      </c>
+      <c r="H15" s="445">
+        <f t="shared" si="2"/>
+        <v>10.166666666666666</v>
+      </c>
+      <c r="I15" s="445">
+        <f t="shared" si="2"/>
+        <v>10.166666666666666</v>
+      </c>
+      <c r="J15" s="445">
+        <f t="shared" si="2"/>
+        <v>10.166666666666666</v>
+      </c>
+      <c r="K15" s="445">
+        <f t="shared" si="2"/>
+        <v>10.166666666666666</v>
+      </c>
+      <c r="L15" s="448"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="443" t="str">
+        <f>Processes!C35</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C16" s="443" t="str">
+        <f>Processes!D35</f>
+        <v>IMPBIOWPE_S4</v>
+      </c>
+      <c r="D16" s="443" t="str">
+        <f>Processes!E35</f>
+        <v>Import of Wood Pellets  - Step 4</v>
+      </c>
+      <c r="E16" s="443" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F16" s="447">
+        <f t="shared" ref="F16:K16" si="3">$F$70</f>
+        <v>11.194444444444443</v>
+      </c>
+      <c r="G16" s="447">
+        <f t="shared" si="3"/>
+        <v>11.194444444444443</v>
+      </c>
+      <c r="H16" s="447">
+        <f t="shared" si="3"/>
+        <v>11.194444444444443</v>
+      </c>
+      <c r="I16" s="447">
+        <f t="shared" si="3"/>
+        <v>11.194444444444443</v>
+      </c>
+      <c r="J16" s="447">
+        <f t="shared" si="3"/>
+        <v>11.194444444444443</v>
+      </c>
+      <c r="K16" s="447">
+        <f t="shared" si="3"/>
+        <v>11.194444444444443</v>
+      </c>
+      <c r="L16" s="443"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="22" t="str">
+        <f>Processes!C36</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C17" s="22" t="str">
+        <f>Processes!D36</f>
+        <v>IMPBIOWCH_S1</v>
+      </c>
+      <c r="D17" s="22" t="str">
+        <f>Processes!E36</f>
+        <v>Import of Wood Chip  - Step 1</v>
+      </c>
+      <c r="E17" s="22" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F17" s="50">
+        <f>'SEAI-AEA_BioData'!K$19</f>
+        <v>5.2068405464794116</v>
+      </c>
+      <c r="G17" s="50">
+        <f>'SEAI-AEA_BioData'!L$19</f>
+        <v>4.1559186013184295</v>
+      </c>
+      <c r="H17" s="50">
+        <f>'SEAI-AEA_BioData'!M$19</f>
+        <v>3.5588038597496894</v>
+      </c>
+      <c r="I17" s="50">
+        <f>'SEAI-AEA_BioData'!N$19</f>
+        <v>3.3916117321104422</v>
+      </c>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="22" t="str">
+        <f>Processes!C37</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C18" s="22" t="str">
+        <f>Processes!D37</f>
+        <v>IMPBIOWCH_S2</v>
+      </c>
+      <c r="D18" s="22" t="str">
+        <f>Processes!E37</f>
+        <v>Import of Wood Chip  - Step 2</v>
+      </c>
+      <c r="E18" s="22" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F18" s="50">
+        <f>'SEAI-AEA_BioData'!K$40</f>
+        <v>5.3979172637814079</v>
+      </c>
+      <c r="G18" s="50">
+        <f>'SEAI-AEA_BioData'!L$40</f>
+        <v>4.4186490876086744</v>
+      </c>
+      <c r="H18" s="50">
+        <f>'SEAI-AEA_BioData'!M$40</f>
+        <v>3.9409572943536828</v>
+      </c>
+      <c r="I18" s="50">
+        <f>'SEAI-AEA_BioData'!N$40</f>
+        <v>3.8693035253654342</v>
+      </c>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="22" t="str">
+        <f>Processes!C38</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C19" s="22" t="str">
+        <f>Processes!D38</f>
+        <v>IMPBIOWCH_S3</v>
+      </c>
+      <c r="D19" s="22" t="str">
+        <f>Processes!E38</f>
+        <v>Import of Wood Chip  - Step 3</v>
+      </c>
+      <c r="E19" s="22" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F19" s="50">
+        <f>'SEAI-AEA_BioData'!K$29</f>
+        <v>6.1383395433266452</v>
+      </c>
+      <c r="G19" s="50">
+        <f>'SEAI-AEA_BioData'!L$29</f>
+        <v>5.039648418840164</v>
+      </c>
+      <c r="H19" s="50">
+        <f>'SEAI-AEA_BioData'!M$29</f>
+        <v>4.4664182669341734</v>
+      </c>
+      <c r="I19" s="50">
+        <f>'SEAI-AEA_BioData'!N$29</f>
+        <v>4.3708799082831753</v>
+      </c>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="39" t="str">
+        <f>Processes!C39</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C20" s="39" t="str">
+        <f>Processes!D39</f>
+        <v>IMPBIOWCH_S4</v>
+      </c>
+      <c r="D20" s="39" t="str">
+        <f>Processes!E39</f>
+        <v>Import of Wood Chip  - Step 4</v>
+      </c>
+      <c r="E20" s="39" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F20" s="51">
+        <f>'SEAI-AEA_BioData'!K$51</f>
+        <v>6.3771854399541414</v>
+      </c>
+      <c r="G20" s="51">
+        <f>'SEAI-AEA_BioData'!L$51</f>
+        <v>5.3979172637814079</v>
+      </c>
+      <c r="H20" s="51">
+        <f>'SEAI-AEA_BioData'!M$51</f>
+        <v>4.9918792395146649</v>
+      </c>
+      <c r="I20" s="51">
+        <f>'SEAI-AEA_BioData'!N$51</f>
+        <v>5.039648418840164</v>
+      </c>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="39"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="2:18" ht="18.75">
+      <c r="B22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="F22" s="5" t="str">
+        <f>Imports_Fossil!G3</f>
+        <v>~FI_T: IRE_PRICE</v>
+      </c>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+    </row>
+    <row r="23" spans="2:18" ht="30.75" customHeight="1">
+      <c r="B23" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="7" t="str">
+        <f>Imports_Fossil!H4</f>
+        <v>2018~MEUR2018</v>
+      </c>
+      <c r="H23" s="7" t="str">
+        <f>Imports_Fossil!I4</f>
+        <v>2019~MEUR2019</v>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f>Imports_Fossil!J4</f>
+        <v>2025~MEUR2019</v>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f>Imports_Fossil!K4</f>
+        <v>2030~MEUR2019</v>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f>Imports_Fossil!L4</f>
+        <v>2035~MEUR2019</v>
+      </c>
+      <c r="L23" s="7" t="str">
+        <f>Imports_Fossil!M4</f>
+        <v>2040~MEUR2019</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="26.25" thickBot="1">
+      <c r="B24" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="93"/>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="206" t="str">
+        <f>Processes!C31</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C25" s="206" t="str">
+        <f>Processes!D31</f>
+        <v>IMPBIOJKR_S1</v>
+      </c>
+      <c r="D25" s="206" t="str">
+        <f>Processes!E31</f>
+        <v>Import of Bio Jet Kerosene - Step 1</v>
+      </c>
+      <c r="E25" s="206" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="206" t="str">
+        <f>Commodities!C36</f>
+        <v>BIOJKR</v>
+      </c>
+      <c r="G25" s="207">
+        <f>Imports_Fossil!H18*1.6</f>
+        <v>26.566026131233826</v>
+      </c>
+      <c r="H25" s="207">
+        <f>Imports_Fossil!I16*1.6</f>
+        <v>25.964334287665327</v>
+      </c>
+      <c r="I25" s="207">
+        <f>Imports_Fossil!J16*1.6</f>
+        <v>29.261392609908548</v>
+      </c>
+      <c r="J25" s="207">
+        <f>Imports_Fossil!K16*1.6</f>
+        <v>31.322054061310553</v>
+      </c>
+      <c r="K25" s="207">
+        <f>Imports_Fossil!L16*1.6</f>
+        <v>33.382715512712565</v>
+      </c>
+      <c r="L25" s="207">
+        <f>Imports_Fossil!M16*1.6</f>
+        <v>35.031244673834173</v>
+      </c>
+      <c r="M25" s="270" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+    </row>
+    <row r="27" spans="2:18" ht="26.25">
+      <c r="B27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="F27" s="42"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="N27" s="129" t="s">
+        <v>153</v>
+      </c>
+      <c r="O27" s="127"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="127"/>
+      <c r="R27" s="127"/>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" ht="24.95" customHeight="1" thickBot="1">
+      <c r="B29" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="93"/>
+      <c r="N29" s="128"/>
+      <c r="O29" s="128"/>
+      <c r="P29" s="153" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q29" s="153"/>
+      <c r="R29" s="153" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B30" s="43" t="str">
+        <f t="shared" ref="B30" si="4">B13</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C30" s="43" t="str">
+        <f t="shared" ref="C30:D30" si="5">C13</f>
+        <v>IMPBIOWPE_S1</v>
+      </c>
+      <c r="D30" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>Import of Wood Pellets  - Step 1</v>
+      </c>
+      <c r="E30" s="22" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F30" s="94">
+        <f t="shared" ref="F30:F37" si="6">SUM($P$30:$R$30)</f>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G30" s="94">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+        <v>4.3203296703296701</v>
+      </c>
+      <c r="H30" s="94">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+        <v>4.4527472527472529</v>
+      </c>
+      <c r="I30" s="94">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+        <v>4.5851648351648358</v>
+      </c>
+      <c r="J30" s="94">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+        <v>4.6910989010989006</v>
+      </c>
+      <c r="K30" s="471" t="s">
+        <v>114</v>
+      </c>
+      <c r="N30" s="130" t="s">
+        <v>157</v>
+      </c>
+      <c r="O30" s="151" t="s">
+        <v>158</v>
+      </c>
+      <c r="P30" s="144">
+        <v>0.53</v>
+      </c>
+      <c r="Q30" s="144">
+        <v>1.91</v>
+      </c>
+      <c r="R30" s="144">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="B31" s="21" t="str">
+        <f t="shared" ref="B31" si="7">B14</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C31" s="21" t="str">
+        <f t="shared" ref="C31:D31" si="8">C14</f>
+        <v>IMPBIOWPE_S2</v>
+      </c>
+      <c r="D31" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>Import of Wood Pellets  - Step 2</v>
+      </c>
+      <c r="E31" s="22" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F31" s="41">
+        <f t="shared" si="6"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G31" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+        <v>4.3203296703296701</v>
+      </c>
+      <c r="H31" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+        <v>4.4527472527472529</v>
+      </c>
+      <c r="I31" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+        <v>4.5851648351648358</v>
+      </c>
+      <c r="J31" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+        <v>4.6910989010989006</v>
+      </c>
+      <c r="K31" s="472"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="149"/>
+      <c r="P31" s="149"/>
+      <c r="Q31" s="149"/>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="B32" s="21" t="str">
+        <f t="shared" ref="B32" si="9">B15</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C32" s="21" t="str">
+        <f t="shared" ref="C32:D32" si="10">C15</f>
+        <v>IMPBIOWPE_S3</v>
+      </c>
+      <c r="D32" s="21" t="str">
+        <f t="shared" si="10"/>
+        <v>Import of Wood Pellets  - Step 3</v>
+      </c>
+      <c r="E32" s="22" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F32" s="41">
+        <f t="shared" si="6"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G32" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+        <v>4.3203296703296701</v>
+      </c>
+      <c r="H32" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+        <v>4.4527472527472529</v>
+      </c>
+      <c r="I32" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+        <v>4.5851648351648358</v>
+      </c>
+      <c r="J32" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+        <v>4.6910989010989006</v>
+      </c>
+      <c r="K32" s="472"/>
+      <c r="M32" s="22"/>
+    </row>
+    <row r="33" spans="2:23">
+      <c r="B33" s="45" t="str">
+        <f t="shared" ref="B33" si="11">B16</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C33" s="45" t="str">
+        <f t="shared" ref="C33:D33" si="12">C16</f>
+        <v>IMPBIOWPE_S4</v>
+      </c>
+      <c r="D33" s="45" t="str">
+        <f t="shared" si="12"/>
+        <v>Import of Wood Pellets  - Step 4</v>
+      </c>
+      <c r="E33" s="39" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F33" s="28">
+        <f t="shared" si="6"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G33" s="28">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+        <v>4.3203296703296701</v>
+      </c>
+      <c r="H33" s="28">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+        <v>4.4527472527472529</v>
+      </c>
+      <c r="I33" s="28">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+        <v>4.5851648351648358</v>
+      </c>
+      <c r="J33" s="28">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+        <v>4.6910989010989006</v>
+      </c>
+      <c r="K33" s="472"/>
+      <c r="M33" s="22"/>
+    </row>
+    <row r="34" spans="2:23">
+      <c r="B34" s="95" t="str">
+        <f t="shared" ref="B34" si="13">B17</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C34" s="95" t="str">
+        <f t="shared" ref="C34:D34" si="14">C17</f>
+        <v>IMPBIOWCH_S1</v>
+      </c>
+      <c r="D34" s="95" t="str">
+        <f t="shared" si="14"/>
+        <v>Import of Wood Chip  - Step 1</v>
+      </c>
+      <c r="E34" s="22" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F34" s="96">
+        <f t="shared" si="6"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G34" s="96">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+        <v>4.3203296703296701</v>
+      </c>
+      <c r="H34" s="96">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+        <v>4.4527472527472529</v>
+      </c>
+      <c r="I34" s="96">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+        <v>4.5851648351648358</v>
+      </c>
+      <c r="J34" s="96">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+        <v>4.6910989010989006</v>
+      </c>
+      <c r="K34" s="472"/>
+      <c r="M34" s="22"/>
+    </row>
+    <row r="35" spans="2:23">
+      <c r="B35" s="21" t="str">
+        <f t="shared" ref="B35" si="15">B18</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C35" s="21" t="str">
+        <f t="shared" ref="C35:D35" si="16">C18</f>
+        <v>IMPBIOWCH_S2</v>
+      </c>
+      <c r="D35" s="21" t="str">
+        <f t="shared" si="16"/>
+        <v>Import of Wood Chip  - Step 2</v>
+      </c>
+      <c r="E35" s="22" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F35" s="41">
+        <f t="shared" si="6"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G35" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+        <v>4.3203296703296701</v>
+      </c>
+      <c r="H35" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+        <v>4.4527472527472529</v>
+      </c>
+      <c r="I35" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+        <v>4.5851648351648358</v>
+      </c>
+      <c r="J35" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+        <v>4.6910989010989006</v>
+      </c>
+      <c r="K35" s="472"/>
+      <c r="M35" s="22"/>
+    </row>
+    <row r="36" spans="2:23">
+      <c r="B36" s="21" t="str">
+        <f t="shared" ref="B36" si="17">B19</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C36" s="21" t="str">
+        <f t="shared" ref="C36:D36" si="18">C19</f>
+        <v>IMPBIOWCH_S3</v>
+      </c>
+      <c r="D36" s="21" t="str">
+        <f t="shared" si="18"/>
+        <v>Import of Wood Chip  - Step 3</v>
+      </c>
+      <c r="E36" s="22" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F36" s="41">
+        <f t="shared" si="6"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G36" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+        <v>4.3203296703296701</v>
+      </c>
+      <c r="H36" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+        <v>4.4527472527472529</v>
+      </c>
+      <c r="I36" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+        <v>4.5851648351648358</v>
+      </c>
+      <c r="J36" s="41">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+        <v>4.6910989010989006</v>
+      </c>
+      <c r="K36" s="472"/>
+      <c r="M36" s="22"/>
+    </row>
+    <row r="37" spans="2:23">
+      <c r="B37" s="45" t="str">
+        <f t="shared" ref="B37" si="19">B20</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C37" s="45" t="str">
+        <f t="shared" ref="C37:D37" si="20">C20</f>
+        <v>IMPBIOWCH_S4</v>
+      </c>
+      <c r="D37" s="45" t="str">
+        <f t="shared" si="20"/>
+        <v>Import of Wood Chip  - Step 4</v>
+      </c>
+      <c r="E37" s="39" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F37" s="28">
+        <f t="shared" si="6"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G37" s="28">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+        <v>4.3203296703296701</v>
+      </c>
+      <c r="H37" s="28">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+        <v>4.4527472527472529</v>
+      </c>
+      <c r="I37" s="28">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+        <v>4.5851648351648358</v>
+      </c>
+      <c r="J37" s="28">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+        <v>4.6910989010989006</v>
+      </c>
+      <c r="K37" s="473"/>
+      <c r="M37" s="22"/>
+    </row>
+    <row r="38" spans="2:23">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+    </row>
+    <row r="39" spans="2:23">
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+    </row>
+    <row r="40" spans="2:23" ht="18.75">
+      <c r="B40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+    </row>
+    <row r="41" spans="2:23">
+      <c r="B41" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="7">
+        <v>2018</v>
+      </c>
+      <c r="G41" s="7">
+        <v>2020</v>
+      </c>
+      <c r="H41" s="7">
+        <v>2025</v>
+      </c>
+      <c r="I41" s="7">
+        <v>2030</v>
+      </c>
+      <c r="J41" s="7">
+        <v>2035</v>
+      </c>
+      <c r="K41" s="7">
+        <v>2040</v>
+      </c>
+      <c r="L41" s="7">
+        <v>2045</v>
+      </c>
+      <c r="M41" s="7">
+        <v>2050</v>
+      </c>
+      <c r="N41" s="195">
+        <v>0</v>
+      </c>
+      <c r="O41" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="P41" s="7"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+    </row>
+    <row r="42" spans="2:23" ht="26.65" customHeight="1" thickBot="1">
+      <c r="B42" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+    </row>
+    <row r="43" spans="2:23">
+      <c r="B43" s="43" t="str">
+        <f>Imports_Bio!B5</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C43" s="43" t="str">
+        <f>Imports_Bio!C5</f>
+        <v>IMPBIOETH1G_S1</v>
+      </c>
+      <c r="D43" s="43" t="str">
+        <f>Imports_Bio!D5</f>
+        <v>Import of Ethanol 1st generation  - Step 1</v>
+      </c>
+      <c r="E43" s="44" t="str">
+        <f>Commodities!$C$30</f>
+        <v>BIOETH1G</v>
+      </c>
+      <c r="F43" s="146">
+        <f>'EB2018'!AJ3*Conversions!$C$2</f>
+        <v>0.95614079147278108</v>
+      </c>
+      <c r="G43" s="52">
+        <f>F43</f>
+        <v>0.95614079147278108</v>
+      </c>
+      <c r="H43" s="52">
+        <f t="shared" ref="H43:M43" si="21">G43</f>
+        <v>0.95614079147278108</v>
+      </c>
+      <c r="I43" s="52">
+        <f t="shared" si="21"/>
+        <v>0.95614079147278108</v>
+      </c>
+      <c r="J43" s="52">
+        <f t="shared" si="21"/>
+        <v>0.95614079147278108</v>
+      </c>
+      <c r="K43" s="52">
+        <f t="shared" si="21"/>
+        <v>0.95614079147278108</v>
+      </c>
+      <c r="L43" s="52">
+        <f t="shared" si="21"/>
+        <v>0.95614079147278108</v>
+      </c>
+      <c r="M43" s="52">
+        <f t="shared" si="21"/>
+        <v>0.95614079147278108</v>
+      </c>
+      <c r="N43" s="196">
+        <v>5</v>
+      </c>
+      <c r="O43" s="61" t="s">
+        <v>451</v>
+      </c>
+      <c r="P43" s="52"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+    </row>
+    <row r="44" spans="2:23">
+      <c r="B44" s="21" t="str">
+        <f>Imports_Bio!B6</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C44" s="21" t="str">
+        <f>Imports_Bio!C6</f>
+        <v>IMPBIOETH1G_S2</v>
+      </c>
+      <c r="D44" s="21" t="str">
+        <f>Imports_Bio!D6</f>
+        <v>Import of Ethanol 1st generation  - Step 2</v>
+      </c>
+      <c r="E44" s="22" t="str">
+        <f>Commodities!$C$30</f>
+        <v>BIOETH1G</v>
+      </c>
+      <c r="F44" s="148">
+        <v>0</v>
+      </c>
+      <c r="G44" s="50">
+        <f>G43*2</f>
+        <v>1.9122815829455622</v>
+      </c>
+      <c r="H44" s="50">
+        <f t="shared" ref="H44:M45" si="22">H43*2</f>
+        <v>1.9122815829455622</v>
+      </c>
+      <c r="I44" s="50">
+        <f t="shared" si="22"/>
+        <v>1.9122815829455622</v>
+      </c>
+      <c r="J44" s="50">
+        <f t="shared" si="22"/>
+        <v>1.9122815829455622</v>
+      </c>
+      <c r="K44" s="50">
+        <f t="shared" si="22"/>
+        <v>1.9122815829455622</v>
+      </c>
+      <c r="L44" s="50">
+        <f t="shared" si="22"/>
+        <v>1.9122815829455622</v>
+      </c>
+      <c r="M44" s="50">
+        <f t="shared" si="22"/>
+        <v>1.9122815829455622</v>
+      </c>
+      <c r="N44" s="197">
+        <v>5</v>
+      </c>
+      <c r="O44" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="P44" s="50"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+    </row>
+    <row r="45" spans="2:23">
+      <c r="B45" s="21" t="str">
+        <f>Imports_Bio!B7</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C45" s="21" t="str">
+        <f>Imports_Bio!C7</f>
+        <v>IMPBIOETH1G_S3</v>
+      </c>
+      <c r="D45" s="21" t="str">
+        <f>Imports_Bio!D7</f>
+        <v>Import of Ethanol 1st generation  - Step 3</v>
+      </c>
+      <c r="E45" s="22" t="str">
+        <f>Commodities!$C$30</f>
+        <v>BIOETH1G</v>
+      </c>
+      <c r="F45" s="148">
+        <v>0</v>
+      </c>
+      <c r="G45" s="50">
+        <f>G44*2</f>
+        <v>3.8245631658911243</v>
+      </c>
+      <c r="H45" s="50">
+        <f t="shared" si="22"/>
+        <v>3.8245631658911243</v>
+      </c>
+      <c r="I45" s="50">
+        <f t="shared" si="22"/>
+        <v>3.8245631658911243</v>
+      </c>
+      <c r="J45" s="50">
+        <f t="shared" si="22"/>
+        <v>3.8245631658911243</v>
+      </c>
+      <c r="K45" s="50">
+        <f t="shared" si="22"/>
+        <v>3.8245631658911243</v>
+      </c>
+      <c r="L45" s="50">
+        <f t="shared" si="22"/>
+        <v>3.8245631658911243</v>
+      </c>
+      <c r="M45" s="50">
+        <f t="shared" si="22"/>
+        <v>3.8245631658911243</v>
+      </c>
+      <c r="N45" s="197">
+        <v>5</v>
+      </c>
+      <c r="O45" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="P45" s="50"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+    </row>
+    <row r="46" spans="2:23">
+      <c r="B46" s="45" t="str">
+        <f>"*"&amp;Imports_Bio!B8</f>
+        <v>*IE,National</v>
+      </c>
+      <c r="C46" s="45" t="str">
+        <f>"*"&amp;Imports_Bio!C8</f>
+        <v>*IMPBIOETH1G_S4</v>
+      </c>
+      <c r="D46" s="45" t="str">
+        <f>Imports_Bio!D8</f>
+        <v>Import of Ethanol 1st generation  - Step 4</v>
+      </c>
+      <c r="E46" s="39" t="str">
+        <f>Commodities!$C$30</f>
+        <v>BIOETH1G</v>
+      </c>
+      <c r="F46" s="150">
+        <v>0</v>
+      </c>
+      <c r="G46" s="51">
+        <v>27.064417978971818</v>
+      </c>
+      <c r="H46" s="51">
+        <v>27.064417978971818</v>
+      </c>
+      <c r="I46" s="51">
+        <v>27.064417978971818</v>
+      </c>
+      <c r="J46" s="51">
+        <v>27.064417978971818</v>
+      </c>
+      <c r="K46" s="51">
+        <v>27.064417978971818</v>
+      </c>
+      <c r="L46" s="51">
+        <v>27.064417978971818</v>
+      </c>
+      <c r="M46" s="51">
+        <v>27.064417978971818</v>
+      </c>
+      <c r="N46" s="198">
+        <v>5</v>
+      </c>
+      <c r="O46" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="P46" s="51"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+    </row>
+    <row r="47" spans="2:23" ht="15.75" thickBot="1">
+      <c r="B47" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53">
+        <f>H47</f>
+        <v>59.810866344000004</v>
+      </c>
+      <c r="H47" s="53">
+        <f>I47</f>
+        <v>59.810866344000004</v>
+      </c>
+      <c r="I47" s="53">
+        <f>'SEAI-AEA_BioData'!G54*Conversions!$C$2/1000</f>
+        <v>59.810866344000004</v>
+      </c>
+      <c r="J47" s="53">
+        <f>I47</f>
+        <v>59.810866344000004</v>
+      </c>
+      <c r="K47" s="53">
+        <f t="shared" ref="K47:M47" si="23">J47</f>
+        <v>59.810866344000004</v>
+      </c>
+      <c r="L47" s="53">
+        <f t="shared" si="23"/>
+        <v>59.810866344000004</v>
+      </c>
+      <c r="M47" s="53">
+        <f t="shared" si="23"/>
+        <v>59.810866344000004</v>
+      </c>
+      <c r="N47" s="199"/>
+      <c r="O47" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="P47" s="53"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+    </row>
+    <row r="48" spans="2:23">
+      <c r="B48" s="43" t="str">
+        <f>Imports_Bio!B9</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C48" s="43" t="str">
+        <f>Imports_Bio!C9</f>
+        <v>IMPBIODST1G_S1</v>
+      </c>
+      <c r="D48" s="43" t="str">
+        <f>Imports_Bio!D9</f>
+        <v>Import of Biodiesel 1st generation  - Step 1</v>
+      </c>
+      <c r="E48" s="44" t="str">
+        <f>Commodities!$C$32</f>
+        <v>BIODST1G</v>
+      </c>
+      <c r="F48" s="146">
+        <f>'EB2018'!AI3*Conversions!$C$2</f>
+        <v>4.3883698143827266</v>
+      </c>
+      <c r="G48" s="52">
+        <f>F48</f>
+        <v>4.3883698143827266</v>
+      </c>
+      <c r="H48" s="52">
+        <f t="shared" ref="H48:M48" si="24">G48</f>
+        <v>4.3883698143827266</v>
+      </c>
+      <c r="I48" s="52">
+        <f t="shared" si="24"/>
+        <v>4.3883698143827266</v>
+      </c>
+      <c r="J48" s="52">
+        <f t="shared" si="24"/>
+        <v>4.3883698143827266</v>
+      </c>
+      <c r="K48" s="52">
+        <f t="shared" si="24"/>
+        <v>4.3883698143827266</v>
+      </c>
+      <c r="L48" s="52">
+        <f t="shared" si="24"/>
+        <v>4.3883698143827266</v>
+      </c>
+      <c r="M48" s="52">
+        <f t="shared" si="24"/>
+        <v>4.3883698143827266</v>
+      </c>
+      <c r="N48" s="196">
+        <v>5</v>
+      </c>
+      <c r="O48" s="61" t="s">
+        <v>451</v>
+      </c>
+      <c r="P48" s="52"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+    </row>
+    <row r="49" spans="2:18">
+      <c r="B49" s="21" t="str">
+        <f>Imports_Bio!B10</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C49" s="21" t="str">
+        <f>Imports_Bio!C10</f>
+        <v>IMPBIODST1G_S2</v>
+      </c>
+      <c r="D49" s="21" t="str">
+        <f>Imports_Bio!D10</f>
+        <v>Import of Biodiesel 1st generation  - Step 2</v>
+      </c>
+      <c r="E49" s="22" t="str">
+        <f>Commodities!$C$32</f>
+        <v>BIODST1G</v>
+      </c>
+      <c r="F49" s="148">
+        <v>0</v>
+      </c>
+      <c r="G49" s="50">
+        <f>G48*2</f>
+        <v>8.7767396287654531</v>
+      </c>
+      <c r="H49" s="50">
+        <f t="shared" ref="H49:M50" si="25">H48*2</f>
+        <v>8.7767396287654531</v>
+      </c>
+      <c r="I49" s="50">
+        <f t="shared" si="25"/>
+        <v>8.7767396287654531</v>
+      </c>
+      <c r="J49" s="50">
+        <f t="shared" si="25"/>
+        <v>8.7767396287654531</v>
+      </c>
+      <c r="K49" s="50">
+        <f t="shared" si="25"/>
+        <v>8.7767396287654531</v>
+      </c>
+      <c r="L49" s="50">
+        <f t="shared" si="25"/>
+        <v>8.7767396287654531</v>
+      </c>
+      <c r="M49" s="50">
+        <f t="shared" si="25"/>
+        <v>8.7767396287654531</v>
+      </c>
+      <c r="N49" s="197">
+        <v>5</v>
+      </c>
+      <c r="O49" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="P49" s="50"/>
+      <c r="R49" s="25"/>
+    </row>
+    <row r="50" spans="2:18">
+      <c r="B50" s="21" t="str">
+        <f>Imports_Bio!B11</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C50" s="21" t="str">
+        <f>Imports_Bio!C11</f>
+        <v>IMPBIODST1G_S3</v>
+      </c>
+      <c r="D50" s="21" t="str">
+        <f>Imports_Bio!D11</f>
+        <v>Import of Biodiesel 1st generation  - Step 3</v>
+      </c>
+      <c r="E50" s="22" t="str">
+        <f>Commodities!$C$32</f>
+        <v>BIODST1G</v>
+      </c>
+      <c r="F50" s="148">
+        <v>0</v>
+      </c>
+      <c r="G50" s="50">
+        <f>G49*2</f>
+        <v>17.553479257530906</v>
+      </c>
+      <c r="H50" s="50">
+        <f t="shared" si="25"/>
+        <v>17.553479257530906</v>
+      </c>
+      <c r="I50" s="50">
+        <f t="shared" si="25"/>
+        <v>17.553479257530906</v>
+      </c>
+      <c r="J50" s="50">
+        <f t="shared" si="25"/>
+        <v>17.553479257530906</v>
+      </c>
+      <c r="K50" s="50">
+        <f t="shared" si="25"/>
+        <v>17.553479257530906</v>
+      </c>
+      <c r="L50" s="50">
+        <f t="shared" si="25"/>
+        <v>17.553479257530906</v>
+      </c>
+      <c r="M50" s="50">
+        <f t="shared" si="25"/>
+        <v>17.553479257530906</v>
+      </c>
+      <c r="N50" s="197">
+        <v>5</v>
+      </c>
+      <c r="O50" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="P50" s="50"/>
+      <c r="R50" s="25"/>
+    </row>
+    <row r="51" spans="2:18">
+      <c r="B51" s="45" t="str">
+        <f>"*"&amp;Imports_Bio!B12</f>
+        <v>*IE,National</v>
+      </c>
+      <c r="C51" s="45" t="str">
+        <f>"*"&amp;Imports_Bio!C12</f>
+        <v>*IMPBIODST1G_S4</v>
+      </c>
+      <c r="D51" s="45" t="str">
+        <f>Imports_Bio!D12</f>
+        <v>Import of Biodiesel 1st generation  - Step 4</v>
+      </c>
+      <c r="E51" s="39" t="str">
+        <f>Commodities!$C$32</f>
+        <v>BIODST1G</v>
+      </c>
+      <c r="F51" s="150">
+        <v>0</v>
+      </c>
+      <c r="G51" s="51">
+        <f>G52-SUM(G48:G50)</f>
+        <v>72.040001193884791</v>
+      </c>
+      <c r="H51" s="51">
+        <f t="shared" ref="H51:M51" si="26">H52-SUM(H48:H50)</f>
+        <v>72.040001193884791</v>
+      </c>
+      <c r="I51" s="51">
+        <f t="shared" si="26"/>
+        <v>72.040001193884791</v>
+      </c>
+      <c r="J51" s="51">
+        <f t="shared" si="26"/>
+        <v>72.040001193884791</v>
+      </c>
+      <c r="K51" s="51">
+        <f t="shared" si="26"/>
+        <v>72.040001193884791</v>
+      </c>
+      <c r="L51" s="51">
+        <f t="shared" si="26"/>
+        <v>72.040001193884791</v>
+      </c>
+      <c r="M51" s="51">
+        <f t="shared" si="26"/>
+        <v>72.040001193884791</v>
+      </c>
+      <c r="N51" s="198">
+        <v>5</v>
+      </c>
+      <c r="O51" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="P51" s="51"/>
+      <c r="R51" s="25"/>
+    </row>
+    <row r="52" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B52" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="54">
+        <f>H52</f>
+        <v>102.75858989456388</v>
+      </c>
+      <c r="H52" s="54">
+        <f>I52</f>
+        <v>102.75858989456388</v>
+      </c>
+      <c r="I52" s="54">
+        <f>2727.05194883825*Conversions!$C$2*0.9</f>
+        <v>102.75858989456388</v>
+      </c>
+      <c r="J52" s="54">
+        <f>I52</f>
+        <v>102.75858989456388</v>
+      </c>
+      <c r="K52" s="54">
+        <f t="shared" ref="K52:M52" si="27">J52</f>
+        <v>102.75858989456388</v>
+      </c>
+      <c r="L52" s="54">
+        <f t="shared" si="27"/>
+        <v>102.75858989456388</v>
+      </c>
+      <c r="M52" s="54">
+        <f t="shared" si="27"/>
+        <v>102.75858989456388</v>
+      </c>
+      <c r="N52" s="199"/>
+      <c r="O52" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="P52" s="53"/>
+      <c r="R52" s="25"/>
+    </row>
+    <row r="53" spans="2:18">
+      <c r="B53" s="446" t="str">
+        <f>Imports_Bio!B13</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C53" s="446" t="str">
+        <f>Imports_Bio!C13</f>
+        <v>IMPBIOWPE_S1</v>
+      </c>
+      <c r="D53" s="446" t="str">
+        <f>Imports_Bio!D13</f>
+        <v>Import of Wood Pellets  - Step 1</v>
+      </c>
+      <c r="E53" s="448" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F53" s="444">
+        <f>'EB2018'!AE3*Conversions!$C$2*Imports_Bio!$R$53</f>
+        <v>0.71165055175994518</v>
+      </c>
+      <c r="G53" s="445">
+        <f>G67</f>
+        <v>1.8</v>
+      </c>
+      <c r="H53" s="445">
+        <f t="shared" ref="H53:M53" si="28">H67</f>
+        <v>1.8</v>
+      </c>
+      <c r="I53" s="445">
+        <f t="shared" si="28"/>
+        <v>1.8</v>
+      </c>
+      <c r="J53" s="445">
+        <f t="shared" si="28"/>
+        <v>1.8</v>
+      </c>
+      <c r="K53" s="445">
+        <f t="shared" si="28"/>
+        <v>3.6</v>
+      </c>
+      <c r="L53" s="445">
+        <f t="shared" si="28"/>
+        <v>7.2</v>
+      </c>
+      <c r="M53" s="445">
+        <f t="shared" si="28"/>
+        <v>7.2</v>
+      </c>
+      <c r="N53" s="442">
+        <v>5</v>
+      </c>
+      <c r="O53" s="441" t="s">
+        <v>218</v>
+      </c>
+      <c r="P53" s="52"/>
+      <c r="R53" s="147">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18">
+      <c r="B54" s="449" t="str">
+        <f>Imports_Bio!B14</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C54" s="449" t="str">
+        <f>Imports_Bio!C14</f>
+        <v>IMPBIOWPE_S2</v>
+      </c>
+      <c r="D54" s="449" t="str">
+        <f>Imports_Bio!D14</f>
+        <v>Import of Wood Pellets  - Step 2</v>
+      </c>
+      <c r="E54" s="448" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F54" s="450">
+        <v>0</v>
+      </c>
+      <c r="G54" s="445">
+        <f t="shared" ref="G54:M56" si="29">G68</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="445">
+        <f t="shared" si="29"/>
+        <v>3.6</v>
+      </c>
+      <c r="I54" s="445">
+        <f t="shared" si="29"/>
+        <v>18</v>
+      </c>
+      <c r="J54" s="445">
+        <f t="shared" si="29"/>
+        <v>36</v>
+      </c>
+      <c r="K54" s="445">
+        <f t="shared" si="29"/>
+        <v>54</v>
+      </c>
+      <c r="L54" s="445">
+        <f t="shared" si="29"/>
+        <v>61.2</v>
+      </c>
+      <c r="M54" s="445">
+        <f t="shared" si="29"/>
+        <v>61.2</v>
+      </c>
+      <c r="N54" s="451">
+        <v>5</v>
+      </c>
+      <c r="O54" s="452" t="s">
+        <v>647</v>
+      </c>
+      <c r="P54" s="50"/>
+      <c r="R54" s="25"/>
+    </row>
+    <row r="55" spans="2:18">
+      <c r="B55" s="449" t="str">
+        <f>Imports_Bio!B15</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C55" s="449" t="str">
+        <f>Imports_Bio!C15</f>
+        <v>IMPBIOWPE_S3</v>
+      </c>
+      <c r="D55" s="449" t="str">
+        <f>Imports_Bio!D15</f>
+        <v>Import of Wood Pellets  - Step 3</v>
+      </c>
+      <c r="E55" s="448" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F55" s="450">
+        <v>0</v>
+      </c>
+      <c r="G55" s="445">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="445">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="445">
+        <f t="shared" si="29"/>
+        <v>54</v>
+      </c>
+      <c r="J55" s="445">
+        <f t="shared" si="29"/>
+        <v>54</v>
+      </c>
+      <c r="K55" s="445">
+        <f t="shared" si="29"/>
+        <v>54</v>
+      </c>
+      <c r="L55" s="445">
+        <f t="shared" si="29"/>
+        <v>54</v>
+      </c>
+      <c r="M55" s="445">
+        <f t="shared" si="29"/>
+        <v>54</v>
+      </c>
+      <c r="N55" s="451">
+        <v>5</v>
+      </c>
+      <c r="O55" s="452" t="s">
+        <v>647</v>
+      </c>
+      <c r="P55" s="50"/>
+      <c r="R55" s="25"/>
+    </row>
+    <row r="56" spans="2:18">
+      <c r="B56" s="453" t="str">
+        <f>B55</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C56" s="449" t="str">
+        <f>Imports_Bio!C16</f>
+        <v>IMPBIOWPE_S4</v>
+      </c>
+      <c r="D56" s="453" t="str">
+        <f>Imports_Bio!D16</f>
+        <v>Import of Wood Pellets  - Step 4</v>
+      </c>
+      <c r="E56" s="443" t="str">
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
+      </c>
+      <c r="F56" s="454">
+        <v>0</v>
+      </c>
+      <c r="G56" s="447">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="447">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="447">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="447">
+        <f t="shared" si="29"/>
+        <v>3.6</v>
+      </c>
+      <c r="K56" s="447">
+        <f t="shared" si="29"/>
+        <v>36</v>
+      </c>
+      <c r="L56" s="447">
+        <f t="shared" si="29"/>
+        <v>36</v>
+      </c>
+      <c r="M56" s="447">
+        <f t="shared" si="29"/>
+        <v>36</v>
+      </c>
+      <c r="N56" s="455">
+        <v>5</v>
+      </c>
+      <c r="O56" s="452" t="s">
+        <v>647</v>
+      </c>
+      <c r="P56" s="51"/>
+      <c r="R56" s="25"/>
+    </row>
+    <row r="57" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B57" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="462"/>
+      <c r="G57" s="462">
+        <f>SUM(G53:G56)</f>
+        <v>1.8</v>
+      </c>
+      <c r="H57" s="462">
+        <f t="shared" ref="H57:M57" si="30">SUM(H53:H56)</f>
+        <v>5.4</v>
+      </c>
+      <c r="I57" s="462">
+        <f t="shared" si="30"/>
+        <v>73.8</v>
+      </c>
+      <c r="J57" s="462">
+        <f t="shared" si="30"/>
+        <v>95.399999999999991</v>
+      </c>
+      <c r="K57" s="462">
+        <f t="shared" si="30"/>
+        <v>147.6</v>
+      </c>
+      <c r="L57" s="462">
+        <f t="shared" si="30"/>
+        <v>158.4</v>
+      </c>
+      <c r="M57" s="462">
+        <f t="shared" si="30"/>
+        <v>158.4</v>
+      </c>
+      <c r="N57" s="199"/>
+      <c r="O57" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="P57" s="53"/>
+      <c r="R57" s="25"/>
+    </row>
+    <row r="58" spans="2:18">
+      <c r="B58" s="43" t="str">
+        <f>Imports_Bio!B17</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C58" s="43" t="str">
+        <f>Imports_Bio!C17</f>
+        <v>IMPBIOWCH_S1</v>
+      </c>
+      <c r="D58" s="43" t="str">
+        <f>Imports_Bio!D17</f>
+        <v>Import of Wood Chip  - Step 1</v>
+      </c>
+      <c r="E58" s="44" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F58" s="146">
+        <f>'EB2018'!AE3*Conversions!$C$2*Imports_Bio!$R$58</f>
+        <v>0.30499309361140514</v>
+      </c>
+      <c r="G58" s="52">
+        <f>MAX(F58:F58)</f>
+        <v>0.30499309361140514</v>
+      </c>
+      <c r="H58" s="52">
+        <f>G58</f>
+        <v>0.30499309361140514</v>
+      </c>
+      <c r="I58" s="52">
+        <f t="shared" ref="I58:M58" si="31">H58</f>
+        <v>0.30499309361140514</v>
+      </c>
+      <c r="J58" s="52">
+        <f t="shared" si="31"/>
+        <v>0.30499309361140514</v>
+      </c>
+      <c r="K58" s="52">
+        <f t="shared" si="31"/>
+        <v>0.30499309361140514</v>
+      </c>
+      <c r="L58" s="52">
+        <f t="shared" si="31"/>
+        <v>0.30499309361140514</v>
+      </c>
+      <c r="M58" s="52">
+        <f t="shared" si="31"/>
+        <v>0.30499309361140514</v>
+      </c>
+      <c r="N58" s="196">
+        <v>5</v>
+      </c>
+      <c r="O58" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="P58" s="52"/>
+      <c r="R58" s="145">
+        <f>1-R53</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18">
+      <c r="B59" s="21" t="str">
+        <f>"*"&amp;Imports_Bio!B18</f>
+        <v>*IE,National</v>
+      </c>
+      <c r="C59" s="21" t="str">
+        <f>Imports_Bio!C18</f>
+        <v>IMPBIOWCH_S2</v>
+      </c>
+      <c r="D59" s="21" t="str">
+        <f>Imports_Bio!D18</f>
+        <v>Import of Wood Chip  - Step 2</v>
+      </c>
+      <c r="E59" s="22" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F59" s="148">
+        <v>0</v>
+      </c>
+      <c r="G59" s="50">
+        <f>G58*2</f>
+        <v>0.60998618722281028</v>
+      </c>
+      <c r="H59" s="50">
+        <f t="shared" ref="H59:M60" si="32">H58*2</f>
+        <v>0.60998618722281028</v>
+      </c>
+      <c r="I59" s="50">
+        <f t="shared" si="32"/>
+        <v>0.60998618722281028</v>
+      </c>
+      <c r="J59" s="50">
+        <f t="shared" si="32"/>
+        <v>0.60998618722281028</v>
+      </c>
+      <c r="K59" s="50">
+        <f t="shared" si="32"/>
+        <v>0.60998618722281028</v>
+      </c>
+      <c r="L59" s="50">
+        <f t="shared" si="32"/>
+        <v>0.60998618722281028</v>
+      </c>
+      <c r="M59" s="50">
+        <f t="shared" si="32"/>
+        <v>0.60998618722281028</v>
+      </c>
+      <c r="N59" s="197">
+        <v>5</v>
+      </c>
+      <c r="O59" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="P59" s="50"/>
+      <c r="R59" s="25"/>
+    </row>
+    <row r="60" spans="2:18">
+      <c r="B60" s="21" t="str">
+        <f>"*"&amp;Imports_Bio!B19</f>
+        <v>*IE,National</v>
+      </c>
+      <c r="C60" s="21" t="str">
+        <f>Imports_Bio!C19</f>
+        <v>IMPBIOWCH_S3</v>
+      </c>
+      <c r="D60" s="21" t="str">
+        <f>Imports_Bio!D19</f>
+        <v>Import of Wood Chip  - Step 3</v>
+      </c>
+      <c r="E60" s="22" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F60" s="148">
+        <v>0</v>
+      </c>
+      <c r="G60" s="50">
+        <f>G59*2</f>
+        <v>1.2199723744456206</v>
+      </c>
+      <c r="H60" s="50">
+        <f t="shared" si="32"/>
+        <v>1.2199723744456206</v>
+      </c>
+      <c r="I60" s="50">
+        <f t="shared" si="32"/>
+        <v>1.2199723744456206</v>
+      </c>
+      <c r="J60" s="50">
+        <f t="shared" si="32"/>
+        <v>1.2199723744456206</v>
+      </c>
+      <c r="K60" s="50">
+        <f t="shared" si="32"/>
+        <v>1.2199723744456206</v>
+      </c>
+      <c r="L60" s="50">
+        <f t="shared" si="32"/>
+        <v>1.2199723744456206</v>
+      </c>
+      <c r="M60" s="50">
+        <f t="shared" si="32"/>
+        <v>1.2199723744456206</v>
+      </c>
+      <c r="N60" s="197">
+        <v>5</v>
+      </c>
+      <c r="O60" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="P60" s="50"/>
+      <c r="R60" s="25"/>
+    </row>
+    <row r="61" spans="2:18">
+      <c r="B61" s="45" t="str">
+        <f>"*"&amp;Imports_Bio!B20</f>
+        <v>*IE,National</v>
+      </c>
+      <c r="C61" s="45" t="str">
+        <f>"*"&amp;Imports_Bio!C20</f>
+        <v>*IMPBIOWCH_S4</v>
+      </c>
+      <c r="D61" s="45" t="str">
+        <f>Imports_Bio!D20</f>
+        <v>Import of Wood Chip  - Step 4</v>
+      </c>
+      <c r="E61" s="39" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F61" s="150">
+        <v>0</v>
+      </c>
+      <c r="G61" s="51">
+        <f>G62-SUM(G58:G60)</f>
+        <v>34.580521056720166</v>
+      </c>
+      <c r="H61" s="51">
+        <f t="shared" ref="H61:M61" si="33">H62-SUM(H58:H60)</f>
+        <v>34.580521056720166</v>
+      </c>
+      <c r="I61" s="51">
+        <f t="shared" si="33"/>
+        <v>34.580521056720166</v>
+      </c>
+      <c r="J61" s="51">
+        <f t="shared" si="33"/>
+        <v>34.580521056720166</v>
+      </c>
+      <c r="K61" s="51">
+        <f t="shared" si="33"/>
+        <v>34.580521056720166</v>
+      </c>
+      <c r="L61" s="51">
+        <f t="shared" si="33"/>
+        <v>34.580521056720166</v>
+      </c>
+      <c r="M61" s="51">
+        <f t="shared" si="33"/>
+        <v>34.580521056720166</v>
+      </c>
+      <c r="N61" s="198">
+        <v>5</v>
+      </c>
+      <c r="O61" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="P61" s="51"/>
+      <c r="R61" s="25"/>
+    </row>
+    <row r="62" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B62" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54">
+        <f>H62</f>
+        <v>36.715472712</v>
+      </c>
+      <c r="H62" s="54">
+        <f>I62</f>
+        <v>36.715472712</v>
+      </c>
+      <c r="I62" s="54">
+        <f>'SEAI-AEA_BioData'!G50*Conversions!$C$2/1000</f>
+        <v>36.715472712</v>
+      </c>
+      <c r="J62" s="54">
+        <f>I62</f>
+        <v>36.715472712</v>
+      </c>
+      <c r="K62" s="54">
+        <f>J62</f>
+        <v>36.715472712</v>
+      </c>
+      <c r="L62" s="54">
+        <f>K62</f>
+        <v>36.715472712</v>
+      </c>
+      <c r="M62" s="54">
+        <f>L62</f>
+        <v>36.715472712</v>
+      </c>
+      <c r="N62" s="200"/>
+      <c r="O62" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="P62" s="54"/>
+      <c r="R62" s="25"/>
+    </row>
+    <row r="65" spans="4:13">
+      <c r="G65" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="66" spans="4:13" ht="15.75" thickBot="1">
+      <c r="D66" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="E66" s="461" t="s">
+        <v>643</v>
+      </c>
+      <c r="F66" s="461" t="s">
+        <v>644</v>
+      </c>
+      <c r="G66" s="461">
+        <v>2020</v>
+      </c>
+      <c r="H66" s="461">
+        <v>2025</v>
+      </c>
+      <c r="I66" s="461">
+        <v>2030</v>
+      </c>
+      <c r="J66" s="461">
+        <v>2035</v>
+      </c>
+      <c r="K66" s="461">
+        <v>2040</v>
+      </c>
+      <c r="L66" s="461">
+        <v>2045</v>
+      </c>
+      <c r="M66" s="461">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="67" spans="4:13">
+      <c r="D67" s="43" t="s">
+        <v>639</v>
+      </c>
+      <c r="E67" s="23">
+        <f>34.7</f>
+        <v>34.700000000000003</v>
+      </c>
+      <c r="F67" s="456">
+        <f>E67/3.6</f>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="G67" s="23">
+        <f>500*3.6/1000</f>
+        <v>1.8</v>
+      </c>
+      <c r="H67" s="23">
+        <f>500*3.6/1000</f>
+        <v>1.8</v>
+      </c>
+      <c r="I67" s="23">
+        <f>500*3.6/1000</f>
+        <v>1.8</v>
+      </c>
+      <c r="J67" s="23">
+        <f>500*3.6/1000</f>
+        <v>1.8</v>
+      </c>
+      <c r="K67" s="23">
+        <f>1000*3.6/1000</f>
+        <v>3.6</v>
+      </c>
+      <c r="L67" s="23">
+        <f>2000*3.6/1000</f>
+        <v>7.2</v>
+      </c>
+      <c r="M67" s="23">
+        <f>2000*3.6/1000</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="68" spans="4:13">
+      <c r="D68" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="E68" s="23">
+        <f>34.7</f>
+        <v>34.700000000000003</v>
+      </c>
+      <c r="F68" s="456">
+        <f t="shared" ref="F68:F70" si="34">E68/3.6</f>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="G68" s="23">
+        <v>0</v>
+      </c>
+      <c r="H68" s="23">
+        <f>1000*3.6/1000</f>
+        <v>3.6</v>
+      </c>
+      <c r="I68" s="23">
+        <f>5000*3.6/1000</f>
+        <v>18</v>
+      </c>
+      <c r="J68" s="23">
+        <f>10000*3.6/1000</f>
+        <v>36</v>
+      </c>
+      <c r="K68" s="23">
+        <f>15000*3.6/1000</f>
+        <v>54</v>
+      </c>
+      <c r="L68" s="23">
+        <f>17000*3.6/1000</f>
+        <v>61.2</v>
+      </c>
+      <c r="M68" s="23">
+        <f>17000*3.6/1000</f>
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="69" spans="4:13">
+      <c r="D69" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="E69" s="23">
+        <f>36.6</f>
+        <v>36.6</v>
+      </c>
+      <c r="F69" s="456">
+        <f t="shared" si="34"/>
+        <v>10.166666666666666</v>
+      </c>
+      <c r="G69" s="23">
+        <v>0</v>
+      </c>
+      <c r="H69" s="23">
+        <v>0</v>
+      </c>
+      <c r="I69" s="23">
+        <f>15000*3.6/1000</f>
+        <v>54</v>
+      </c>
+      <c r="J69" s="23">
+        <f>I69</f>
+        <v>54</v>
+      </c>
+      <c r="K69" s="23">
+        <f t="shared" ref="K69:M69" si="35">J69</f>
+        <v>54</v>
+      </c>
+      <c r="L69" s="23">
+        <f t="shared" si="35"/>
+        <v>54</v>
+      </c>
+      <c r="M69" s="23">
+        <f t="shared" si="35"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="4:13">
+      <c r="D70" s="45" t="s">
+        <v>642</v>
+      </c>
+      <c r="E70" s="27">
+        <f>40.3</f>
+        <v>40.299999999999997</v>
+      </c>
+      <c r="F70" s="457">
+        <f t="shared" si="34"/>
+        <v>11.194444444444443</v>
+      </c>
+      <c r="G70" s="27">
+        <v>0</v>
+      </c>
+      <c r="H70" s="27">
+        <v>0</v>
+      </c>
+      <c r="I70" s="27">
+        <v>0</v>
+      </c>
+      <c r="J70" s="27">
+        <f>1000*3.6/1000</f>
+        <v>3.6</v>
+      </c>
+      <c r="K70" s="27">
+        <f>10000*3.6/1000</f>
+        <v>36</v>
+      </c>
+      <c r="L70" s="27">
+        <f>K70</f>
+        <v>36</v>
+      </c>
+      <c r="M70" s="27">
+        <f>L70</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="4:13">
+      <c r="E71" s="66"/>
+      <c r="F71" s="66" t="s">
+        <v>646</v>
+      </c>
+      <c r="G71" s="66">
+        <f>SUM(G67:G70)</f>
+        <v>1.8</v>
+      </c>
+      <c r="H71" s="66">
+        <f t="shared" ref="H71:M71" si="36">SUM(H67:H70)</f>
+        <v>5.4</v>
+      </c>
+      <c r="I71" s="66">
+        <f t="shared" si="36"/>
+        <v>73.8</v>
+      </c>
+      <c r="J71" s="66">
+        <f t="shared" si="36"/>
+        <v>95.399999999999991</v>
+      </c>
+      <c r="K71" s="66">
+        <f t="shared" si="36"/>
+        <v>147.6</v>
+      </c>
+      <c r="L71" s="66">
+        <f t="shared" si="36"/>
+        <v>158.4</v>
+      </c>
+      <c r="M71" s="66">
+        <f t="shared" si="36"/>
+        <v>158.4</v>
+      </c>
+    </row>
+    <row r="72" spans="4:13">
+      <c r="D72" s="459" t="s">
+        <v>648</v>
+      </c>
+      <c r="E72" s="460" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="79" spans="4:13">
+      <c r="D79" s="458"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K30:K37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:O35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B2" sqref="B2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="11" customWidth="1"/>
@@ -10629,11 +14173,11 @@
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
-      <c r="F9" s="450" t="s">
+      <c r="F9" s="474" t="s">
         <v>223</v>
       </c>
-      <c r="G9" s="450"/>
-      <c r="H9" s="450"/>
+      <c r="G9" s="474"/>
+      <c r="H9" s="474"/>
       <c r="I9" s="192" t="s">
         <v>222</v>
       </c>
@@ -11046,7 +14590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:R42"/>
@@ -11059,7 +14603,7 @@
   <cols>
     <col min="1" max="1" width="9.140625" style="22"/>
     <col min="2" max="2" width="12.85546875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="22" customWidth="1"/>
     <col min="4" max="4" width="69.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="22" customWidth="1"/>
@@ -11139,7 +14683,7 @@
       <c r="F5" s="50">
         <v>10</v>
       </c>
-      <c r="G5" s="451" t="s">
+      <c r="G5" s="475" t="s">
         <v>142</v>
       </c>
       <c r="R5" s="23"/>
@@ -11164,7 +14708,7 @@
       <c r="F6" s="50">
         <v>10</v>
       </c>
-      <c r="G6" s="452"/>
+      <c r="G6" s="476"/>
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" ht="15">
@@ -11187,7 +14731,7 @@
       <c r="F7" s="50">
         <v>10</v>
       </c>
-      <c r="G7" s="452"/>
+      <c r="G7" s="476"/>
       <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" ht="15">
@@ -11210,7 +14754,7 @@
       <c r="F8" s="50">
         <v>10</v>
       </c>
-      <c r="G8" s="452"/>
+      <c r="G8" s="476"/>
       <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" ht="15">
@@ -11233,7 +14777,7 @@
       <c r="F9" s="50">
         <v>10</v>
       </c>
-      <c r="G9" s="452"/>
+      <c r="G9" s="476"/>
       <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" ht="15">
@@ -11256,7 +14800,7 @@
       <c r="F10" s="50">
         <v>10</v>
       </c>
-      <c r="G10" s="452"/>
+      <c r="G10" s="476"/>
       <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" ht="15">
@@ -11279,7 +14823,7 @@
       <c r="F11" s="50">
         <v>10</v>
       </c>
-      <c r="G11" s="452"/>
+      <c r="G11" s="476"/>
       <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" ht="15">
@@ -11302,7 +14846,7 @@
       <c r="F12" s="50">
         <v>10</v>
       </c>
-      <c r="G12" s="452"/>
+      <c r="G12" s="476"/>
       <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" ht="15">
@@ -11325,7 +14869,7 @@
       <c r="F13" s="50">
         <v>10</v>
       </c>
-      <c r="G13" s="452"/>
+      <c r="G13" s="476"/>
       <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" ht="15">
@@ -11348,7 +14892,7 @@
       <c r="F14" s="51">
         <v>10</v>
       </c>
-      <c r="G14" s="452"/>
+      <c r="G14" s="476"/>
       <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" ht="15">
@@ -11371,7 +14915,7 @@
       <c r="F15" s="50">
         <v>10</v>
       </c>
-      <c r="G15" s="452"/>
+      <c r="G15" s="476"/>
       <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" ht="15">
@@ -11394,7 +14938,7 @@
       <c r="F16" s="50">
         <v>10</v>
       </c>
-      <c r="G16" s="452"/>
+      <c r="G16" s="476"/>
       <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" ht="15">
@@ -11417,7 +14961,7 @@
       <c r="F17" s="50">
         <v>10</v>
       </c>
-      <c r="G17" s="452"/>
+      <c r="G17" s="476"/>
       <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" ht="15">
@@ -11440,7 +14984,7 @@
       <c r="F18" s="50">
         <v>10</v>
       </c>
-      <c r="G18" s="452"/>
+      <c r="G18" s="476"/>
       <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" ht="15">
@@ -11463,7 +15007,7 @@
       <c r="F19" s="50">
         <v>10</v>
       </c>
-      <c r="G19" s="452"/>
+      <c r="G19" s="476"/>
       <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" ht="15">
@@ -11486,7 +15030,7 @@
       <c r="F20" s="50">
         <v>10</v>
       </c>
-      <c r="G20" s="452"/>
+      <c r="G20" s="476"/>
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18">
@@ -11509,7 +15053,7 @@
       <c r="F21" s="50">
         <v>10</v>
       </c>
-      <c r="G21" s="452"/>
+      <c r="G21" s="476"/>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="21" t="str">
@@ -11531,7 +15075,7 @@
       <c r="F22" s="50">
         <v>10</v>
       </c>
-      <c r="G22" s="452"/>
+      <c r="G22" s="476"/>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="21" t="str">
@@ -11553,7 +15097,7 @@
       <c r="F23" s="50">
         <v>10</v>
       </c>
-      <c r="G23" s="452"/>
+      <c r="G23" s="476"/>
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="45" t="str">
@@ -11575,7 +15119,7 @@
       <c r="F24" s="51">
         <v>10</v>
       </c>
-      <c r="G24" s="452"/>
+      <c r="G24" s="476"/>
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="21" t="str">
@@ -11597,7 +15141,7 @@
       <c r="F25" s="50">
         <v>10</v>
       </c>
-      <c r="G25" s="452"/>
+      <c r="G25" s="476"/>
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="21" t="str">
@@ -11619,7 +15163,7 @@
       <c r="F26" s="50">
         <v>10</v>
       </c>
-      <c r="G26" s="452"/>
+      <c r="G26" s="476"/>
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="21" t="str">
@@ -11641,7 +15185,7 @@
       <c r="F27" s="50">
         <v>10</v>
       </c>
-      <c r="G27" s="452"/>
+      <c r="G27" s="476"/>
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="21" t="str">
@@ -11663,7 +15207,7 @@
       <c r="F28" s="50">
         <v>10</v>
       </c>
-      <c r="G28" s="452"/>
+      <c r="G28" s="476"/>
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="21" t="str">
@@ -11685,7 +15229,7 @@
       <c r="F29" s="50">
         <v>10</v>
       </c>
-      <c r="G29" s="452"/>
+      <c r="G29" s="476"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="21" t="str">
@@ -11707,7 +15251,7 @@
       <c r="F30" s="50">
         <v>10</v>
       </c>
-      <c r="G30" s="452"/>
+      <c r="G30" s="476"/>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="21" t="str">
@@ -11729,7 +15273,7 @@
       <c r="F31" s="50">
         <v>10</v>
       </c>
-      <c r="G31" s="452"/>
+      <c r="G31" s="476"/>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="21" t="str">
@@ -11751,7 +15295,7 @@
       <c r="F32" s="50">
         <v>10</v>
       </c>
-      <c r="G32" s="452"/>
+      <c r="G32" s="476"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="21" t="str">
@@ -11773,7 +15317,7 @@
       <c r="F33" s="50">
         <v>10</v>
       </c>
-      <c r="G33" s="452"/>
+      <c r="G33" s="476"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="45" t="str">
@@ -11795,7 +15339,7 @@
       <c r="F34" s="51">
         <v>10</v>
       </c>
-      <c r="G34" s="453"/>
+      <c r="G34" s="477"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="21"/>
@@ -11866,7 +15410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B1:AD35"/>
@@ -11881,10 +15425,10 @@
     <col min="2" max="2" width="9.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="23" customWidth="1"/>
     <col min="4" max="4" width="17" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="23"/>
-    <col min="7" max="20" width="9.42578125" style="25" customWidth="1"/>
-    <col min="21" max="23" width="9.42578125" style="23" customWidth="1"/>
+    <col min="7" max="20" width="9.28515625" style="25" customWidth="1"/>
+    <col min="21" max="23" width="9.28515625" style="23" customWidth="1"/>
     <col min="24" max="24" width="28.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.140625" style="23"/>
     <col min="26" max="26" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
@@ -12639,7 +16183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B2:T36"/>
@@ -12651,7 +16195,7 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="13.42578125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="23" customWidth="1"/>
     <col min="4" max="4" width="46.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="23" customWidth="1"/>
@@ -12896,21 +16440,21 @@
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="450" t="s">
+      <c r="G7" s="474" t="s">
         <v>159</v>
       </c>
-      <c r="H7" s="450"/>
-      <c r="I7" s="450"/>
-      <c r="J7" s="450"/>
-      <c r="K7" s="450"/>
+      <c r="H7" s="474"/>
+      <c r="I7" s="474"/>
+      <c r="J7" s="474"/>
+      <c r="K7" s="474"/>
       <c r="L7" s="193" t="s">
         <v>67</v>
       </c>
       <c r="M7" s="192"/>
-      <c r="N7" s="454" t="s">
+      <c r="N7" s="478" t="s">
         <v>220</v>
       </c>
-      <c r="O7" s="454"/>
+      <c r="O7" s="478"/>
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
@@ -13540,13 +17084,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6297AC73-3506-47A0-A87E-4DEE2B4424AC}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -13556,7 +17100,7 @@
     <col min="3" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="162" t="s">
         <v>266</v>
       </c>
@@ -13565,12 +17109,12 @@
       <c r="D1" s="156"/>
       <c r="E1" s="156"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1">
       <c r="B5" s="163" t="s">
         <v>16</v>
       </c>
@@ -13590,7 +17134,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="B6" s="23" t="str">
         <f>Commodities!C68</f>
         <v>SUPCO2N</v>
@@ -13608,7 +17152,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="B7" s="23" t="str">
         <f>Commodities!C64</f>
         <v>SUPCH4N</v>
@@ -13617,7 +17161,7 @@
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="B8" s="23" t="str">
         <f>Commodities!C67</f>
         <v>SUPSO2N</v>
@@ -13626,7 +17170,7 @@
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="B9" s="23" t="str">
         <f>Commodities!C71</f>
         <v>SUPNOXN</v>
@@ -13635,16 +17179,180 @@
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="B10" s="23" t="str">
         <f>Commodities!C72</f>
         <v>SUPPM10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="B11" s="23" t="str">
         <f>Commodities!C73</f>
         <v>SUPPM25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B17" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="164" t="s">
+        <v>653</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="164" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="C18" s="23">
+        <v>1</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="C19" s="23">
+        <v>1</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="G19" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="C20" s="23">
+        <v>1</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="G20" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="23" t="s">
+        <v>635</v>
+      </c>
+      <c r="C21" s="23">
+        <v>1</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21" s="23" t="s">
+        <v>635</v>
+      </c>
+      <c r="G21" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="23" t="s">
+        <v>636</v>
+      </c>
+      <c r="C22" s="23">
+        <v>1</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" s="23" t="s">
+        <v>636</v>
+      </c>
+      <c r="G22" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="C23" s="23">
+        <v>1</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="G23" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="23" t="s">
+        <v>638</v>
+      </c>
+      <c r="C24" s="23">
+        <v>1</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24" s="23" t="s">
+        <v>638</v>
+      </c>
+      <c r="G24" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" t="s">
+        <v>662</v>
+      </c>
+      <c r="C25" s="23">
+        <v>1</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25" s="23" t="s">
+        <v>655</v>
+      </c>
+      <c r="G25" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="F26" t="s">
+        <v>662</v>
+      </c>
+      <c r="G26" s="23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -13653,22 +17361,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet12">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D3" sqref="D3"/>
-      <selection pane="topRight" activeCell="Z2" sqref="Z2"/>
+      <selection pane="topRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13689,10 +17397,10 @@
       <c r="J1" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="455" t="s">
+      <c r="P1" s="479" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="455"/>
+      <c r="Q1" s="479"/>
     </row>
     <row r="2" spans="1:22">
       <c r="H2" s="23"/>
@@ -14324,7 +18032,7 @@
         <v>0.31987152000000002</v>
       </c>
       <c r="K18" s="41">
-        <f t="shared" ref="K18:N18" si="8">D18*$K$3/1000</f>
+        <f t="shared" ref="K18:M18" si="8">D18*$K$3/1000</f>
         <v>0.31614526800000003</v>
       </c>
       <c r="L18" s="41">
@@ -14336,7 +18044,7 @@
         <v>18.931076747999999</v>
       </c>
       <c r="N18" s="41">
-        <f t="shared" si="8"/>
+        <f>G18*$K$3/1000</f>
         <v>48.176628371999996</v>
       </c>
       <c r="O18" s="23"/>
@@ -14377,7 +18085,7 @@
         <v>5.2068405464794116</v>
       </c>
       <c r="L19" s="41">
-        <f t="shared" si="9"/>
+        <f>E19/$K$2</f>
         <v>4.1559186013184295</v>
       </c>
       <c r="M19" s="41">
@@ -16742,7 +20450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60F2DFA-A498-428E-8EBC-6735D731296E}">
   <sheetPr codeName="Sheet14">
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -16876,11 +20584,11 @@
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
@@ -17649,7 +21357,7 @@
     <col min="5" max="5" width="9.140625" style="134"/>
     <col min="6" max="6" width="6.140625" style="135" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" style="135" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="134" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="134" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.140625" style="135" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="135" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.85546875" style="135" bestFit="1" customWidth="1"/>
@@ -17657,15 +21365,14 @@
     <col min="13" max="13" width="8.140625" style="131" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.140625" style="131" customWidth="1"/>
     <col min="15" max="15" width="5.28515625" style="131" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="131" customWidth="1"/>
-    <col min="17" max="17" width="7.42578125" style="131" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="131" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="131" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.140625" style="131" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.28515625" style="131" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" style="131" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.42578125" style="131" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.28515625" style="131" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" style="131" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.85546875" style="131" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="5.42578125" style="131" customWidth="1"/>
-    <col min="26" max="26" width="5.42578125" style="135" customWidth="1"/>
+    <col min="23" max="25" width="5.28515625" style="131" customWidth="1"/>
+    <col min="26" max="26" width="5.28515625" style="135" customWidth="1"/>
     <col min="27" max="27" width="8.140625" style="132" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="6.7109375" style="132" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="5.5703125" style="131" customWidth="1"/>
@@ -17676,12 +21383,12 @@
     <col min="35" max="36" width="7" style="131" customWidth="1"/>
     <col min="37" max="40" width="5.5703125" style="131" customWidth="1"/>
     <col min="41" max="41" width="8.7109375" style="132" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.42578125" style="132" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.28515625" style="132" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="9.28515625" style="131" bestFit="1" customWidth="1"/>
     <col min="44" max="16384" width="9.140625" style="131"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="98.25" thickBot="1">
+    <row r="1" spans="1:43" ht="111.75" thickBot="1">
       <c r="A1" s="212" t="s">
         <v>428</v>
       </c>
@@ -20268,8 +23975,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B3:AC86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20286,7 +23993,7 @@
     <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="1.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="1.5703125" customWidth="1"/>
     <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -23386,10 +27093,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:I73"/>
+  <dimension ref="B2:I76"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView topLeftCell="A47" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -24836,6 +28543,52 @@
       <c r="H73" s="174"/>
       <c r="I73" s="174"/>
     </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="185" t="s">
+        <v>656</v>
+      </c>
+      <c r="C74" s="185"/>
+      <c r="D74" s="185"/>
+      <c r="E74" s="185"/>
+      <c r="F74" s="185"/>
+      <c r="G74" s="185"/>
+      <c r="H74" s="185"/>
+      <c r="I74" s="185"/>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="174" t="s">
+        <v>270</v>
+      </c>
+      <c r="C75" t="s">
+        <v>653</v>
+      </c>
+      <c r="D75" t="s">
+        <v>657</v>
+      </c>
+      <c r="E75" s="174" t="s">
+        <v>271</v>
+      </c>
+      <c r="F75" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="174" t="s">
+        <v>270</v>
+      </c>
+      <c r="C76" t="s">
+        <v>654</v>
+      </c>
+      <c r="D76" t="s">
+        <v>659</v>
+      </c>
+      <c r="E76" s="174" t="s">
+        <v>271</v>
+      </c>
+      <c r="F76" t="s">
+        <v>658</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24847,8 +28600,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24859,9 +28612,9 @@
     <col min="5" max="5" width="58.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
     <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.140625" customWidth="1"/>
@@ -27250,7 +31003,7 @@
   <dimension ref="B1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27781,8 +31534,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:U69"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="78" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42:L42"/>
+    <sheetView zoomScale="78" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -27790,7 +31543,7 @@
     <col min="1" max="1" width="9.140625" style="23"/>
     <col min="2" max="2" width="12.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
@@ -27803,7 +31556,7 @@
     <col min="15" max="15" width="10.5703125" style="23" customWidth="1"/>
     <col min="16" max="22" width="9.140625" style="23"/>
     <col min="23" max="23" width="16" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.42578125" style="23" customWidth="1"/>
+    <col min="24" max="24" width="19.28515625" style="23" customWidth="1"/>
     <col min="25" max="25" width="38.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9.140625" style="23"/>
   </cols>
@@ -28697,20 +32450,20 @@
       <c r="D24" s="246"/>
       <c r="E24" s="246"/>
       <c r="F24" s="247"/>
-      <c r="G24" s="442" t="s">
+      <c r="G24" s="466" t="s">
         <v>527</v>
       </c>
-      <c r="H24" s="442"/>
-      <c r="I24" s="442"/>
-      <c r="J24" s="443"/>
-      <c r="K24" s="444" t="s">
+      <c r="H24" s="466"/>
+      <c r="I24" s="466"/>
+      <c r="J24" s="467"/>
+      <c r="K24" s="468" t="s">
         <v>528</v>
       </c>
-      <c r="L24" s="445"/>
-      <c r="M24" s="446" t="s">
+      <c r="L24" s="469"/>
+      <c r="M24" s="470" t="s">
         <v>529</v>
       </c>
-      <c r="N24" s="445"/>
+      <c r="N24" s="469"/>
       <c r="S24"/>
     </row>
     <row r="25" spans="3:21">
@@ -29353,20 +33106,20 @@
       <c r="D42" s="246"/>
       <c r="E42" s="246"/>
       <c r="F42" s="247"/>
-      <c r="G42" s="442" t="s">
+      <c r="G42" s="466" t="s">
         <v>527</v>
       </c>
-      <c r="H42" s="442"/>
-      <c r="I42" s="442"/>
-      <c r="J42" s="443"/>
-      <c r="K42" s="444" t="s">
+      <c r="H42" s="466"/>
+      <c r="I42" s="466"/>
+      <c r="J42" s="467"/>
+      <c r="K42" s="468" t="s">
         <v>528</v>
       </c>
-      <c r="L42" s="445"/>
-      <c r="M42" s="446" t="s">
+      <c r="L42" s="469"/>
+      <c r="M42" s="470" t="s">
         <v>555</v>
       </c>
-      <c r="N42" s="445"/>
+      <c r="N42" s="469"/>
       <c r="O42"/>
     </row>
     <row r="43" spans="3:20">
@@ -30180,2615 +33933,223 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="B2:W62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A665F926-DECD-4DB2-B495-3F9BFC1DFD4C}">
+  <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="14.28515625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="12.85546875" style="23" customWidth="1"/>
-    <col min="15" max="16" width="13" style="23" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" style="23" customWidth="1"/>
-    <col min="18" max="18" width="29.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="9.140625" style="23"/>
-    <col min="23" max="23" width="14.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="23"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18.75">
-      <c r="B2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="6" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2" s="169" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="169"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+    </row>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B3" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="166" t="s">
         <v>513</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="166" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="166" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="166" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="166" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="166" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="51">
+      <c r="B4" s="172" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171" t="s">
+        <v>351</v>
+      </c>
+      <c r="E4" s="171" t="s">
+        <v>280</v>
+      </c>
+      <c r="F4" s="171" t="s">
+        <v>352</v>
+      </c>
+      <c r="G4" s="171" t="s">
+        <v>353</v>
+      </c>
+      <c r="H4" s="171" t="s">
+        <v>354</v>
+      </c>
+      <c r="I4" s="173" t="s">
+        <v>355</v>
+      </c>
+      <c r="J4" s="173" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D5" t="s">
+        <v>630</v>
+      </c>
+      <c r="E5" s="439" t="s">
+        <v>651</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="E6" s="439"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="E9" s="169" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B10" s="166" t="s">
+        <v>513</v>
+      </c>
+      <c r="C10" s="166" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="166" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="32.450000000000003" customHeight="1" thickBot="1">
-      <c r="B4" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="F10" s="166" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="166" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="172" t="s">
+        <v>515</v>
+      </c>
+      <c r="C11" s="172" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="93"/>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="21" t="str">
-        <f>Processes!C23</f>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="172" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="2" t="str">
+        <f>Processes!C60</f>
         <v>IE,National</v>
       </c>
-      <c r="C5" s="21" t="str">
-        <f>Processes!D23</f>
-        <v>IMPBIOETH1G_S1</v>
-      </c>
-      <c r="D5" s="22" t="str">
-        <f>Processes!E23</f>
-        <v>Import of Ethanol 1st generation  - Step 1</v>
-      </c>
-      <c r="E5" s="22" t="str">
-        <f>Commodities!$C$30</f>
-        <v>BIOETH1G</v>
-      </c>
-      <c r="F5" s="50">
-        <f>'SEAI-AEA_BioData'!K$23</f>
-        <v>18.176172733352441</v>
-      </c>
-      <c r="G5" s="50">
-        <f>'SEAI-AEA_BioData'!L$23</f>
-        <v>17.579057991783699</v>
-      </c>
-      <c r="H5" s="50">
-        <f>'SEAI-AEA_BioData'!M$23</f>
-        <v>16.599789815610968</v>
-      </c>
-      <c r="I5" s="50">
-        <f>'SEAI-AEA_BioData'!N$23</f>
-        <v>15.883252125728479</v>
-      </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="22"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="21" t="str">
-        <f>Processes!C24</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C6" s="21" t="str">
-        <f>Processes!D24</f>
-        <v>IMPBIOETH1G_S2</v>
-      </c>
-      <c r="D6" s="22" t="str">
-        <f>Processes!E24</f>
-        <v>Import of Ethanol 1st generation  - Step 2</v>
-      </c>
-      <c r="E6" s="22" t="str">
-        <f>Commodities!$C$30</f>
-        <v>BIOETH1G</v>
-      </c>
-      <c r="F6" s="50">
-        <f>'SEAI-AEA_BioData'!K$33</f>
-        <v>18.916595012897677</v>
-      </c>
-      <c r="G6" s="50">
-        <f>'SEAI-AEA_BioData'!L$33</f>
-        <v>19.083787140536923</v>
-      </c>
-      <c r="H6" s="50">
-        <f>'SEAI-AEA_BioData'!M$33</f>
-        <v>18.916595012897677</v>
-      </c>
-      <c r="I6" s="50">
-        <f>'SEAI-AEA_BioData'!N$33</f>
-        <v>19.131556319862423</v>
-      </c>
-      <c r="J6" s="50">
-        <f>I6*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
-        <v>20.390211340906003</v>
-      </c>
-      <c r="K6" s="50">
-        <f>I6*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
-        <v>21.397135357740865</v>
-      </c>
-      <c r="L6" s="22"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="22" t="str">
-        <f>Processes!C25</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C7" s="22" t="str">
-        <f>Processes!D25</f>
-        <v>IMPBIOETH1G_S3</v>
-      </c>
-      <c r="D7" s="22" t="str">
-        <f>Processes!E25</f>
-        <v>Import of Ethanol 1st generation  - Step 3</v>
-      </c>
-      <c r="E7" s="22" t="str">
-        <f>Commodities!$C$30</f>
-        <v>BIOETH1G</v>
-      </c>
-      <c r="F7" s="50">
-        <f>'SEAI-AEA_BioData'!K$44</f>
-        <v>19.680901882105665</v>
-      </c>
-      <c r="G7" s="50">
-        <f>'SEAI-AEA_BioData'!L$44</f>
-        <v>20.684054647941146</v>
-      </c>
-      <c r="H7" s="50">
-        <f>'SEAI-AEA_BioData'!M$44</f>
-        <v>21.758861182764878</v>
-      </c>
-      <c r="I7" s="50">
-        <f>'SEAI-AEA_BioData'!N$44</f>
-        <v>23.550205407471097</v>
-      </c>
-      <c r="J7" s="50">
-        <f>I7*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
-        <v>25.099561026383665</v>
-      </c>
-      <c r="K7" s="50">
-        <f>I7*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
-        <v>26.339045521513725</v>
-      </c>
-      <c r="L7" s="22"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="39" t="str">
-        <f>Processes!C26</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C8" s="39" t="str">
-        <f>Processes!D26</f>
-        <v>IMPBIOETH1G_S4</v>
-      </c>
-      <c r="D8" s="39" t="str">
-        <f>Processes!E26</f>
-        <v>Import of Ethanol 1st generation  - Step 4</v>
-      </c>
-      <c r="E8" s="39" t="str">
-        <f>Commodities!$C$30</f>
-        <v>BIOETH1G</v>
-      </c>
-      <c r="F8" s="51">
-        <f>'SEAI-AEA_BioData'!K$55</f>
-        <v>20.636285468615647</v>
-      </c>
-      <c r="G8" s="51">
-        <f>'SEAI-AEA_BioData'!L$55</f>
-        <v>22.714244769274863</v>
-      </c>
-      <c r="H8" s="51">
-        <f>'SEAI-AEA_BioData'!M$55</f>
-        <v>25.174357504538072</v>
-      </c>
-      <c r="I8" s="51">
-        <f>'SEAI-AEA_BioData'!N$55</f>
-        <v>28.757045953950509</v>
-      </c>
-      <c r="J8" s="51">
-        <f>I8*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
-        <v>30.648956871973571</v>
-      </c>
-      <c r="K8" s="51">
-        <f>I8*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
-        <v>32.162485606392018</v>
-      </c>
-      <c r="L8" s="39"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="22" t="str">
-        <f>Processes!C27</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C9" s="22" t="str">
-        <f>Processes!D27</f>
-        <v>IMPBIODST1G_S1</v>
-      </c>
-      <c r="D9" s="22" t="str">
-        <f>Processes!E27</f>
-        <v>Import of Biodiesel 1st generation  - Step 1</v>
-      </c>
-      <c r="E9" s="22" t="str">
-        <f>Commodities!$C$32</f>
-        <v>BIODST1G</v>
-      </c>
-      <c r="F9" s="50">
-        <f>'SEAI-AEA_BioData'!K$25</f>
-        <v>31.360466227190216</v>
-      </c>
-      <c r="G9" s="50">
-        <f>'SEAI-AEA_BioData'!L$25</f>
-        <v>33.175695041559187</v>
-      </c>
-      <c r="H9" s="50">
-        <f>'SEAI-AEA_BioData'!M$25</f>
-        <v>31.862042610107956</v>
-      </c>
-      <c r="I9" s="50">
-        <f>'SEAI-AEA_BioData'!N$25</f>
-        <v>31.336581637527466</v>
-      </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="22"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="22" t="str">
-        <f>Processes!C28</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C10" s="22" t="str">
-        <f>Processes!D28</f>
-        <v>IMPBIODST1G_S2</v>
-      </c>
-      <c r="D10" s="22" t="str">
-        <f>Processes!E28</f>
-        <v>Import of Biodiesel 1st generation  - Step 2</v>
-      </c>
-      <c r="E10" s="22" t="str">
-        <f>Commodities!$C$32</f>
-        <v>BIODST1G</v>
-      </c>
-      <c r="F10" s="50">
-        <f>'SEAI-AEA_BioData'!K$35</f>
-        <v>32.650234068978691</v>
-      </c>
-      <c r="G10" s="50">
-        <f>'SEAI-AEA_BioData'!L$35</f>
-        <v>35.826884494124393</v>
-      </c>
-      <c r="H10" s="50">
-        <f>'SEAI-AEA_BioData'!M$35</f>
-        <v>35.97019203210089</v>
-      </c>
-      <c r="I10" s="50">
-        <f>'SEAI-AEA_BioData'!N$35</f>
-        <v>37.021113977261869</v>
-      </c>
-      <c r="J10" s="50">
-        <f>I10*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
-        <v>39.456713581029099</v>
-      </c>
-      <c r="K10" s="50">
-        <f>I10*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
-        <v>41.405193264042879</v>
-      </c>
-      <c r="L10" s="22"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="22" t="str">
-        <f>Processes!C29</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C11" s="22" t="str">
-        <f>Processes!D29</f>
-        <v>IMPBIODST1G_S3</v>
-      </c>
-      <c r="D11" s="22" t="str">
-        <f>Processes!E29</f>
-        <v>Import of Biodiesel 1st generation  - Step 3</v>
-      </c>
-      <c r="E11" s="22" t="str">
-        <f>Commodities!$C$32</f>
-        <v>BIODST1G</v>
-      </c>
-      <c r="F11" s="50">
-        <f>'SEAI-AEA_BioData'!K$46</f>
-        <v>33.916117321104423</v>
-      </c>
-      <c r="G11" s="50">
-        <f>'SEAI-AEA_BioData'!L$46</f>
-        <v>38.334766408713094</v>
-      </c>
-      <c r="H11" s="50">
-        <f>'SEAI-AEA_BioData'!M$46</f>
-        <v>40.460494888697809</v>
-      </c>
-      <c r="I11" s="50">
-        <f>'SEAI-AEA_BioData'!N$46</f>
-        <v>43.756568262157252</v>
-      </c>
-      <c r="J11" s="50">
-        <f>I11*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
-        <v>46.635289858351811</v>
-      </c>
-      <c r="K11" s="50">
-        <f>I11*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
-        <v>48.938267135307449</v>
-      </c>
-      <c r="L11" s="22"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="39" t="str">
-        <f>Processes!C30</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C12" s="39" t="str">
-        <f>Processes!D30</f>
-        <v>IMPBIODST1G_S4</v>
-      </c>
-      <c r="D12" s="39" t="str">
-        <f>Processes!E30</f>
-        <v>Import of Biodiesel 1st generation  - Step 4</v>
-      </c>
-      <c r="E12" s="39" t="str">
-        <f>Commodities!$C$32</f>
-        <v>BIODST1G</v>
-      </c>
-      <c r="F12" s="51">
-        <f>'SEAI-AEA_BioData'!K$57</f>
-        <v>35.540269418171391</v>
-      </c>
-      <c r="G12" s="51">
-        <f>'SEAI-AEA_BioData'!L$57</f>
-        <v>41.917454858125538</v>
-      </c>
-      <c r="H12" s="51">
-        <f>'SEAI-AEA_BioData'!M$57</f>
-        <v>46.527180663036205</v>
-      </c>
-      <c r="I12" s="51">
-        <f>'SEAI-AEA_BioData'!N$57</f>
-        <v>52.832712334002096</v>
-      </c>
-      <c r="J12" s="51">
-        <f>I12*Imports_Fossil!$I$37/Imports_Fossil!$H$37</f>
-        <v>56.308548671765386</v>
-      </c>
-      <c r="K12" s="51">
-        <f>I12*Imports_Fossil!$J$37/Imports_Fossil!$H$37</f>
-        <v>59.089217741976029</v>
-      </c>
-      <c r="L12" s="39"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="22" t="str">
-        <f>Processes!C32</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C13" s="22" t="str">
-        <f>Processes!D32</f>
-        <v>IMPBIOWPE_S1</v>
-      </c>
-      <c r="D13" s="22" t="str">
-        <f>Processes!E32</f>
-        <v>Import of Wood Pellets  - Step 1</v>
-      </c>
-      <c r="E13" s="22" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F13" s="50">
-        <f>'SEAI-AEA_BioData'!K$21</f>
-        <v>10.652526989586319</v>
-      </c>
-      <c r="G13" s="50">
-        <f>'SEAI-AEA_BioData'!L$21</f>
-        <v>8.5029139199388553</v>
-      </c>
-      <c r="H13" s="50">
-        <f>'SEAI-AEA_BioData'!M$21</f>
-        <v>7.2847998471386255</v>
-      </c>
-      <c r="I13" s="50">
-        <f>'SEAI-AEA_BioData'!N$21</f>
-        <v>6.9504155918601311</v>
-      </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="22"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="22" t="str">
-        <f>Processes!C33</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C14" s="22" t="str">
-        <f>Processes!D33</f>
-        <v>IMPBIOWPE_S2</v>
-      </c>
-      <c r="D14" s="22" t="str">
-        <f>Processes!E33</f>
-        <v>Import of Wood Pellets  - Step 2</v>
-      </c>
-      <c r="E14" s="22" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F14" s="50">
-        <f>'SEAI-AEA_BioData'!K$42</f>
-        <v>11.034680424190311</v>
-      </c>
-      <c r="G14" s="50">
-        <f>'SEAI-AEA_BioData'!L$42</f>
-        <v>9.0522594821820963</v>
-      </c>
-      <c r="H14" s="50">
-        <f>'SEAI-AEA_BioData'!M$42</f>
-        <v>8.0729913060093619</v>
-      </c>
-      <c r="I14" s="50">
-        <f>'SEAI-AEA_BioData'!N$42</f>
-        <v>7.9057991783701151</v>
-      </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="22"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="22" t="str">
-        <f>Processes!C34</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C15" s="22" t="str">
-        <f>Processes!D34</f>
-        <v>IMPBIOWPE_S3</v>
-      </c>
-      <c r="D15" s="22" t="str">
-        <f>Processes!E34</f>
-        <v>Import of Wood Pellets  - Step 3</v>
-      </c>
-      <c r="E15" s="22" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F15" s="50">
-        <f>'SEAI-AEA_BioData'!K$31</f>
-        <v>12.27667908665329</v>
-      </c>
-      <c r="G15" s="50">
-        <f>'SEAI-AEA_BioData'!L$31</f>
-        <v>10.103181427343078</v>
-      </c>
-      <c r="H15" s="50">
-        <f>'SEAI-AEA_BioData'!M$31</f>
-        <v>8.9328365338683469</v>
-      </c>
-      <c r="I15" s="50">
-        <f>'SEAI-AEA_BioData'!N$31</f>
-        <v>8.7656444062291001</v>
-      </c>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="22"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="39" t="str">
-        <f>Processes!C35</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C16" s="39" t="str">
-        <f>Processes!D35</f>
-        <v>IMPBIOWPE_S4</v>
-      </c>
-      <c r="D16" s="39" t="str">
-        <f>Processes!E35</f>
-        <v>Import of Wood Pellets  - Step 4</v>
-      </c>
-      <c r="E16" s="39" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F16" s="51">
-        <f>'SEAI-AEA_BioData'!K$53</f>
-        <v>12.778255469571032</v>
-      </c>
-      <c r="G16" s="51">
-        <f>'SEAI-AEA_BioData'!L$53</f>
-        <v>10.795834527562816</v>
-      </c>
-      <c r="H16" s="51">
-        <f>'SEAI-AEA_BioData'!M$53</f>
-        <v>9.9837584790293299</v>
-      </c>
-      <c r="I16" s="51">
-        <f>'SEAI-AEA_BioData'!N$53</f>
-        <v>10.055412248017578</v>
-      </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="39"/>
-    </row>
-    <row r="17" spans="2:18">
-      <c r="B17" s="22" t="str">
-        <f>Processes!C36</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C17" s="22" t="str">
-        <f>Processes!D36</f>
-        <v>IMPBIOWCH_S1</v>
-      </c>
-      <c r="D17" s="22" t="str">
-        <f>Processes!E36</f>
-        <v>Import of Wood Chip  - Step 1</v>
-      </c>
-      <c r="E17" s="22" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F17" s="50">
-        <f>'SEAI-AEA_BioData'!K$19</f>
-        <v>5.2068405464794116</v>
-      </c>
-      <c r="G17" s="50">
-        <f>'SEAI-AEA_BioData'!L$19</f>
-        <v>4.1559186013184295</v>
-      </c>
-      <c r="H17" s="50">
-        <f>'SEAI-AEA_BioData'!M$19</f>
-        <v>3.5588038597496894</v>
-      </c>
-      <c r="I17" s="50">
-        <f>'SEAI-AEA_BioData'!N$19</f>
-        <v>3.3916117321104422</v>
-      </c>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="22"/>
-    </row>
-    <row r="18" spans="2:18">
-      <c r="B18" s="22" t="str">
-        <f>Processes!C37</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C18" s="22" t="str">
-        <f>Processes!D37</f>
-        <v>IMPBIOWCH_S2</v>
-      </c>
-      <c r="D18" s="22" t="str">
-        <f>Processes!E37</f>
-        <v>Import of Wood Chip  - Step 2</v>
-      </c>
-      <c r="E18" s="22" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F18" s="50">
-        <f>'SEAI-AEA_BioData'!K$40</f>
-        <v>5.3979172637814079</v>
-      </c>
-      <c r="G18" s="50">
-        <f>'SEAI-AEA_BioData'!L$40</f>
-        <v>4.4186490876086744</v>
-      </c>
-      <c r="H18" s="50">
-        <f>'SEAI-AEA_BioData'!M$40</f>
-        <v>3.9409572943536828</v>
-      </c>
-      <c r="I18" s="50">
-        <f>'SEAI-AEA_BioData'!N$40</f>
-        <v>3.8693035253654342</v>
-      </c>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="22"/>
-    </row>
-    <row r="19" spans="2:18">
-      <c r="B19" s="22" t="str">
-        <f>Processes!C38</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C19" s="22" t="str">
-        <f>Processes!D38</f>
-        <v>IMPBIOWCH_S3</v>
-      </c>
-      <c r="D19" s="22" t="str">
-        <f>Processes!E38</f>
-        <v>Import of Wood Chip  - Step 3</v>
-      </c>
-      <c r="E19" s="22" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F19" s="50">
-        <f>'SEAI-AEA_BioData'!K$29</f>
-        <v>6.1383395433266452</v>
-      </c>
-      <c r="G19" s="50">
-        <f>'SEAI-AEA_BioData'!L$29</f>
-        <v>5.039648418840164</v>
-      </c>
-      <c r="H19" s="50">
-        <f>'SEAI-AEA_BioData'!M$29</f>
-        <v>4.4664182669341734</v>
-      </c>
-      <c r="I19" s="50">
-        <f>'SEAI-AEA_BioData'!N$29</f>
-        <v>4.3708799082831753</v>
-      </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="22"/>
-    </row>
-    <row r="20" spans="2:18">
-      <c r="B20" s="39" t="str">
-        <f>Processes!C39</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C20" s="39" t="str">
-        <f>Processes!D39</f>
-        <v>IMPBIOWCH_S4</v>
-      </c>
-      <c r="D20" s="39" t="str">
-        <f>Processes!E39</f>
-        <v>Import of Wood Chip  - Step 4</v>
-      </c>
-      <c r="E20" s="39" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F20" s="51">
-        <f>'SEAI-AEA_BioData'!K$51</f>
-        <v>6.3771854399541414</v>
-      </c>
-      <c r="G20" s="51">
-        <f>'SEAI-AEA_BioData'!L$51</f>
-        <v>5.3979172637814079</v>
-      </c>
-      <c r="H20" s="51">
-        <f>'SEAI-AEA_BioData'!M$51</f>
-        <v>4.9918792395146649</v>
-      </c>
-      <c r="I20" s="51">
-        <f>'SEAI-AEA_BioData'!N$51</f>
-        <v>5.039648418840164</v>
-      </c>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="39"/>
-    </row>
-    <row r="21" spans="2:18">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="2:18" ht="18.75">
-      <c r="B22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="F22" s="5" t="str">
-        <f>Imports_Fossil!G3</f>
-        <v>~FI_T: IRE_PRICE</v>
-      </c>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-    </row>
-    <row r="23" spans="2:18" ht="30.75" customHeight="1">
-      <c r="B23" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="7" t="str">
-        <f>Imports_Fossil!H4</f>
-        <v>2018~MEUR2018</v>
-      </c>
-      <c r="H23" s="7" t="str">
-        <f>Imports_Fossil!I4</f>
-        <v>2019~MEUR2019</v>
-      </c>
-      <c r="I23" s="7" t="str">
-        <f>Imports_Fossil!J4</f>
-        <v>2025~MEUR2019</v>
-      </c>
-      <c r="J23" s="7" t="str">
-        <f>Imports_Fossil!K4</f>
-        <v>2030~MEUR2019</v>
-      </c>
-      <c r="K23" s="7" t="str">
-        <f>Imports_Fossil!L4</f>
-        <v>2035~MEUR2019</v>
-      </c>
-      <c r="L23" s="7" t="str">
-        <f>Imports_Fossil!M4</f>
-        <v>2040~MEUR2019</v>
-      </c>
-      <c r="M23" s="38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" ht="26.25" thickBot="1">
-      <c r="B24" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M24" s="93"/>
-    </row>
-    <row r="25" spans="2:18">
-      <c r="B25" s="206" t="str">
-        <f>Processes!C31</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C25" s="206" t="str">
-        <f>Processes!D31</f>
-        <v>IMPBIOJKR_S1</v>
-      </c>
-      <c r="D25" s="206" t="str">
-        <f>Processes!E31</f>
-        <v>Import of Bio Jet Kerosene - Step 1</v>
-      </c>
-      <c r="E25" s="206" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="206" t="str">
-        <f>Commodities!C36</f>
-        <v>BIOJKR</v>
-      </c>
-      <c r="G25" s="207">
-        <f>Imports_Fossil!H18*1.6</f>
-        <v>26.566026131233826</v>
-      </c>
-      <c r="H25" s="207">
-        <f>Imports_Fossil!I16*1.6</f>
-        <v>25.964334287665327</v>
-      </c>
-      <c r="I25" s="207">
-        <f>Imports_Fossil!J16*1.6</f>
-        <v>29.261392609908548</v>
-      </c>
-      <c r="J25" s="207">
-        <f>Imports_Fossil!K16*1.6</f>
-        <v>31.322054061310553</v>
-      </c>
-      <c r="K25" s="207">
-        <f>Imports_Fossil!L16*1.6</f>
-        <v>33.382715512712565</v>
-      </c>
-      <c r="L25" s="207">
-        <f>Imports_Fossil!M16*1.6</f>
-        <v>35.031244673834173</v>
-      </c>
-      <c r="M25" s="270" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-    </row>
-    <row r="27" spans="2:18" ht="26.25">
-      <c r="B27" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="N27" s="129" t="s">
-        <v>153</v>
-      </c>
-      <c r="O27" s="127"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
-    </row>
-    <row r="28" spans="2:18">
-      <c r="B28" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K28" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="N28" s="23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B29" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29" s="93"/>
-      <c r="N29" s="128"/>
-      <c r="O29" s="128"/>
-      <c r="P29" s="153" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q29" s="153"/>
-      <c r="R29" s="153" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B30" s="43" t="str">
-        <f t="shared" ref="B30" si="0">B13</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C30" s="43" t="str">
-        <f t="shared" ref="C30:D30" si="1">C13</f>
-        <v>IMPBIOWPE_S1</v>
-      </c>
-      <c r="D30" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>Import of Wood Pellets  - Step 1</v>
-      </c>
-      <c r="E30" s="22" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F30" s="94">
-        <f t="shared" ref="F30:F37" si="2">SUM($P$30:$R$30)</f>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G30" s="94">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
-        <v>4.3203296703296701</v>
-      </c>
-      <c r="H30" s="94">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
-        <v>4.4527472527472529</v>
-      </c>
-      <c r="I30" s="94">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
-        <v>4.5851648351648358</v>
-      </c>
-      <c r="J30" s="94">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
-        <v>4.6910989010989006</v>
-      </c>
-      <c r="K30" s="447" t="s">
-        <v>114</v>
-      </c>
-      <c r="N30" s="130" t="s">
-        <v>157</v>
-      </c>
-      <c r="O30" s="151" t="s">
-        <v>158</v>
-      </c>
-      <c r="P30" s="144">
-        <v>0.53</v>
-      </c>
-      <c r="Q30" s="144">
-        <v>1.91</v>
-      </c>
-      <c r="R30" s="144">
-        <v>2.41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18">
-      <c r="B31" s="21" t="str">
-        <f t="shared" ref="B31" si="3">B14</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C31" s="21" t="str">
-        <f t="shared" ref="C31:D31" si="4">C14</f>
-        <v>IMPBIOWPE_S2</v>
-      </c>
-      <c r="D31" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>Import of Wood Pellets  - Step 2</v>
-      </c>
-      <c r="E31" s="22" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F31" s="41">
-        <f t="shared" si="2"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G31" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
-        <v>4.3203296703296701</v>
-      </c>
-      <c r="H31" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
-        <v>4.4527472527472529</v>
-      </c>
-      <c r="I31" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
-        <v>4.5851648351648358</v>
-      </c>
-      <c r="J31" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
-        <v>4.6910989010989006</v>
-      </c>
-      <c r="K31" s="448"/>
-      <c r="N31" s="152"/>
-      <c r="O31" s="149"/>
-      <c r="P31" s="149"/>
-      <c r="Q31" s="149"/>
-    </row>
-    <row r="32" spans="2:18">
-      <c r="B32" s="21" t="str">
-        <f t="shared" ref="B32" si="5">B15</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C32" s="21" t="str">
-        <f t="shared" ref="C32:D32" si="6">C15</f>
-        <v>IMPBIOWPE_S3</v>
-      </c>
-      <c r="D32" s="21" t="str">
-        <f t="shared" si="6"/>
-        <v>Import of Wood Pellets  - Step 3</v>
-      </c>
-      <c r="E32" s="22" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F32" s="41">
-        <f t="shared" si="2"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G32" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
-        <v>4.3203296703296701</v>
-      </c>
-      <c r="H32" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
-        <v>4.4527472527472529</v>
-      </c>
-      <c r="I32" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
-        <v>4.5851648351648358</v>
-      </c>
-      <c r="J32" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
-        <v>4.6910989010989006</v>
-      </c>
-      <c r="K32" s="448"/>
-      <c r="M32" s="22"/>
-    </row>
-    <row r="33" spans="2:23">
-      <c r="B33" s="45" t="str">
-        <f t="shared" ref="B33" si="7">B16</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C33" s="45" t="str">
-        <f t="shared" ref="C33:D33" si="8">C16</f>
-        <v>IMPBIOWPE_S4</v>
-      </c>
-      <c r="D33" s="45" t="str">
-        <f t="shared" si="8"/>
-        <v>Import of Wood Pellets  - Step 4</v>
-      </c>
-      <c r="E33" s="39" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F33" s="28">
-        <f t="shared" si="2"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G33" s="28">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
-        <v>4.3203296703296701</v>
-      </c>
-      <c r="H33" s="28">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
-        <v>4.4527472527472529</v>
-      </c>
-      <c r="I33" s="28">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
-        <v>4.5851648351648358</v>
-      </c>
-      <c r="J33" s="28">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
-        <v>4.6910989010989006</v>
-      </c>
-      <c r="K33" s="448"/>
-      <c r="M33" s="22"/>
-    </row>
-    <row r="34" spans="2:23">
-      <c r="B34" s="95" t="str">
-        <f t="shared" ref="B34" si="9">B17</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C34" s="95" t="str">
-        <f t="shared" ref="C34:D34" si="10">C17</f>
-        <v>IMPBIOWCH_S1</v>
-      </c>
-      <c r="D34" s="95" t="str">
-        <f t="shared" si="10"/>
-        <v>Import of Wood Chip  - Step 1</v>
-      </c>
-      <c r="E34" s="22" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F34" s="96">
-        <f t="shared" si="2"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G34" s="96">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
-        <v>4.3203296703296701</v>
-      </c>
-      <c r="H34" s="96">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
-        <v>4.4527472527472529</v>
-      </c>
-      <c r="I34" s="96">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
-        <v>4.5851648351648358</v>
-      </c>
-      <c r="J34" s="96">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
-        <v>4.6910989010989006</v>
-      </c>
-      <c r="K34" s="448"/>
-      <c r="M34" s="22"/>
-    </row>
-    <row r="35" spans="2:23">
-      <c r="B35" s="21" t="str">
-        <f t="shared" ref="B35" si="11">B18</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C35" s="21" t="str">
-        <f t="shared" ref="C35:D35" si="12">C18</f>
-        <v>IMPBIOWCH_S2</v>
-      </c>
-      <c r="D35" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v>Import of Wood Chip  - Step 2</v>
-      </c>
-      <c r="E35" s="22" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F35" s="41">
-        <f t="shared" si="2"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G35" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
-        <v>4.3203296703296701</v>
-      </c>
-      <c r="H35" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
-        <v>4.4527472527472529</v>
-      </c>
-      <c r="I35" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
-        <v>4.5851648351648358</v>
-      </c>
-      <c r="J35" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
-        <v>4.6910989010989006</v>
-      </c>
-      <c r="K35" s="448"/>
-      <c r="M35" s="22"/>
-    </row>
-    <row r="36" spans="2:23">
-      <c r="B36" s="21" t="str">
-        <f t="shared" ref="B36" si="13">B19</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C36" s="21" t="str">
-        <f t="shared" ref="C36:D36" si="14">C19</f>
-        <v>IMPBIOWCH_S3</v>
-      </c>
-      <c r="D36" s="21" t="str">
-        <f t="shared" si="14"/>
-        <v>Import of Wood Chip  - Step 3</v>
-      </c>
-      <c r="E36" s="22" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F36" s="41">
-        <f t="shared" si="2"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G36" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
-        <v>4.3203296703296701</v>
-      </c>
-      <c r="H36" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
-        <v>4.4527472527472529</v>
-      </c>
-      <c r="I36" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
-        <v>4.5851648351648358</v>
-      </c>
-      <c r="J36" s="41">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
-        <v>4.6910989010989006</v>
-      </c>
-      <c r="K36" s="448"/>
-      <c r="M36" s="22"/>
-    </row>
-    <row r="37" spans="2:23">
-      <c r="B37" s="45" t="str">
-        <f t="shared" ref="B37" si="15">B20</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C37" s="45" t="str">
-        <f t="shared" ref="C37:D37" si="16">C20</f>
-        <v>IMPBIOWCH_S4</v>
-      </c>
-      <c r="D37" s="45" t="str">
-        <f t="shared" si="16"/>
-        <v>Import of Wood Chip  - Step 4</v>
-      </c>
-      <c r="E37" s="39" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F37" s="28">
-        <f t="shared" si="2"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G37" s="28">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
-        <v>4.3203296703296701</v>
-      </c>
-      <c r="H37" s="28">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
-        <v>4.4527472527472529</v>
-      </c>
-      <c r="I37" s="28">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
-        <v>4.5851648351648358</v>
-      </c>
-      <c r="J37" s="28">
-        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
-        <v>4.6910989010989006</v>
-      </c>
-      <c r="K37" s="449"/>
-      <c r="M37" s="22"/>
-    </row>
-    <row r="38" spans="2:23">
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-    </row>
-    <row r="39" spans="2:23">
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-    </row>
-    <row r="40" spans="2:23" ht="18.75">
-      <c r="B40" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
-      <c r="W40"/>
-    </row>
-    <row r="41" spans="2:23">
-      <c r="B41" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" s="7">
-        <v>2018</v>
-      </c>
-      <c r="G41" s="7">
-        <v>2020</v>
-      </c>
-      <c r="H41" s="7">
-        <v>2025</v>
-      </c>
-      <c r="I41" s="7">
-        <v>2030</v>
-      </c>
-      <c r="J41" s="7">
-        <v>2035</v>
-      </c>
-      <c r="K41" s="7">
-        <v>2040</v>
-      </c>
-      <c r="L41" s="7">
-        <v>2045</v>
-      </c>
-      <c r="M41" s="7">
-        <v>2050</v>
-      </c>
-      <c r="N41" s="195">
-        <v>0</v>
-      </c>
-      <c r="O41" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="P41" s="7"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-      <c r="W41"/>
-    </row>
-    <row r="42" spans="2:23" ht="15.75" thickBot="1">
-      <c r="B42" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
-      <c r="U42"/>
-      <c r="V42"/>
-      <c r="W42"/>
-    </row>
-    <row r="43" spans="2:23">
-      <c r="B43" s="43" t="str">
-        <f>Imports_Bio!B5</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C43" s="43" t="str">
-        <f>Imports_Bio!C5</f>
-        <v>IMPBIOETH1G_S1</v>
-      </c>
-      <c r="D43" s="43" t="str">
-        <f>Imports_Bio!D5</f>
-        <v>Import of Ethanol 1st generation  - Step 1</v>
-      </c>
-      <c r="E43" s="44" t="str">
-        <f>Commodities!$C$30</f>
-        <v>BIOETH1G</v>
-      </c>
-      <c r="F43" s="146">
-        <f>'EB2018'!AJ3*Conversions!$C$2</f>
-        <v>0.95614079147278108</v>
-      </c>
-      <c r="G43" s="52">
-        <f>F43</f>
-        <v>0.95614079147278108</v>
-      </c>
-      <c r="H43" s="52">
-        <f t="shared" ref="H43:M43" si="17">G43</f>
-        <v>0.95614079147278108</v>
-      </c>
-      <c r="I43" s="52">
-        <f t="shared" si="17"/>
-        <v>0.95614079147278108</v>
-      </c>
-      <c r="J43" s="52">
-        <f t="shared" si="17"/>
-        <v>0.95614079147278108</v>
-      </c>
-      <c r="K43" s="52">
-        <f t="shared" si="17"/>
-        <v>0.95614079147278108</v>
-      </c>
-      <c r="L43" s="52">
-        <f t="shared" si="17"/>
-        <v>0.95614079147278108</v>
-      </c>
-      <c r="M43" s="52">
-        <f t="shared" si="17"/>
-        <v>0.95614079147278108</v>
-      </c>
-      <c r="N43" s="196">
-        <v>5</v>
-      </c>
-      <c r="O43" s="61" t="s">
-        <v>451</v>
-      </c>
-      <c r="P43" s="52"/>
-      <c r="R43"/>
-      <c r="S43"/>
-      <c r="T43"/>
-      <c r="U43"/>
-      <c r="V43"/>
-      <c r="W43"/>
-    </row>
-    <row r="44" spans="2:23">
-      <c r="B44" s="21" t="str">
-        <f>Imports_Bio!B6</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C44" s="21" t="str">
-        <f>Imports_Bio!C6</f>
-        <v>IMPBIOETH1G_S2</v>
-      </c>
-      <c r="D44" s="21" t="str">
-        <f>Imports_Bio!D6</f>
-        <v>Import of Ethanol 1st generation  - Step 2</v>
-      </c>
-      <c r="E44" s="22" t="str">
-        <f>Commodities!$C$30</f>
-        <v>BIOETH1G</v>
-      </c>
-      <c r="F44" s="148">
-        <v>0</v>
-      </c>
-      <c r="G44" s="50">
-        <f>G43*2</f>
-        <v>1.9122815829455622</v>
-      </c>
-      <c r="H44" s="50">
-        <f t="shared" ref="H44:M45" si="18">H43*2</f>
-        <v>1.9122815829455622</v>
-      </c>
-      <c r="I44" s="50">
-        <f t="shared" si="18"/>
-        <v>1.9122815829455622</v>
-      </c>
-      <c r="J44" s="50">
-        <f t="shared" si="18"/>
-        <v>1.9122815829455622</v>
-      </c>
-      <c r="K44" s="50">
-        <f t="shared" si="18"/>
-        <v>1.9122815829455622</v>
-      </c>
-      <c r="L44" s="50">
-        <f t="shared" si="18"/>
-        <v>1.9122815829455622</v>
-      </c>
-      <c r="M44" s="50">
-        <f t="shared" si="18"/>
-        <v>1.9122815829455622</v>
-      </c>
-      <c r="N44" s="197">
-        <v>5</v>
-      </c>
-      <c r="O44" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="P44" s="50"/>
-      <c r="R44"/>
-      <c r="S44"/>
-      <c r="T44"/>
-      <c r="U44"/>
-      <c r="V44"/>
-      <c r="W44"/>
-    </row>
-    <row r="45" spans="2:23">
-      <c r="B45" s="21" t="str">
-        <f>Imports_Bio!B7</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C45" s="21" t="str">
-        <f>Imports_Bio!C7</f>
-        <v>IMPBIOETH1G_S3</v>
-      </c>
-      <c r="D45" s="21" t="str">
-        <f>Imports_Bio!D7</f>
-        <v>Import of Ethanol 1st generation  - Step 3</v>
-      </c>
-      <c r="E45" s="22" t="str">
-        <f>Commodities!$C$30</f>
-        <v>BIOETH1G</v>
-      </c>
-      <c r="F45" s="148">
-        <v>0</v>
-      </c>
-      <c r="G45" s="50">
-        <f>G44*2</f>
-        <v>3.8245631658911243</v>
-      </c>
-      <c r="H45" s="50">
-        <f t="shared" si="18"/>
-        <v>3.8245631658911243</v>
-      </c>
-      <c r="I45" s="50">
-        <f t="shared" si="18"/>
-        <v>3.8245631658911243</v>
-      </c>
-      <c r="J45" s="50">
-        <f t="shared" si="18"/>
-        <v>3.8245631658911243</v>
-      </c>
-      <c r="K45" s="50">
-        <f t="shared" si="18"/>
-        <v>3.8245631658911243</v>
-      </c>
-      <c r="L45" s="50">
-        <f t="shared" si="18"/>
-        <v>3.8245631658911243</v>
-      </c>
-      <c r="M45" s="50">
-        <f t="shared" si="18"/>
-        <v>3.8245631658911243</v>
-      </c>
-      <c r="N45" s="197">
-        <v>5</v>
-      </c>
-      <c r="O45" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="P45" s="50"/>
-      <c r="R45"/>
-      <c r="S45"/>
-      <c r="T45"/>
-      <c r="U45"/>
-      <c r="V45"/>
-      <c r="W45"/>
-    </row>
-    <row r="46" spans="2:23">
-      <c r="B46" s="45" t="str">
-        <f>"*"&amp;Imports_Bio!B8</f>
-        <v>*IE,National</v>
-      </c>
-      <c r="C46" s="45" t="str">
-        <f>"*"&amp;Imports_Bio!C8</f>
-        <v>*IMPBIOETH1G_S4</v>
-      </c>
-      <c r="D46" s="45" t="str">
-        <f>Imports_Bio!D8</f>
-        <v>Import of Ethanol 1st generation  - Step 4</v>
-      </c>
-      <c r="E46" s="39" t="str">
-        <f>Commodities!$C$30</f>
-        <v>BIOETH1G</v>
-      </c>
-      <c r="F46" s="150">
-        <v>0</v>
-      </c>
-      <c r="G46" s="51">
-        <v>27.064417978971818</v>
-      </c>
-      <c r="H46" s="51">
-        <v>27.064417978971818</v>
-      </c>
-      <c r="I46" s="51">
-        <v>27.064417978971818</v>
-      </c>
-      <c r="J46" s="51">
-        <v>27.064417978971818</v>
-      </c>
-      <c r="K46" s="51">
-        <v>27.064417978971818</v>
-      </c>
-      <c r="L46" s="51">
-        <v>27.064417978971818</v>
-      </c>
-      <c r="M46" s="51">
-        <v>27.064417978971818</v>
-      </c>
-      <c r="N46" s="198">
-        <v>5</v>
-      </c>
-      <c r="O46" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="P46" s="51"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
-      <c r="U46"/>
-      <c r="V46"/>
-      <c r="W46"/>
-    </row>
-    <row r="47" spans="2:23" ht="15.75" thickBot="1">
-      <c r="B47" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53">
-        <f>H47</f>
-        <v>59.810866344000004</v>
-      </c>
-      <c r="H47" s="53">
-        <f>I47</f>
-        <v>59.810866344000004</v>
-      </c>
-      <c r="I47" s="53">
-        <f>'SEAI-AEA_BioData'!G54*Conversions!$C$2/1000</f>
-        <v>59.810866344000004</v>
-      </c>
-      <c r="J47" s="53">
-        <f>I47</f>
-        <v>59.810866344000004</v>
-      </c>
-      <c r="K47" s="53">
-        <f t="shared" ref="K47:M47" si="19">J47</f>
-        <v>59.810866344000004</v>
-      </c>
-      <c r="L47" s="53">
-        <f t="shared" si="19"/>
-        <v>59.810866344000004</v>
-      </c>
-      <c r="M47" s="53">
-        <f t="shared" si="19"/>
-        <v>59.810866344000004</v>
-      </c>
-      <c r="N47" s="199"/>
-      <c r="O47" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="P47" s="53"/>
-      <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
-      <c r="U47"/>
-      <c r="V47"/>
-      <c r="W47"/>
-    </row>
-    <row r="48" spans="2:23">
-      <c r="B48" s="43" t="str">
-        <f>Imports_Bio!B9</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C48" s="43" t="str">
-        <f>Imports_Bio!C9</f>
-        <v>IMPBIODST1G_S1</v>
-      </c>
-      <c r="D48" s="43" t="str">
-        <f>Imports_Bio!D9</f>
-        <v>Import of Biodiesel 1st generation  - Step 1</v>
-      </c>
-      <c r="E48" s="44" t="str">
-        <f>Commodities!$C$32</f>
-        <v>BIODST1G</v>
-      </c>
-      <c r="F48" s="146">
-        <f>'EB2018'!AI3*Conversions!$C$2</f>
-        <v>4.3883698143827266</v>
-      </c>
-      <c r="G48" s="52">
-        <f>F48</f>
-        <v>4.3883698143827266</v>
-      </c>
-      <c r="H48" s="52">
-        <f t="shared" ref="H48:M48" si="20">G48</f>
-        <v>4.3883698143827266</v>
-      </c>
-      <c r="I48" s="52">
-        <f t="shared" si="20"/>
-        <v>4.3883698143827266</v>
-      </c>
-      <c r="J48" s="52">
-        <f t="shared" si="20"/>
-        <v>4.3883698143827266</v>
-      </c>
-      <c r="K48" s="52">
-        <f t="shared" si="20"/>
-        <v>4.3883698143827266</v>
-      </c>
-      <c r="L48" s="52">
-        <f t="shared" si="20"/>
-        <v>4.3883698143827266</v>
-      </c>
-      <c r="M48" s="52">
-        <f t="shared" si="20"/>
-        <v>4.3883698143827266</v>
-      </c>
-      <c r="N48" s="196">
-        <v>5</v>
-      </c>
-      <c r="O48" s="61" t="s">
-        <v>451</v>
-      </c>
-      <c r="P48" s="52"/>
-      <c r="R48"/>
-      <c r="S48"/>
-      <c r="T48"/>
-      <c r="U48"/>
-      <c r="V48"/>
-      <c r="W48"/>
-    </row>
-    <row r="49" spans="2:18">
-      <c r="B49" s="21" t="str">
-        <f>Imports_Bio!B10</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C49" s="21" t="str">
-        <f>Imports_Bio!C10</f>
-        <v>IMPBIODST1G_S2</v>
-      </c>
-      <c r="D49" s="21" t="str">
-        <f>Imports_Bio!D10</f>
-        <v>Import of Biodiesel 1st generation  - Step 2</v>
-      </c>
-      <c r="E49" s="22" t="str">
-        <f>Commodities!$C$32</f>
-        <v>BIODST1G</v>
-      </c>
-      <c r="F49" s="148">
-        <v>0</v>
-      </c>
-      <c r="G49" s="50">
-        <f>G48*2</f>
-        <v>8.7767396287654531</v>
-      </c>
-      <c r="H49" s="50">
-        <f t="shared" ref="H49:M50" si="21">H48*2</f>
-        <v>8.7767396287654531</v>
-      </c>
-      <c r="I49" s="50">
-        <f t="shared" si="21"/>
-        <v>8.7767396287654531</v>
-      </c>
-      <c r="J49" s="50">
-        <f t="shared" si="21"/>
-        <v>8.7767396287654531</v>
-      </c>
-      <c r="K49" s="50">
-        <f t="shared" si="21"/>
-        <v>8.7767396287654531</v>
-      </c>
-      <c r="L49" s="50">
-        <f t="shared" si="21"/>
-        <v>8.7767396287654531</v>
-      </c>
-      <c r="M49" s="50">
-        <f t="shared" si="21"/>
-        <v>8.7767396287654531</v>
-      </c>
-      <c r="N49" s="197">
-        <v>5</v>
-      </c>
-      <c r="O49" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="P49" s="50"/>
-      <c r="R49" s="25"/>
-    </row>
-    <row r="50" spans="2:18">
-      <c r="B50" s="21" t="str">
-        <f>Imports_Bio!B11</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C50" s="21" t="str">
-        <f>Imports_Bio!C11</f>
-        <v>IMPBIODST1G_S3</v>
-      </c>
-      <c r="D50" s="21" t="str">
-        <f>Imports_Bio!D11</f>
-        <v>Import of Biodiesel 1st generation  - Step 3</v>
-      </c>
-      <c r="E50" s="22" t="str">
-        <f>Commodities!$C$32</f>
-        <v>BIODST1G</v>
-      </c>
-      <c r="F50" s="148">
-        <v>0</v>
-      </c>
-      <c r="G50" s="50">
-        <f>G49*2</f>
-        <v>17.553479257530906</v>
-      </c>
-      <c r="H50" s="50">
-        <f t="shared" si="21"/>
-        <v>17.553479257530906</v>
-      </c>
-      <c r="I50" s="50">
-        <f t="shared" si="21"/>
-        <v>17.553479257530906</v>
-      </c>
-      <c r="J50" s="50">
-        <f t="shared" si="21"/>
-        <v>17.553479257530906</v>
-      </c>
-      <c r="K50" s="50">
-        <f t="shared" si="21"/>
-        <v>17.553479257530906</v>
-      </c>
-      <c r="L50" s="50">
-        <f t="shared" si="21"/>
-        <v>17.553479257530906</v>
-      </c>
-      <c r="M50" s="50">
-        <f t="shared" si="21"/>
-        <v>17.553479257530906</v>
-      </c>
-      <c r="N50" s="197">
-        <v>5</v>
-      </c>
-      <c r="O50" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="P50" s="50"/>
-      <c r="R50" s="25"/>
-    </row>
-    <row r="51" spans="2:18">
-      <c r="B51" s="45" t="str">
-        <f>"*"&amp;Imports_Bio!B12</f>
-        <v>*IE,National</v>
-      </c>
-      <c r="C51" s="45" t="str">
-        <f>"*"&amp;Imports_Bio!C12</f>
-        <v>*IMPBIODST1G_S4</v>
-      </c>
-      <c r="D51" s="45" t="str">
-        <f>Imports_Bio!D12</f>
-        <v>Import of Biodiesel 1st generation  - Step 4</v>
-      </c>
-      <c r="E51" s="39" t="str">
-        <f>Commodities!$C$32</f>
-        <v>BIODST1G</v>
-      </c>
-      <c r="F51" s="150">
-        <v>0</v>
-      </c>
-      <c r="G51" s="51">
-        <f>G52-SUM(G48:G50)</f>
-        <v>72.040001193884791</v>
-      </c>
-      <c r="H51" s="51">
-        <f t="shared" ref="H51:M51" si="22">H52-SUM(H48:H50)</f>
-        <v>72.040001193884791</v>
-      </c>
-      <c r="I51" s="51">
-        <f t="shared" si="22"/>
-        <v>72.040001193884791</v>
-      </c>
-      <c r="J51" s="51">
-        <f t="shared" si="22"/>
-        <v>72.040001193884791</v>
-      </c>
-      <c r="K51" s="51">
-        <f t="shared" si="22"/>
-        <v>72.040001193884791</v>
-      </c>
-      <c r="L51" s="51">
-        <f t="shared" si="22"/>
-        <v>72.040001193884791</v>
-      </c>
-      <c r="M51" s="51">
-        <f t="shared" si="22"/>
-        <v>72.040001193884791</v>
-      </c>
-      <c r="N51" s="198">
-        <v>5</v>
-      </c>
-      <c r="O51" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="P51" s="51"/>
-      <c r="R51" s="25"/>
-    </row>
-    <row r="52" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B52" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53">
-        <f>H52</f>
-        <v>102.75858989456388</v>
-      </c>
-      <c r="H52" s="53">
-        <f>I52</f>
-        <v>102.75858989456388</v>
-      </c>
-      <c r="I52" s="53">
-        <f>2727.05194883825*Conversions!$C$2*0.9</f>
-        <v>102.75858989456388</v>
-      </c>
-      <c r="J52" s="53">
-        <f>I52</f>
-        <v>102.75858989456388</v>
-      </c>
-      <c r="K52" s="53">
-        <f t="shared" ref="K52:M52" si="23">J52</f>
-        <v>102.75858989456388</v>
-      </c>
-      <c r="L52" s="53">
-        <f t="shared" si="23"/>
-        <v>102.75858989456388</v>
-      </c>
-      <c r="M52" s="53">
-        <f t="shared" si="23"/>
-        <v>102.75858989456388</v>
-      </c>
-      <c r="N52" s="199"/>
-      <c r="O52" s="64" t="s">
-        <v>214</v>
-      </c>
-      <c r="P52" s="53"/>
-      <c r="R52" s="25"/>
-    </row>
-    <row r="53" spans="2:18">
-      <c r="B53" s="43" t="str">
-        <f>Imports_Bio!B13</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C53" s="43" t="str">
-        <f>Imports_Bio!C13</f>
-        <v>IMPBIOWPE_S1</v>
-      </c>
-      <c r="D53" s="43" t="str">
-        <f>Imports_Bio!D13</f>
-        <v>Import of Wood Pellets  - Step 1</v>
-      </c>
-      <c r="E53" s="22" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F53" s="146">
-        <f>'EB2018'!AE3*Conversions!$C$2*Imports_Bio!$R$53</f>
-        <v>0.71165055175994518</v>
-      </c>
-      <c r="G53" s="52">
-        <f>MAX(F53:F53)</f>
-        <v>0.71165055175994518</v>
-      </c>
-      <c r="H53" s="52">
-        <f>G53</f>
-        <v>0.71165055175994518</v>
-      </c>
-      <c r="I53" s="52">
-        <f t="shared" ref="I53:M53" si="24">H53</f>
-        <v>0.71165055175994518</v>
-      </c>
-      <c r="J53" s="52">
-        <f t="shared" si="24"/>
-        <v>0.71165055175994518</v>
-      </c>
-      <c r="K53" s="52">
-        <f t="shared" si="24"/>
-        <v>0.71165055175994518</v>
-      </c>
-      <c r="L53" s="52">
-        <f t="shared" si="24"/>
-        <v>0.71165055175994518</v>
-      </c>
-      <c r="M53" s="52">
-        <f t="shared" si="24"/>
-        <v>0.71165055175994518</v>
-      </c>
-      <c r="N53" s="196">
-        <v>5</v>
-      </c>
-      <c r="O53" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="P53" s="52"/>
-      <c r="R53" s="147">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18">
-      <c r="B54" s="21" t="str">
-        <f>Imports_Bio!B14</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C54" s="21" t="str">
-        <f>Imports_Bio!C14</f>
-        <v>IMPBIOWPE_S2</v>
-      </c>
-      <c r="D54" s="21" t="str">
-        <f>Imports_Bio!D14</f>
-        <v>Import of Wood Pellets  - Step 2</v>
-      </c>
-      <c r="E54" s="22" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F54" s="148">
-        <v>0</v>
-      </c>
-      <c r="G54" s="50">
-        <f>G53*2</f>
-        <v>1.4233011035198904</v>
-      </c>
-      <c r="H54" s="50">
-        <f t="shared" ref="H54:M55" si="25">H53*2</f>
-        <v>1.4233011035198904</v>
-      </c>
-      <c r="I54" s="50">
-        <f t="shared" si="25"/>
-        <v>1.4233011035198904</v>
-      </c>
-      <c r="J54" s="50">
-        <f t="shared" si="25"/>
-        <v>1.4233011035198904</v>
-      </c>
-      <c r="K54" s="50">
-        <f t="shared" si="25"/>
-        <v>1.4233011035198904</v>
-      </c>
-      <c r="L54" s="50">
-        <f t="shared" si="25"/>
-        <v>1.4233011035198904</v>
-      </c>
-      <c r="M54" s="50">
-        <f t="shared" si="25"/>
-        <v>1.4233011035198904</v>
-      </c>
-      <c r="N54" s="197">
-        <v>5</v>
-      </c>
-      <c r="O54" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="P54" s="50"/>
-      <c r="R54" s="25"/>
-    </row>
-    <row r="55" spans="2:18">
-      <c r="B55" s="21" t="str">
-        <f>Imports_Bio!B15</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C55" s="21" t="str">
-        <f>Imports_Bio!C15</f>
-        <v>IMPBIOWPE_S3</v>
-      </c>
-      <c r="D55" s="21" t="str">
-        <f>Imports_Bio!D15</f>
-        <v>Import of Wood Pellets  - Step 3</v>
-      </c>
-      <c r="E55" s="22" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F55" s="148">
-        <v>0</v>
-      </c>
-      <c r="G55" s="50">
-        <f>G54*2</f>
-        <v>2.8466022070397807</v>
-      </c>
-      <c r="H55" s="50">
-        <f t="shared" si="25"/>
-        <v>2.8466022070397807</v>
-      </c>
-      <c r="I55" s="50">
-        <f t="shared" si="25"/>
-        <v>2.8466022070397807</v>
-      </c>
-      <c r="J55" s="50">
-        <f t="shared" si="25"/>
-        <v>2.8466022070397807</v>
-      </c>
-      <c r="K55" s="50">
-        <f t="shared" si="25"/>
-        <v>2.8466022070397807</v>
-      </c>
-      <c r="L55" s="50">
-        <f t="shared" si="25"/>
-        <v>2.8466022070397807</v>
-      </c>
-      <c r="M55" s="50">
-        <f t="shared" si="25"/>
-        <v>2.8466022070397807</v>
-      </c>
-      <c r="N55" s="197">
-        <v>5</v>
-      </c>
-      <c r="O55" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="P55" s="50"/>
-      <c r="R55" s="25"/>
-    </row>
-    <row r="56" spans="2:18">
-      <c r="B56" s="45" t="str">
-        <f>"*"&amp;Imports_Bio!B16</f>
-        <v>*IE,National</v>
-      </c>
-      <c r="C56" s="45" t="str">
-        <f>"*"&amp;Imports_Bio!C16</f>
-        <v>*IMPBIOWPE_S4</v>
-      </c>
-      <c r="D56" s="45" t="str">
-        <f>Imports_Bio!D16</f>
-        <v>Import of Wood Pellets  - Step 4</v>
-      </c>
-      <c r="E56" s="39" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F56" s="150">
-        <v>0</v>
-      </c>
-      <c r="G56" s="51">
-        <f>G57-SUM(G53:G55)</f>
-        <v>105.16490614168039</v>
-      </c>
-      <c r="H56" s="51">
-        <f t="shared" ref="H56:M56" si="26">H57-SUM(H53:H55)</f>
-        <v>105.16490614168039</v>
-      </c>
-      <c r="I56" s="51">
-        <f t="shared" si="26"/>
-        <v>105.16490614168039</v>
-      </c>
-      <c r="J56" s="51">
-        <f t="shared" si="26"/>
-        <v>105.16490614168039</v>
-      </c>
-      <c r="K56" s="51">
-        <f t="shared" si="26"/>
-        <v>105.16490614168039</v>
-      </c>
-      <c r="L56" s="51">
-        <f t="shared" si="26"/>
-        <v>105.16490614168039</v>
-      </c>
-      <c r="M56" s="51">
-        <f t="shared" si="26"/>
-        <v>105.16490614168039</v>
-      </c>
-      <c r="N56" s="198">
-        <v>5</v>
-      </c>
-      <c r="O56" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="P56" s="51"/>
-      <c r="R56" s="25"/>
-    </row>
-    <row r="57" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B57" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53">
-        <f>H57</f>
-        <v>110.14646000400001</v>
-      </c>
-      <c r="H57" s="53">
-        <f>I57</f>
-        <v>110.14646000400001</v>
-      </c>
-      <c r="I57" s="53">
-        <f>'SEAI-AEA_BioData'!G52*Conversions!$C$2/1000</f>
-        <v>110.14646000400001</v>
-      </c>
-      <c r="J57" s="53">
-        <f>I57</f>
-        <v>110.14646000400001</v>
-      </c>
-      <c r="K57" s="53">
-        <f t="shared" ref="K57:M57" si="27">J57</f>
-        <v>110.14646000400001</v>
-      </c>
-      <c r="L57" s="53">
-        <f t="shared" si="27"/>
-        <v>110.14646000400001</v>
-      </c>
-      <c r="M57" s="53">
-        <f t="shared" si="27"/>
-        <v>110.14646000400001</v>
-      </c>
-      <c r="N57" s="199"/>
-      <c r="O57" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="P57" s="53"/>
-      <c r="R57" s="25"/>
-    </row>
-    <row r="58" spans="2:18">
-      <c r="B58" s="43" t="str">
-        <f>Imports_Bio!B17</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C58" s="43" t="str">
-        <f>Imports_Bio!C17</f>
-        <v>IMPBIOWCH_S1</v>
-      </c>
-      <c r="D58" s="43" t="str">
-        <f>Imports_Bio!D17</f>
-        <v>Import of Wood Chip  - Step 1</v>
-      </c>
-      <c r="E58" s="44" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F58" s="146">
-        <f>'EB2018'!AE3*Conversions!$C$2*Imports_Bio!$R$58</f>
-        <v>0.30499309361140514</v>
-      </c>
-      <c r="G58" s="52">
-        <f>MAX(F58:F58)</f>
-        <v>0.30499309361140514</v>
-      </c>
-      <c r="H58" s="52">
-        <f>G58</f>
-        <v>0.30499309361140514</v>
-      </c>
-      <c r="I58" s="52">
-        <f t="shared" ref="I58:M58" si="28">H58</f>
-        <v>0.30499309361140514</v>
-      </c>
-      <c r="J58" s="52">
-        <f t="shared" si="28"/>
-        <v>0.30499309361140514</v>
-      </c>
-      <c r="K58" s="52">
-        <f t="shared" si="28"/>
-        <v>0.30499309361140514</v>
-      </c>
-      <c r="L58" s="52">
-        <f t="shared" si="28"/>
-        <v>0.30499309361140514</v>
-      </c>
-      <c r="M58" s="52">
-        <f t="shared" si="28"/>
-        <v>0.30499309361140514</v>
-      </c>
-      <c r="N58" s="196">
-        <v>5</v>
-      </c>
-      <c r="O58" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="P58" s="52"/>
-      <c r="R58" s="145">
-        <f>1-R53</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="59" spans="2:18">
-      <c r="B59" s="21" t="str">
-        <f>Imports_Bio!B18</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C59" s="21" t="str">
-        <f>Imports_Bio!C18</f>
-        <v>IMPBIOWCH_S2</v>
-      </c>
-      <c r="D59" s="21" t="str">
-        <f>Imports_Bio!D18</f>
-        <v>Import of Wood Chip  - Step 2</v>
-      </c>
-      <c r="E59" s="22" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F59" s="148">
-        <v>0</v>
-      </c>
-      <c r="G59" s="50">
-        <f>G58*2</f>
-        <v>0.60998618722281028</v>
-      </c>
-      <c r="H59" s="50">
-        <f t="shared" ref="H59:M60" si="29">H58*2</f>
-        <v>0.60998618722281028</v>
-      </c>
-      <c r="I59" s="50">
-        <f t="shared" si="29"/>
-        <v>0.60998618722281028</v>
-      </c>
-      <c r="J59" s="50">
-        <f t="shared" si="29"/>
-        <v>0.60998618722281028</v>
-      </c>
-      <c r="K59" s="50">
-        <f t="shared" si="29"/>
-        <v>0.60998618722281028</v>
-      </c>
-      <c r="L59" s="50">
-        <f t="shared" si="29"/>
-        <v>0.60998618722281028</v>
-      </c>
-      <c r="M59" s="50">
-        <f t="shared" si="29"/>
-        <v>0.60998618722281028</v>
-      </c>
-      <c r="N59" s="197">
-        <v>5</v>
-      </c>
-      <c r="O59" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="P59" s="50"/>
-      <c r="R59" s="25"/>
-    </row>
-    <row r="60" spans="2:18">
-      <c r="B60" s="21" t="str">
-        <f>Imports_Bio!B19</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C60" s="21" t="str">
-        <f>Imports_Bio!C19</f>
-        <v>IMPBIOWCH_S3</v>
-      </c>
-      <c r="D60" s="21" t="str">
-        <f>Imports_Bio!D19</f>
-        <v>Import of Wood Chip  - Step 3</v>
-      </c>
-      <c r="E60" s="22" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F60" s="148">
-        <v>0</v>
-      </c>
-      <c r="G60" s="50">
-        <f>G59*2</f>
-        <v>1.2199723744456206</v>
-      </c>
-      <c r="H60" s="50">
-        <f t="shared" si="29"/>
-        <v>1.2199723744456206</v>
-      </c>
-      <c r="I60" s="50">
-        <f t="shared" si="29"/>
-        <v>1.2199723744456206</v>
-      </c>
-      <c r="J60" s="50">
-        <f t="shared" si="29"/>
-        <v>1.2199723744456206</v>
-      </c>
-      <c r="K60" s="50">
-        <f t="shared" si="29"/>
-        <v>1.2199723744456206</v>
-      </c>
-      <c r="L60" s="50">
-        <f t="shared" si="29"/>
-        <v>1.2199723744456206</v>
-      </c>
-      <c r="M60" s="50">
-        <f t="shared" si="29"/>
-        <v>1.2199723744456206</v>
-      </c>
-      <c r="N60" s="197">
-        <v>5</v>
-      </c>
-      <c r="O60" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="P60" s="50"/>
-      <c r="R60" s="25"/>
-    </row>
-    <row r="61" spans="2:18">
-      <c r="B61" s="45" t="str">
-        <f>"*"&amp;Imports_Bio!B20</f>
-        <v>*IE,National</v>
-      </c>
-      <c r="C61" s="45" t="str">
-        <f>"*"&amp;Imports_Bio!C20</f>
-        <v>*IMPBIOWCH_S4</v>
-      </c>
-      <c r="D61" s="45" t="str">
-        <f>Imports_Bio!D20</f>
-        <v>Import of Wood Chip  - Step 4</v>
-      </c>
-      <c r="E61" s="39" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F61" s="150">
-        <v>0</v>
-      </c>
-      <c r="G61" s="51">
-        <f>G62-SUM(G58:G60)</f>
-        <v>34.580521056720166</v>
-      </c>
-      <c r="H61" s="51">
-        <f t="shared" ref="H61:M61" si="30">H62-SUM(H58:H60)</f>
-        <v>34.580521056720166</v>
-      </c>
-      <c r="I61" s="51">
-        <f t="shared" si="30"/>
-        <v>34.580521056720166</v>
-      </c>
-      <c r="J61" s="51">
-        <f t="shared" si="30"/>
-        <v>34.580521056720166</v>
-      </c>
-      <c r="K61" s="51">
-        <f t="shared" si="30"/>
-        <v>34.580521056720166</v>
-      </c>
-      <c r="L61" s="51">
-        <f t="shared" si="30"/>
-        <v>34.580521056720166</v>
-      </c>
-      <c r="M61" s="51">
-        <f t="shared" si="30"/>
-        <v>34.580521056720166</v>
-      </c>
-      <c r="N61" s="198">
-        <v>5</v>
-      </c>
-      <c r="O61" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="P61" s="51"/>
-      <c r="R61" s="25"/>
-    </row>
-    <row r="62" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B62" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54">
-        <f>H62</f>
-        <v>36.715472712</v>
-      </c>
-      <c r="H62" s="54">
-        <f>I62</f>
-        <v>36.715472712</v>
-      </c>
-      <c r="I62" s="54">
-        <f>'SEAI-AEA_BioData'!G50*Conversions!$C$2/1000</f>
-        <v>36.715472712</v>
-      </c>
-      <c r="J62" s="54">
-        <f>I62</f>
-        <v>36.715472712</v>
-      </c>
-      <c r="K62" s="54">
-        <f>J62</f>
-        <v>36.715472712</v>
-      </c>
-      <c r="L62" s="54">
-        <f>K62</f>
-        <v>36.715472712</v>
-      </c>
-      <c r="M62" s="54">
-        <f>L62</f>
-        <v>36.715472712</v>
-      </c>
-      <c r="N62" s="200"/>
-      <c r="O62" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="P62" s="54"/>
-      <c r="R62" s="25"/>
+      <c r="C12" s="2" t="str">
+        <f>D5</f>
+        <v>MINCO2-CAL</v>
+      </c>
+      <c r="D12" s="439" t="s">
+        <v>651</v>
+      </c>
+      <c r="E12" s="259" t="s">
+        <v>632</v>
+      </c>
+      <c r="F12" s="55">
+        <v>1000000</v>
+      </c>
+      <c r="G12" s="440">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="E13" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="E14" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="E15" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="E16" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="E17" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" t="s">
+        <v>638</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K30:K37"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8332C7B0-7DE8-416C-8B4A-B971426AFEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4549E2-0BB7-48EA-965A-9EED35BA4628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="23" r:id="rId1"/>
@@ -11012,8 +11012,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:W79"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -13424,9 +13424,9 @@
       </c>
     </row>
     <row r="59" spans="2:18">
-      <c r="B59" s="21" t="str">
-        <f>Imports_Bio!B18</f>
-        <v>IE,National</v>
+      <c r="B59" s="45" t="str">
+        <f>"*"&amp;Imports_Bio!B18</f>
+        <v>*IE,National</v>
       </c>
       <c r="C59" s="21" t="str">
         <f>Imports_Bio!C18</f>
@@ -13481,9 +13481,9 @@
       <c r="R59" s="25"/>
     </row>
     <row r="60" spans="2:18">
-      <c r="B60" s="21" t="str">
-        <f>Imports_Bio!B19</f>
-        <v>IE,National</v>
+      <c r="B60" s="45" t="str">
+        <f>"*"&amp;Imports_Bio!B19</f>
+        <v>*IE,National</v>
       </c>
       <c r="C60" s="21" t="str">
         <f>Imports_Bio!C19</f>
@@ -17089,7 +17089,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -34154,6 +34154,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -34299,22 +34314,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F32A5943-069C-47E6-B7B1-1C4E8CC11B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34330,28 +34354,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4549E2-0BB7-48EA-965A-9EED35BA4628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EF9D24-3268-4AF2-B42B-C5AA7C1C3883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11012,8 +11012,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:W79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -34154,21 +34154,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -34314,31 +34299,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F32A5943-069C-47E6-B7B1-1C4E8CC11B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34354,4 +34330,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BSuleimenov\Documents\GitHub\times-ireland-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DA9FFA-BA26-42CE-B995-8C1FE3552E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7591C58C-5EE2-44A2-8F13-901F2C2B1889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3389,9 +3389,6 @@
     <t>SUPCO2N</t>
   </si>
   <si>
-    <t>DISTLAND</t>
-  </si>
-  <si>
     <t>AGR_LAND</t>
   </si>
   <si>
@@ -3420,6 +3417,9 @@
   </si>
   <si>
     <t>haa</t>
+  </si>
+  <si>
+    <t>MINLAND</t>
   </si>
 </sst>
 </file>
@@ -13946,8 +13946,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -14581,7 +14581,7 @@
     </row>
     <row r="24" spans="2:15">
       <c r="C24" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="D24" t="str">
         <f>Processes!E86</f>
@@ -27105,10 +27105,10 @@
     </row>
     <row r="85" spans="2:11">
       <c r="B85" s="201" t="s">
+        <v>670</v>
+      </c>
+      <c r="C85" s="202" t="s">
         <v>671</v>
-      </c>
-      <c r="C85" s="202" t="s">
-        <v>672</v>
       </c>
       <c r="E85" s="167" t="str">
         <f>I85&amp;$P$5&amp;H85&amp;J85</f>
@@ -28694,13 +28694,13 @@
         <v>270</v>
       </c>
       <c r="C77" s="202" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D77" s="202" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E77" s="202" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F77" s="202"/>
     </row>
@@ -28709,13 +28709,13 @@
         <v>270</v>
       </c>
       <c r="C78" s="202" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D78" s="202" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E78" s="202" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F78" s="202"/>
     </row>
@@ -28724,13 +28724,13 @@
         <v>270</v>
       </c>
       <c r="C79" s="202" t="s">
+        <v>665</v>
+      </c>
+      <c r="D79" s="202" t="s">
+        <v>669</v>
+      </c>
+      <c r="E79" s="202" t="s">
         <v>666</v>
-      </c>
-      <c r="D79" s="202" t="s">
-        <v>670</v>
-      </c>
-      <c r="E79" s="202" t="s">
-        <v>667</v>
       </c>
       <c r="F79" s="202"/>
     </row>
@@ -28745,8 +28745,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:T92"/>
   <sheetViews>
-    <sheetView topLeftCell="B66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView topLeftCell="B54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31003,10 +31003,10 @@
         <v>Domestic Potential of Land Use</v>
       </c>
       <c r="F86" s="204" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G86" s="202" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H86" s="184"/>
       <c r="I86" s="188"/>
@@ -34325,6 +34325,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -34470,35 +34485,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F32A5943-069C-47E6-B7B1-1C4E8CC11B6B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -34520,9 +34510,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F32A5943-069C-47E6-B7B1-1C4E8CC11B6B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EF9D24-3268-4AF2-B42B-C5AA7C1C3883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45DEC44-B4BC-4532-A40B-1CAA0FF45F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="23" r:id="rId1"/>
@@ -1291,7 +1291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="664">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -3378,6 +3378,9 @@
   </si>
   <si>
     <t>SUPCO2N</t>
+  </si>
+  <si>
+    <t>BIOMUN</t>
   </si>
 </sst>
 </file>
@@ -7695,7 +7698,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8159,17 +8162,17 @@
       <selection activeCell="B27" sqref="B27:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="21.7265625" customWidth="1"/>
-    <col min="5" max="6" width="14.08984375" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" customWidth="1"/>
-    <col min="8" max="10" width="8.08984375" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" customWidth="1"/>
-    <col min="12" max="12" width="8.08984375" customWidth="1"/>
+    <col min="1" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.26953125" customWidth="1"/>
-    <col min="15" max="15" width="13.26953125" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -11012,29 +11015,29 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:W79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="9.36328125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="31.90625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" style="23" customWidth="1"/>
-    <col min="6" max="13" width="10.81640625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="12.81640625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="23" customWidth="1"/>
+    <col min="6" max="13" width="10.85546875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="23" customWidth="1"/>
     <col min="15" max="16" width="13" style="23" customWidth="1"/>
-    <col min="17" max="17" width="21.81640625" style="23" customWidth="1"/>
-    <col min="18" max="18" width="29.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="9.08984375" style="23"/>
-    <col min="23" max="23" width="14.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.08984375" style="23"/>
+    <col min="17" max="17" width="21.85546875" style="23" customWidth="1"/>
+    <col min="18" max="18" width="29.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="9.140625" style="23"/>
+    <col min="23" max="23" width="14.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18.5">
+    <row r="2" spans="2:12" ht="18.75">
       <c r="B2" s="3" t="s">
         <v>81</v>
       </c>
@@ -11784,7 +11787,7 @@
       <c r="K21" s="50"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="2:18" ht="18.5">
+    <row r="22" spans="2:18" ht="18.75">
       <c r="B22" s="3" t="s">
         <v>81</v>
       </c>
@@ -11846,7 +11849,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="26.5" thickBot="1">
+    <row r="24" spans="2:18" ht="26.25" thickBot="1">
       <c r="B24" s="9" t="s">
         <v>514</v>
       </c>
@@ -11944,7 +11947,7 @@
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
     </row>
-    <row r="27" spans="2:18" ht="26">
+    <row r="27" spans="2:18" ht="26.25">
       <c r="B27" s="3" t="s">
         <v>109</v>
       </c>
@@ -12003,7 +12006,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="24.9" customHeight="1" thickBot="1">
+    <row r="29" spans="2:18" ht="24.95" customHeight="1" thickBot="1">
       <c r="B29" s="9" t="s">
         <v>514</v>
       </c>
@@ -12042,7 +12045,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="15" thickBot="1">
+    <row r="30" spans="2:18" ht="15.75" thickBot="1">
       <c r="B30" s="43" t="str">
         <f t="shared" ref="B30" si="4">B13</f>
         <v>IE,National</v>
@@ -12401,7 +12404,7 @@
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
     </row>
-    <row r="40" spans="2:23" ht="18.5">
+    <row r="40" spans="2:23" ht="18.75">
       <c r="B40" s="3" t="s">
         <v>82</v>
       </c>
@@ -12763,7 +12766,7 @@
       <c r="V46"/>
       <c r="W46"/>
     </row>
-    <row r="47" spans="2:23" ht="15" thickBot="1">
+    <row r="47" spans="2:23" ht="15.75" thickBot="1">
       <c r="B47" s="46" t="s">
         <v>79</v>
       </c>
@@ -13045,7 +13048,7 @@
       <c r="P51" s="51"/>
       <c r="R51" s="25"/>
     </row>
-    <row r="52" spans="2:18" ht="15" thickBot="1">
+    <row r="52" spans="2:18" ht="15.75" thickBot="1">
       <c r="B52" s="46" t="s">
         <v>79</v>
       </c>
@@ -13319,7 +13322,7 @@
       <c r="P56" s="51"/>
       <c r="R56" s="25"/>
     </row>
-    <row r="57" spans="2:18" ht="15" thickBot="1">
+    <row r="57" spans="2:18" ht="15.75" thickBot="1">
       <c r="B57" s="46" t="s">
         <v>79</v>
       </c>
@@ -13594,7 +13597,7 @@
       <c r="P61" s="51"/>
       <c r="R61" s="25"/>
     </row>
-    <row r="62" spans="2:18" ht="15" thickBot="1">
+    <row r="62" spans="2:18" ht="15.75" thickBot="1">
       <c r="B62" s="48" t="s">
         <v>79</v>
       </c>
@@ -13642,7 +13645,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="66" spans="4:13" ht="15" thickBot="1">
+    <row r="66" spans="4:13" ht="15.75" thickBot="1">
       <c r="D66" s="23" t="s">
         <v>650</v>
       </c>
@@ -13895,23 +13898,23 @@
       <selection activeCell="B2" sqref="B2:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" customWidth="1"/>
-    <col min="10" max="10" width="20.7265625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" customWidth="1"/>
-    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18.5">
+    <row r="2" spans="2:15" ht="18.75">
       <c r="B2" s="3" t="s">
         <v>50</v>
       </c>
@@ -13968,7 +13971,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" thickBot="1">
+    <row r="4" spans="2:15" ht="15.75" thickBot="1">
       <c r="B4" s="9" t="s">
         <v>515</v>
       </c>
@@ -14238,7 +14241,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="2:15" ht="18.5">
+    <row r="13" spans="2:15" ht="18.75">
       <c r="B13" s="3" t="s">
         <v>55</v>
       </c>
@@ -14257,7 +14260,7 @@
       <c r="M13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="2:15" ht="26">
+    <row r="14" spans="2:15" ht="25.5">
       <c r="B14" s="11" t="s">
         <v>513</v>
       </c>
@@ -14287,7 +14290,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="105"/>
     </row>
-    <row r="15" spans="2:15" ht="15" thickBot="1">
+    <row r="15" spans="2:15" ht="15.75" thickBot="1">
       <c r="B15" s="8" t="s">
         <v>515</v>
       </c>
@@ -14596,24 +14599,24 @@
   <dimension ref="B2:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="22"/>
-    <col min="2" max="2" width="12.81640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="69.7265625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" style="22" customWidth="1"/>
-    <col min="7" max="9" width="9.08984375" style="22"/>
-    <col min="10" max="10" width="14.08984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.54296875" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.08984375" style="22"/>
+    <col min="1" max="1" width="9.140625" style="22"/>
+    <col min="2" max="2" width="12.85546875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="69.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="22" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="22"/>
+    <col min="10" max="10" width="14.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="18.5">
+    <row r="2" spans="2:18" ht="18.75">
       <c r="B2" s="3" t="s">
         <v>131</v>
       </c>
@@ -14663,7 +14666,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:18" ht="14.5">
+    <row r="5" spans="2:18" ht="15">
       <c r="B5" s="21" t="str">
         <f>Processes!C51</f>
         <v>IE,National</v>
@@ -14688,7 +14691,7 @@
       </c>
       <c r="R5" s="23"/>
     </row>
-    <row r="6" spans="2:18" ht="14.5">
+    <row r="6" spans="2:18" ht="15">
       <c r="B6" s="21" t="str">
         <f>Processes!C54</f>
         <v>IE,National</v>
@@ -14711,7 +14714,7 @@
       <c r="G6" s="476"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="2:18" ht="14.5">
+    <row r="7" spans="2:18" ht="15">
       <c r="B7" s="21" t="str">
         <f>Processes!C60</f>
         <v>IE,National</v>
@@ -14734,7 +14737,7 @@
       <c r="G7" s="476"/>
       <c r="R7" s="23"/>
     </row>
-    <row r="8" spans="2:18" ht="14.5">
+    <row r="8" spans="2:18" ht="15">
       <c r="B8" s="21" t="str">
         <f>Processes!C66</f>
         <v>IE,National</v>
@@ -14757,7 +14760,7 @@
       <c r="G8" s="476"/>
       <c r="R8" s="23"/>
     </row>
-    <row r="9" spans="2:18" ht="14.5">
+    <row r="9" spans="2:18" ht="15">
       <c r="B9" s="21" t="str">
         <f>Processes!C69</f>
         <v>IE,National</v>
@@ -14780,7 +14783,7 @@
       <c r="G9" s="476"/>
       <c r="R9" s="23"/>
     </row>
-    <row r="10" spans="2:18" ht="14.5">
+    <row r="10" spans="2:18" ht="15">
       <c r="B10" s="21" t="str">
         <f>Processes!C57</f>
         <v>IE,National</v>
@@ -14803,7 +14806,7 @@
       <c r="G10" s="476"/>
       <c r="R10" s="23"/>
     </row>
-    <row r="11" spans="2:18" ht="14.5">
+    <row r="11" spans="2:18" ht="15">
       <c r="B11" s="21" t="str">
         <f>Processes!C72</f>
         <v>IE,National</v>
@@ -14826,7 +14829,7 @@
       <c r="G11" s="476"/>
       <c r="R11" s="23"/>
     </row>
-    <row r="12" spans="2:18" ht="14.5">
+    <row r="12" spans="2:18" ht="15">
       <c r="B12" s="21" t="str">
         <f>Processes!C75</f>
         <v>IE,National</v>
@@ -14849,7 +14852,7 @@
       <c r="G12" s="476"/>
       <c r="R12" s="23"/>
     </row>
-    <row r="13" spans="2:18" ht="14.5">
+    <row r="13" spans="2:18" ht="15">
       <c r="B13" s="21" t="str">
         <f>Processes!C63</f>
         <v>IE,National</v>
@@ -14863,8 +14866,8 @@
         <v>Domestic Potential of Biodegradable Municipal Solid Waste  - Step 1</v>
       </c>
       <c r="E13" s="22" t="str">
-        <f>Commodities!$C$44</f>
-        <v>BIOMSW2</v>
+        <f>Commodities!$C$44&amp;",BIOMUN"</f>
+        <v>BIOMSW2,BIOMUN</v>
       </c>
       <c r="F13" s="50">
         <v>10</v>
@@ -14872,7 +14875,7 @@
       <c r="G13" s="476"/>
       <c r="R13" s="23"/>
     </row>
-    <row r="14" spans="2:18" ht="14.5">
+    <row r="14" spans="2:18" ht="15">
       <c r="B14" s="45" t="str">
         <f>Processes!C78</f>
         <v>IE,National</v>
@@ -14895,7 +14898,7 @@
       <c r="G14" s="476"/>
       <c r="R14" s="23"/>
     </row>
-    <row r="15" spans="2:18" ht="14.5">
+    <row r="15" spans="2:18" ht="15">
       <c r="B15" s="21" t="str">
         <f>Processes!C52</f>
         <v>IE,National</v>
@@ -14918,7 +14921,7 @@
       <c r="G15" s="476"/>
       <c r="R15" s="23"/>
     </row>
-    <row r="16" spans="2:18" ht="14.5">
+    <row r="16" spans="2:18" ht="15">
       <c r="B16" s="21" t="str">
         <f>Processes!C55</f>
         <v>IE,National</v>
@@ -14941,7 +14944,7 @@
       <c r="G16" s="476"/>
       <c r="R16" s="23"/>
     </row>
-    <row r="17" spans="2:18" ht="14.5">
+    <row r="17" spans="2:18" ht="15">
       <c r="B17" s="21" t="str">
         <f>Processes!C61</f>
         <v>IE,National</v>
@@ -14964,7 +14967,7 @@
       <c r="G17" s="476"/>
       <c r="R17" s="23"/>
     </row>
-    <row r="18" spans="2:18" ht="14.5">
+    <row r="18" spans="2:18" ht="15">
       <c r="B18" s="21" t="str">
         <f>Processes!C67</f>
         <v>IE,National</v>
@@ -14987,7 +14990,7 @@
       <c r="G18" s="476"/>
       <c r="R18" s="23"/>
     </row>
-    <row r="19" spans="2:18" ht="14.5">
+    <row r="19" spans="2:18" ht="15">
       <c r="B19" s="21" t="str">
         <f>Processes!C70</f>
         <v>IE,National</v>
@@ -15010,7 +15013,7 @@
       <c r="G19" s="476"/>
       <c r="R19" s="23"/>
     </row>
-    <row r="20" spans="2:18" ht="14.5">
+    <row r="20" spans="2:18" ht="15">
       <c r="B20" s="21" t="str">
         <f>Processes!C58</f>
         <v>IE,National</v>
@@ -15091,8 +15094,8 @@
         <v>Domestic Potential of Biodegradable Municipal Solid Waste  - Step 2</v>
       </c>
       <c r="E23" s="22" t="str">
-        <f>Commodities!$C$44</f>
-        <v>BIOMSW2</v>
+        <f>Commodities!$C$44&amp;",BIOMUN"</f>
+        <v>BIOMSW2,BIOMUN</v>
       </c>
       <c r="F23" s="50">
         <v>10</v>
@@ -15311,8 +15314,8 @@
         <v>Domestic Potential of Biodegradable Municipal Solid Waste  - Step 3</v>
       </c>
       <c r="E33" s="22" t="str">
-        <f>Commodities!$C$44</f>
-        <v>BIOMSW2</v>
+        <f>Commodities!$C$44&amp;",BIOMUN"</f>
+        <v>BIOMSW2,BIOMUN</v>
       </c>
       <c r="F33" s="50">
         <v>10</v>
@@ -15353,7 +15356,7 @@
       <c r="F36" s="50"/>
       <c r="G36" s="190"/>
     </row>
-    <row r="37" spans="2:7" ht="14.5">
+    <row r="37" spans="2:7" ht="15">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -15361,7 +15364,7 @@
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="2:7" ht="14.5">
+    <row r="38" spans="2:7" ht="15">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -15369,7 +15372,7 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="2:7" ht="14.5">
+    <row r="39" spans="2:7" ht="15">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -15377,7 +15380,7 @@
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="2:7" ht="14.5">
+    <row r="40" spans="2:7" ht="15">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -15385,7 +15388,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="2:7" ht="14.5">
+    <row r="41" spans="2:7" ht="15">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -15393,7 +15396,7 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="2:7" ht="14.5">
+    <row r="42" spans="2:7" ht="15">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -15419,21 +15422,21 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="23"/>
-    <col min="2" max="2" width="9.7265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="9.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="23" customWidth="1"/>
     <col min="4" max="4" width="17" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="23"/>
-    <col min="7" max="20" width="9.26953125" style="25" customWidth="1"/>
-    <col min="21" max="23" width="9.26953125" style="23" customWidth="1"/>
-    <col min="24" max="24" width="28.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.08984375" style="23"/>
-    <col min="26" max="26" width="13.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="23"/>
+    <col min="7" max="20" width="9.28515625" style="25" customWidth="1"/>
+    <col min="21" max="23" width="9.28515625" style="23" customWidth="1"/>
+    <col min="24" max="24" width="28.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="23"/>
+    <col min="26" max="26" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17" style="23" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.08984375" style="23"/>
+    <col min="28" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26">
@@ -15441,7 +15444,7 @@
       <c r="S1" s="23"/>
       <c r="T1" s="23"/>
     </row>
-    <row r="2" spans="2:26" ht="18.5">
+    <row r="2" spans="2:26" ht="18.75">
       <c r="B2" s="112" t="s">
         <v>145</v>
       </c>
@@ -15466,7 +15469,7 @@
       <c r="S2" s="124"/>
       <c r="T2" s="23"/>
     </row>
-    <row r="3" spans="2:26" ht="26">
+    <row r="3" spans="2:26" ht="25.5">
       <c r="B3" s="110" t="s">
         <v>513</v>
       </c>
@@ -16192,29 +16195,29 @@
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="23"/>
-    <col min="2" max="2" width="13.26953125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="46.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="23" customWidth="1"/>
     <col min="6" max="6" width="10" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" style="23" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="23" customWidth="1"/>
     <col min="10" max="10" width="11" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="10.08984375" style="23" customWidth="1"/>
-    <col min="16" max="16" width="9.7265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="10.26953125" style="23" customWidth="1"/>
-    <col min="22" max="22" width="9.08984375" style="23"/>
+    <col min="11" max="15" width="10.140625" style="23" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="10.28515625" style="23" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="23"/>
     <col min="23" max="23" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.08984375" style="23"/>
+    <col min="24" max="24" width="26.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="18.5">
+    <row r="2" spans="2:20" ht="18.75">
       <c r="B2" s="3" t="s">
         <v>57</v>
       </c>
@@ -16280,7 +16283,7 @@
       </c>
       <c r="R3"/>
     </row>
-    <row r="4" spans="2:20" ht="15" thickBot="1">
+    <row r="4" spans="2:20" ht="15.75" thickBot="1">
       <c r="B4" s="13" t="s">
         <v>515</v>
       </c>
@@ -17093,11 +17096,11 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="23"/>
-    <col min="2" max="2" width="18.81640625" style="23" customWidth="1"/>
-    <col min="3" max="16384" width="9.08984375" style="23"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="18.85546875" style="23" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -17114,7 +17117,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1">
       <c r="B5" s="163" t="s">
         <v>16</v>
       </c>
@@ -17203,7 +17206,7 @@
       </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="2:7" ht="15" thickBot="1">
+    <row r="17" spans="2:7" ht="15.75" thickBot="1">
       <c r="B17" s="163" t="s">
         <v>16</v>
       </c>
@@ -17374,9 +17377,9 @@
       <selection pane="topRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17421,7 +17424,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" thickBot="1">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1">
       <c r="A3" s="69" t="s">
         <v>92</v>
       </c>
@@ -17456,7 +17459,7 @@
       </c>
       <c r="Q4" s="23"/>
     </row>
-    <row r="5" spans="1:22" ht="15" thickBot="1">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1">
       <c r="A5" s="75" t="s">
         <v>96</v>
       </c>
@@ -17466,7 +17469,7 @@
       </c>
       <c r="J5" s="23"/>
     </row>
-    <row r="6" spans="1:22" ht="15" thickBot="1">
+    <row r="6" spans="1:22" ht="15.75" thickBot="1">
       <c r="A6" s="77"/>
       <c r="B6" s="78" t="s">
         <v>18</v>
@@ -17509,7 +17512,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" thickBot="1">
+    <row r="7" spans="1:22" ht="15.75" thickBot="1">
       <c r="A7" s="80" t="s">
         <v>98</v>
       </c>
@@ -17562,7 +17565,7 @@
       <c r="R7" s="84"/>
       <c r="S7" s="84"/>
     </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1">
+    <row r="8" spans="1:22" ht="15.75" thickBot="1">
       <c r="A8" s="80" t="s">
         <v>98</v>
       </c>
@@ -17615,7 +17618,7 @@
       <c r="R8" s="84"/>
       <c r="S8" s="84"/>
     </row>
-    <row r="9" spans="1:22" ht="15" thickBot="1">
+    <row r="9" spans="1:22" ht="15.75" thickBot="1">
       <c r="A9" s="80" t="s">
         <v>103</v>
       </c>
@@ -17668,7 +17671,7 @@
       <c r="R9" s="84"/>
       <c r="S9" s="84"/>
     </row>
-    <row r="10" spans="1:22" ht="15" thickBot="1">
+    <row r="10" spans="1:22" ht="15.75" thickBot="1">
       <c r="A10" s="80" t="s">
         <v>103</v>
       </c>
@@ -17721,7 +17724,7 @@
       <c r="R10" s="84"/>
       <c r="S10" s="84"/>
     </row>
-    <row r="11" spans="1:22" ht="15" thickBot="1">
+    <row r="11" spans="1:22" ht="15.75" thickBot="1">
       <c r="A11" s="80" t="s">
         <v>83</v>
       </c>
@@ -17768,7 +17771,7 @@
         <v>5.4816516360000005</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" thickBot="1">
+    <row r="12" spans="1:22" ht="15.75" thickBot="1">
       <c r="A12" s="80" t="s">
         <v>83</v>
       </c>
@@ -17815,7 +17818,7 @@
         <v>13.781408235406515</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1">
+    <row r="13" spans="1:22" ht="15.75" thickBot="1">
       <c r="A13" s="80" t="s">
         <v>84</v>
       </c>
@@ -17862,7 +17865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1">
+    <row r="14" spans="1:22" ht="15.75" thickBot="1">
       <c r="A14" s="80" t="s">
         <v>84</v>
       </c>
@@ -17915,7 +17918,7 @@
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1">
+    <row r="16" spans="1:22" ht="15.75" thickBot="1">
       <c r="A16" s="75" t="s">
         <v>100</v>
       </c>
@@ -17931,7 +17934,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15" thickBot="1">
+    <row r="17" spans="1:26" ht="15.75" thickBot="1">
       <c r="A17" s="77"/>
       <c r="B17" s="78" t="s">
         <v>18</v>
@@ -18001,7 +18004,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15" thickBot="1">
+    <row r="18" spans="1:26" ht="15.75" thickBot="1">
       <c r="A18" s="80" t="s">
         <v>98</v>
       </c>
@@ -18050,7 +18053,7 @@
       <c r="O18" s="23"/>
       <c r="P18" s="87"/>
     </row>
-    <row r="19" spans="1:26" ht="15" thickBot="1">
+    <row r="19" spans="1:26" ht="15.75" thickBot="1">
       <c r="A19" s="80" t="s">
         <v>98</v>
       </c>
@@ -18137,7 +18140,7 @@
         <v>2.6576562288177672</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" thickBot="1">
+    <row r="20" spans="1:26" ht="15.75" thickBot="1">
       <c r="A20" s="80" t="s">
         <v>103</v>
       </c>
@@ -18184,7 +18187,7 @@
         <v>144.52992698400001</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" thickBot="1">
+    <row r="21" spans="1:26" ht="15.75" thickBot="1">
       <c r="A21" s="80" t="s">
         <v>103</v>
       </c>
@@ -18271,7 +18274,7 @@
         <v>5.4463236801828891</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" thickBot="1">
+    <row r="22" spans="1:26" ht="15.75" thickBot="1">
       <c r="A22" s="80" t="s">
         <v>83</v>
       </c>
@@ -18319,7 +18322,7 @@
       </c>
       <c r="P22" s="87"/>
     </row>
-    <row r="23" spans="1:26" ht="15" thickBot="1">
+    <row r="23" spans="1:26" ht="15.75" thickBot="1">
       <c r="A23" s="80" t="s">
         <v>83</v>
       </c>
@@ -18406,7 +18409,7 @@
         <v>12.446066141998699</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" thickBot="1">
+    <row r="24" spans="1:26" ht="15.75" thickBot="1">
       <c r="A24" s="80" t="s">
         <v>84</v>
       </c>
@@ -18453,7 +18456,7 @@
         <v>3.8660492520000003</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" thickBot="1">
+    <row r="25" spans="1:26" ht="15.75" thickBot="1">
       <c r="A25" s="80" t="s">
         <v>84</v>
       </c>
@@ -18540,7 +18543,7 @@
         <v>24.555246283161342</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" thickBot="1">
+    <row r="26" spans="1:26" ht="15.75" thickBot="1">
       <c r="A26" s="75" t="s">
         <v>102</v>
       </c>
@@ -18557,7 +18560,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" thickBot="1">
+    <row r="27" spans="1:26" ht="15.75" thickBot="1">
       <c r="A27" s="90"/>
       <c r="B27" s="78" t="s">
         <v>18</v>
@@ -18627,7 +18630,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" thickBot="1">
+    <row r="28" spans="1:26" ht="15.75" thickBot="1">
       <c r="A28" s="80" t="s">
         <v>98</v>
       </c>
@@ -18675,7 +18678,7 @@
       </c>
       <c r="P28" s="87"/>
     </row>
-    <row r="29" spans="1:26" ht="15" thickBot="1">
+    <row r="29" spans="1:26" ht="15.75" thickBot="1">
       <c r="A29" s="80" t="s">
         <v>98</v>
       </c>
@@ -18762,7 +18765,7 @@
         <v>3.425007675166559</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" thickBot="1">
+    <row r="30" spans="1:26" ht="15.75" thickBot="1">
       <c r="A30" s="80" t="s">
         <v>103</v>
       </c>
@@ -18809,7 +18812,7 @@
         <v>236.79263826000002</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" thickBot="1">
+    <row r="31" spans="1:26" ht="15.75" thickBot="1">
       <c r="A31" s="80" t="s">
         <v>103</v>
       </c>
@@ -18896,7 +18899,7 @@
         <v>6.8687312392684552</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" thickBot="1">
+    <row r="32" spans="1:26" ht="15.75" thickBot="1">
       <c r="A32" s="80" t="s">
         <v>83</v>
       </c>
@@ -18944,7 +18947,7 @@
       </c>
       <c r="P32" s="87"/>
     </row>
-    <row r="33" spans="1:26" ht="15" thickBot="1">
+    <row r="33" spans="1:26" ht="15.75" thickBot="1">
       <c r="A33" s="80" t="s">
         <v>83</v>
       </c>
@@ -19031,7 +19034,7 @@
         <v>14.991427037204447</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="15" thickBot="1">
+    <row r="34" spans="1:26" ht="15.75" thickBot="1">
       <c r="A34" s="80" t="s">
         <v>84</v>
       </c>
@@ -19078,7 +19081,7 @@
         <v>4.3794765360000003</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="15" thickBot="1">
+    <row r="35" spans="1:26" ht="15.75" thickBot="1">
       <c r="A35" s="80" t="s">
         <v>84</v>
       </c>
@@ -19175,7 +19178,7 @@
       <c r="M36" s="57"/>
       <c r="N36" s="57"/>
     </row>
-    <row r="37" spans="1:26" ht="15" thickBot="1">
+    <row r="37" spans="1:26" ht="15.75" thickBot="1">
       <c r="A37" s="75" t="s">
         <v>104</v>
       </c>
@@ -19195,7 +19198,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="15" thickBot="1">
+    <row r="38" spans="1:26" ht="15.75" thickBot="1">
       <c r="A38" s="77"/>
       <c r="B38" s="78" t="s">
         <v>18</v>
@@ -19265,7 +19268,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="15" thickBot="1">
+    <row r="39" spans="1:26" ht="15.75" thickBot="1">
       <c r="A39" s="80" t="s">
         <v>98</v>
       </c>
@@ -19313,7 +19316,7 @@
       </c>
       <c r="P39" s="87"/>
     </row>
-    <row r="40" spans="1:26" ht="15" thickBot="1">
+    <row r="40" spans="1:26" ht="15.75" thickBot="1">
       <c r="A40" s="80" t="s">
         <v>98</v>
       </c>
@@ -19400,7 +19403,7 @@
         <v>3.0319740075244952</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="15" thickBot="1">
+    <row r="41" spans="1:26" ht="15.75" thickBot="1">
       <c r="A41" s="80" t="s">
         <v>103</v>
       </c>
@@ -19447,7 +19450,7 @@
         <v>17.883748728000004</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="15" thickBot="1">
+    <row r="42" spans="1:26" ht="15.75" thickBot="1">
       <c r="A42" s="80" t="s">
         <v>103</v>
       </c>
@@ -19534,7 +19537,7 @@
         <v>6.1949592375963451</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15" thickBot="1">
+    <row r="43" spans="1:26" ht="15.75" thickBot="1">
       <c r="A43" s="80" t="s">
         <v>83</v>
       </c>
@@ -19582,7 +19585,7 @@
       </c>
       <c r="P43" s="87"/>
     </row>
-    <row r="44" spans="1:26" ht="15" thickBot="1">
+    <row r="44" spans="1:26" ht="15.75" thickBot="1">
       <c r="A44" s="80" t="s">
         <v>83</v>
       </c>
@@ -19669,7 +19672,7 @@
         <v>18.45386649024168</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="15" thickBot="1">
+    <row r="45" spans="1:26" ht="15.75" thickBot="1">
       <c r="A45" s="80" t="s">
         <v>84</v>
       </c>
@@ -19716,7 +19719,7 @@
         <v>4.602800448</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="15" thickBot="1">
+    <row r="46" spans="1:26" ht="15.75" thickBot="1">
       <c r="A46" s="80" t="s">
         <v>84</v>
       </c>
@@ -19813,7 +19816,7 @@
       <c r="M47" s="57"/>
       <c r="N47" s="57"/>
     </row>
-    <row r="48" spans="1:26" ht="15" thickBot="1">
+    <row r="48" spans="1:26" ht="15.75" thickBot="1">
       <c r="A48" s="75" t="s">
         <v>105</v>
       </c>
@@ -19833,7 +19836,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="15" thickBot="1">
+    <row r="49" spans="1:26" ht="15.75" thickBot="1">
       <c r="A49" s="77"/>
       <c r="B49" s="78" t="s">
         <v>18</v>
@@ -19903,7 +19906,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="15" thickBot="1">
+    <row r="50" spans="1:26" ht="15.75" thickBot="1">
       <c r="A50" s="80" t="s">
         <v>98</v>
       </c>
@@ -19951,7 +19954,7 @@
       </c>
       <c r="P50" s="87"/>
     </row>
-    <row r="51" spans="1:26" ht="15" thickBot="1">
+    <row r="51" spans="1:26" ht="15.75" thickBot="1">
       <c r="A51" s="80" t="s">
         <v>98</v>
       </c>
@@ -20038,7 +20041,7 @@
         <v>3.949052565355978</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="15" thickBot="1">
+    <row r="52" spans="1:26" ht="15.75" thickBot="1">
       <c r="A52" s="80" t="s">
         <v>103</v>
       </c>
@@ -20085,7 +20088,7 @@
         <v>110.14646000400001</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="15" thickBot="1">
+    <row r="53" spans="1:26" ht="15.75" thickBot="1">
       <c r="A53" s="80" t="s">
         <v>103</v>
       </c>
@@ -20172,7 +20175,7 @@
         <v>7.8793892417766198</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="15" thickBot="1">
+    <row r="54" spans="1:26" ht="15.75" thickBot="1">
       <c r="A54" s="80" t="s">
         <v>83</v>
       </c>
@@ -20220,7 +20223,7 @@
       </c>
       <c r="P54" s="87"/>
     </row>
-    <row r="55" spans="1:26" ht="15" thickBot="1">
+    <row r="55" spans="1:26" ht="15.75" thickBot="1">
       <c r="A55" s="80" t="s">
         <v>83</v>
       </c>
@@ -20307,7 +20310,7 @@
         <v>22.533930278145014</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="15" thickBot="1">
+    <row r="56" spans="1:26" ht="15.75" thickBot="1">
       <c r="A56" s="80" t="s">
         <v>84</v>
       </c>
@@ -20354,7 +20357,7 @@
         <v>5.1162277320000005</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="15" thickBot="1">
+    <row r="57" spans="1:26" ht="15.75" thickBot="1">
       <c r="A57" s="80" t="s">
         <v>84</v>
       </c>
@@ -20461,9 +20464,9 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.08984375" style="23"/>
+    <col min="1" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -20578,35 +20581,35 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="3.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.54296875" customWidth="1"/>
-    <col min="25" max="25" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:30">
@@ -21077,7 +21080,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1">
       <c r="A10" s="229" t="s">
         <v>279</v>
       </c>
@@ -21319,7 +21322,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -21349,46 +21352,46 @@
       <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="38.08984375" style="133" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" style="133" customWidth="1"/>
     <col min="2" max="2" width="13" style="131" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.54296875" style="134" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" style="134"/>
-    <col min="6" max="6" width="6.08984375" style="135" customWidth="1"/>
-    <col min="7" max="7" width="5.81640625" style="135" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.26953125" style="134" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.08984375" style="135" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" style="134" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="134"/>
+    <col min="6" max="6" width="6.140625" style="135" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="134" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="135" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="135" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.81640625" style="135" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="132" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.08984375" style="131" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.08984375" style="131" customWidth="1"/>
-    <col min="15" max="15" width="5.26953125" style="131" customWidth="1"/>
-    <col min="16" max="16" width="7.26953125" style="131" customWidth="1"/>
-    <col min="17" max="17" width="7.26953125" style="131" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.08984375" style="131" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.26953125" style="131" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.26953125" style="131" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.81640625" style="131" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="5.26953125" style="131" customWidth="1"/>
-    <col min="26" max="26" width="5.26953125" style="135" customWidth="1"/>
-    <col min="27" max="27" width="8.08984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.7265625" style="132" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="5.54296875" style="131" customWidth="1"/>
-    <col min="31" max="31" width="8.7265625" style="131" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.7265625" style="131" customWidth="1"/>
-    <col min="33" max="33" width="5.54296875" style="131" customWidth="1"/>
-    <col min="34" max="34" width="5.81640625" style="131" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="131" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="131" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" style="131" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="131" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="131" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" style="131" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.28515625" style="131" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" style="131" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.85546875" style="131" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="5.28515625" style="131" customWidth="1"/>
+    <col min="26" max="26" width="5.28515625" style="135" customWidth="1"/>
+    <col min="27" max="27" width="8.140625" style="132" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.7109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="5.5703125" style="131" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" style="131" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.7109375" style="131" customWidth="1"/>
+    <col min="33" max="33" width="5.5703125" style="131" customWidth="1"/>
+    <col min="34" max="34" width="5.85546875" style="131" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="7" style="131" customWidth="1"/>
-    <col min="37" max="40" width="5.54296875" style="131" customWidth="1"/>
-    <col min="41" max="41" width="8.7265625" style="132" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.26953125" style="132" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.26953125" style="131" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.08984375" style="131"/>
+    <col min="37" max="40" width="5.5703125" style="131" customWidth="1"/>
+    <col min="41" max="41" width="8.7109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.28515625" style="132" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.28515625" style="131" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="131"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="120" thickBot="1">
+    <row r="1" spans="1:43" ht="111.75" thickBot="1">
       <c r="A1" s="212" t="s">
         <v>428</v>
       </c>
@@ -23979,37 +23982,37 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.54296875" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" customWidth="1"/>
-    <col min="6" max="6" width="85.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.54296875" customWidth="1"/>
-    <col min="16" max="16" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="85.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="1.54296875" customWidth="1"/>
-    <col min="20" max="20" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="1.54296875" customWidth="1"/>
-    <col min="22" max="22" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="1.54296875" customWidth="1"/>
-    <col min="26" max="26" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="1.54296875" customWidth="1"/>
-    <col min="29" max="29" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="1.5703125" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.5703125" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="1.5703125" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="1.5703125" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:29" ht="18.5">
+    <row r="3" spans="2:29" ht="18.75">
       <c r="B3" s="165" t="s">
         <v>282</v>
       </c>
@@ -24038,7 +24041,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="2:29" ht="15" thickBot="1">
+    <row r="4" spans="2:29" ht="15.75" thickBot="1">
       <c r="B4" s="166" t="s">
         <v>279</v>
       </c>
@@ -27093,17 +27096,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:I76"/>
+  <dimension ref="B2:I77"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
@@ -27118,7 +27121,7 @@
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
     </row>
-    <row r="3" spans="2:9" ht="15" thickBot="1">
+    <row r="3" spans="2:9" ht="15.75" thickBot="1">
       <c r="B3" s="166" t="s">
         <v>15</v>
       </c>
@@ -28587,6 +28590,20 @@
       </c>
       <c r="F76" t="s">
         <v>658</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" t="s">
+        <v>663</v>
+      </c>
+      <c r="D77" t="s">
+        <v>259</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -28604,23 +28621,23 @@
       <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" customWidth="1"/>
-    <col min="8" max="8" width="30.26953125" customWidth="1"/>
-    <col min="9" max="9" width="25.26953125" customWidth="1"/>
-    <col min="10" max="10" width="17.26953125" customWidth="1"/>
-    <col min="14" max="14" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.08984375" customWidth="1"/>
+    <col min="5" max="5" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="26">
+    <row r="1" spans="2:10" ht="26.25">
       <c r="B1" s="175" t="s">
         <v>350</v>
       </c>
@@ -28646,7 +28663,7 @@
       <c r="I3" s="170"/>
       <c r="J3" s="170"/>
     </row>
-    <row r="4" spans="2:10" ht="15" thickBot="1">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1">
       <c r="B4" s="166" t="s">
         <v>1</v>
       </c>
@@ -31006,278 +31023,278 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="23"/>
-    <col min="2" max="2" width="11.54296875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="11.5703125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.08984375" style="23"/>
-    <col min="9" max="9" width="10.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.81640625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" style="23"/>
-    <col min="13" max="13" width="11.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="23"/>
+    <col min="9" max="9" width="10.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="23" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="23"/>
+    <col min="13" max="13" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="37" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.81640625" style="23" customWidth="1"/>
-    <col min="18" max="262" width="9.08984375" style="23"/>
-    <col min="263" max="263" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="266" max="518" width="9.08984375" style="23"/>
-    <col min="519" max="519" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="522" max="774" width="9.08984375" style="23"/>
-    <col min="775" max="775" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="778" max="1030" width="9.08984375" style="23"/>
-    <col min="1031" max="1031" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1286" width="9.08984375" style="23"/>
-    <col min="1287" max="1287" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1542" width="9.08984375" style="23"/>
-    <col min="1543" max="1543" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1798" width="9.08984375" style="23"/>
-    <col min="1799" max="1799" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="1802" max="2054" width="9.08984375" style="23"/>
-    <col min="2055" max="2055" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2310" width="9.08984375" style="23"/>
-    <col min="2311" max="2311" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2566" width="9.08984375" style="23"/>
-    <col min="2567" max="2567" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2822" width="9.08984375" style="23"/>
-    <col min="2823" max="2823" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="2826" max="3078" width="9.08984375" style="23"/>
-    <col min="3079" max="3079" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3334" width="9.08984375" style="23"/>
-    <col min="3335" max="3335" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3590" width="9.08984375" style="23"/>
-    <col min="3591" max="3591" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3846" width="9.08984375" style="23"/>
-    <col min="3847" max="3847" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3850" max="4102" width="9.08984375" style="23"/>
-    <col min="4103" max="4103" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4358" width="9.08984375" style="23"/>
-    <col min="4359" max="4359" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4614" width="9.08984375" style="23"/>
-    <col min="4615" max="4615" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4870" width="9.08984375" style="23"/>
-    <col min="4871" max="4871" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4874" max="5126" width="9.08984375" style="23"/>
-    <col min="5127" max="5127" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5382" width="9.08984375" style="23"/>
-    <col min="5383" max="5383" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5638" width="9.08984375" style="23"/>
-    <col min="5639" max="5639" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5894" width="9.08984375" style="23"/>
-    <col min="5895" max="5895" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="5898" max="6150" width="9.08984375" style="23"/>
-    <col min="6151" max="6151" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6406" width="9.08984375" style="23"/>
-    <col min="6407" max="6407" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6662" width="9.08984375" style="23"/>
-    <col min="6663" max="6663" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6918" width="9.08984375" style="23"/>
-    <col min="6919" max="6919" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6922" max="7174" width="9.08984375" style="23"/>
-    <col min="7175" max="7175" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7430" width="9.08984375" style="23"/>
-    <col min="7431" max="7431" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7686" width="9.08984375" style="23"/>
-    <col min="7687" max="7687" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7942" width="9.08984375" style="23"/>
-    <col min="7943" max="7943" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="7946" max="8198" width="9.08984375" style="23"/>
-    <col min="8199" max="8199" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8454" width="9.08984375" style="23"/>
-    <col min="8455" max="8455" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8710" width="9.08984375" style="23"/>
-    <col min="8711" max="8711" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8966" width="9.08984375" style="23"/>
-    <col min="8967" max="8967" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="8970" max="9222" width="9.08984375" style="23"/>
-    <col min="9223" max="9223" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9478" width="9.08984375" style="23"/>
-    <col min="9479" max="9479" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9734" width="9.08984375" style="23"/>
-    <col min="9735" max="9735" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9990" width="9.08984375" style="23"/>
-    <col min="9991" max="9991" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="9994" max="10246" width="9.08984375" style="23"/>
-    <col min="10247" max="10247" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10502" width="9.08984375" style="23"/>
-    <col min="10503" max="10503" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10758" width="9.08984375" style="23"/>
-    <col min="10759" max="10759" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="10762" max="11014" width="9.08984375" style="23"/>
-    <col min="11015" max="11015" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11270" width="9.08984375" style="23"/>
-    <col min="11271" max="11271" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11526" width="9.08984375" style="23"/>
-    <col min="11527" max="11527" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11782" width="9.08984375" style="23"/>
-    <col min="11783" max="11783" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="11786" max="12038" width="9.08984375" style="23"/>
-    <col min="12039" max="12039" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12294" width="9.08984375" style="23"/>
-    <col min="12295" max="12295" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12550" width="9.08984375" style="23"/>
-    <col min="12551" max="12551" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12806" width="9.08984375" style="23"/>
-    <col min="12807" max="12807" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="12810" max="13062" width="9.08984375" style="23"/>
-    <col min="13063" max="13063" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13318" width="9.08984375" style="23"/>
-    <col min="13319" max="13319" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13574" width="9.08984375" style="23"/>
-    <col min="13575" max="13575" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13830" width="9.08984375" style="23"/>
-    <col min="13831" max="13831" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="13834" max="14086" width="9.08984375" style="23"/>
-    <col min="14087" max="14087" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14342" width="9.08984375" style="23"/>
-    <col min="14343" max="14343" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14598" width="9.08984375" style="23"/>
-    <col min="14599" max="14599" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14854" width="9.08984375" style="23"/>
-    <col min="14855" max="14855" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="14858" max="15110" width="9.08984375" style="23"/>
-    <col min="15111" max="15111" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15366" width="9.08984375" style="23"/>
-    <col min="15367" max="15367" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15622" width="9.08984375" style="23"/>
-    <col min="15623" max="15623" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15878" width="9.08984375" style="23"/>
-    <col min="15879" max="15879" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="15882" max="16134" width="9.08984375" style="23"/>
-    <col min="16135" max="16135" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="11.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16384" width="9.08984375" style="23"/>
+    <col min="16" max="17" width="9.85546875" style="23" customWidth="1"/>
+    <col min="18" max="262" width="9.140625" style="23"/>
+    <col min="263" max="263" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="266" max="518" width="9.140625" style="23"/>
+    <col min="519" max="519" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="522" max="774" width="9.140625" style="23"/>
+    <col min="775" max="775" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="778" max="1030" width="9.140625" style="23"/>
+    <col min="1031" max="1031" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1286" width="9.140625" style="23"/>
+    <col min="1287" max="1287" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1542" width="9.140625" style="23"/>
+    <col min="1543" max="1543" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1798" width="9.140625" style="23"/>
+    <col min="1799" max="1799" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1802" max="2054" width="9.140625" style="23"/>
+    <col min="2055" max="2055" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2310" width="9.140625" style="23"/>
+    <col min="2311" max="2311" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2566" width="9.140625" style="23"/>
+    <col min="2567" max="2567" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2822" width="9.140625" style="23"/>
+    <col min="2823" max="2823" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2826" max="3078" width="9.140625" style="23"/>
+    <col min="3079" max="3079" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3334" width="9.140625" style="23"/>
+    <col min="3335" max="3335" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3590" width="9.140625" style="23"/>
+    <col min="3591" max="3591" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3846" width="9.140625" style="23"/>
+    <col min="3847" max="3847" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3850" max="4102" width="9.140625" style="23"/>
+    <col min="4103" max="4103" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4358" width="9.140625" style="23"/>
+    <col min="4359" max="4359" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4614" width="9.140625" style="23"/>
+    <col min="4615" max="4615" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4870" width="9.140625" style="23"/>
+    <col min="4871" max="4871" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4874" max="5126" width="9.140625" style="23"/>
+    <col min="5127" max="5127" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5382" width="9.140625" style="23"/>
+    <col min="5383" max="5383" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5638" width="9.140625" style="23"/>
+    <col min="5639" max="5639" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5894" width="9.140625" style="23"/>
+    <col min="5895" max="5895" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5898" max="6150" width="9.140625" style="23"/>
+    <col min="6151" max="6151" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6406" width="9.140625" style="23"/>
+    <col min="6407" max="6407" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6662" width="9.140625" style="23"/>
+    <col min="6663" max="6663" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6918" width="9.140625" style="23"/>
+    <col min="6919" max="6919" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6922" max="7174" width="9.140625" style="23"/>
+    <col min="7175" max="7175" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7430" width="9.140625" style="23"/>
+    <col min="7431" max="7431" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7686" width="9.140625" style="23"/>
+    <col min="7687" max="7687" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7942" width="9.140625" style="23"/>
+    <col min="7943" max="7943" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7946" max="8198" width="9.140625" style="23"/>
+    <col min="8199" max="8199" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8454" width="9.140625" style="23"/>
+    <col min="8455" max="8455" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8710" width="9.140625" style="23"/>
+    <col min="8711" max="8711" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8966" width="9.140625" style="23"/>
+    <col min="8967" max="8967" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8970" max="9222" width="9.140625" style="23"/>
+    <col min="9223" max="9223" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9478" width="9.140625" style="23"/>
+    <col min="9479" max="9479" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9734" width="9.140625" style="23"/>
+    <col min="9735" max="9735" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9990" width="9.140625" style="23"/>
+    <col min="9991" max="9991" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9994" max="10246" width="9.140625" style="23"/>
+    <col min="10247" max="10247" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10502" width="9.140625" style="23"/>
+    <col min="10503" max="10503" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10758" width="9.140625" style="23"/>
+    <col min="10759" max="10759" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10762" max="11014" width="9.140625" style="23"/>
+    <col min="11015" max="11015" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11270" width="9.140625" style="23"/>
+    <col min="11271" max="11271" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11526" width="9.140625" style="23"/>
+    <col min="11527" max="11527" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11782" width="9.140625" style="23"/>
+    <col min="11783" max="11783" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11786" max="12038" width="9.140625" style="23"/>
+    <col min="12039" max="12039" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12294" width="9.140625" style="23"/>
+    <col min="12295" max="12295" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12550" width="9.140625" style="23"/>
+    <col min="12551" max="12551" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12806" width="9.140625" style="23"/>
+    <col min="12807" max="12807" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12810" max="13062" width="9.140625" style="23"/>
+    <col min="13063" max="13063" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13318" width="9.140625" style="23"/>
+    <col min="13319" max="13319" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13574" width="9.140625" style="23"/>
+    <col min="13575" max="13575" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13830" width="9.140625" style="23"/>
+    <col min="13831" max="13831" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13834" max="14086" width="9.140625" style="23"/>
+    <col min="14087" max="14087" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14342" width="9.140625" style="23"/>
+    <col min="14343" max="14343" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14598" width="9.140625" style="23"/>
+    <col min="14599" max="14599" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14854" width="9.140625" style="23"/>
+    <col min="14855" max="14855" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14858" max="15110" width="9.140625" style="23"/>
+    <col min="15111" max="15111" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15366" width="9.140625" style="23"/>
+    <col min="15367" max="15367" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15622" width="9.140625" style="23"/>
+    <col min="15623" max="15623" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15878" width="9.140625" style="23"/>
+    <col min="15879" max="15879" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15882" max="16134" width="9.140625" style="23"/>
+    <col min="16135" max="16135" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="18.5">
+    <row r="1" spans="2:19" ht="18.75">
       <c r="B1" s="154" t="s">
         <v>224</v>
       </c>
@@ -31324,7 +31341,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="15" thickBot="1">
+    <row r="5" spans="2:19" ht="15.75" thickBot="1">
       <c r="B5" s="159" t="s">
         <v>211</v>
       </c>
@@ -31538,37 +31555,37 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="23"/>
-    <col min="2" max="2" width="12.54296875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.08984375" style="23" customWidth="1"/>
-    <col min="12" max="12" width="12.7265625" style="23" customWidth="1"/>
-    <col min="13" max="13" width="19.08984375" style="23" customWidth="1"/>
-    <col min="14" max="14" width="15.08984375" style="23" customWidth="1"/>
-    <col min="15" max="15" width="10.54296875" style="23" customWidth="1"/>
-    <col min="16" max="22" width="9.08984375" style="23"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="12.5703125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="23" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="23" customWidth="1"/>
+    <col min="16" max="22" width="9.140625" style="23"/>
     <col min="23" max="23" width="16" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.26953125" style="23" customWidth="1"/>
-    <col min="25" max="25" width="38.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.08984375" style="23"/>
+    <col min="24" max="24" width="19.28515625" style="23" customWidth="1"/>
+    <col min="25" max="25" width="38.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="18.5">
+    <row r="1" spans="2:20" ht="18.75">
       <c r="B1" s="3" t="s">
         <v>544</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="3" spans="2:20" ht="18.5">
+    <row r="3" spans="2:20" ht="18.75">
       <c r="G3" s="257" t="s">
         <v>557</v>
       </c>
@@ -31622,7 +31639,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="26.5" thickBot="1">
+    <row r="5" spans="2:20" ht="26.25" thickBot="1">
       <c r="C5" s="9" t="s">
         <v>515</v>
       </c>
@@ -33940,16 +33957,16 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="18.7265625" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.26953125" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
@@ -33965,7 +33982,7 @@
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
     </row>
-    <row r="3" spans="2:10" ht="15" thickBot="1">
+    <row r="3" spans="2:10" ht="15.75" thickBot="1">
       <c r="B3" s="166" t="s">
         <v>1</v>
       </c>
@@ -33994,7 +34011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="52">
+    <row r="4" spans="2:10" ht="51">
       <c r="B4" s="172" t="s">
         <v>133</v>
       </c>
@@ -34051,7 +34068,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:10" ht="15" thickBot="1">
+    <row r="10" spans="2:10" ht="15.75" thickBot="1">
       <c r="B10" s="166" t="s">
         <v>513</v>
       </c>
@@ -34154,6 +34171,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -34299,22 +34331,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F32A5943-069C-47E6-B7B1-1C4E8CC11B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34330,28 +34371,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BSuleimenov\Documents\GitHub\times-ireland-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45DEC44-B4BC-4532-A40B-1CAA0FF45F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7953F24-557C-41C9-B7F4-C6B03856BE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="23" r:id="rId1"/>
@@ -1125,6 +1125,24 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={A395ADEB-EAA4-47F1-BF06-F5E93216F45B}</author>
+  </authors>
+  <commentList>
+    <comment ref="G54" authorId="0" shapeId="0" xr:uid="{A395ADEB-EAA4-47F1-BF06-F5E93216F45B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Share of wood bio resources in CONCAWE report (medium scenario)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>KanORS</author>
   </authors>
   <commentList>
@@ -1180,7 +1198,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={DF35ABC3-9BB5-47E6-9E75-DAC846139278}</author>
@@ -1198,7 +1216,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Alessandro Chiodi</author>
@@ -1232,7 +1250,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={826B8038-8340-4DCF-B1C7-9C31DF36714F}</author>
@@ -3397,7 +3415,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.0;[Red]\-#,##0.0"/>
     <numFmt numFmtId="170" formatCode="#,##0.000;[Red]\-#,##0.000"/>
   </numFmts>
-  <fonts count="66">
+  <fonts count="67">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3853,8 +3871,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4017,6 +4041,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5609,7 +5639,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="480">
+  <cellXfs count="483">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6915,6 +6945,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7698,7 +7737,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>30480</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -7843,6 +7882,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Balyk, Olexandr" id="{7C4C8F66-ABE1-4B54-AB0B-7B0CD7FE4B47}" userId="Balyk, Olexandr" providerId="None"/>
+  <person displayName="Bakytzhan Suleimenov" id="{8DC344A8-B605-4425-B9AE-CA9E273BB438}" userId="S::BSuleimenov@ucc.ie::f6970575-8acf-461c-bc66-0e999b6a9f67" providerId="AD"/>
 </personList>
 </file>
 
@@ -8133,13 +8173,21 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G54" dT="2024-08-19T12:19:07.80" personId="{8DC344A8-B605-4425-B9AE-CA9E273BB438}" id="{A395ADEB-EAA4-47F1-BF06-F5E93216F45B}">
+    <text>Share of wood bio resources in CONCAWE report (medium scenario)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="C22" dT="2021-02-10T13:17:04.18" personId="{7C4C8F66-ABE1-4B54-AB0B-7B0CD7FE4B47}" id="{DF35ABC3-9BB5-47E6-9E75-DAC846139278}">
     <text>to make shares sum up to 1</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="D4" dT="2021-02-12T11:30:44.74" personId="{7C4C8F66-ABE1-4B54-AB0B-7B0CD7FE4B47}" id="{826B8038-8340-4DCF-B1C7-9C31DF36714F}">
     <text>Barrel of Oil Equivalent</text>
@@ -8162,17 +8210,17 @@
       <selection activeCell="B27" sqref="B27:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="1" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="10" width="8.109375" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -11011,33 +11059,33 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:W79"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51:M51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="23" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="23" customWidth="1"/>
-    <col min="6" max="13" width="10.85546875" style="23" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="23" customWidth="1"/>
+    <col min="6" max="13" width="10.88671875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" style="23" customWidth="1"/>
     <col min="15" max="16" width="13" style="23" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" style="23" customWidth="1"/>
-    <col min="18" max="18" width="29.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="9.140625" style="23"/>
-    <col min="23" max="23" width="14.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="23"/>
+    <col min="17" max="17" width="21.88671875" style="23" customWidth="1"/>
+    <col min="18" max="18" width="29.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="9.109375" style="23"/>
+    <col min="23" max="23" width="14.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18.75">
+    <row r="2" spans="2:12" ht="18">
       <c r="B2" s="3" t="s">
         <v>81</v>
       </c>
@@ -11089,7 +11137,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="32.65" customHeight="1" thickBot="1">
+    <row r="4" spans="2:12" ht="32.700000000000003" customHeight="1" thickBot="1">
       <c r="B4" s="9" t="s">
         <v>514</v>
       </c>
@@ -11787,7 +11835,7 @@
       <c r="K21" s="50"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="2:18" ht="18.75">
+    <row r="22" spans="2:18" ht="18">
       <c r="B22" s="3" t="s">
         <v>81</v>
       </c>
@@ -11849,7 +11897,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="26.25" thickBot="1">
+    <row r="24" spans="2:18" ht="28.2" thickBot="1">
       <c r="B24" s="9" t="s">
         <v>514</v>
       </c>
@@ -11947,7 +11995,7 @@
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
     </row>
-    <row r="27" spans="2:18" ht="26.25">
+    <row r="27" spans="2:18" ht="25.8">
       <c r="B27" s="3" t="s">
         <v>109</v>
       </c>
@@ -12006,7 +12054,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="24.95" customHeight="1" thickBot="1">
+    <row r="29" spans="2:18" ht="24.9" customHeight="1" thickBot="1">
       <c r="B29" s="9" t="s">
         <v>514</v>
       </c>
@@ -12045,7 +12093,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="15.75" thickBot="1">
+    <row r="30" spans="2:18" ht="15" thickBot="1">
       <c r="B30" s="43" t="str">
         <f t="shared" ref="B30" si="4">B13</f>
         <v>IE,National</v>
@@ -12404,7 +12452,7 @@
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
     </row>
-    <row r="40" spans="2:23" ht="18.75">
+    <row r="40" spans="2:23" ht="18">
       <c r="B40" s="3" t="s">
         <v>82</v>
       </c>
@@ -12475,7 +12523,7 @@
       <c r="V41"/>
       <c r="W41"/>
     </row>
-    <row r="42" spans="2:23" ht="26.65" customHeight="1" thickBot="1">
+    <row r="42" spans="2:23" ht="26.7" customHeight="1" thickBot="1">
       <c r="B42" s="8" t="s">
         <v>514</v>
       </c>
@@ -12732,25 +12780,25 @@
         <v>0</v>
       </c>
       <c r="G46" s="51">
-        <v>27.064417978971818</v>
+        <v>0</v>
       </c>
       <c r="H46" s="51">
-        <v>27.064417978971818</v>
+        <v>0</v>
       </c>
       <c r="I46" s="51">
-        <v>27.064417978971818</v>
+        <v>0</v>
       </c>
       <c r="J46" s="51">
-        <v>27.064417978971818</v>
+        <v>0</v>
       </c>
       <c r="K46" s="51">
-        <v>27.064417978971818</v>
+        <v>0</v>
       </c>
       <c r="L46" s="51">
-        <v>27.064417978971818</v>
+        <v>0</v>
       </c>
       <c r="M46" s="51">
-        <v>27.064417978971818</v>
+        <v>0</v>
       </c>
       <c r="N46" s="198">
         <v>5</v>
@@ -12766,7 +12814,7 @@
       <c r="V46"/>
       <c r="W46"/>
     </row>
-    <row r="47" spans="2:23" ht="15.75" thickBot="1">
+    <row r="47" spans="2:23" ht="15" thickBot="1">
       <c r="B47" s="46" t="s">
         <v>79</v>
       </c>
@@ -13012,32 +13060,25 @@
         <v>0</v>
       </c>
       <c r="G51" s="51">
-        <f>G52-SUM(G48:G50)</f>
-        <v>72.040001193884791</v>
+        <v>0</v>
       </c>
       <c r="H51" s="51">
-        <f t="shared" ref="H51:M51" si="26">H52-SUM(H48:H50)</f>
-        <v>72.040001193884791</v>
+        <v>0</v>
       </c>
       <c r="I51" s="51">
-        <f t="shared" si="26"/>
-        <v>72.040001193884791</v>
+        <v>0</v>
       </c>
       <c r="J51" s="51">
-        <f t="shared" si="26"/>
-        <v>72.040001193884791</v>
+        <v>0</v>
       </c>
       <c r="K51" s="51">
-        <f t="shared" si="26"/>
-        <v>72.040001193884791</v>
+        <v>0</v>
       </c>
       <c r="L51" s="51">
-        <f t="shared" si="26"/>
-        <v>72.040001193884791</v>
+        <v>0</v>
       </c>
       <c r="M51" s="51">
-        <f t="shared" si="26"/>
-        <v>72.040001193884791</v>
+        <v>0</v>
       </c>
       <c r="N51" s="198">
         <v>5</v>
@@ -13048,7 +13089,7 @@
       <c r="P51" s="51"/>
       <c r="R51" s="25"/>
     </row>
-    <row r="52" spans="2:18" ht="15.75" thickBot="1">
+    <row r="52" spans="2:18" ht="15" thickBot="1">
       <c r="B52" s="46" t="s">
         <v>79</v>
       </c>
@@ -13073,15 +13114,15 @@
         <v>102.75858989456388</v>
       </c>
       <c r="K52" s="54">
-        <f t="shared" ref="K52:M52" si="27">J52</f>
+        <f t="shared" ref="K52:M52" si="26">J52</f>
         <v>102.75858989456388</v>
       </c>
       <c r="L52" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>102.75858989456388</v>
       </c>
       <c r="M52" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>102.75858989456388</v>
       </c>
       <c r="N52" s="199"/>
@@ -13117,27 +13158,27 @@
         <v>1.8</v>
       </c>
       <c r="H53" s="445">
-        <f t="shared" ref="H53:M53" si="28">H67</f>
+        <f t="shared" ref="H53:M53" si="27">H67</f>
         <v>1.8</v>
       </c>
       <c r="I53" s="445">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1.8</v>
       </c>
       <c r="J53" s="445">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1.8</v>
       </c>
       <c r="K53" s="445">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>3.6</v>
       </c>
       <c r="L53" s="445">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>7.2</v>
       </c>
       <c r="M53" s="445">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>7.2</v>
       </c>
       <c r="N53" s="442">
@@ -13171,32 +13212,32 @@
       <c r="F54" s="450">
         <v>0</v>
       </c>
-      <c r="G54" s="445">
-        <f t="shared" ref="G54:M56" si="29">G68</f>
+      <c r="G54" s="482">
+        <f t="shared" ref="G54:M56" si="28">G68</f>
         <v>0</v>
       </c>
-      <c r="H54" s="445">
-        <f t="shared" si="29"/>
+      <c r="H54" s="482">
+        <f t="shared" si="28"/>
         <v>3.6</v>
       </c>
-      <c r="I54" s="445">
-        <f t="shared" si="29"/>
+      <c r="I54" s="482">
+        <f t="shared" si="28"/>
         <v>18</v>
       </c>
-      <c r="J54" s="445">
-        <f t="shared" si="29"/>
+      <c r="J54" s="482">
+        <f t="shared" si="28"/>
         <v>36</v>
       </c>
-      <c r="K54" s="445">
-        <f t="shared" si="29"/>
+      <c r="K54" s="482">
+        <f t="shared" si="28"/>
         <v>54</v>
       </c>
-      <c r="L54" s="445">
-        <f t="shared" si="29"/>
+      <c r="L54" s="482">
+        <f t="shared" si="28"/>
         <v>61.2</v>
       </c>
-      <c r="M54" s="445">
-        <f t="shared" si="29"/>
+      <c r="M54" s="482">
+        <f t="shared" si="28"/>
         <v>61.2</v>
       </c>
       <c r="N54" s="451">
@@ -13229,32 +13270,25 @@
         <v>0</v>
       </c>
       <c r="G55" s="445">
-        <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="H55" s="445">
-        <f t="shared" si="29"/>
+      <c r="H55" s="480">
         <v>0</v>
       </c>
-      <c r="I55" s="445">
-        <f t="shared" si="29"/>
-        <v>54</v>
-      </c>
-      <c r="J55" s="445">
-        <f t="shared" si="29"/>
-        <v>54</v>
-      </c>
-      <c r="K55" s="445">
-        <f t="shared" si="29"/>
-        <v>54</v>
-      </c>
-      <c r="L55" s="445">
-        <f t="shared" si="29"/>
-        <v>54</v>
-      </c>
-      <c r="M55" s="445">
-        <f t="shared" si="29"/>
-        <v>54</v>
+      <c r="I55" s="480">
+        <v>0</v>
+      </c>
+      <c r="J55" s="480">
+        <v>0</v>
+      </c>
+      <c r="K55" s="480">
+        <v>0</v>
+      </c>
+      <c r="L55" s="480">
+        <v>0</v>
+      </c>
+      <c r="M55" s="480">
+        <v>0</v>
       </c>
       <c r="N55" s="451">
         <v>5</v>
@@ -13286,32 +13320,25 @@
         <v>0</v>
       </c>
       <c r="G56" s="447">
-        <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="H56" s="447">
-        <f t="shared" si="29"/>
+      <c r="H56" s="481">
         <v>0</v>
       </c>
-      <c r="I56" s="447">
-        <f t="shared" si="29"/>
+      <c r="I56" s="481">
         <v>0</v>
       </c>
-      <c r="J56" s="447">
-        <f t="shared" si="29"/>
-        <v>3.6</v>
-      </c>
-      <c r="K56" s="447">
-        <f t="shared" si="29"/>
-        <v>36</v>
-      </c>
-      <c r="L56" s="447">
-        <f t="shared" si="29"/>
-        <v>36</v>
-      </c>
-      <c r="M56" s="447">
-        <f t="shared" si="29"/>
-        <v>36</v>
+      <c r="J56" s="481">
+        <v>0</v>
+      </c>
+      <c r="K56" s="481">
+        <v>0</v>
+      </c>
+      <c r="L56" s="481">
+        <v>0</v>
+      </c>
+      <c r="M56" s="481">
+        <v>0</v>
       </c>
       <c r="N56" s="455">
         <v>5</v>
@@ -13322,7 +13349,7 @@
       <c r="P56" s="51"/>
       <c r="R56" s="25"/>
     </row>
-    <row r="57" spans="2:18" ht="15.75" thickBot="1">
+    <row r="57" spans="2:18" ht="15" thickBot="1">
       <c r="B57" s="46" t="s">
         <v>79</v>
       </c>
@@ -13335,28 +13362,28 @@
         <v>1.8</v>
       </c>
       <c r="H57" s="462">
-        <f t="shared" ref="H57:M57" si="30">SUM(H53:H56)</f>
+        <f t="shared" ref="H57:M57" si="29">SUM(H53:H56)</f>
         <v>5.4</v>
       </c>
       <c r="I57" s="462">
-        <f t="shared" si="30"/>
-        <v>73.8</v>
+        <f t="shared" si="29"/>
+        <v>19.8</v>
       </c>
       <c r="J57" s="462">
-        <f t="shared" si="30"/>
-        <v>95.399999999999991</v>
+        <f t="shared" si="29"/>
+        <v>37.799999999999997</v>
       </c>
       <c r="K57" s="462">
-        <f t="shared" si="30"/>
-        <v>147.6</v>
+        <f t="shared" si="29"/>
+        <v>57.6</v>
       </c>
       <c r="L57" s="462">
-        <f t="shared" si="30"/>
-        <v>158.4</v>
+        <f t="shared" si="29"/>
+        <v>68.400000000000006</v>
       </c>
       <c r="M57" s="462">
-        <f t="shared" si="30"/>
-        <v>158.4</v>
+        <f t="shared" si="29"/>
+        <v>68.400000000000006</v>
       </c>
       <c r="N57" s="199"/>
       <c r="O57" s="64" t="s">
@@ -13395,23 +13422,23 @@
         <v>0.30499309361140514</v>
       </c>
       <c r="I58" s="52">
-        <f t="shared" ref="I58:M58" si="31">H58</f>
+        <f t="shared" ref="I58:M58" si="30">H58</f>
         <v>0.30499309361140514</v>
       </c>
       <c r="J58" s="52">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0.30499309361140514</v>
       </c>
       <c r="K58" s="52">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0.30499309361140514</v>
       </c>
       <c r="L58" s="52">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0.30499309361140514</v>
       </c>
       <c r="M58" s="52">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0.30499309361140514</v>
       </c>
       <c r="N58" s="196">
@@ -13451,27 +13478,27 @@
         <v>0.60998618722281028</v>
       </c>
       <c r="H59" s="50">
-        <f t="shared" ref="H59:M60" si="32">H58*2</f>
+        <f t="shared" ref="H59:M60" si="31">H58*2</f>
         <v>0.60998618722281028</v>
       </c>
       <c r="I59" s="50">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.60998618722281028</v>
       </c>
       <c r="J59" s="50">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.60998618722281028</v>
       </c>
       <c r="K59" s="50">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.60998618722281028</v>
       </c>
       <c r="L59" s="50">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.60998618722281028</v>
       </c>
       <c r="M59" s="50">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.60998618722281028</v>
       </c>
       <c r="N59" s="197">
@@ -13508,27 +13535,27 @@
         <v>1.2199723744456206</v>
       </c>
       <c r="H60" s="50">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1.2199723744456206</v>
       </c>
       <c r="I60" s="50">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1.2199723744456206</v>
       </c>
       <c r="J60" s="50">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1.2199723744456206</v>
       </c>
       <c r="K60" s="50">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1.2199723744456206</v>
       </c>
       <c r="L60" s="50">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1.2199723744456206</v>
       </c>
       <c r="M60" s="50">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1.2199723744456206</v>
       </c>
       <c r="N60" s="197">
@@ -13565,27 +13592,27 @@
         <v>34.580521056720166</v>
       </c>
       <c r="H61" s="51">
-        <f t="shared" ref="H61:M61" si="33">H62-SUM(H58:H60)</f>
+        <f t="shared" ref="H61:M61" si="32">H62-SUM(H58:H60)</f>
         <v>34.580521056720166</v>
       </c>
       <c r="I61" s="51">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>34.580521056720166</v>
       </c>
       <c r="J61" s="51">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>34.580521056720166</v>
       </c>
       <c r="K61" s="51">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>34.580521056720166</v>
       </c>
       <c r="L61" s="51">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>34.580521056720166</v>
       </c>
       <c r="M61" s="51">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>34.580521056720166</v>
       </c>
       <c r="N61" s="198">
@@ -13597,7 +13624,7 @@
       <c r="P61" s="51"/>
       <c r="R61" s="25"/>
     </row>
-    <row r="62" spans="2:18" ht="15.75" thickBot="1">
+    <row r="62" spans="2:18" ht="15" thickBot="1">
       <c r="B62" s="48" t="s">
         <v>79</v>
       </c>
@@ -13645,7 +13672,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="66" spans="4:13" ht="15.75" thickBot="1">
+    <row r="66" spans="4:13" ht="15" thickBot="1">
       <c r="D66" s="23" t="s">
         <v>650</v>
       </c>
@@ -13727,7 +13754,7 @@
         <v>34.700000000000003</v>
       </c>
       <c r="F68" s="456">
-        <f t="shared" ref="F68:F70" si="34">E68/3.6</f>
+        <f t="shared" ref="F68:F70" si="33">E68/3.6</f>
         <v>9.6388888888888893</v>
       </c>
       <c r="G68" s="23">
@@ -13767,7 +13794,7 @@
         <v>36.6</v>
       </c>
       <c r="F69" s="456">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>10.166666666666666</v>
       </c>
       <c r="G69" s="23">
@@ -13785,15 +13812,15 @@
         <v>54</v>
       </c>
       <c r="K69" s="23">
-        <f t="shared" ref="K69:M69" si="35">J69</f>
+        <f t="shared" ref="K69:M69" si="34">J69</f>
         <v>54</v>
       </c>
       <c r="L69" s="23">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>54</v>
       </c>
       <c r="M69" s="23">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>54</v>
       </c>
     </row>
@@ -13806,7 +13833,7 @@
         <v>40.299999999999997</v>
       </c>
       <c r="F70" s="457">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>11.194444444444443</v>
       </c>
       <c r="G70" s="27">
@@ -13845,27 +13872,27 @@
         <v>1.8</v>
       </c>
       <c r="H71" s="66">
-        <f t="shared" ref="H71:M71" si="36">SUM(H67:H70)</f>
+        <f t="shared" ref="H71:M71" si="35">SUM(H67:H70)</f>
         <v>5.4</v>
       </c>
       <c r="I71" s="66">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>73.8</v>
       </c>
       <c r="J71" s="66">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>95.399999999999991</v>
       </c>
       <c r="K71" s="66">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>147.6</v>
       </c>
       <c r="L71" s="66">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>158.4</v>
       </c>
       <c r="M71" s="66">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>158.4</v>
       </c>
     </row>
@@ -13886,6 +13913,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13898,23 +13926,23 @@
       <selection activeCell="B2" sqref="B2:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18.75">
+    <row r="2" spans="2:15" ht="18">
       <c r="B2" s="3" t="s">
         <v>50</v>
       </c>
@@ -13971,7 +13999,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15.75" thickBot="1">
+    <row r="4" spans="2:15" ht="15" thickBot="1">
       <c r="B4" s="9" t="s">
         <v>515</v>
       </c>
@@ -14241,7 +14269,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="2:15" ht="18.75">
+    <row r="13" spans="2:15" ht="18">
       <c r="B13" s="3" t="s">
         <v>55</v>
       </c>
@@ -14260,7 +14288,7 @@
       <c r="M13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="2:15" ht="25.5">
+    <row r="14" spans="2:15" ht="27.6">
       <c r="B14" s="11" t="s">
         <v>513</v>
       </c>
@@ -14290,7 +14318,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="105"/>
     </row>
-    <row r="15" spans="2:15" ht="15.75" thickBot="1">
+    <row r="15" spans="2:15" ht="15" thickBot="1">
       <c r="B15" s="8" t="s">
         <v>515</v>
       </c>
@@ -14602,21 +14630,21 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="22"/>
-    <col min="2" max="2" width="12.85546875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="69.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="22" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="22"/>
-    <col min="10" max="10" width="14.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="9.109375" style="22"/>
+    <col min="2" max="2" width="12.88671875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="69.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="22" customWidth="1"/>
+    <col min="7" max="9" width="9.109375" style="22"/>
+    <col min="10" max="10" width="14.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="18.75">
+    <row r="2" spans="2:18" ht="18">
       <c r="B2" s="3" t="s">
         <v>131</v>
       </c>
@@ -14648,7 +14676,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1">
+    <row r="4" spans="2:18" ht="28.2" thickBot="1">
       <c r="B4" s="8" t="s">
         <v>514</v>
       </c>
@@ -14666,7 +14694,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:18" ht="15">
+    <row r="5" spans="2:18" ht="14.4">
       <c r="B5" s="21" t="str">
         <f>Processes!C51</f>
         <v>IE,National</v>
@@ -14691,7 +14719,7 @@
       </c>
       <c r="R5" s="23"/>
     </row>
-    <row r="6" spans="2:18" ht="15">
+    <row r="6" spans="2:18" ht="14.4">
       <c r="B6" s="21" t="str">
         <f>Processes!C54</f>
         <v>IE,National</v>
@@ -14714,7 +14742,7 @@
       <c r="G6" s="476"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="2:18" ht="15">
+    <row r="7" spans="2:18" ht="14.4">
       <c r="B7" s="21" t="str">
         <f>Processes!C60</f>
         <v>IE,National</v>
@@ -14737,7 +14765,7 @@
       <c r="G7" s="476"/>
       <c r="R7" s="23"/>
     </row>
-    <row r="8" spans="2:18" ht="15">
+    <row r="8" spans="2:18" ht="14.4">
       <c r="B8" s="21" t="str">
         <f>Processes!C66</f>
         <v>IE,National</v>
@@ -14760,7 +14788,7 @@
       <c r="G8" s="476"/>
       <c r="R8" s="23"/>
     </row>
-    <row r="9" spans="2:18" ht="15">
+    <row r="9" spans="2:18" ht="14.4">
       <c r="B9" s="21" t="str">
         <f>Processes!C69</f>
         <v>IE,National</v>
@@ -14783,7 +14811,7 @@
       <c r="G9" s="476"/>
       <c r="R9" s="23"/>
     </row>
-    <row r="10" spans="2:18" ht="15">
+    <row r="10" spans="2:18" ht="14.4">
       <c r="B10" s="21" t="str">
         <f>Processes!C57</f>
         <v>IE,National</v>
@@ -14806,7 +14834,7 @@
       <c r="G10" s="476"/>
       <c r="R10" s="23"/>
     </row>
-    <row r="11" spans="2:18" ht="15">
+    <row r="11" spans="2:18" ht="14.4">
       <c r="B11" s="21" t="str">
         <f>Processes!C72</f>
         <v>IE,National</v>
@@ -14829,7 +14857,7 @@
       <c r="G11" s="476"/>
       <c r="R11" s="23"/>
     </row>
-    <row r="12" spans="2:18" ht="15">
+    <row r="12" spans="2:18" ht="14.4">
       <c r="B12" s="21" t="str">
         <f>Processes!C75</f>
         <v>IE,National</v>
@@ -14852,7 +14880,7 @@
       <c r="G12" s="476"/>
       <c r="R12" s="23"/>
     </row>
-    <row r="13" spans="2:18" ht="15">
+    <row r="13" spans="2:18" ht="14.4">
       <c r="B13" s="21" t="str">
         <f>Processes!C63</f>
         <v>IE,National</v>
@@ -14875,7 +14903,7 @@
       <c r="G13" s="476"/>
       <c r="R13" s="23"/>
     </row>
-    <row r="14" spans="2:18" ht="15">
+    <row r="14" spans="2:18" ht="14.4">
       <c r="B14" s="45" t="str">
         <f>Processes!C78</f>
         <v>IE,National</v>
@@ -14898,7 +14926,7 @@
       <c r="G14" s="476"/>
       <c r="R14" s="23"/>
     </row>
-    <row r="15" spans="2:18" ht="15">
+    <row r="15" spans="2:18" ht="14.4">
       <c r="B15" s="21" t="str">
         <f>Processes!C52</f>
         <v>IE,National</v>
@@ -14921,7 +14949,7 @@
       <c r="G15" s="476"/>
       <c r="R15" s="23"/>
     </row>
-    <row r="16" spans="2:18" ht="15">
+    <row r="16" spans="2:18" ht="14.4">
       <c r="B16" s="21" t="str">
         <f>Processes!C55</f>
         <v>IE,National</v>
@@ -14944,7 +14972,7 @@
       <c r="G16" s="476"/>
       <c r="R16" s="23"/>
     </row>
-    <row r="17" spans="2:18" ht="15">
+    <row r="17" spans="2:18" ht="14.4">
       <c r="B17" s="21" t="str">
         <f>Processes!C61</f>
         <v>IE,National</v>
@@ -14967,7 +14995,7 @@
       <c r="G17" s="476"/>
       <c r="R17" s="23"/>
     </row>
-    <row r="18" spans="2:18" ht="15">
+    <row r="18" spans="2:18" ht="14.4">
       <c r="B18" s="21" t="str">
         <f>Processes!C67</f>
         <v>IE,National</v>
@@ -14990,7 +15018,7 @@
       <c r="G18" s="476"/>
       <c r="R18" s="23"/>
     </row>
-    <row r="19" spans="2:18" ht="15">
+    <row r="19" spans="2:18" ht="14.4">
       <c r="B19" s="21" t="str">
         <f>Processes!C70</f>
         <v>IE,National</v>
@@ -15013,7 +15041,7 @@
       <c r="G19" s="476"/>
       <c r="R19" s="23"/>
     </row>
-    <row r="20" spans="2:18" ht="15">
+    <row r="20" spans="2:18" ht="14.4">
       <c r="B20" s="21" t="str">
         <f>Processes!C58</f>
         <v>IE,National</v>
@@ -15356,7 +15384,7 @@
       <c r="F36" s="50"/>
       <c r="G36" s="190"/>
     </row>
-    <row r="37" spans="2:7" ht="15">
+    <row r="37" spans="2:7" ht="14.4">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -15364,7 +15392,7 @@
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="2:7" ht="15">
+    <row r="38" spans="2:7" ht="14.4">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -15372,7 +15400,7 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="2:7" ht="15">
+    <row r="39" spans="2:7" ht="14.4">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -15380,7 +15408,7 @@
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="2:7" ht="15">
+    <row r="40" spans="2:7" ht="14.4">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -15388,7 +15416,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="2:7" ht="15">
+    <row r="41" spans="2:7" ht="14.4">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -15396,7 +15424,7 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="2:7" ht="15">
+    <row r="42" spans="2:7" ht="14.4">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -15422,21 +15450,21 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="9.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="23"/>
+    <col min="2" max="2" width="9.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="23" customWidth="1"/>
     <col min="4" max="4" width="17" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="23"/>
-    <col min="7" max="20" width="9.28515625" style="25" customWidth="1"/>
-    <col min="21" max="23" width="9.28515625" style="23" customWidth="1"/>
-    <col min="24" max="24" width="28.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="23"/>
-    <col min="26" max="26" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="23"/>
+    <col min="7" max="20" width="9.33203125" style="25" customWidth="1"/>
+    <col min="21" max="23" width="9.33203125" style="23" customWidth="1"/>
+    <col min="24" max="24" width="28.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.109375" style="23"/>
+    <col min="26" max="26" width="13.5546875" style="23" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17" style="23" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="23"/>
+    <col min="28" max="16384" width="9.109375" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26">
@@ -15444,7 +15472,7 @@
       <c r="S1" s="23"/>
       <c r="T1" s="23"/>
     </row>
-    <row r="2" spans="2:26" ht="18.75">
+    <row r="2" spans="2:26" ht="18">
       <c r="B2" s="112" t="s">
         <v>145</v>
       </c>
@@ -15469,7 +15497,7 @@
       <c r="S2" s="124"/>
       <c r="T2" s="23"/>
     </row>
-    <row r="3" spans="2:26" ht="25.5">
+    <row r="3" spans="2:26" ht="27.6">
       <c r="B3" s="110" t="s">
         <v>513</v>
       </c>
@@ -16195,29 +16223,29 @@
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="23"/>
+    <col min="2" max="2" width="13.33203125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="46.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="23" customWidth="1"/>
     <col min="6" max="6" width="10" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="23" customWidth="1"/>
     <col min="10" max="10" width="11" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="10.140625" style="23" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="10.28515625" style="23" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="23"/>
+    <col min="11" max="15" width="10.109375" style="23" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="10.33203125" style="23" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" style="23"/>
     <col min="23" max="23" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="23"/>
+    <col min="24" max="24" width="26.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="18.75">
+    <row r="2" spans="2:20" ht="18">
       <c r="B2" s="3" t="s">
         <v>57</v>
       </c>
@@ -16232,7 +16260,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:20" ht="27.6">
       <c r="B3" s="11" t="s">
         <v>513</v>
       </c>
@@ -16283,7 +16311,7 @@
       </c>
       <c r="R3"/>
     </row>
-    <row r="4" spans="2:20" ht="15.75" thickBot="1">
+    <row r="4" spans="2:20" ht="15" thickBot="1">
       <c r="B4" s="13" t="s">
         <v>515</v>
       </c>
@@ -17096,11 +17124,11 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="18.85546875" style="23" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="9.109375" style="23"/>
+    <col min="2" max="2" width="18.88671875" style="23" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -17117,7 +17145,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1">
+    <row r="5" spans="1:7" ht="15" thickBot="1">
       <c r="B5" s="163" t="s">
         <v>16</v>
       </c>
@@ -17206,7 +17234,7 @@
       </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" thickBot="1">
+    <row r="17" spans="2:7" ht="15" thickBot="1">
       <c r="B17" s="163" t="s">
         <v>16</v>
       </c>
@@ -17377,9 +17405,9 @@
       <selection pane="topRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17424,7 +17452,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1">
+    <row r="3" spans="1:22" ht="15" thickBot="1">
       <c r="A3" s="69" t="s">
         <v>92</v>
       </c>
@@ -17459,7 +17487,7 @@
       </c>
       <c r="Q4" s="23"/>
     </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1">
+    <row r="5" spans="1:22" ht="15" thickBot="1">
       <c r="A5" s="75" t="s">
         <v>96</v>
       </c>
@@ -17469,7 +17497,7 @@
       </c>
       <c r="J5" s="23"/>
     </row>
-    <row r="6" spans="1:22" ht="15.75" thickBot="1">
+    <row r="6" spans="1:22" ht="15" thickBot="1">
       <c r="A6" s="77"/>
       <c r="B6" s="78" t="s">
         <v>18</v>
@@ -17512,7 +17540,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" thickBot="1">
+    <row r="7" spans="1:22" ht="15" thickBot="1">
       <c r="A7" s="80" t="s">
         <v>98</v>
       </c>
@@ -17565,7 +17593,7 @@
       <c r="R7" s="84"/>
       <c r="S7" s="84"/>
     </row>
-    <row r="8" spans="1:22" ht="15.75" thickBot="1">
+    <row r="8" spans="1:22" ht="15" thickBot="1">
       <c r="A8" s="80" t="s">
         <v>98</v>
       </c>
@@ -17618,7 +17646,7 @@
       <c r="R8" s="84"/>
       <c r="S8" s="84"/>
     </row>
-    <row r="9" spans="1:22" ht="15.75" thickBot="1">
+    <row r="9" spans="1:22" ht="15" thickBot="1">
       <c r="A9" s="80" t="s">
         <v>103</v>
       </c>
@@ -17671,7 +17699,7 @@
       <c r="R9" s="84"/>
       <c r="S9" s="84"/>
     </row>
-    <row r="10" spans="1:22" ht="15.75" thickBot="1">
+    <row r="10" spans="1:22" ht="15" thickBot="1">
       <c r="A10" s="80" t="s">
         <v>103</v>
       </c>
@@ -17724,7 +17752,7 @@
       <c r="R10" s="84"/>
       <c r="S10" s="84"/>
     </row>
-    <row r="11" spans="1:22" ht="15.75" thickBot="1">
+    <row r="11" spans="1:22" ht="15" thickBot="1">
       <c r="A11" s="80" t="s">
         <v>83</v>
       </c>
@@ -17771,7 +17799,7 @@
         <v>5.4816516360000005</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" thickBot="1">
+    <row r="12" spans="1:22" ht="15" thickBot="1">
       <c r="A12" s="80" t="s">
         <v>83</v>
       </c>
@@ -17818,7 +17846,7 @@
         <v>13.781408235406515</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" thickBot="1">
+    <row r="13" spans="1:22" ht="15" thickBot="1">
       <c r="A13" s="80" t="s">
         <v>84</v>
       </c>
@@ -17865,7 +17893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" thickBot="1">
+    <row r="14" spans="1:22" ht="15" thickBot="1">
       <c r="A14" s="80" t="s">
         <v>84</v>
       </c>
@@ -17918,7 +17946,7 @@
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:22" ht="15.75" thickBot="1">
+    <row r="16" spans="1:22" ht="15" thickBot="1">
       <c r="A16" s="75" t="s">
         <v>100</v>
       </c>
@@ -17934,7 +17962,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15.75" thickBot="1">
+    <row r="17" spans="1:26" ht="15" thickBot="1">
       <c r="A17" s="77"/>
       <c r="B17" s="78" t="s">
         <v>18</v>
@@ -18004,7 +18032,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15.75" thickBot="1">
+    <row r="18" spans="1:26" ht="15" thickBot="1">
       <c r="A18" s="80" t="s">
         <v>98</v>
       </c>
@@ -18053,7 +18081,7 @@
       <c r="O18" s="23"/>
       <c r="P18" s="87"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" thickBot="1">
+    <row r="19" spans="1:26" ht="15" thickBot="1">
       <c r="A19" s="80" t="s">
         <v>98</v>
       </c>
@@ -18140,7 +18168,7 @@
         <v>2.6576562288177672</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1">
+    <row r="20" spans="1:26" ht="15" thickBot="1">
       <c r="A20" s="80" t="s">
         <v>103</v>
       </c>
@@ -18187,7 +18215,7 @@
         <v>144.52992698400001</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1">
+    <row r="21" spans="1:26" ht="15" thickBot="1">
       <c r="A21" s="80" t="s">
         <v>103</v>
       </c>
@@ -18274,7 +18302,7 @@
         <v>5.4463236801828891</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15.75" thickBot="1">
+    <row r="22" spans="1:26" ht="15" thickBot="1">
       <c r="A22" s="80" t="s">
         <v>83</v>
       </c>
@@ -18322,7 +18350,7 @@
       </c>
       <c r="P22" s="87"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" thickBot="1">
+    <row r="23" spans="1:26" ht="15" thickBot="1">
       <c r="A23" s="80" t="s">
         <v>83</v>
       </c>
@@ -18409,7 +18437,7 @@
         <v>12.446066141998699</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15.75" thickBot="1">
+    <row r="24" spans="1:26" ht="15" thickBot="1">
       <c r="A24" s="80" t="s">
         <v>84</v>
       </c>
@@ -18456,7 +18484,7 @@
         <v>3.8660492520000003</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15.75" thickBot="1">
+    <row r="25" spans="1:26" ht="15" thickBot="1">
       <c r="A25" s="80" t="s">
         <v>84</v>
       </c>
@@ -18543,7 +18571,7 @@
         <v>24.555246283161342</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1">
+    <row r="26" spans="1:26" ht="15" thickBot="1">
       <c r="A26" s="75" t="s">
         <v>102</v>
       </c>
@@ -18560,7 +18588,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15.75" thickBot="1">
+    <row r="27" spans="1:26" ht="15" thickBot="1">
       <c r="A27" s="90"/>
       <c r="B27" s="78" t="s">
         <v>18</v>
@@ -18630,7 +18658,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15.75" thickBot="1">
+    <row r="28" spans="1:26" ht="15" thickBot="1">
       <c r="A28" s="80" t="s">
         <v>98</v>
       </c>
@@ -18678,7 +18706,7 @@
       </c>
       <c r="P28" s="87"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" thickBot="1">
+    <row r="29" spans="1:26" ht="15" thickBot="1">
       <c r="A29" s="80" t="s">
         <v>98</v>
       </c>
@@ -18765,7 +18793,7 @@
         <v>3.425007675166559</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15.75" thickBot="1">
+    <row r="30" spans="1:26" ht="15" thickBot="1">
       <c r="A30" s="80" t="s">
         <v>103</v>
       </c>
@@ -18812,7 +18840,7 @@
         <v>236.79263826000002</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15.75" thickBot="1">
+    <row r="31" spans="1:26" ht="15" thickBot="1">
       <c r="A31" s="80" t="s">
         <v>103</v>
       </c>
@@ -18899,7 +18927,7 @@
         <v>6.8687312392684552</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15.75" thickBot="1">
+    <row r="32" spans="1:26" ht="15" thickBot="1">
       <c r="A32" s="80" t="s">
         <v>83</v>
       </c>
@@ -18947,7 +18975,7 @@
       </c>
       <c r="P32" s="87"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" thickBot="1">
+    <row r="33" spans="1:26" ht="15" thickBot="1">
       <c r="A33" s="80" t="s">
         <v>83</v>
       </c>
@@ -19034,7 +19062,7 @@
         <v>14.991427037204447</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="15.75" thickBot="1">
+    <row r="34" spans="1:26" ht="15" thickBot="1">
       <c r="A34" s="80" t="s">
         <v>84</v>
       </c>
@@ -19081,7 +19109,7 @@
         <v>4.3794765360000003</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="15.75" thickBot="1">
+    <row r="35" spans="1:26" ht="15" thickBot="1">
       <c r="A35" s="80" t="s">
         <v>84</v>
       </c>
@@ -19178,7 +19206,7 @@
       <c r="M36" s="57"/>
       <c r="N36" s="57"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" thickBot="1">
+    <row r="37" spans="1:26" ht="15" thickBot="1">
       <c r="A37" s="75" t="s">
         <v>104</v>
       </c>
@@ -19198,7 +19226,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="15.75" thickBot="1">
+    <row r="38" spans="1:26" ht="15" thickBot="1">
       <c r="A38" s="77"/>
       <c r="B38" s="78" t="s">
         <v>18</v>
@@ -19268,7 +19296,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="15.75" thickBot="1">
+    <row r="39" spans="1:26" ht="15" thickBot="1">
       <c r="A39" s="80" t="s">
         <v>98</v>
       </c>
@@ -19316,7 +19344,7 @@
       </c>
       <c r="P39" s="87"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" thickBot="1">
+    <row r="40" spans="1:26" ht="15" thickBot="1">
       <c r="A40" s="80" t="s">
         <v>98</v>
       </c>
@@ -19403,7 +19431,7 @@
         <v>3.0319740075244952</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="15.75" thickBot="1">
+    <row r="41" spans="1:26" ht="15" thickBot="1">
       <c r="A41" s="80" t="s">
         <v>103</v>
       </c>
@@ -19450,7 +19478,7 @@
         <v>17.883748728000004</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="15.75" thickBot="1">
+    <row r="42" spans="1:26" ht="15" thickBot="1">
       <c r="A42" s="80" t="s">
         <v>103</v>
       </c>
@@ -19537,7 +19565,7 @@
         <v>6.1949592375963451</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15.75" thickBot="1">
+    <row r="43" spans="1:26" ht="15" thickBot="1">
       <c r="A43" s="80" t="s">
         <v>83</v>
       </c>
@@ -19585,7 +19613,7 @@
       </c>
       <c r="P43" s="87"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" thickBot="1">
+    <row r="44" spans="1:26" ht="15" thickBot="1">
       <c r="A44" s="80" t="s">
         <v>83</v>
       </c>
@@ -19672,7 +19700,7 @@
         <v>18.45386649024168</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="15.75" thickBot="1">
+    <row r="45" spans="1:26" ht="15" thickBot="1">
       <c r="A45" s="80" t="s">
         <v>84</v>
       </c>
@@ -19719,7 +19747,7 @@
         <v>4.602800448</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="15.75" thickBot="1">
+    <row r="46" spans="1:26" ht="15" thickBot="1">
       <c r="A46" s="80" t="s">
         <v>84</v>
       </c>
@@ -19816,7 +19844,7 @@
       <c r="M47" s="57"/>
       <c r="N47" s="57"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" thickBot="1">
+    <row r="48" spans="1:26" ht="15" thickBot="1">
       <c r="A48" s="75" t="s">
         <v>105</v>
       </c>
@@ -19836,7 +19864,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="15.75" thickBot="1">
+    <row r="49" spans="1:26" ht="15" thickBot="1">
       <c r="A49" s="77"/>
       <c r="B49" s="78" t="s">
         <v>18</v>
@@ -19906,7 +19934,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="15.75" thickBot="1">
+    <row r="50" spans="1:26" ht="15" thickBot="1">
       <c r="A50" s="80" t="s">
         <v>98</v>
       </c>
@@ -19954,7 +19982,7 @@
       </c>
       <c r="P50" s="87"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" thickBot="1">
+    <row r="51" spans="1:26" ht="15" thickBot="1">
       <c r="A51" s="80" t="s">
         <v>98</v>
       </c>
@@ -20041,7 +20069,7 @@
         <v>3.949052565355978</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="15.75" thickBot="1">
+    <row r="52" spans="1:26" ht="15" thickBot="1">
       <c r="A52" s="80" t="s">
         <v>103</v>
       </c>
@@ -20088,7 +20116,7 @@
         <v>110.14646000400001</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="15.75" thickBot="1">
+    <row r="53" spans="1:26" ht="15" thickBot="1">
       <c r="A53" s="80" t="s">
         <v>103</v>
       </c>
@@ -20175,7 +20203,7 @@
         <v>7.8793892417766198</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="15.75" thickBot="1">
+    <row r="54" spans="1:26" ht="15" thickBot="1">
       <c r="A54" s="80" t="s">
         <v>83</v>
       </c>
@@ -20223,7 +20251,7 @@
       </c>
       <c r="P54" s="87"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" thickBot="1">
+    <row r="55" spans="1:26" ht="15" thickBot="1">
       <c r="A55" s="80" t="s">
         <v>83</v>
       </c>
@@ -20310,7 +20338,7 @@
         <v>22.533930278145014</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="15.75" thickBot="1">
+    <row r="56" spans="1:26" ht="15" thickBot="1">
       <c r="A56" s="80" t="s">
         <v>84</v>
       </c>
@@ -20357,7 +20385,7 @@
         <v>5.1162277320000005</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="15.75" thickBot="1">
+    <row r="57" spans="1:26" ht="15" thickBot="1">
       <c r="A57" s="80" t="s">
         <v>84</v>
       </c>
@@ -20464,9 +20492,9 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="16384" width="9.109375" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -20581,35 +20609,35 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5546875" customWidth="1"/>
+    <col min="25" max="25" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:30">
@@ -21080,7 +21108,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1">
+    <row r="10" spans="1:30" ht="15" thickBot="1">
       <c r="A10" s="229" t="s">
         <v>279</v>
       </c>
@@ -21322,7 +21350,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>30480</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -21352,46 +21380,46 @@
       <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="38.140625" style="133" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" style="133" customWidth="1"/>
     <col min="2" max="2" width="13" style="131" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.5703125" style="134" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="134"/>
-    <col min="6" max="6" width="6.140625" style="135" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="135" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="134" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="135" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5546875" style="134" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="134"/>
+    <col min="6" max="6" width="6.109375" style="135" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" style="135" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="134" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" style="135" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="135" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="135" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="132" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="131" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="131" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" style="131" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="131" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" style="131" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" style="131" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.28515625" style="131" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.28515625" style="131" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" style="131" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="5.28515625" style="131" customWidth="1"/>
-    <col min="26" max="26" width="5.28515625" style="135" customWidth="1"/>
-    <col min="27" max="27" width="8.140625" style="132" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.7109375" style="132" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="5.5703125" style="131" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" style="131" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.7109375" style="131" customWidth="1"/>
-    <col min="33" max="33" width="5.5703125" style="131" customWidth="1"/>
-    <col min="34" max="34" width="5.85546875" style="131" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" style="135" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="132" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="131" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.109375" style="131" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" style="131" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="131" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" style="131" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.109375" style="131" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.33203125" style="131" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" style="131" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.88671875" style="131" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="5.33203125" style="131" customWidth="1"/>
+    <col min="26" max="26" width="5.33203125" style="135" customWidth="1"/>
+    <col min="27" max="27" width="8.109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.6640625" style="132" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="5.5546875" style="131" customWidth="1"/>
+    <col min="31" max="31" width="8.6640625" style="131" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.6640625" style="131" customWidth="1"/>
+    <col min="33" max="33" width="5.5546875" style="131" customWidth="1"/>
+    <col min="34" max="34" width="5.88671875" style="131" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="7" style="131" customWidth="1"/>
-    <col min="37" max="40" width="5.5703125" style="131" customWidth="1"/>
-    <col min="41" max="41" width="8.7109375" style="132" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.28515625" style="132" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.28515625" style="131" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.140625" style="131"/>
+    <col min="37" max="40" width="5.5546875" style="131" customWidth="1"/>
+    <col min="41" max="41" width="8.6640625" style="132" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.33203125" style="132" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.33203125" style="131" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.109375" style="131"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="111.75" thickBot="1">
+    <row r="1" spans="1:43" ht="121.2" thickBot="1">
       <c r="A1" s="212" t="s">
         <v>428</v>
       </c>
@@ -21894,7 +21922,7 @@
         <v>172.71258946798309</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="13.5" thickBot="1">
+    <row r="6" spans="1:43" ht="13.8" thickBot="1">
       <c r="A6" s="322" t="s">
         <v>197</v>
       </c>
@@ -22172,7 +22200,7 @@
         <v>14978.040387890453</v>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="13.5" thickBot="1">
+    <row r="8" spans="1:43" ht="13.8" thickBot="1">
       <c r="A8" s="344" t="s">
         <v>199</v>
       </c>
@@ -23630,7 +23658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43" ht="13.5" thickBot="1">
+    <row r="24" spans="1:43" ht="13.8" thickBot="1">
       <c r="A24" s="322" t="s">
         <v>618</v>
       </c>
@@ -23710,7 +23738,7 @@
         <v>-2.4439547706873483</v>
       </c>
     </row>
-    <row r="25" spans="1:43" ht="13.5" thickBot="1">
+    <row r="25" spans="1:43" ht="13.8" thickBot="1">
       <c r="A25" s="383" t="s">
         <v>205</v>
       </c>
@@ -23786,7 +23814,7 @@
         <v>425.56331988324462</v>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="13.5" thickBot="1">
+    <row r="26" spans="1:43" ht="13.8" thickBot="1">
       <c r="A26" s="427" t="s">
         <v>206</v>
       </c>
@@ -23982,37 +24010,37 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="85.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.5703125" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="85.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.5546875" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="1.5703125" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="1.5703125" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="1.5703125" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="1.5703125" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="1.5546875" customWidth="1"/>
+    <col min="20" max="20" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.5546875" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="1.5546875" customWidth="1"/>
+    <col min="26" max="26" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="1.5546875" customWidth="1"/>
+    <col min="29" max="29" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:29" ht="18.75">
+    <row r="3" spans="2:29" ht="18">
       <c r="B3" s="165" t="s">
         <v>282</v>
       </c>
@@ -24041,7 +24069,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="2:29" ht="15.75" thickBot="1">
+    <row r="4" spans="2:29" ht="15" thickBot="1">
       <c r="B4" s="166" t="s">
         <v>279</v>
       </c>
@@ -27098,15 +27126,15 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
@@ -27121,7 +27149,7 @@
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
     </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1">
+    <row r="3" spans="2:9" ht="15" thickBot="1">
       <c r="B3" s="166" t="s">
         <v>15</v>
       </c>
@@ -28621,23 +28649,23 @@
       <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.140625" customWidth="1"/>
+    <col min="5" max="5" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="26.25">
+    <row r="1" spans="2:10" ht="25.8">
       <c r="B1" s="175" t="s">
         <v>350</v>
       </c>
@@ -28663,7 +28691,7 @@
       <c r="I3" s="170"/>
       <c r="J3" s="170"/>
     </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1">
+    <row r="4" spans="2:10" ht="15" thickBot="1">
       <c r="B4" s="166" t="s">
         <v>1</v>
       </c>
@@ -31023,278 +31051,278 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="11.5703125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="23"/>
+    <col min="2" max="2" width="11.5546875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="23"/>
-    <col min="9" max="9" width="10.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="23" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="23"/>
-    <col min="13" max="13" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.109375" style="23"/>
+    <col min="9" max="9" width="10.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="23" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="23"/>
+    <col min="13" max="13" width="11.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="37" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.85546875" style="23" customWidth="1"/>
-    <col min="18" max="262" width="9.140625" style="23"/>
-    <col min="263" max="263" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="266" max="518" width="9.140625" style="23"/>
-    <col min="519" max="519" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="522" max="774" width="9.140625" style="23"/>
-    <col min="775" max="775" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="778" max="1030" width="9.140625" style="23"/>
-    <col min="1031" max="1031" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1286" width="9.140625" style="23"/>
-    <col min="1287" max="1287" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1542" width="9.140625" style="23"/>
-    <col min="1543" max="1543" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1798" width="9.140625" style="23"/>
-    <col min="1799" max="1799" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="1802" max="2054" width="9.140625" style="23"/>
-    <col min="2055" max="2055" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2310" width="9.140625" style="23"/>
-    <col min="2311" max="2311" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2566" width="9.140625" style="23"/>
-    <col min="2567" max="2567" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2822" width="9.140625" style="23"/>
-    <col min="2823" max="2823" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2826" max="3078" width="9.140625" style="23"/>
-    <col min="3079" max="3079" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3334" width="9.140625" style="23"/>
-    <col min="3335" max="3335" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3590" width="9.140625" style="23"/>
-    <col min="3591" max="3591" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3846" width="9.140625" style="23"/>
-    <col min="3847" max="3847" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3850" max="4102" width="9.140625" style="23"/>
-    <col min="4103" max="4103" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4358" width="9.140625" style="23"/>
-    <col min="4359" max="4359" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4614" width="9.140625" style="23"/>
-    <col min="4615" max="4615" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4870" width="9.140625" style="23"/>
-    <col min="4871" max="4871" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4874" max="5126" width="9.140625" style="23"/>
-    <col min="5127" max="5127" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5382" width="9.140625" style="23"/>
-    <col min="5383" max="5383" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5638" width="9.140625" style="23"/>
-    <col min="5639" max="5639" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5894" width="9.140625" style="23"/>
-    <col min="5895" max="5895" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5898" max="6150" width="9.140625" style="23"/>
-    <col min="6151" max="6151" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6406" width="9.140625" style="23"/>
-    <col min="6407" max="6407" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6662" width="9.140625" style="23"/>
-    <col min="6663" max="6663" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6918" width="9.140625" style="23"/>
-    <col min="6919" max="6919" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6922" max="7174" width="9.140625" style="23"/>
-    <col min="7175" max="7175" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7430" width="9.140625" style="23"/>
-    <col min="7431" max="7431" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7686" width="9.140625" style="23"/>
-    <col min="7687" max="7687" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7942" width="9.140625" style="23"/>
-    <col min="7943" max="7943" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7946" max="8198" width="9.140625" style="23"/>
-    <col min="8199" max="8199" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8454" width="9.140625" style="23"/>
-    <col min="8455" max="8455" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8710" width="9.140625" style="23"/>
-    <col min="8711" max="8711" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8966" width="9.140625" style="23"/>
-    <col min="8967" max="8967" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8970" max="9222" width="9.140625" style="23"/>
-    <col min="9223" max="9223" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9478" width="9.140625" style="23"/>
-    <col min="9479" max="9479" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9734" width="9.140625" style="23"/>
-    <col min="9735" max="9735" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9990" width="9.140625" style="23"/>
-    <col min="9991" max="9991" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9994" max="10246" width="9.140625" style="23"/>
-    <col min="10247" max="10247" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10502" width="9.140625" style="23"/>
-    <col min="10503" max="10503" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10758" width="9.140625" style="23"/>
-    <col min="10759" max="10759" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10762" max="11014" width="9.140625" style="23"/>
-    <col min="11015" max="11015" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11270" width="9.140625" style="23"/>
-    <col min="11271" max="11271" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11526" width="9.140625" style="23"/>
-    <col min="11527" max="11527" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11782" width="9.140625" style="23"/>
-    <col min="11783" max="11783" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11786" max="12038" width="9.140625" style="23"/>
-    <col min="12039" max="12039" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12294" width="9.140625" style="23"/>
-    <col min="12295" max="12295" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12550" width="9.140625" style="23"/>
-    <col min="12551" max="12551" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12806" width="9.140625" style="23"/>
-    <col min="12807" max="12807" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12810" max="13062" width="9.140625" style="23"/>
-    <col min="13063" max="13063" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13318" width="9.140625" style="23"/>
-    <col min="13319" max="13319" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13574" width="9.140625" style="23"/>
-    <col min="13575" max="13575" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13830" width="9.140625" style="23"/>
-    <col min="13831" max="13831" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13834" max="14086" width="9.140625" style="23"/>
-    <col min="14087" max="14087" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14342" width="9.140625" style="23"/>
-    <col min="14343" max="14343" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14598" width="9.140625" style="23"/>
-    <col min="14599" max="14599" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14854" width="9.140625" style="23"/>
-    <col min="14855" max="14855" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14858" max="15110" width="9.140625" style="23"/>
-    <col min="15111" max="15111" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15366" width="9.140625" style="23"/>
-    <col min="15367" max="15367" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15622" width="9.140625" style="23"/>
-    <col min="15623" max="15623" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15878" width="9.140625" style="23"/>
-    <col min="15879" max="15879" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15882" max="16134" width="9.140625" style="23"/>
-    <col min="16135" max="16135" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16384" width="9.140625" style="23"/>
+    <col min="16" max="17" width="9.88671875" style="23" customWidth="1"/>
+    <col min="18" max="262" width="9.109375" style="23"/>
+    <col min="263" max="263" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="266" max="518" width="9.109375" style="23"/>
+    <col min="519" max="519" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="522" max="774" width="9.109375" style="23"/>
+    <col min="775" max="775" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="778" max="1030" width="9.109375" style="23"/>
+    <col min="1031" max="1031" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1286" width="9.109375" style="23"/>
+    <col min="1287" max="1287" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1542" width="9.109375" style="23"/>
+    <col min="1543" max="1543" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1798" width="9.109375" style="23"/>
+    <col min="1799" max="1799" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="1802" max="2054" width="9.109375" style="23"/>
+    <col min="2055" max="2055" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2310" width="9.109375" style="23"/>
+    <col min="2311" max="2311" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2566" width="9.109375" style="23"/>
+    <col min="2567" max="2567" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2822" width="9.109375" style="23"/>
+    <col min="2823" max="2823" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2826" max="3078" width="9.109375" style="23"/>
+    <col min="3079" max="3079" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3334" width="9.109375" style="23"/>
+    <col min="3335" max="3335" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3590" width="9.109375" style="23"/>
+    <col min="3591" max="3591" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3846" width="9.109375" style="23"/>
+    <col min="3847" max="3847" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3850" max="4102" width="9.109375" style="23"/>
+    <col min="4103" max="4103" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4358" width="9.109375" style="23"/>
+    <col min="4359" max="4359" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4614" width="9.109375" style="23"/>
+    <col min="4615" max="4615" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4870" width="9.109375" style="23"/>
+    <col min="4871" max="4871" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4874" max="5126" width="9.109375" style="23"/>
+    <col min="5127" max="5127" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5382" width="9.109375" style="23"/>
+    <col min="5383" max="5383" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5638" width="9.109375" style="23"/>
+    <col min="5639" max="5639" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5894" width="9.109375" style="23"/>
+    <col min="5895" max="5895" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5898" max="6150" width="9.109375" style="23"/>
+    <col min="6151" max="6151" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6406" width="9.109375" style="23"/>
+    <col min="6407" max="6407" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6662" width="9.109375" style="23"/>
+    <col min="6663" max="6663" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6918" width="9.109375" style="23"/>
+    <col min="6919" max="6919" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6922" max="7174" width="9.109375" style="23"/>
+    <col min="7175" max="7175" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7430" width="9.109375" style="23"/>
+    <col min="7431" max="7431" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7686" width="9.109375" style="23"/>
+    <col min="7687" max="7687" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7942" width="9.109375" style="23"/>
+    <col min="7943" max="7943" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="7946" max="8198" width="9.109375" style="23"/>
+    <col min="8199" max="8199" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8454" width="9.109375" style="23"/>
+    <col min="8455" max="8455" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8710" width="9.109375" style="23"/>
+    <col min="8711" max="8711" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8966" width="9.109375" style="23"/>
+    <col min="8967" max="8967" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="8970" max="9222" width="9.109375" style="23"/>
+    <col min="9223" max="9223" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9478" width="9.109375" style="23"/>
+    <col min="9479" max="9479" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9734" width="9.109375" style="23"/>
+    <col min="9735" max="9735" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9990" width="9.109375" style="23"/>
+    <col min="9991" max="9991" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="9994" max="10246" width="9.109375" style="23"/>
+    <col min="10247" max="10247" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10502" width="9.109375" style="23"/>
+    <col min="10503" max="10503" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10758" width="9.109375" style="23"/>
+    <col min="10759" max="10759" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="10762" max="11014" width="9.109375" style="23"/>
+    <col min="11015" max="11015" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11270" width="9.109375" style="23"/>
+    <col min="11271" max="11271" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11526" width="9.109375" style="23"/>
+    <col min="11527" max="11527" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11782" width="9.109375" style="23"/>
+    <col min="11783" max="11783" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="11786" max="12038" width="9.109375" style="23"/>
+    <col min="12039" max="12039" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12294" width="9.109375" style="23"/>
+    <col min="12295" max="12295" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12550" width="9.109375" style="23"/>
+    <col min="12551" max="12551" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12806" width="9.109375" style="23"/>
+    <col min="12807" max="12807" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="12810" max="13062" width="9.109375" style="23"/>
+    <col min="13063" max="13063" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13318" width="9.109375" style="23"/>
+    <col min="13319" max="13319" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13574" width="9.109375" style="23"/>
+    <col min="13575" max="13575" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13830" width="9.109375" style="23"/>
+    <col min="13831" max="13831" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="13834" max="14086" width="9.109375" style="23"/>
+    <col min="14087" max="14087" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14342" width="9.109375" style="23"/>
+    <col min="14343" max="14343" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14598" width="9.109375" style="23"/>
+    <col min="14599" max="14599" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14854" width="9.109375" style="23"/>
+    <col min="14855" max="14855" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="14858" max="15110" width="9.109375" style="23"/>
+    <col min="15111" max="15111" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15366" width="9.109375" style="23"/>
+    <col min="15367" max="15367" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15622" width="9.109375" style="23"/>
+    <col min="15623" max="15623" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15878" width="9.109375" style="23"/>
+    <col min="15879" max="15879" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="15882" max="16134" width="9.109375" style="23"/>
+    <col min="16135" max="16135" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="11.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16384" width="9.109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="18.75">
+    <row r="1" spans="2:19" ht="18">
       <c r="B1" s="154" t="s">
         <v>224</v>
       </c>
@@ -31341,7 +31369,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="15.75" thickBot="1">
+    <row r="5" spans="2:19" ht="15" thickBot="1">
       <c r="B5" s="159" t="s">
         <v>211</v>
       </c>
@@ -31555,37 +31583,37 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="12.5703125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="23" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="23" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="23" customWidth="1"/>
-    <col min="16" max="22" width="9.140625" style="23"/>
+    <col min="1" max="1" width="9.109375" style="23"/>
+    <col min="2" max="2" width="12.5546875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="23" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="23" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" style="23" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="23" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" style="23" customWidth="1"/>
+    <col min="16" max="22" width="9.109375" style="23"/>
     <col min="23" max="23" width="16" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.28515625" style="23" customWidth="1"/>
-    <col min="25" max="25" width="38.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="23"/>
+    <col min="24" max="24" width="19.33203125" style="23" customWidth="1"/>
+    <col min="25" max="25" width="38.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="18.75">
+    <row r="1" spans="2:20" ht="18">
       <c r="B1" s="3" t="s">
         <v>544</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="3" spans="2:20" ht="18.75">
+    <row r="3" spans="2:20" ht="18">
       <c r="G3" s="257" t="s">
         <v>557</v>
       </c>
@@ -31639,7 +31667,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="26.25" thickBot="1">
+    <row r="5" spans="2:20" ht="28.2" thickBot="1">
       <c r="C5" s="9" t="s">
         <v>515</v>
       </c>
@@ -33957,16 +33985,16 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
@@ -33982,7 +34010,7 @@
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
     </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1">
+    <row r="3" spans="2:10" ht="15" thickBot="1">
       <c r="B3" s="166" t="s">
         <v>1</v>
       </c>
@@ -34011,7 +34039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="51">
+    <row r="4" spans="2:10" ht="55.2">
       <c r="B4" s="172" t="s">
         <v>133</v>
       </c>
@@ -34068,7 +34096,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:10" ht="15.75" thickBot="1">
+    <row r="10" spans="2:10" ht="15" thickBot="1">
       <c r="B10" s="166" t="s">
         <v>513</v>
       </c>
@@ -34171,21 +34199,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -34331,31 +34344,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F32A5943-069C-47E6-B7B1-1C4E8CC11B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34371,4 +34375,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BSuleimenov\Documents\GitHub\times-ireland-model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7953F24-557C-41C9-B7F4-C6B03856BE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F808DF6-F016-4ABC-81B0-6C93A00FD27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="23" r:id="rId1"/>
@@ -1309,7 +1309,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="665">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -3400,6 +3400,9 @@
   <si>
     <t>BIOMUN</t>
   </si>
+  <si>
+    <t>ACT_BND~2023</t>
+  </si>
 </sst>
 </file>
 
@@ -3415,7 +3418,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.0;[Red]\-#,##0.0"/>
     <numFmt numFmtId="170" formatCode="#,##0.000;[Red]\-#,##0.000"/>
   </numFmts>
-  <fonts count="67">
+  <fonts count="66">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3870,12 +3873,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="30">
@@ -5639,7 +5636,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="483">
+  <cellXfs count="484">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6896,6 +6893,15 @@
     <xf numFmtId="164" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="64" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6947,14 +6953,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="64" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="64" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="64" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="47" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -7737,7 +7737,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8210,17 +8210,17 @@
       <selection activeCell="B27" sqref="B27:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
-    <col min="8" max="10" width="8.109375" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" customWidth="1"/>
+    <col min="1" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -8644,12 +8644,12 @@
       <c r="Z15" s="277"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
-      <c r="A16" s="464" t="s">
+      <c r="A16" s="467" t="s">
         <v>579</v>
       </c>
-      <c r="B16" s="464"/>
-      <c r="C16" s="464"/>
-      <c r="D16" s="464"/>
+      <c r="B16" s="467"/>
+      <c r="C16" s="467"/>
+      <c r="D16" s="467"/>
       <c r="E16" s="278"/>
       <c r="F16" s="278"/>
       <c r="G16" s="279"/>
@@ -8733,11 +8733,11 @@
       <c r="A19" s="283" t="s">
         <v>580</v>
       </c>
-      <c r="B19" s="463" t="s">
+      <c r="B19" s="466" t="s">
         <v>595</v>
       </c>
-      <c r="C19" s="463"/>
-      <c r="D19" s="463"/>
+      <c r="C19" s="466"/>
+      <c r="D19" s="466"/>
       <c r="E19" s="284"/>
       <c r="F19" s="284"/>
       <c r="G19" s="285"/>
@@ -8765,11 +8765,11 @@
       <c r="A20" s="283" t="s">
         <v>581</v>
       </c>
-      <c r="B20" s="463" t="s">
+      <c r="B20" s="466" t="s">
         <v>594</v>
       </c>
-      <c r="C20" s="463"/>
-      <c r="D20" s="463"/>
+      <c r="C20" s="466"/>
+      <c r="D20" s="466"/>
       <c r="E20" s="284"/>
       <c r="F20" s="284"/>
       <c r="G20" s="285"/>
@@ -8857,11 +8857,11 @@
       <c r="A23" s="283" t="s">
         <v>583</v>
       </c>
-      <c r="B23" s="463" t="s">
+      <c r="B23" s="466" t="s">
         <v>592</v>
       </c>
-      <c r="C23" s="463"/>
-      <c r="D23" s="463"/>
+      <c r="C23" s="466"/>
+      <c r="D23" s="466"/>
       <c r="E23" s="277"/>
       <c r="F23" s="277"/>
       <c r="G23" s="277"/>
@@ -8949,11 +8949,11 @@
       <c r="A26" s="283" t="s">
         <v>584</v>
       </c>
-      <c r="B26" s="463" t="s">
+      <c r="B26" s="466" t="s">
         <v>660</v>
       </c>
-      <c r="C26" s="463"/>
-      <c r="D26" s="463"/>
+      <c r="C26" s="466"/>
+      <c r="D26" s="466"/>
       <c r="E26" s="277"/>
       <c r="F26" s="277"/>
       <c r="G26" s="277"/>
@@ -8979,11 +8979,11 @@
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1">
       <c r="A27" s="283"/>
-      <c r="B27" s="463" t="s">
+      <c r="B27" s="466" t="s">
         <v>661</v>
       </c>
-      <c r="C27" s="463"/>
-      <c r="D27" s="463"/>
+      <c r="C27" s="466"/>
+      <c r="D27" s="466"/>
       <c r="E27" s="277"/>
       <c r="F27" s="277"/>
       <c r="G27" s="277"/>
@@ -9071,11 +9071,11 @@
       <c r="A30" s="283" t="s">
         <v>586</v>
       </c>
-      <c r="B30" s="465" t="s">
+      <c r="B30" s="468" t="s">
         <v>587</v>
       </c>
-      <c r="C30" s="463"/>
-      <c r="D30" s="463"/>
+      <c r="C30" s="466"/>
+      <c r="D30" s="466"/>
       <c r="E30" s="288"/>
       <c r="F30" s="288"/>
       <c r="G30" s="277"/>
@@ -9103,11 +9103,11 @@
       <c r="A31" s="283" t="s">
         <v>588</v>
       </c>
-      <c r="B31" s="463" t="s">
+      <c r="B31" s="466" t="s">
         <v>589</v>
       </c>
-      <c r="C31" s="463"/>
-      <c r="D31" s="463"/>
+      <c r="C31" s="466"/>
+      <c r="D31" s="466"/>
       <c r="E31" s="288"/>
       <c r="F31" s="288"/>
       <c r="G31" s="277"/>
@@ -11063,29 +11063,29 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:W79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G51" sqref="G51:M51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="23" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="23" customWidth="1"/>
-    <col min="6" max="13" width="10.88671875" style="23" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="23" customWidth="1"/>
+    <col min="6" max="13" width="10.85546875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="23" customWidth="1"/>
     <col min="15" max="16" width="13" style="23" customWidth="1"/>
-    <col min="17" max="17" width="21.88671875" style="23" customWidth="1"/>
-    <col min="18" max="18" width="29.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="9.109375" style="23"/>
-    <col min="23" max="23" width="14.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.109375" style="23"/>
+    <col min="17" max="17" width="21.85546875" style="23" customWidth="1"/>
+    <col min="18" max="18" width="29.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="9.140625" style="23"/>
+    <col min="23" max="23" width="14.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18">
+    <row r="2" spans="2:12" ht="18.75">
       <c r="B2" s="3" t="s">
         <v>81</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="32.700000000000003" customHeight="1" thickBot="1">
+    <row r="4" spans="2:12" ht="32.65" customHeight="1" thickBot="1">
       <c r="B4" s="9" t="s">
         <v>514</v>
       </c>
@@ -11835,7 +11835,7 @@
       <c r="K21" s="50"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="2:18" ht="18">
+    <row r="22" spans="2:18" ht="18.75">
       <c r="B22" s="3" t="s">
         <v>81</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="28.2" thickBot="1">
+    <row r="24" spans="2:18" ht="26.25" thickBot="1">
       <c r="B24" s="9" t="s">
         <v>514</v>
       </c>
@@ -11995,7 +11995,7 @@
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
     </row>
-    <row r="27" spans="2:18" ht="25.8">
+    <row r="27" spans="2:18" ht="26.25">
       <c r="B27" s="3" t="s">
         <v>109</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="24.9" customHeight="1" thickBot="1">
+    <row r="29" spans="2:18" ht="24.95" customHeight="1" thickBot="1">
       <c r="B29" s="9" t="s">
         <v>514</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="15" thickBot="1">
+    <row r="30" spans="2:18" ht="15.75" thickBot="1">
       <c r="B30" s="43" t="str">
         <f t="shared" ref="B30" si="4">B13</f>
         <v>IE,National</v>
@@ -12130,7 +12130,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K30" s="471" t="s">
+      <c r="K30" s="474" t="s">
         <v>114</v>
       </c>
       <c r="N30" s="130" t="s">
@@ -12186,7 +12186,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K31" s="472"/>
+      <c r="K31" s="475"/>
       <c r="N31" s="152"/>
       <c r="O31" s="149"/>
       <c r="P31" s="149"/>
@@ -12229,7 +12229,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K32" s="472"/>
+      <c r="K32" s="475"/>
       <c r="M32" s="22"/>
     </row>
     <row r="33" spans="2:23">
@@ -12269,7 +12269,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K33" s="472"/>
+      <c r="K33" s="475"/>
       <c r="M33" s="22"/>
     </row>
     <row r="34" spans="2:23">
@@ -12309,7 +12309,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K34" s="472"/>
+      <c r="K34" s="475"/>
       <c r="M34" s="22"/>
     </row>
     <row r="35" spans="2:23">
@@ -12349,7 +12349,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K35" s="472"/>
+      <c r="K35" s="475"/>
       <c r="M35" s="22"/>
     </row>
     <row r="36" spans="2:23">
@@ -12389,7 +12389,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K36" s="472"/>
+      <c r="K36" s="475"/>
       <c r="M36" s="22"/>
     </row>
     <row r="37" spans="2:23">
@@ -12429,7 +12429,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K37" s="473"/>
+      <c r="K37" s="476"/>
       <c r="M37" s="22"/>
     </row>
     <row r="38" spans="2:23">
@@ -12452,7 +12452,7 @@
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
     </row>
-    <row r="40" spans="2:23" ht="18">
+    <row r="40" spans="2:23" ht="18.75">
       <c r="B40" s="3" t="s">
         <v>82</v>
       </c>
@@ -12523,7 +12523,7 @@
       <c r="V41"/>
       <c r="W41"/>
     </row>
-    <row r="42" spans="2:23" ht="26.7" customHeight="1" thickBot="1">
+    <row r="42" spans="2:23" ht="26.65" customHeight="1" thickBot="1">
       <c r="B42" s="8" t="s">
         <v>514</v>
       </c>
@@ -12814,7 +12814,7 @@
       <c r="V46"/>
       <c r="W46"/>
     </row>
-    <row r="47" spans="2:23" ht="15" thickBot="1">
+    <row r="47" spans="2:23" ht="15.75" thickBot="1">
       <c r="B47" s="46" t="s">
         <v>79</v>
       </c>
@@ -13089,7 +13089,7 @@
       <c r="P51" s="51"/>
       <c r="R51" s="25"/>
     </row>
-    <row r="52" spans="2:18" ht="15" thickBot="1">
+    <row r="52" spans="2:18" ht="15.75" thickBot="1">
       <c r="B52" s="46" t="s">
         <v>79</v>
       </c>
@@ -13212,31 +13212,31 @@
       <c r="F54" s="450">
         <v>0</v>
       </c>
-      <c r="G54" s="482">
-        <f t="shared" ref="G54:M56" si="28">G68</f>
+      <c r="G54" s="465">
+        <f t="shared" ref="G54:M54" si="28">G68</f>
         <v>0</v>
       </c>
-      <c r="H54" s="482">
+      <c r="H54" s="465">
         <f t="shared" si="28"/>
         <v>3.6</v>
       </c>
-      <c r="I54" s="482">
+      <c r="I54" s="465">
         <f t="shared" si="28"/>
         <v>18</v>
       </c>
-      <c r="J54" s="482">
+      <c r="J54" s="465">
         <f t="shared" si="28"/>
         <v>36</v>
       </c>
-      <c r="K54" s="482">
+      <c r="K54" s="465">
         <f t="shared" si="28"/>
         <v>54</v>
       </c>
-      <c r="L54" s="482">
+      <c r="L54" s="465">
         <f t="shared" si="28"/>
         <v>61.2</v>
       </c>
-      <c r="M54" s="482">
+      <c r="M54" s="465">
         <f t="shared" si="28"/>
         <v>61.2</v>
       </c>
@@ -13272,22 +13272,22 @@
       <c r="G55" s="445">
         <v>0</v>
       </c>
-      <c r="H55" s="480">
+      <c r="H55" s="463">
         <v>0</v>
       </c>
-      <c r="I55" s="480">
+      <c r="I55" s="463">
         <v>0</v>
       </c>
-      <c r="J55" s="480">
+      <c r="J55" s="463">
         <v>0</v>
       </c>
-      <c r="K55" s="480">
+      <c r="K55" s="463">
         <v>0</v>
       </c>
-      <c r="L55" s="480">
+      <c r="L55" s="463">
         <v>0</v>
       </c>
-      <c r="M55" s="480">
+      <c r="M55" s="463">
         <v>0</v>
       </c>
       <c r="N55" s="451">
@@ -13322,22 +13322,22 @@
       <c r="G56" s="447">
         <v>0</v>
       </c>
-      <c r="H56" s="481">
+      <c r="H56" s="464">
         <v>0</v>
       </c>
-      <c r="I56" s="481">
+      <c r="I56" s="464">
         <v>0</v>
       </c>
-      <c r="J56" s="481">
+      <c r="J56" s="464">
         <v>0</v>
       </c>
-      <c r="K56" s="481">
+      <c r="K56" s="464">
         <v>0</v>
       </c>
-      <c r="L56" s="481">
+      <c r="L56" s="464">
         <v>0</v>
       </c>
-      <c r="M56" s="481">
+      <c r="M56" s="464">
         <v>0</v>
       </c>
       <c r="N56" s="455">
@@ -13349,7 +13349,7 @@
       <c r="P56" s="51"/>
       <c r="R56" s="25"/>
     </row>
-    <row r="57" spans="2:18" ht="15" thickBot="1">
+    <row r="57" spans="2:18" ht="15.75" thickBot="1">
       <c r="B57" s="46" t="s">
         <v>79</v>
       </c>
@@ -13624,7 +13624,7 @@
       <c r="P61" s="51"/>
       <c r="R61" s="25"/>
     </row>
-    <row r="62" spans="2:18" ht="15" thickBot="1">
+    <row r="62" spans="2:18" ht="15.75" thickBot="1">
       <c r="B62" s="48" t="s">
         <v>79</v>
       </c>
@@ -13672,7 +13672,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="66" spans="4:13" ht="15" thickBot="1">
+    <row r="66" spans="4:13" ht="15.75" thickBot="1">
       <c r="D66" s="23" t="s">
         <v>650</v>
       </c>
@@ -13926,23 +13926,23 @@
       <selection activeCell="B2" sqref="B2:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18">
+    <row r="2" spans="2:15" ht="18.75">
       <c r="B2" s="3" t="s">
         <v>50</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" thickBot="1">
+    <row r="4" spans="2:15" ht="15.75" thickBot="1">
       <c r="B4" s="9" t="s">
         <v>515</v>
       </c>
@@ -14204,11 +14204,11 @@
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
-      <c r="F9" s="474" t="s">
+      <c r="F9" s="477" t="s">
         <v>223</v>
       </c>
-      <c r="G9" s="474"/>
-      <c r="H9" s="474"/>
+      <c r="G9" s="477"/>
+      <c r="H9" s="477"/>
       <c r="I9" s="192" t="s">
         <v>222</v>
       </c>
@@ -14269,7 +14269,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="2:15" ht="18">
+    <row r="13" spans="2:15" ht="18.75">
       <c r="B13" s="3" t="s">
         <v>55</v>
       </c>
@@ -14288,7 +14288,7 @@
       <c r="M13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="2:15" ht="27.6">
+    <row r="14" spans="2:15" ht="25.5">
       <c r="B14" s="11" t="s">
         <v>513</v>
       </c>
@@ -14318,7 +14318,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="105"/>
     </row>
-    <row r="15" spans="2:15" ht="15" thickBot="1">
+    <row r="15" spans="2:15" ht="15.75" thickBot="1">
       <c r="B15" s="8" t="s">
         <v>515</v>
       </c>
@@ -14630,21 +14630,21 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="22"/>
-    <col min="2" max="2" width="12.88671875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="69.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="22" customWidth="1"/>
-    <col min="7" max="9" width="9.109375" style="22"/>
-    <col min="10" max="10" width="14.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.5546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="22"/>
+    <col min="1" max="1" width="9.140625" style="22"/>
+    <col min="2" max="2" width="12.85546875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="69.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="22" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="22"/>
+    <col min="10" max="10" width="14.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="18">
+    <row r="2" spans="2:18" ht="18.75">
       <c r="B2" s="3" t="s">
         <v>131</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="28.2" thickBot="1">
+    <row r="4" spans="2:18" ht="13.5" thickBot="1">
       <c r="B4" s="8" t="s">
         <v>514</v>
       </c>
@@ -14694,7 +14694,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:18" ht="14.4">
+    <row r="5" spans="2:18" ht="15">
       <c r="B5" s="21" t="str">
         <f>Processes!C51</f>
         <v>IE,National</v>
@@ -14714,12 +14714,12 @@
       <c r="F5" s="50">
         <v>10</v>
       </c>
-      <c r="G5" s="475" t="s">
+      <c r="G5" s="478" t="s">
         <v>142</v>
       </c>
       <c r="R5" s="23"/>
     </row>
-    <row r="6" spans="2:18" ht="14.4">
+    <row r="6" spans="2:18" ht="15">
       <c r="B6" s="21" t="str">
         <f>Processes!C54</f>
         <v>IE,National</v>
@@ -14739,10 +14739,10 @@
       <c r="F6" s="50">
         <v>10</v>
       </c>
-      <c r="G6" s="476"/>
+      <c r="G6" s="479"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="2:18" ht="14.4">
+    <row r="7" spans="2:18" ht="15">
       <c r="B7" s="21" t="str">
         <f>Processes!C60</f>
         <v>IE,National</v>
@@ -14762,10 +14762,10 @@
       <c r="F7" s="50">
         <v>10</v>
       </c>
-      <c r="G7" s="476"/>
+      <c r="G7" s="479"/>
       <c r="R7" s="23"/>
     </row>
-    <row r="8" spans="2:18" ht="14.4">
+    <row r="8" spans="2:18" ht="15">
       <c r="B8" s="21" t="str">
         <f>Processes!C66</f>
         <v>IE,National</v>
@@ -14785,10 +14785,10 @@
       <c r="F8" s="50">
         <v>10</v>
       </c>
-      <c r="G8" s="476"/>
+      <c r="G8" s="479"/>
       <c r="R8" s="23"/>
     </row>
-    <row r="9" spans="2:18" ht="14.4">
+    <row r="9" spans="2:18" ht="15">
       <c r="B9" s="21" t="str">
         <f>Processes!C69</f>
         <v>IE,National</v>
@@ -14808,10 +14808,10 @@
       <c r="F9" s="50">
         <v>10</v>
       </c>
-      <c r="G9" s="476"/>
+      <c r="G9" s="479"/>
       <c r="R9" s="23"/>
     </row>
-    <row r="10" spans="2:18" ht="14.4">
+    <row r="10" spans="2:18" ht="15">
       <c r="B10" s="21" t="str">
         <f>Processes!C57</f>
         <v>IE,National</v>
@@ -14831,10 +14831,10 @@
       <c r="F10" s="50">
         <v>10</v>
       </c>
-      <c r="G10" s="476"/>
+      <c r="G10" s="479"/>
       <c r="R10" s="23"/>
     </row>
-    <row r="11" spans="2:18" ht="14.4">
+    <row r="11" spans="2:18" ht="15">
       <c r="B11" s="21" t="str">
         <f>Processes!C72</f>
         <v>IE,National</v>
@@ -14854,10 +14854,10 @@
       <c r="F11" s="50">
         <v>10</v>
       </c>
-      <c r="G11" s="476"/>
+      <c r="G11" s="479"/>
       <c r="R11" s="23"/>
     </row>
-    <row r="12" spans="2:18" ht="14.4">
+    <row r="12" spans="2:18" ht="15">
       <c r="B12" s="21" t="str">
         <f>Processes!C75</f>
         <v>IE,National</v>
@@ -14877,10 +14877,10 @@
       <c r="F12" s="50">
         <v>10</v>
       </c>
-      <c r="G12" s="476"/>
+      <c r="G12" s="479"/>
       <c r="R12" s="23"/>
     </row>
-    <row r="13" spans="2:18" ht="14.4">
+    <row r="13" spans="2:18" ht="15">
       <c r="B13" s="21" t="str">
         <f>Processes!C63</f>
         <v>IE,National</v>
@@ -14900,10 +14900,10 @@
       <c r="F13" s="50">
         <v>10</v>
       </c>
-      <c r="G13" s="476"/>
+      <c r="G13" s="479"/>
       <c r="R13" s="23"/>
     </row>
-    <row r="14" spans="2:18" ht="14.4">
+    <row r="14" spans="2:18" ht="15">
       <c r="B14" s="45" t="str">
         <f>Processes!C78</f>
         <v>IE,National</v>
@@ -14923,10 +14923,10 @@
       <c r="F14" s="51">
         <v>10</v>
       </c>
-      <c r="G14" s="476"/>
+      <c r="G14" s="479"/>
       <c r="R14" s="23"/>
     </row>
-    <row r="15" spans="2:18" ht="14.4">
+    <row r="15" spans="2:18" ht="15">
       <c r="B15" s="21" t="str">
         <f>Processes!C52</f>
         <v>IE,National</v>
@@ -14946,10 +14946,10 @@
       <c r="F15" s="50">
         <v>10</v>
       </c>
-      <c r="G15" s="476"/>
+      <c r="G15" s="479"/>
       <c r="R15" s="23"/>
     </row>
-    <row r="16" spans="2:18" ht="14.4">
+    <row r="16" spans="2:18" ht="15">
       <c r="B16" s="21" t="str">
         <f>Processes!C55</f>
         <v>IE,National</v>
@@ -14969,10 +14969,10 @@
       <c r="F16" s="50">
         <v>10</v>
       </c>
-      <c r="G16" s="476"/>
+      <c r="G16" s="479"/>
       <c r="R16" s="23"/>
     </row>
-    <row r="17" spans="2:18" ht="14.4">
+    <row r="17" spans="2:18" ht="15">
       <c r="B17" s="21" t="str">
         <f>Processes!C61</f>
         <v>IE,National</v>
@@ -14992,10 +14992,10 @@
       <c r="F17" s="50">
         <v>10</v>
       </c>
-      <c r="G17" s="476"/>
+      <c r="G17" s="479"/>
       <c r="R17" s="23"/>
     </row>
-    <row r="18" spans="2:18" ht="14.4">
+    <row r="18" spans="2:18" ht="15">
       <c r="B18" s="21" t="str">
         <f>Processes!C67</f>
         <v>IE,National</v>
@@ -15015,10 +15015,10 @@
       <c r="F18" s="50">
         <v>10</v>
       </c>
-      <c r="G18" s="476"/>
+      <c r="G18" s="479"/>
       <c r="R18" s="23"/>
     </row>
-    <row r="19" spans="2:18" ht="14.4">
+    <row r="19" spans="2:18" ht="15">
       <c r="B19" s="21" t="str">
         <f>Processes!C70</f>
         <v>IE,National</v>
@@ -15038,10 +15038,10 @@
       <c r="F19" s="50">
         <v>10</v>
       </c>
-      <c r="G19" s="476"/>
+      <c r="G19" s="479"/>
       <c r="R19" s="23"/>
     </row>
-    <row r="20" spans="2:18" ht="14.4">
+    <row r="20" spans="2:18" ht="15">
       <c r="B20" s="21" t="str">
         <f>Processes!C58</f>
         <v>IE,National</v>
@@ -15061,7 +15061,7 @@
       <c r="F20" s="50">
         <v>10</v>
       </c>
-      <c r="G20" s="476"/>
+      <c r="G20" s="479"/>
       <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18">
@@ -15084,7 +15084,7 @@
       <c r="F21" s="50">
         <v>10</v>
       </c>
-      <c r="G21" s="476"/>
+      <c r="G21" s="479"/>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="21" t="str">
@@ -15106,7 +15106,7 @@
       <c r="F22" s="50">
         <v>10</v>
       </c>
-      <c r="G22" s="476"/>
+      <c r="G22" s="479"/>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="21" t="str">
@@ -15128,7 +15128,7 @@
       <c r="F23" s="50">
         <v>10</v>
       </c>
-      <c r="G23" s="476"/>
+      <c r="G23" s="479"/>
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="45" t="str">
@@ -15150,7 +15150,7 @@
       <c r="F24" s="51">
         <v>10</v>
       </c>
-      <c r="G24" s="476"/>
+      <c r="G24" s="479"/>
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="21" t="str">
@@ -15172,7 +15172,7 @@
       <c r="F25" s="50">
         <v>10</v>
       </c>
-      <c r="G25" s="476"/>
+      <c r="G25" s="479"/>
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="21" t="str">
@@ -15194,7 +15194,7 @@
       <c r="F26" s="50">
         <v>10</v>
       </c>
-      <c r="G26" s="476"/>
+      <c r="G26" s="479"/>
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="21" t="str">
@@ -15216,7 +15216,7 @@
       <c r="F27" s="50">
         <v>10</v>
       </c>
-      <c r="G27" s="476"/>
+      <c r="G27" s="479"/>
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="21" t="str">
@@ -15238,7 +15238,7 @@
       <c r="F28" s="50">
         <v>10</v>
       </c>
-      <c r="G28" s="476"/>
+      <c r="G28" s="479"/>
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="21" t="str">
@@ -15260,7 +15260,7 @@
       <c r="F29" s="50">
         <v>10</v>
       </c>
-      <c r="G29" s="476"/>
+      <c r="G29" s="479"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="21" t="str">
@@ -15282,7 +15282,7 @@
       <c r="F30" s="50">
         <v>10</v>
       </c>
-      <c r="G30" s="476"/>
+      <c r="G30" s="479"/>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="21" t="str">
@@ -15304,7 +15304,7 @@
       <c r="F31" s="50">
         <v>10</v>
       </c>
-      <c r="G31" s="476"/>
+      <c r="G31" s="479"/>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="21" t="str">
@@ -15326,7 +15326,7 @@
       <c r="F32" s="50">
         <v>10</v>
       </c>
-      <c r="G32" s="476"/>
+      <c r="G32" s="479"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="21" t="str">
@@ -15348,7 +15348,7 @@
       <c r="F33" s="50">
         <v>10</v>
       </c>
-      <c r="G33" s="476"/>
+      <c r="G33" s="479"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="45" t="str">
@@ -15370,7 +15370,7 @@
       <c r="F34" s="51">
         <v>10</v>
       </c>
-      <c r="G34" s="477"/>
+      <c r="G34" s="480"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="21"/>
@@ -15384,7 +15384,7 @@
       <c r="F36" s="50"/>
       <c r="G36" s="190"/>
     </row>
-    <row r="37" spans="2:7" ht="14.4">
+    <row r="37" spans="2:7" ht="15">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -15392,7 +15392,7 @@
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="2:7" ht="14.4">
+    <row r="38" spans="2:7" ht="15">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -15400,7 +15400,7 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="2:7" ht="14.4">
+    <row r="39" spans="2:7" ht="15">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -15408,7 +15408,7 @@
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="2:7" ht="14.4">
+    <row r="40" spans="2:7" ht="15">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -15416,7 +15416,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="2:7" ht="14.4">
+    <row r="41" spans="2:7" ht="15">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -15424,7 +15424,7 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="2:7" ht="14.4">
+    <row r="42" spans="2:7" ht="15">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -15450,21 +15450,21 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="23"/>
-    <col min="2" max="2" width="9.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="9.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="23" customWidth="1"/>
     <col min="4" max="4" width="17" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="23"/>
-    <col min="7" max="20" width="9.33203125" style="25" customWidth="1"/>
-    <col min="21" max="23" width="9.33203125" style="23" customWidth="1"/>
-    <col min="24" max="24" width="28.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.109375" style="23"/>
-    <col min="26" max="26" width="13.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="23"/>
+    <col min="7" max="20" width="9.28515625" style="25" customWidth="1"/>
+    <col min="21" max="23" width="9.28515625" style="23" customWidth="1"/>
+    <col min="24" max="24" width="28.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="23"/>
+    <col min="26" max="26" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17" style="23" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.109375" style="23"/>
+    <col min="28" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26">
@@ -15472,7 +15472,7 @@
       <c r="S1" s="23"/>
       <c r="T1" s="23"/>
     </row>
-    <row r="2" spans="2:26" ht="18">
+    <row r="2" spans="2:26" ht="18.75">
       <c r="B2" s="112" t="s">
         <v>145</v>
       </c>
@@ -15497,7 +15497,7 @@
       <c r="S2" s="124"/>
       <c r="T2" s="23"/>
     </row>
-    <row r="3" spans="2:26" ht="27.6">
+    <row r="3" spans="2:26" ht="25.5">
       <c r="B3" s="110" t="s">
         <v>513</v>
       </c>
@@ -16223,29 +16223,29 @@
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="23"/>
-    <col min="2" max="2" width="13.33203125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="23" customWidth="1"/>
     <col min="6" max="6" width="10" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="23" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="23" customWidth="1"/>
     <col min="10" max="10" width="11" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="10.109375" style="23" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="10.33203125" style="23" customWidth="1"/>
-    <col min="22" max="22" width="9.109375" style="23"/>
+    <col min="11" max="15" width="10.140625" style="23" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="10.28515625" style="23" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="23"/>
     <col min="23" max="23" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.109375" style="23"/>
+    <col min="24" max="24" width="26.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="18">
+    <row r="2" spans="2:20" ht="18.75">
       <c r="B2" s="3" t="s">
         <v>57</v>
       </c>
@@ -16260,7 +16260,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="2:20" ht="27.6">
+    <row r="3" spans="2:20">
       <c r="B3" s="11" t="s">
         <v>513</v>
       </c>
@@ -16311,7 +16311,7 @@
       </c>
       <c r="R3"/>
     </row>
-    <row r="4" spans="2:20" ht="15" thickBot="1">
+    <row r="4" spans="2:20" ht="15.75" thickBot="1">
       <c r="B4" s="13" t="s">
         <v>515</v>
       </c>
@@ -16471,21 +16471,21 @@
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="474" t="s">
+      <c r="G7" s="477" t="s">
         <v>159</v>
       </c>
-      <c r="H7" s="474"/>
-      <c r="I7" s="474"/>
-      <c r="J7" s="474"/>
-      <c r="K7" s="474"/>
+      <c r="H7" s="477"/>
+      <c r="I7" s="477"/>
+      <c r="J7" s="477"/>
+      <c r="K7" s="477"/>
       <c r="L7" s="193" t="s">
         <v>67</v>
       </c>
       <c r="M7" s="192"/>
-      <c r="N7" s="478" t="s">
+      <c r="N7" s="481" t="s">
         <v>220</v>
       </c>
-      <c r="O7" s="478"/>
+      <c r="O7" s="481"/>
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
@@ -17124,11 +17124,11 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="23"/>
-    <col min="2" max="2" width="18.88671875" style="23" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="23"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="18.85546875" style="23" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -17145,7 +17145,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1">
       <c r="B5" s="163" t="s">
         <v>16</v>
       </c>
@@ -17234,7 +17234,7 @@
       </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="2:7" ht="15" thickBot="1">
+    <row r="17" spans="2:7" ht="15.75" thickBot="1">
       <c r="B17" s="163" t="s">
         <v>16</v>
       </c>
@@ -17405,9 +17405,9 @@
       <selection pane="topRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17428,10 +17428,10 @@
       <c r="J1" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="479" t="s">
+      <c r="P1" s="482" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="479"/>
+      <c r="Q1" s="482"/>
     </row>
     <row r="2" spans="1:22">
       <c r="H2" s="23"/>
@@ -17452,7 +17452,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" thickBot="1">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1">
       <c r="A3" s="69" t="s">
         <v>92</v>
       </c>
@@ -17487,7 +17487,7 @@
       </c>
       <c r="Q4" s="23"/>
     </row>
-    <row r="5" spans="1:22" ht="15" thickBot="1">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1">
       <c r="A5" s="75" t="s">
         <v>96</v>
       </c>
@@ -17497,7 +17497,7 @@
       </c>
       <c r="J5" s="23"/>
     </row>
-    <row r="6" spans="1:22" ht="15" thickBot="1">
+    <row r="6" spans="1:22" ht="15.75" thickBot="1">
       <c r="A6" s="77"/>
       <c r="B6" s="78" t="s">
         <v>18</v>
@@ -17540,7 +17540,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" thickBot="1">
+    <row r="7" spans="1:22" ht="15.75" thickBot="1">
       <c r="A7" s="80" t="s">
         <v>98</v>
       </c>
@@ -17593,7 +17593,7 @@
       <c r="R7" s="84"/>
       <c r="S7" s="84"/>
     </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1">
+    <row r="8" spans="1:22" ht="15.75" thickBot="1">
       <c r="A8" s="80" t="s">
         <v>98</v>
       </c>
@@ -17646,7 +17646,7 @@
       <c r="R8" s="84"/>
       <c r="S8" s="84"/>
     </row>
-    <row r="9" spans="1:22" ht="15" thickBot="1">
+    <row r="9" spans="1:22" ht="15.75" thickBot="1">
       <c r="A9" s="80" t="s">
         <v>103</v>
       </c>
@@ -17699,7 +17699,7 @@
       <c r="R9" s="84"/>
       <c r="S9" s="84"/>
     </row>
-    <row r="10" spans="1:22" ht="15" thickBot="1">
+    <row r="10" spans="1:22" ht="15.75" thickBot="1">
       <c r="A10" s="80" t="s">
         <v>103</v>
       </c>
@@ -17752,7 +17752,7 @@
       <c r="R10" s="84"/>
       <c r="S10" s="84"/>
     </row>
-    <row r="11" spans="1:22" ht="15" thickBot="1">
+    <row r="11" spans="1:22" ht="15.75" thickBot="1">
       <c r="A11" s="80" t="s">
         <v>83</v>
       </c>
@@ -17799,7 +17799,7 @@
         <v>5.4816516360000005</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" thickBot="1">
+    <row r="12" spans="1:22" ht="15.75" thickBot="1">
       <c r="A12" s="80" t="s">
         <v>83</v>
       </c>
@@ -17846,7 +17846,7 @@
         <v>13.781408235406515</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1">
+    <row r="13" spans="1:22" ht="15.75" thickBot="1">
       <c r="A13" s="80" t="s">
         <v>84</v>
       </c>
@@ -17893,7 +17893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1">
+    <row r="14" spans="1:22" ht="15.75" thickBot="1">
       <c r="A14" s="80" t="s">
         <v>84</v>
       </c>
@@ -17946,7 +17946,7 @@
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1">
+    <row r="16" spans="1:22" ht="15.75" thickBot="1">
       <c r="A16" s="75" t="s">
         <v>100</v>
       </c>
@@ -17962,7 +17962,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15" thickBot="1">
+    <row r="17" spans="1:26" ht="15.75" thickBot="1">
       <c r="A17" s="77"/>
       <c r="B17" s="78" t="s">
         <v>18</v>
@@ -18032,7 +18032,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15" thickBot="1">
+    <row r="18" spans="1:26" ht="15.75" thickBot="1">
       <c r="A18" s="80" t="s">
         <v>98</v>
       </c>
@@ -18081,7 +18081,7 @@
       <c r="O18" s="23"/>
       <c r="P18" s="87"/>
     </row>
-    <row r="19" spans="1:26" ht="15" thickBot="1">
+    <row r="19" spans="1:26" ht="15.75" thickBot="1">
       <c r="A19" s="80" t="s">
         <v>98</v>
       </c>
@@ -18168,7 +18168,7 @@
         <v>2.6576562288177672</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" thickBot="1">
+    <row r="20" spans="1:26" ht="15.75" thickBot="1">
       <c r="A20" s="80" t="s">
         <v>103</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>144.52992698400001</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" thickBot="1">
+    <row r="21" spans="1:26" ht="15.75" thickBot="1">
       <c r="A21" s="80" t="s">
         <v>103</v>
       </c>
@@ -18302,7 +18302,7 @@
         <v>5.4463236801828891</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" thickBot="1">
+    <row r="22" spans="1:26" ht="15.75" thickBot="1">
       <c r="A22" s="80" t="s">
         <v>83</v>
       </c>
@@ -18350,7 +18350,7 @@
       </c>
       <c r="P22" s="87"/>
     </row>
-    <row r="23" spans="1:26" ht="15" thickBot="1">
+    <row r="23" spans="1:26" ht="15.75" thickBot="1">
       <c r="A23" s="80" t="s">
         <v>83</v>
       </c>
@@ -18437,7 +18437,7 @@
         <v>12.446066141998699</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" thickBot="1">
+    <row r="24" spans="1:26" ht="15.75" thickBot="1">
       <c r="A24" s="80" t="s">
         <v>84</v>
       </c>
@@ -18484,7 +18484,7 @@
         <v>3.8660492520000003</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" thickBot="1">
+    <row r="25" spans="1:26" ht="15.75" thickBot="1">
       <c r="A25" s="80" t="s">
         <v>84</v>
       </c>
@@ -18571,7 +18571,7 @@
         <v>24.555246283161342</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" thickBot="1">
+    <row r="26" spans="1:26" ht="15.75" thickBot="1">
       <c r="A26" s="75" t="s">
         <v>102</v>
       </c>
@@ -18588,7 +18588,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" thickBot="1">
+    <row r="27" spans="1:26" ht="15.75" thickBot="1">
       <c r="A27" s="90"/>
       <c r="B27" s="78" t="s">
         <v>18</v>
@@ -18658,7 +18658,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" thickBot="1">
+    <row r="28" spans="1:26" ht="15.75" thickBot="1">
       <c r="A28" s="80" t="s">
         <v>98</v>
       </c>
@@ -18706,7 +18706,7 @@
       </c>
       <c r="P28" s="87"/>
     </row>
-    <row r="29" spans="1:26" ht="15" thickBot="1">
+    <row r="29" spans="1:26" ht="15.75" thickBot="1">
       <c r="A29" s="80" t="s">
         <v>98</v>
       </c>
@@ -18793,7 +18793,7 @@
         <v>3.425007675166559</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" thickBot="1">
+    <row r="30" spans="1:26" ht="15.75" thickBot="1">
       <c r="A30" s="80" t="s">
         <v>103</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>236.79263826000002</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" thickBot="1">
+    <row r="31" spans="1:26" ht="15.75" thickBot="1">
       <c r="A31" s="80" t="s">
         <v>103</v>
       </c>
@@ -18927,7 +18927,7 @@
         <v>6.8687312392684552</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" thickBot="1">
+    <row r="32" spans="1:26" ht="15.75" thickBot="1">
       <c r="A32" s="80" t="s">
         <v>83</v>
       </c>
@@ -18975,7 +18975,7 @@
       </c>
       <c r="P32" s="87"/>
     </row>
-    <row r="33" spans="1:26" ht="15" thickBot="1">
+    <row r="33" spans="1:26" ht="15.75" thickBot="1">
       <c r="A33" s="80" t="s">
         <v>83</v>
       </c>
@@ -19062,7 +19062,7 @@
         <v>14.991427037204447</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="15" thickBot="1">
+    <row r="34" spans="1:26" ht="15.75" thickBot="1">
       <c r="A34" s="80" t="s">
         <v>84</v>
       </c>
@@ -19109,7 +19109,7 @@
         <v>4.3794765360000003</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="15" thickBot="1">
+    <row r="35" spans="1:26" ht="15.75" thickBot="1">
       <c r="A35" s="80" t="s">
         <v>84</v>
       </c>
@@ -19206,7 +19206,7 @@
       <c r="M36" s="57"/>
       <c r="N36" s="57"/>
     </row>
-    <row r="37" spans="1:26" ht="15" thickBot="1">
+    <row r="37" spans="1:26" ht="15.75" thickBot="1">
       <c r="A37" s="75" t="s">
         <v>104</v>
       </c>
@@ -19226,7 +19226,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="15" thickBot="1">
+    <row r="38" spans="1:26" ht="15.75" thickBot="1">
       <c r="A38" s="77"/>
       <c r="B38" s="78" t="s">
         <v>18</v>
@@ -19296,7 +19296,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="15" thickBot="1">
+    <row r="39" spans="1:26" ht="15.75" thickBot="1">
       <c r="A39" s="80" t="s">
         <v>98</v>
       </c>
@@ -19344,7 +19344,7 @@
       </c>
       <c r="P39" s="87"/>
     </row>
-    <row r="40" spans="1:26" ht="15" thickBot="1">
+    <row r="40" spans="1:26" ht="15.75" thickBot="1">
       <c r="A40" s="80" t="s">
         <v>98</v>
       </c>
@@ -19431,7 +19431,7 @@
         <v>3.0319740075244952</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="15" thickBot="1">
+    <row r="41" spans="1:26" ht="15.75" thickBot="1">
       <c r="A41" s="80" t="s">
         <v>103</v>
       </c>
@@ -19478,7 +19478,7 @@
         <v>17.883748728000004</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="15" thickBot="1">
+    <row r="42" spans="1:26" ht="15.75" thickBot="1">
       <c r="A42" s="80" t="s">
         <v>103</v>
       </c>
@@ -19565,7 +19565,7 @@
         <v>6.1949592375963451</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15" thickBot="1">
+    <row r="43" spans="1:26" ht="15.75" thickBot="1">
       <c r="A43" s="80" t="s">
         <v>83</v>
       </c>
@@ -19613,7 +19613,7 @@
       </c>
       <c r="P43" s="87"/>
     </row>
-    <row r="44" spans="1:26" ht="15" thickBot="1">
+    <row r="44" spans="1:26" ht="15.75" thickBot="1">
       <c r="A44" s="80" t="s">
         <v>83</v>
       </c>
@@ -19700,7 +19700,7 @@
         <v>18.45386649024168</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="15" thickBot="1">
+    <row r="45" spans="1:26" ht="15.75" thickBot="1">
       <c r="A45" s="80" t="s">
         <v>84</v>
       </c>
@@ -19747,7 +19747,7 @@
         <v>4.602800448</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="15" thickBot="1">
+    <row r="46" spans="1:26" ht="15.75" thickBot="1">
       <c r="A46" s="80" t="s">
         <v>84</v>
       </c>
@@ -19844,7 +19844,7 @@
       <c r="M47" s="57"/>
       <c r="N47" s="57"/>
     </row>
-    <row r="48" spans="1:26" ht="15" thickBot="1">
+    <row r="48" spans="1:26" ht="15.75" thickBot="1">
       <c r="A48" s="75" t="s">
         <v>105</v>
       </c>
@@ -19864,7 +19864,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="15" thickBot="1">
+    <row r="49" spans="1:26" ht="15.75" thickBot="1">
       <c r="A49" s="77"/>
       <c r="B49" s="78" t="s">
         <v>18</v>
@@ -19934,7 +19934,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="15" thickBot="1">
+    <row r="50" spans="1:26" ht="15.75" thickBot="1">
       <c r="A50" s="80" t="s">
         <v>98</v>
       </c>
@@ -19982,7 +19982,7 @@
       </c>
       <c r="P50" s="87"/>
     </row>
-    <row r="51" spans="1:26" ht="15" thickBot="1">
+    <row r="51" spans="1:26" ht="15.75" thickBot="1">
       <c r="A51" s="80" t="s">
         <v>98</v>
       </c>
@@ -20069,7 +20069,7 @@
         <v>3.949052565355978</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="15" thickBot="1">
+    <row r="52" spans="1:26" ht="15.75" thickBot="1">
       <c r="A52" s="80" t="s">
         <v>103</v>
       </c>
@@ -20116,7 +20116,7 @@
         <v>110.14646000400001</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="15" thickBot="1">
+    <row r="53" spans="1:26" ht="15.75" thickBot="1">
       <c r="A53" s="80" t="s">
         <v>103</v>
       </c>
@@ -20203,7 +20203,7 @@
         <v>7.8793892417766198</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="15" thickBot="1">
+    <row r="54" spans="1:26" ht="15.75" thickBot="1">
       <c r="A54" s="80" t="s">
         <v>83</v>
       </c>
@@ -20251,7 +20251,7 @@
       </c>
       <c r="P54" s="87"/>
     </row>
-    <row r="55" spans="1:26" ht="15" thickBot="1">
+    <row r="55" spans="1:26" ht="15.75" thickBot="1">
       <c r="A55" s="80" t="s">
         <v>83</v>
       </c>
@@ -20338,7 +20338,7 @@
         <v>22.533930278145014</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="15" thickBot="1">
+    <row r="56" spans="1:26" ht="15.75" thickBot="1">
       <c r="A56" s="80" t="s">
         <v>84</v>
       </c>
@@ -20385,7 +20385,7 @@
         <v>5.1162277320000005</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="15" thickBot="1">
+    <row r="57" spans="1:26" ht="15.75" thickBot="1">
       <c r="A57" s="80" t="s">
         <v>84</v>
       </c>
@@ -20492,9 +20492,9 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="23"/>
+    <col min="1" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -20609,35 +20609,35 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5546875" customWidth="1"/>
-    <col min="25" max="25" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:30">
@@ -21108,7 +21108,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1">
       <c r="A10" s="229" t="s">
         <v>279</v>
       </c>
@@ -21350,7 +21350,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>30480</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -21380,46 +21380,46 @@
       <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="38.109375" style="133" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" style="133" customWidth="1"/>
     <col min="2" max="2" width="13" style="131" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.5546875" style="134" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="134"/>
-    <col min="6" max="6" width="6.109375" style="135" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" style="135" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="134" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.109375" style="135" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" style="134" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="134"/>
+    <col min="6" max="6" width="6.140625" style="135" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="134" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="135" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="135" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" style="135" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="132" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="131" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.109375" style="131" customWidth="1"/>
-    <col min="15" max="15" width="5.33203125" style="131" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" style="131" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" style="131" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.109375" style="131" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.33203125" style="131" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.33203125" style="131" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.88671875" style="131" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="5.33203125" style="131" customWidth="1"/>
-    <col min="26" max="26" width="5.33203125" style="135" customWidth="1"/>
-    <col min="27" max="27" width="8.109375" style="132" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.6640625" style="132" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="5.5546875" style="131" customWidth="1"/>
-    <col min="31" max="31" width="8.6640625" style="131" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.6640625" style="131" customWidth="1"/>
-    <col min="33" max="33" width="5.5546875" style="131" customWidth="1"/>
-    <col min="34" max="34" width="5.88671875" style="131" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="131" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="131" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" style="131" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="131" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="131" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" style="131" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.28515625" style="131" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" style="131" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.85546875" style="131" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="5.28515625" style="131" customWidth="1"/>
+    <col min="26" max="26" width="5.28515625" style="135" customWidth="1"/>
+    <col min="27" max="27" width="8.140625" style="132" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.7109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="5.5703125" style="131" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" style="131" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.7109375" style="131" customWidth="1"/>
+    <col min="33" max="33" width="5.5703125" style="131" customWidth="1"/>
+    <col min="34" max="34" width="5.85546875" style="131" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="7" style="131" customWidth="1"/>
-    <col min="37" max="40" width="5.5546875" style="131" customWidth="1"/>
-    <col min="41" max="41" width="8.6640625" style="132" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.33203125" style="132" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.33203125" style="131" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.109375" style="131"/>
+    <col min="37" max="40" width="5.5703125" style="131" customWidth="1"/>
+    <col min="41" max="41" width="8.7109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.28515625" style="132" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.28515625" style="131" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="131"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="121.2" thickBot="1">
+    <row r="1" spans="1:43" ht="111.75" thickBot="1">
       <c r="A1" s="212" t="s">
         <v>428</v>
       </c>
@@ -21922,7 +21922,7 @@
         <v>172.71258946798309</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="13.8" thickBot="1">
+    <row r="6" spans="1:43" ht="13.5" thickBot="1">
       <c r="A6" s="322" t="s">
         <v>197</v>
       </c>
@@ -22200,7 +22200,7 @@
         <v>14978.040387890453</v>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="13.8" thickBot="1">
+    <row r="8" spans="1:43" ht="13.5" thickBot="1">
       <c r="A8" s="344" t="s">
         <v>199</v>
       </c>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43" ht="13.8" thickBot="1">
+    <row r="24" spans="1:43" ht="13.5" thickBot="1">
       <c r="A24" s="322" t="s">
         <v>618</v>
       </c>
@@ -23738,7 +23738,7 @@
         <v>-2.4439547706873483</v>
       </c>
     </row>
-    <row r="25" spans="1:43" ht="13.8" thickBot="1">
+    <row r="25" spans="1:43" ht="13.5" thickBot="1">
       <c r="A25" s="383" t="s">
         <v>205</v>
       </c>
@@ -23814,7 +23814,7 @@
         <v>425.56331988324462</v>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="13.8" thickBot="1">
+    <row r="26" spans="1:43" ht="13.5" thickBot="1">
       <c r="A26" s="427" t="s">
         <v>206</v>
       </c>
@@ -24010,37 +24010,37 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
-    <col min="6" max="6" width="85.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.5546875" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="85.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="1.5546875" customWidth="1"/>
-    <col min="20" max="20" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="1.5546875" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="1.5546875" customWidth="1"/>
-    <col min="26" max="26" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="1.5546875" customWidth="1"/>
-    <col min="29" max="29" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="1.5703125" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.5703125" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="1.5703125" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="1.5703125" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:29" ht="18">
+    <row r="3" spans="2:29" ht="18.75">
       <c r="B3" s="165" t="s">
         <v>282</v>
       </c>
@@ -24069,7 +24069,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="2:29" ht="15" thickBot="1">
+    <row r="4" spans="2:29" ht="15.75" thickBot="1">
       <c r="B4" s="166" t="s">
         <v>279</v>
       </c>
@@ -27130,11 +27130,11 @@
       <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
@@ -27149,7 +27149,7 @@
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
     </row>
-    <row r="3" spans="2:9" ht="15" thickBot="1">
+    <row r="3" spans="2:9" ht="15.75" thickBot="1">
       <c r="B3" s="166" t="s">
         <v>15</v>
       </c>
@@ -28649,23 +28649,23 @@
       <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.109375" customWidth="1"/>
+    <col min="5" max="5" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="25.8">
+    <row r="1" spans="2:10" ht="26.25">
       <c r="B1" s="175" t="s">
         <v>350</v>
       </c>
@@ -28691,7 +28691,7 @@
       <c r="I3" s="170"/>
       <c r="J3" s="170"/>
     </row>
-    <row r="4" spans="2:10" ht="15" thickBot="1">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1">
       <c r="B4" s="166" t="s">
         <v>1</v>
       </c>
@@ -31051,278 +31051,278 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="23"/>
-    <col min="2" max="2" width="11.5546875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="11.5703125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.109375" style="23"/>
-    <col min="9" max="9" width="10.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" style="23" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="23"/>
-    <col min="13" max="13" width="11.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="23"/>
+    <col min="9" max="9" width="10.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="23" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="23"/>
+    <col min="13" max="13" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="37" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.88671875" style="23" customWidth="1"/>
-    <col min="18" max="262" width="9.109375" style="23"/>
-    <col min="263" max="263" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="266" max="518" width="9.109375" style="23"/>
-    <col min="519" max="519" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="522" max="774" width="9.109375" style="23"/>
-    <col min="775" max="775" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="778" max="1030" width="9.109375" style="23"/>
-    <col min="1031" max="1031" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1286" width="9.109375" style="23"/>
-    <col min="1287" max="1287" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1542" width="9.109375" style="23"/>
-    <col min="1543" max="1543" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1798" width="9.109375" style="23"/>
-    <col min="1799" max="1799" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="1802" max="2054" width="9.109375" style="23"/>
-    <col min="2055" max="2055" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2310" width="9.109375" style="23"/>
-    <col min="2311" max="2311" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2566" width="9.109375" style="23"/>
-    <col min="2567" max="2567" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2822" width="9.109375" style="23"/>
-    <col min="2823" max="2823" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="2826" max="3078" width="9.109375" style="23"/>
-    <col min="3079" max="3079" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3334" width="9.109375" style="23"/>
-    <col min="3335" max="3335" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3590" width="9.109375" style="23"/>
-    <col min="3591" max="3591" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3846" width="9.109375" style="23"/>
-    <col min="3847" max="3847" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3850" max="4102" width="9.109375" style="23"/>
-    <col min="4103" max="4103" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4358" width="9.109375" style="23"/>
-    <col min="4359" max="4359" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4614" width="9.109375" style="23"/>
-    <col min="4615" max="4615" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4870" width="9.109375" style="23"/>
-    <col min="4871" max="4871" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4874" max="5126" width="9.109375" style="23"/>
-    <col min="5127" max="5127" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5382" width="9.109375" style="23"/>
-    <col min="5383" max="5383" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5638" width="9.109375" style="23"/>
-    <col min="5639" max="5639" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5894" width="9.109375" style="23"/>
-    <col min="5895" max="5895" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="5898" max="6150" width="9.109375" style="23"/>
-    <col min="6151" max="6151" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6406" width="9.109375" style="23"/>
-    <col min="6407" max="6407" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6662" width="9.109375" style="23"/>
-    <col min="6663" max="6663" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6918" width="9.109375" style="23"/>
-    <col min="6919" max="6919" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6922" max="7174" width="9.109375" style="23"/>
-    <col min="7175" max="7175" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7430" width="9.109375" style="23"/>
-    <col min="7431" max="7431" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7686" width="9.109375" style="23"/>
-    <col min="7687" max="7687" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7942" width="9.109375" style="23"/>
-    <col min="7943" max="7943" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="7946" max="8198" width="9.109375" style="23"/>
-    <col min="8199" max="8199" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8454" width="9.109375" style="23"/>
-    <col min="8455" max="8455" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8710" width="9.109375" style="23"/>
-    <col min="8711" max="8711" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8966" width="9.109375" style="23"/>
-    <col min="8967" max="8967" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="8970" max="9222" width="9.109375" style="23"/>
-    <col min="9223" max="9223" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9478" width="9.109375" style="23"/>
-    <col min="9479" max="9479" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9734" width="9.109375" style="23"/>
-    <col min="9735" max="9735" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9990" width="9.109375" style="23"/>
-    <col min="9991" max="9991" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="9994" max="10246" width="9.109375" style="23"/>
-    <col min="10247" max="10247" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10502" width="9.109375" style="23"/>
-    <col min="10503" max="10503" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10758" width="9.109375" style="23"/>
-    <col min="10759" max="10759" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="10762" max="11014" width="9.109375" style="23"/>
-    <col min="11015" max="11015" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11270" width="9.109375" style="23"/>
-    <col min="11271" max="11271" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11526" width="9.109375" style="23"/>
-    <col min="11527" max="11527" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11782" width="9.109375" style="23"/>
-    <col min="11783" max="11783" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="11786" max="12038" width="9.109375" style="23"/>
-    <col min="12039" max="12039" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12294" width="9.109375" style="23"/>
-    <col min="12295" max="12295" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12550" width="9.109375" style="23"/>
-    <col min="12551" max="12551" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12806" width="9.109375" style="23"/>
-    <col min="12807" max="12807" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="12810" max="13062" width="9.109375" style="23"/>
-    <col min="13063" max="13063" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13318" width="9.109375" style="23"/>
-    <col min="13319" max="13319" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13574" width="9.109375" style="23"/>
-    <col min="13575" max="13575" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13830" width="9.109375" style="23"/>
-    <col min="13831" max="13831" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="13834" max="14086" width="9.109375" style="23"/>
-    <col min="14087" max="14087" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14342" width="9.109375" style="23"/>
-    <col min="14343" max="14343" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14598" width="9.109375" style="23"/>
-    <col min="14599" max="14599" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14854" width="9.109375" style="23"/>
-    <col min="14855" max="14855" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="14858" max="15110" width="9.109375" style="23"/>
-    <col min="15111" max="15111" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15366" width="9.109375" style="23"/>
-    <col min="15367" max="15367" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15622" width="9.109375" style="23"/>
-    <col min="15623" max="15623" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15878" width="9.109375" style="23"/>
-    <col min="15879" max="15879" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="15882" max="16134" width="9.109375" style="23"/>
-    <col min="16135" max="16135" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="11.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16384" width="9.109375" style="23"/>
+    <col min="16" max="17" width="9.85546875" style="23" customWidth="1"/>
+    <col min="18" max="262" width="9.140625" style="23"/>
+    <col min="263" max="263" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="266" max="518" width="9.140625" style="23"/>
+    <col min="519" max="519" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="522" max="774" width="9.140625" style="23"/>
+    <col min="775" max="775" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="778" max="1030" width="9.140625" style="23"/>
+    <col min="1031" max="1031" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1286" width="9.140625" style="23"/>
+    <col min="1287" max="1287" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1542" width="9.140625" style="23"/>
+    <col min="1543" max="1543" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1798" width="9.140625" style="23"/>
+    <col min="1799" max="1799" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1802" max="2054" width="9.140625" style="23"/>
+    <col min="2055" max="2055" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2310" width="9.140625" style="23"/>
+    <col min="2311" max="2311" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2566" width="9.140625" style="23"/>
+    <col min="2567" max="2567" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2822" width="9.140625" style="23"/>
+    <col min="2823" max="2823" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2826" max="3078" width="9.140625" style="23"/>
+    <col min="3079" max="3079" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3334" width="9.140625" style="23"/>
+    <col min="3335" max="3335" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3590" width="9.140625" style="23"/>
+    <col min="3591" max="3591" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3846" width="9.140625" style="23"/>
+    <col min="3847" max="3847" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3850" max="4102" width="9.140625" style="23"/>
+    <col min="4103" max="4103" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4358" width="9.140625" style="23"/>
+    <col min="4359" max="4359" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4614" width="9.140625" style="23"/>
+    <col min="4615" max="4615" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4870" width="9.140625" style="23"/>
+    <col min="4871" max="4871" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4874" max="5126" width="9.140625" style="23"/>
+    <col min="5127" max="5127" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5382" width="9.140625" style="23"/>
+    <col min="5383" max="5383" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5638" width="9.140625" style="23"/>
+    <col min="5639" max="5639" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5894" width="9.140625" style="23"/>
+    <col min="5895" max="5895" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5898" max="6150" width="9.140625" style="23"/>
+    <col min="6151" max="6151" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6406" width="9.140625" style="23"/>
+    <col min="6407" max="6407" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6662" width="9.140625" style="23"/>
+    <col min="6663" max="6663" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6918" width="9.140625" style="23"/>
+    <col min="6919" max="6919" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6922" max="7174" width="9.140625" style="23"/>
+    <col min="7175" max="7175" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7430" width="9.140625" style="23"/>
+    <col min="7431" max="7431" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7686" width="9.140625" style="23"/>
+    <col min="7687" max="7687" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7942" width="9.140625" style="23"/>
+    <col min="7943" max="7943" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7946" max="8198" width="9.140625" style="23"/>
+    <col min="8199" max="8199" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8454" width="9.140625" style="23"/>
+    <col min="8455" max="8455" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8710" width="9.140625" style="23"/>
+    <col min="8711" max="8711" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8966" width="9.140625" style="23"/>
+    <col min="8967" max="8967" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8970" max="9222" width="9.140625" style="23"/>
+    <col min="9223" max="9223" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9478" width="9.140625" style="23"/>
+    <col min="9479" max="9479" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9734" width="9.140625" style="23"/>
+    <col min="9735" max="9735" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9990" width="9.140625" style="23"/>
+    <col min="9991" max="9991" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9994" max="10246" width="9.140625" style="23"/>
+    <col min="10247" max="10247" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10502" width="9.140625" style="23"/>
+    <col min="10503" max="10503" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10758" width="9.140625" style="23"/>
+    <col min="10759" max="10759" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10762" max="11014" width="9.140625" style="23"/>
+    <col min="11015" max="11015" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11270" width="9.140625" style="23"/>
+    <col min="11271" max="11271" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11526" width="9.140625" style="23"/>
+    <col min="11527" max="11527" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11782" width="9.140625" style="23"/>
+    <col min="11783" max="11783" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11786" max="12038" width="9.140625" style="23"/>
+    <col min="12039" max="12039" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12294" width="9.140625" style="23"/>
+    <col min="12295" max="12295" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12550" width="9.140625" style="23"/>
+    <col min="12551" max="12551" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12806" width="9.140625" style="23"/>
+    <col min="12807" max="12807" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12810" max="13062" width="9.140625" style="23"/>
+    <col min="13063" max="13063" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13318" width="9.140625" style="23"/>
+    <col min="13319" max="13319" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13574" width="9.140625" style="23"/>
+    <col min="13575" max="13575" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13830" width="9.140625" style="23"/>
+    <col min="13831" max="13831" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13834" max="14086" width="9.140625" style="23"/>
+    <col min="14087" max="14087" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14342" width="9.140625" style="23"/>
+    <col min="14343" max="14343" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14598" width="9.140625" style="23"/>
+    <col min="14599" max="14599" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14854" width="9.140625" style="23"/>
+    <col min="14855" max="14855" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14858" max="15110" width="9.140625" style="23"/>
+    <col min="15111" max="15111" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15366" width="9.140625" style="23"/>
+    <col min="15367" max="15367" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15622" width="9.140625" style="23"/>
+    <col min="15623" max="15623" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15878" width="9.140625" style="23"/>
+    <col min="15879" max="15879" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15882" max="16134" width="9.140625" style="23"/>
+    <col min="16135" max="16135" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="18">
+    <row r="1" spans="2:19" ht="18.75">
       <c r="B1" s="154" t="s">
         <v>224</v>
       </c>
@@ -31369,7 +31369,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="15" thickBot="1">
+    <row r="5" spans="2:19" ht="15.75" thickBot="1">
       <c r="B5" s="159" t="s">
         <v>211</v>
       </c>
@@ -31583,37 +31583,37 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="23"/>
-    <col min="2" max="2" width="12.5546875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="23" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="23" customWidth="1"/>
-    <col min="13" max="13" width="19.109375" style="23" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" style="23" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" style="23" customWidth="1"/>
-    <col min="16" max="22" width="9.109375" style="23"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="12.5703125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="23" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="23" customWidth="1"/>
+    <col min="16" max="22" width="9.140625" style="23"/>
     <col min="23" max="23" width="16" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.33203125" style="23" customWidth="1"/>
-    <col min="25" max="25" width="38.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="23"/>
+    <col min="24" max="24" width="19.28515625" style="23" customWidth="1"/>
+    <col min="25" max="25" width="38.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="18">
+    <row r="1" spans="2:20" ht="18.75">
       <c r="B1" s="3" t="s">
         <v>544</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="3" spans="2:20" ht="18">
+    <row r="3" spans="2:20" ht="18.75">
       <c r="G3" s="257" t="s">
         <v>557</v>
       </c>
@@ -31667,7 +31667,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="28.2" thickBot="1">
+    <row r="5" spans="2:20" ht="26.25" thickBot="1">
       <c r="C5" s="9" t="s">
         <v>515</v>
       </c>
@@ -32495,20 +32495,20 @@
       <c r="D24" s="246"/>
       <c r="E24" s="246"/>
       <c r="F24" s="247"/>
-      <c r="G24" s="466" t="s">
+      <c r="G24" s="469" t="s">
         <v>527</v>
       </c>
-      <c r="H24" s="466"/>
-      <c r="I24" s="466"/>
-      <c r="J24" s="467"/>
-      <c r="K24" s="468" t="s">
+      <c r="H24" s="469"/>
+      <c r="I24" s="469"/>
+      <c r="J24" s="470"/>
+      <c r="K24" s="471" t="s">
         <v>528</v>
       </c>
-      <c r="L24" s="469"/>
-      <c r="M24" s="470" t="s">
+      <c r="L24" s="472"/>
+      <c r="M24" s="473" t="s">
         <v>529</v>
       </c>
-      <c r="N24" s="469"/>
+      <c r="N24" s="472"/>
       <c r="S24"/>
     </row>
     <row r="25" spans="3:21">
@@ -33151,20 +33151,20 @@
       <c r="D42" s="246"/>
       <c r="E42" s="246"/>
       <c r="F42" s="247"/>
-      <c r="G42" s="466" t="s">
+      <c r="G42" s="469" t="s">
         <v>527</v>
       </c>
-      <c r="H42" s="466"/>
-      <c r="I42" s="466"/>
-      <c r="J42" s="467"/>
-      <c r="K42" s="468" t="s">
+      <c r="H42" s="469"/>
+      <c r="I42" s="469"/>
+      <c r="J42" s="470"/>
+      <c r="K42" s="471" t="s">
         <v>528</v>
       </c>
-      <c r="L42" s="469"/>
-      <c r="M42" s="470" t="s">
+      <c r="L42" s="472"/>
+      <c r="M42" s="473" t="s">
         <v>555</v>
       </c>
-      <c r="N42" s="469"/>
+      <c r="N42" s="472"/>
       <c r="O42"/>
     </row>
     <row r="43" spans="3:20">
@@ -33981,20 +33981,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A665F926-DECD-4DB2-B495-3F9BFC1DFD4C}">
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
@@ -34010,7 +34010,7 @@
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
     </row>
-    <row r="3" spans="2:10" ht="15" thickBot="1">
+    <row r="3" spans="2:10" ht="15.75" thickBot="1">
       <c r="B3" s="166" t="s">
         <v>1</v>
       </c>
@@ -34039,7 +34039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="55.2">
+    <row r="4" spans="2:10" ht="51">
       <c r="B4" s="172" t="s">
         <v>133</v>
       </c>
@@ -34096,7 +34096,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:10" ht="15" thickBot="1">
+    <row r="10" spans="2:10" ht="15.75" thickBot="1">
       <c r="B10" s="166" t="s">
         <v>513</v>
       </c>
@@ -34114,6 +34114,12 @@
       </c>
       <c r="G10" s="166" t="s">
         <v>631</v>
+      </c>
+      <c r="H10" s="483" t="s">
+        <v>664</v>
+      </c>
+      <c r="I10" s="483" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -34154,6 +34160,12 @@
       </c>
       <c r="G12" s="440">
         <v>1E-4</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -34199,6 +34211,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -34344,22 +34371,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F32A5943-069C-47E6-B7B1-1C4E8CC11B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34375,28 +34411,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>